--- a/data/6-performance/combined_data_new.xlsx
+++ b/data/6-performance/combined_data_new.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\UKHSA-Capstone\data\6-performance\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C44AFE-D14D-4764-82B5-76E2A581DC03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="314">
   <si>
     <t>country</t>
   </si>
@@ -52,6 +46,24 @@
     <t>bangladesh</t>
   </si>
   <si>
+    <t>canada</t>
+  </si>
+  <si>
+    <t>chile</t>
+  </si>
+  <si>
+    <t>netherlands</t>
+  </si>
+  <si>
+    <t>norway</t>
+  </si>
+  <si>
+    <t>oman</t>
+  </si>
+  <si>
+    <t>sweden</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -172,6 +184,351 @@
     <t>['Antimicrobial Resistance Containment addresses the challenges of antimicrobial resistance to slow the emergence and reduce the spread of antimicrobial-resistant microorganisms through reducing the disease burden and the spread of infection, improving access to appropriate antimicrobials, improving rational use of antimicrobials, strengthening health systems and their surveillance capabilities, enforcing regulations and legislation and encouraging the development of appropriate new drugs and vaccine', '(ii) to prohibit the dispensing of antimicrobials without the prescription of a qualified health care professional, (iv) to strengthen legislation to prevent the manufacture, sale and distribution of counterfeit antimicrobials and the sale of antimicrobials on the informal market', 'The other important areas in the Jaipur Declaration includes development of national antibiotic policy and formulation of multisectoral national alliance against AMR for multisectoral approach for regulation of use of antimicrobial agents, promotion of behavioural change in prescribers and communities for rational use of antimicrobial agents.', 'To promote and ensure rational use of antimicrobial agents in human health, livestock and fisheries sectors;', 'g. Enforce and enhance regulatory provisions for use AMs;']</t>
   </si>
   <si>
+    <t>['Over the course of this action plan, federal, provincial and territorial governments will work together and with Indigenous Peoples and partners across multiple sectors to implement ten shared priority actions.', 'An effective response to AMR requires joint One Health action across sectors and jurisdictions, both in Canada and globally.', 'There is global consensus that AMR must be addressed by adopting a One Health approach. This approach means that actions to limit the emergence and spread of AMR must consider each sector and the close interplay between humans, animals, crops, and their shared environment.', 'This section outlines the rationale for a collaborative One Health approach across jurisdictions and sectors to address AMR.', 'The growing urgency for action on AMR is also recognized as 1 of 6 priorities in the One Health Joint Plan of Action (10) launched in October 2022 by the Quadripartite - the Food and Agriculture Organization of the United Nations (FAO), the United Nations Environment Programme (UNEP), the World Health Organization (WHO), and the WOAH.', 'Canada is committed to coordinated multisectoral action using a One Health approach to mitigate the continued spread of AMR, preserve the effectiveness of antimicrobials, and protect the health of people, animals, and their shared environment.', 'Antimicrobials are essential to keep animals healthy and to help maintain a safe and secure food supply. Some antimicrobials used in veterinary medicine are considered important in human medicine.', 'The action plan will also help drive forward strengthened collaboration with the environmental sector in pursuit of a comprehensive One Health approach to AMR.', 'One Health - actions recognize and consider each sector and the interplay between human health, animal health and their shared environment', 'Develop a One Health, national research strategy for combating AMR across all action plan pillars.', 'For example, research into new methodologies and strategies can support the earlier detection and containment of antimicrobial-resistant organisms across One Health sectors.', 'The Antimicrobial Resistance Network (AMRNet) is a data-driven One Health approach to AMR surveillance. The laboratory-based system captures information on antimicrobial susceptibility testing from clinical and veterinary laboratories. AMRNet will allow Canada to better detect the emergence and spread of AMR between sectors, to integrate AMR data across humans and animals.', 'Efforts to expand surveillance data across One Health sectors will help bolster the evidence base for developing baselines, targets and/or other measures of progress.', 'AMS programs in human health, animal health and agriculture should reflect, where possible, known disparities in prescribing patterns, inappropriate, misuse or overuse, as well as local-level AMR trends.', 'To increase the understanding and application of stewardship principles among prescribers and other health professionals, AMR and AMU should consistently be made a core component of professional education, training and ongoing development in the human health and veterinary sectors and in agriculture and agri-food practices.', 'Efforts to address AMR and inappropriate AMU in agriculture and agri-food, such as through enhanced housing, management and improved biosecurity and IPC systems, can therefore support the health of both animals and humans by addressing the conditions that lead to disease spread.', 'The Pan-Canadian Action Plan is implemented through coordinated, multi-sectoral domestic action', "To strengthen a pan-Canadian One Health approach on AMR, a new 'network of networks' governance approach will enable partners committed to the shared agenda in the action plan to contribute to concrete activities in support of implementation.", 'The action plan is designed to encourage jurisdictions, sectors, and disciplines across Canada to easily identify how and where they can best contribute to collective efforts to address AMR and inappropriate AMU within their unique contexts and for their specific stakeholders.', 'The federal role in AMR includes promoting human and animal health; national surveillance of AMR and AMU; ensuring the safety of the Canadian food supply through policy development, surveillance, inspection, and import control; and by setting biosecurity standards.', "Canada's One Health approach to AMR will be improved via a greater understanding of the roles of partners working in the environment sector", "One of the action plan's 10 priority actions is to build on existing One Health AMR governance in support of action plan implementation.", 'this One Health action plan provides a 5-year roadmap for increased, meaningful and impactful action to address AMR.', 'These structures helped ensure the action plan was developed in collaboration with the public health, healthcare, animal health, agriculture and agri-food sectors to enable collaborative and cohesive action on AMR']</t>
+  </si>
+  <si>
+    <t>['Canada is committed to coordinated multisectoral action using a One Health approach to mitigate the continued spread of AMR, preserve the effectiveness of antimicrobials, and protect the health of people, animals, and their shared environment.', 'These data and others demonstrate the critical need for strengthened stewardship practices in human health.', 'Research and innovation are critical for improving our understanding of AMR in different settings (including healthcare systems, agriculture and agri-food systems and the environment), establishing effective population-level interventions (such as legislation, policies, guidelines and educational approaches to stewardship and IPC), and stimulating the discovery of new antimicrobials, diagnostics, and alternatives to antimicrobials (for example, vaccines, adjuvants, phage therapy, and probiotics) in human and animal health.', 'New investments, market incentive models (for example, new approaches to valuation/reimbursement), and collaborative approaches to research and innovation will help ensure sustainable development and access to new and existing antimicrobials, diagnostics and alternatives to antimicrobials in both human and veterinary medicine.', 'Develop a One Health, national research strategy for combating AMR across all action plan pillars.', "Investments committed through the Government of Canada's Budget 2021 have helped to address gaps in the human health, animal health and agri-food sectors, however there continues to be areas for improvement.", 'establish baselines and targets for national, provincial and territorial levels of AMR and appropriate AMU in human health', 'Develop, implement and promote guidelines/standards for appropriate AMU in humans and animals through policy and regulatory initiatives, monitoring and educational interventions/ accreditation requirements for health professionals and prescribers.', 'To increase the understanding and application of stewardship principles among prescribers and other health professionals, AMR and AMU should consistently be made a core component of professional education, training and ongoing development in the human health and veterinary sectors and in agriculture and agri-food practices.', 'In healthcare settings, IPC measures can prevent and/ or mitigate the risk of healthcare-associated infections (HAI) caused by antimicrobial-resistant pathogens.', 'Increase effective implementation of infection prevention measures, particularly for populations disproportionately impacted by AMR such as remote, northern and isolated communities, First Nations, Inuit and Métis populations, long-term care residents, and hospitalized patients by developing, updating and promoting uptake of guidelines/best practices for human health.', 'The federal role in AMR includes promoting human and animal health; national surveillance of AMR and AMU; liaising with international organizations; delivering healthcare services to some populations (for example, on-reserve First Nations communities); supporting AMR awareness and education, including federally-employed healthcare providers and their patients; facilitating research and innovation to understand AMR and find new treatment options and tools; ensuring the safety, efficacy and quality of products to treat, prevent and detect infection through the regulatory review and approval of antimicrobial drugs, vaccines, diagnostic tests and alternatives to antimicrobials for human and animal use; establishing policies, standards and guidance on human and animal health.', 'Human and animal health professionals diagnose infections, and prescribe and dispense medications; contribute to surveillance; educate patients and owners of animals; and establish IPC programs, including biosecurity']</t>
+  </si>
+  <si>
+    <t>["Antimicrobials also help protect animal health and welfare, and play a critical role in Canada's agriculture and food production systems.", 'Antimicrobials are essential to keep animals healthy and to help maintain a safe and secure food supply.', 'Advancements have been made to keep animals healthy and reduce the use of MIAs through, for example, federal initiatives to improve access to antimicrobial alternatives. There have also been sector-specific initiatives to eliminate the preventive use of third generation cephalosporins (and other antimicrobial classes in some cases).', 'Research and innovation are critical for improving our understanding of AMR in different settings (including healthcare systems, agriculture and agri-food systems and the environment), establishing effective population-level interventions (such as legislation, policies, guidelines and educational approaches to stewardship and IPC), and stimulating the discovery of new antimicrobials, diagnostics, and alternatives to antimicrobials (for example, vaccines, adjuvants, phage therapy, and probiotics) in human and animal health.', 'This includes improving access to veterinary biologics, such as vaccines, for use in animals. Improved access to effective veterinary biologics and other nonantimicrobial options are important additional tools for producers to keep animals healthy, reducing the need to use antimicrobials.', 'The Antimicrobial Resistance Network (AMRNet) is a data-driven One Health approach to AMR surveillance. The laboratory-based system captures information on antimicrobial susceptibility testing from clinical and veterinary laboratories. AMRNet will allow Canada to better detect the emergence and spread of AMR between sectors, to integrate AMR data across humans and animals.', 'establish baselines, goals and measures of progress for increasing appropriate AMU and reducing AMR in the agriculture and agri-food sectors', 'In companion and food-producing animals, it is important to promote appropriate AMU to preserve the effectiveness of existing antimicrobials against potential diseases and disease outbreaks.', 'Health Canada introduced multiple regulatory and policy changes to strengthen the oversight and responsible use of MIAs in animals.', 'Desired outcome 2: Improved animal health and food safety along the farm-to-fork continuum to prevent and limit the spread of infection and foodborne pathogens', 'The federal role in AMR includes promoting human and animal health; national surveillance of AMR and AMU; ... ensuring the safety, efficacy and quality of products to treat, prevent and detect infection through the regulatory review and approval of antimicrobial drugs, vaccines, diagnostic tests and alternatives to antimicrobials for human and animal use; establishing policies, standards and guidance on human and animal health;', 'The agriculture and agri-food industries advance appropriate AMU, promote IPC and good animal management practices, and establish some control programs in farmed animal production to protect the health of animals and to preserve the quality of the food supply.', 'These structures helped ensure the action plan was developed in collaboration with the public health, healthcare, animal health, agriculture and agri-food sectors to enable collaborative and cohesive action on AMR']</t>
+  </si>
+  <si>
+    <t>['Action related to AMR and the environment is an increasing area of priority. Efforts within the human and animal health spheres have often taken precedence. Going forward, it will be important to work more closely with the environment sector to identify and mitigate AMR reservoirs and pathways for the transmission of medically-significant drug-resistant organisms through soil, water, flora, and fauna.', 'Research and innovation are critical for improving our understanding of AMR in different settings (including healthcare systems, agriculture and agri-food systems and the environment)', 'with specific focus on improving data from the environment; transmission pathways between sectors; and population groups disproportionately impacted by AMR and inappropriate AMU.', 'The environment sector (for example, wastewater treatment facilities, water use management professionals) conduct water quality monitoring, water use management, and wastewater treatment, and support monitoring and surveillance activities to identify AMR and AMU trends in marine sediments and the environment.']</t>
+  </si>
+  <si>
+    <t>['Effective antimicrobials are also critical for animal health. In addition to pet owners, farmers often use antimicrobials to care for animals or support the health of plants and crops. As a result, action to reduce AMR and preserve antimicrobial effectiveness helps to minimize an economic threat to the agriculture industry and maintain food security.', "Antimicrobials also help protect animal health and welfare, and play a critical role in Canada's agriculture and food production systems. Increasing AMR can impact the health of food-animals and lead to reduced productivity and food safety concerns.", 'Antimicrobials are essential to keep animals healthy and to help maintain a safe and secure food supply.', 'Advancements have been made to keep animals healthy and reduce the use of MIAs through, for example, federal initiatives to improve access to antimicrobial alternatives. There have also been sector-specific initiatives to eliminate the preventive use of third generation cephalosporins (and other antimicrobial classes in some cases).', 'Research and innovation are critical for improving our understanding of AMR in different settings (including healthcare systems, agriculture and agri-food systems and the environment)', 'This includes improving access to veterinary biologics, such as vaccines, for use in animals. Improved access to effective veterinary biologics and other nonantimicrobial options are important additional tools for producers to keep animals healthy, reducing the need to use antimicrobials.', 'Agriculture and Agri-Food Canada (AAFC) is supporting research to accelerate innovation in the agriculture and agri-food sector through the AgriScience program.', 'establish baselines, goals and measures of progress for increasing appropriate AMU and reducing AMR in the agriculture and agri-food sectors', 'For food-producing animals specifically, preserving antimicrobial effectiveness and mitigating AMR is important to help maintain food safety and security.', 'To increase the understanding and application of stewardship principles among prescribers and other health professionals, AMR and AMU should consistently be made a core component of professional education, training and ongoing development in the human health and veterinary sectors and in agriculture and agri-food practices.', 'Support the increased implementation of enhanced IPC, biosecurity, and food safety protocols across the agriculture and agri-food sectors, prioritizing sound animal husbandry, access to veterinary care, and access to additional health and nutritional aids to promote animal health.', 'The agriculture and agri-food industries advance appropriate AMU, promote IPC and good animal management practices, and establish some control programs in farmed animal production to protect the health of animals and to preserve the quality of the food supply.', 'These structures helped ensure the action plan was developed in collaboration with the public health, healthcare, animal health, agriculture and agri-food sectors to enable collaborative and cohesive action on AMR']</t>
+  </si>
+  <si>
+    <t>['Moving forward, progress made against the 10 priority actions will be monitored and reported publicly.', 'PHAC will work with jurisdictional partners and other stakeholders, as appropriate, to develop and implement an approach for monitoring and reporting on progress. Regular public reporting on progress will help partners adjust interventions over time and ensure best practices are shared with domestic and international stakeholders.']</t>
+  </si>
+  <si>
+    <t>["The action plan establishes FPT commitments on AMR over the next 5 years (2023 to 2027). Ten priority actions will guide Canada's multi-sectoral and multi-jurisdictional efforts across 5 pillars: research and innovation; surveillance; stewardship; infection prevention and control (IPC); and leadership.", 'establish baselines and targets for national, provincial and territorial levels of AMR and appropriate AMU in human health']</t>
+  </si>
+  <si>
+    <t>['establish baselines and targets for national, provincial and territorial levels of AMR and appropriate AMU in human health']</t>
+  </si>
+  <si>
+    <t>['In 2016 CIHR established the AMR Research Initiative, which provides $1.8 million in annual grant funds.', "Investments committed through the Government of Canada's Budget 2021 have helped to address gaps in the human health, animal health and agri-food sectors, however there continues to be areas for improvement.", 'Canada has invested $2.2 million in the tool to continue its digital innovation and reach more providers and patients.', 'Canada has joined international partners with a $300,000 contribution to help address the burden of infectious diseases and AMR in LMICs and increase global AMR preparedness.']</t>
+  </si>
+  <si>
+    <t>['The action plan would not have been possible without the dedication of the FPT Steering Committee, which consisted of government representatives from the public health, human and animal health, agriculture, and agri-food sectors.', "The action plan establishes FPT commitments on AMR over the next 5 years (2023 to 2027). Ten priority actions will guide Canada's multi-sectoral and multi-jurisdictional efforts across 5 pillars: research and innovation; surveillance; stewardship; infection prevention and control (IPC); and leadership.", 'Canada is committed to coordinated multisectoral action using a One Health approach to mitigate the continued spread of AMR.', "In 2021, the PHAC established a dedicated Task Force on AMR. One of the Task Force's priorities was resuming the work to update and finalize the action plan with FPT partners, including re-establishing the FPT AMR Steering Committee to guide the completion of the action plan.", "Build on existing One Health AMR governance structures to create a 'network of networks' with inclusive representation to support action plan implementation and share progress and lessons learned within and across the 5 pillars of action, prioritizing strengthened FPT, First Nations, Inuit and Métis collaboration to co-develop AMR actions.", "FPT governments will collaborate on the design and implementation of the 'network of networks' model. This includes identifying the coordination and enabling activities required to support partners in action implementation.", 'The PHAC AMR Task Force will work closely with the FPT AMR Steering Committee, First Nations, Inuit and Métis partners, and other partners across sectors to develop an effective network of networks approach for supporting the successful implementation of the action plan.', 'An FPT AMR Steering Committee led the development of the action plan and guided the work of 4 task groups covering the areas of surveillance, stewardship, IPC, and research and innovation.', 'The main components include: FPT AMR Steering Committee: Comprised of senior level FPT policy representatives from the public health, healthcare, animal health, agriculture and agri-food sectors, the steering committee led the development of the action plan and guided the work of the task groups']</t>
+  </si>
+  <si>
+    <t>['These AMU trends coincided with the implementation of veterinary drug regulatory changes and policy interventions in 2017 to 2018, which included making MIAs available by prescription only and removing growth promotion claims from all MIAs.', 'establishing effective population-level interventions (such as legislation, policies, guidelines and educational approaches to stewardship and IPC)', 'Develop, implement and promote guidelines/standards for appropriate AMU in humans and animals through policy and regulatory initiatives, monitoring and educational interventions/ accreditation requirements for health professionals and prescribers.', 'In 2017 to 2018, Health Canada introduced multiple regulatory and policy changes to strengthen the oversight and responsible use of MIAs in animals.', 'ensuring the safety, efficacy and quality of products to treat, prevent and detect infection through the regulatory review and approval of antimicrobial drugs, vaccines, diagnostic tests and alternatives to antimicrobials for human and animal use; establishing policies, standards and guidance on human and animal health; establishing and implementing relevant provincial/ territorial regulations for the distribution, dispensing and use of antimicrobials in veterinary medicine']</t>
+  </si>
+  <si>
+    <t>['To increase the understanding and application of stewardship principles among prescribers and other health professionals, AMR and AMU should consistently be made a core component of professional education, training and ongoing development in the human health and veterinary sectors and in agriculture and agri-food practices.', 'The federal role in AMR includes...supporting AMR awareness and education, including federally-employed healthcare providers and their patients;', 'Educational institutions develop and/or administer curricula regarding AMR and AMU for health professionals and other allied professionals involved in the care of humans and animals; and for elementary, secondary and post-secondary students.', 'Educational institutions develop and/or administer curricula regarding AMR and AMU for health professionals and other allied professionals involved in the care of humans and animals; and for elementary, secondary and post-secondary students.']</t>
+  </si>
+  <si>
+    <t>['Foster understanding of the risks of AMR and the importance of appropriate use of antimicrobials in humans and animals amongst the public, patients and producers through awareness/ education campaigns, feedback mechanisms and policy and regulatory initiatives.', 'These findings highlight the need for targeted initiatives to increase public awareness and understanding of AMR. Clear messaging can raise awareness about how to manage common infections, when to access medical and veterinary care, and how to use antimicrobials appropriately.', 'Additional tools that could support improved animal health and food safety include public education campaigns, highlighting the potential risk of foodborne pathogens, and sharing research information or best practices on reducing antimicrobial-resistant organisms during food processing.', 'supporting AMR awareness and education, including federally-employed healthcare providers and their patients; education and raising awareness regarding appropriate AMU', 'Non-governmental organizations take action in the human and animal health, agriculture and agrifood sectors to advance AMR issues (for example, collect information on AMR and AMU, deliver education and awareness programs, address sector specific issues)', "Understanding Canadians' Knowledge, Attitudes, and Practices Related to Antimicrobial Resistance and Antibiotic Use: Results from Public Opinion research 2019-2022."]</t>
+  </si>
+  <si>
+    <t>['An effective response to AMR requires joint One Health action across sectors and jurisdictions, both in Canada and globally.', 'The growing threat of AMR has been met by several international calls to action and commitments. Both G7 and G20 fora have called upon member countries to commit to increased and coordinated action on AMR, including in areas such as research and development, stewardship and surveillance. The growing urgency for action on AMR is also recognized as 1 of 6 priorities in the One Health Joint Plan of Action launched in October 2022 by the Quadripartite - the Food and Agriculture Organization of the United Nations (FAO), the United Nations Environment Programme (UNEP), the World Health Organization (WHO), and the WOAH.', 'Collaboration (domestic &amp; international) - no one entity or order of government can effectively address AMR alone. Coordination across jurisdictions, sectors, partners and the public is essential to effectively address AMR', 'Canada, in close collaboration with international partners, must continue to strengthen its multidisciplinary research and innovation on AMR to support mitigation efforts and help secure access to antimicrobials and other health-related products.', "Canada's approach to supporting innovation and access will be informed by external expert advice and engagement with countries and international organizations who have implemented similar approaches.", "AMRNet will allow Canada to better detect the emergence and spread of AMR between sectors, to integrate AMR data across humans and animals, and to provide rich data to the WHO's Global Antimicrobial Resistance and Use Surveillance System.", 'Global attention is turning to similar monitoring approaches. Many countries currently have established, or are planning to establish baselines, performance indicators and targets for infection incidence rates and AMU in humans and animals. In 2022, G7 countries agreed to establish national measurable targets on AMR, as well as AMU in human health, by the end of 2023 ( 33 ). The approach to goals and targets in Canada will be informed by both the domestic context and by the international experiences of others.', 'Vancouver-based start-up Firstline is working with the WHO to connect frontline health providers with clinical decision-making and prescribing support at point of care.', 'The complex challenge of AMR demands action at both domestic and international levels. AMR organisms do not respect national borders. Limited access to appropriate antimicrobials, vaccines and other medical countermeasures in one region can accelerate the global spread of disease and AMR, and cause illnesses and deaths that could otherwise have been prevented. Similarly, the overuse or inappropriate use of antimicrobials in one area can lead to their reduced effectiveness worldwide. Joint action by all countries is required to slow the spread of AMR and preserve the effectiveness of our life-saving antimicrobials.', 'Canada will continue to play a leadership role in key international fora such as the Global AMR Research and Development Hub, and work with international partners to advance domestic priorities and global commitments on AMR.', 'Canada will continue to promote a focus on equity in key fora, such as the G20, and work with international partners to support LMIC AMR response capacity through initiatives such as SECURE, jointly led by the Global Antibiotic Research &amp; Development Partnership and the WHO.', 'The federal role in AMR includes promoting human and animal health; national surveillance of AMR and AMU; liaising with international organizations;']</t>
+  </si>
+  <si>
+    <t>["Canada's surveillance systems provide a growing understanding of AMR and antimicrobial use (AMU) trends in human and animal health sectors.", 'For example, progress in implementing the surveillance pillar will be integral for informing parallel action in stewardship and IPC.', "Surveillance underpins Canada's ability to detect, understand and take necessary action to respond to emerging public health threats. Surveillance is closely linked to other pillars such as, research and innovation, stewardship, and IPC, as it supports and informs actions, reveals trends and gaps, and helps measure the effect of interventions.", 'Expand sources, coverage and integration of AMR and AMU surveillance data, including the use of modern laboratory technologies and standardized reporting, to help monitor AMR/ AMU across One Health sectors...', 'Efforts to expand surveillance data across One Health sectors will help bolster the evidence base for developing baselines, targets and/or other measures of progress.', 'Improved sources, access and integration of AMR and AMU surveillance data, clinical research focused on defining appropriate use, and greater collaboration between partners is required to achieve consensus on this important issue.', 'This will require close collaboration with health system partners and with surveillance system programs such as the Canadian Nosocomial Infection Surveillance Program.', "Action: Increase Canada's contributions to global efforts to advance key bilateral and multilateral commitments by prioritizing: - 1. generating improved data/ evidence on AMR/AMU and strengthening surveillance systems and data standards", 'The federal role in AMR includes national surveillance of AMR and AMU; facilitating research and innovation to understand AMR and find new treatment options and tools; managing surveillance systems for monitoring the prevention and control of diseases; and undertaking surveillance in healthcare settings.', 'Non-governmental organizations take action in the human and animal health, agriculture and agrifood sectors to advance AMR issues (for example, collect information on AMR and AMU, deliver education and awareness programs, address sector specific issues)', 'Several sources of data can support monitoring efforts. Program and policy implementation milestones, AMR and AMU surveillance metrics, and/or stakeholder feedback, among others, can together provide a window into the implementation progress of each of the 10 priority actions over the 5 years of this action plan.']</t>
+  </si>
+  <si>
+    <t>["AMRNet will allow Canada to better detect the emergence and spread of AMR between sectors, to integrate AMR data across humans and animals, and to provide rich data to the WHO's Global Antimicrobial Resistance and Use Surveillance System.", 'Mitigating this risk requires coordinated global action to detect, prevent and respond to emerging AMR threats across One Health sectors.']</t>
+  </si>
+  <si>
+    <t>["The action plan establishes FPT commitments on AMR over the next 5 years (2023 to 2027). Ten priority actions will guide Canada's multi-sectoral and multi-jurisdictional efforts across 5 pillars: research and innovation; surveillance; stewardship; infection prevention and control (IPC); and leadership.", 'The framework introduced 4 core components of an AMR response in Canada (surveillance, IPC, stewardship, and research and innovation)', 'establishing effective population-level interventions (such as legislation, policies, guidelines and educational approaches to stewardship and IPC)', 'It will also help build a program of work that responds to specific stakeholder needs across action plan pillars, including stewardship, IPC and surveillance.', 'Additional research will also help identify innovative approaches to improve IPC, biosecurity and livestock management practices in agricultural settings, and IPC practices in healthcare and community settings.', 'In healthcare settings, IPC measures can prevent and/ or mitigate the risk of healthcare-associated infections (HAI) caused by antimicrobial-resistant pathogens.', 'Canada has infection prevention programs in place across community and institutional health sectors, including for populations disproportionately impacted by AMR. Increase effective implementation of infection prevention measures, particularly for populations disproportionately impacted by AMR such as remote, northern and isolated communities, First Nations, Inuit and Métis populations, long-term care residents, and hospitalized patients by developing, updating and promoting uptake of guidelines/best practices for human health.', 'Support the increased implementation of enhanced IPC, biosecurity, and food safety protocols across the agriculture and agri-food sectors, prioritizing sound animal husbandry, access to veterinary care, and access to additional health and nutritional aids to promote animal health.', 'Championing equity-based global AMR action includes prioritizing improved antimicrobial access, stewardship and IPC initiatives for LMICs.', 'setting IPC measures; and undertaking surveillance in healthcare settings.', 'Individual healthcare settings (for example, hospitals, community practices, long-term care facilities, and veterinary clinics and hospitals) implement IPC measures, promote appropriate AMU, and perform surveillance.', 'Members of the public protect themselves and others from infections and have a responsibility to use antimicrobials as recommended. Individual members of society - both in their professional capacities as doctors, nurses, dentists, pharmacists, health support workers, daycare workers, veterinarians, farmers, and countless other professions, and as members of the public - have tremendous potential to halt the spread of AMR by remaining informed, practising good infection prevention measures, and committing to appropriate AMU in their immediate spheres of influence.']</t>
+  </si>
+  <si>
+    <t>['Canada contributes technical advice and leadership to the development of international surveillance standards and guidelines (for example, the Codex Alimentarius Guidelines on integrated monitoring and surveillance of foodborne antimicrobial resistance).']</t>
+  </si>
+  <si>
+    <t>['These AMU trends coincided with the implementation of veterinary drug regulatory changes and policy interventions in 2017 to 2018, which included making MIAs available by prescription only and removing growth promotion claims from all MIAs.', 'Develop, implement and promote guidelines/standards for appropriate AMU in humans and animals through policy and regulatory initiatives, monitoring and educational interventions/ accreditation requirements for health professionals and prescribers.', 'These included improved oversight on importation, requiring mandatory sales reporting, making these antimicrobials available by prescription only, phasing out their use for growth promotion purposes and adding prudent use statements on their labels.', 'establishing and implementing relevant provincial/ territorial regulations for the distribution, dispensing and use of antimicrobials in veterinary medicine']</t>
+  </si>
+  <si>
+    <t>['These AMU trends coincided with the implementation of veterinary drug regulatory changes and policy interventions in 2017 to 2018, which included making MIAs available by prescription only and removing growth promotion claims from all MIAs.', 'establishing effective population-level interventions (such as legislation, policies, guidelines and educational approaches to stewardship and IPC)', 'Antimicrobial stewardship (AMS) is a systemwide approach that recognizes the role of patients, prescribers, producers and the public in promoting appropriate AMU.', 'Develop, implement and promote guidelines/standards for appropriate AMU in humans and animals through policy and regulatory initiatives, monitoring and educational interventions/ accreditation requirements for health professionals and prescribers.', 'These included improved oversight on importation, requiring mandatory sales reporting, making these antimicrobials available by prescription only, phasing out their use for growth promotion purposes and adding prudent use statements on their labels.', 'establishing and implementing relevant provincial/ territorial regulations for the distribution, dispensing and use of antimicrobials in veterinary medicine']</t>
+  </si>
+  <si>
+    <t>['Research and innovation are critical for improving our understanding of AMR in different settings... and stimulating the discovery of new antimicrobials, diagnostics, and alternatives to antimicrobials (for example, vaccines, adjuvants, phage therapy, and probiotics) in human and animal health.', 'Canada, in close collaboration with international partners, must continue to strengthen its multidisciplinary research and innovation on AMR to support mitigation efforts and help secure access to antimicrobials and other health-related products.', 'This funding is in addition to investigator-initiated research projects funded through open competitions, along with funds to support international partnerships and research on AMR.', 'Canada will continue to play a leadership role in key international fora such as the Global AMR Research and Development Hub, and work with international partners to advance domestic priorities and global commitments on AMR.', 'Canada is also a longstanding contributor to the Joint-Programming Initiative on AMR, an international One Health research platform that has been at the forefront of the creation of a global virtual network of researchers, facilities and infrastructure of cross-cutting AMR priorities.', 'facilitating research and innovation to understand AMR and find new treatment options and tools', 'Life sciences firms and the pharmaceutical industry undertake research and development in antimicrobials, diagnostics and alternatives to antimicrobials, including vaccines, or partner with academia to facilitate the commercialization of research innovations']</t>
+  </si>
+  <si>
+    <t>['El grupo coordinador del Plan Nacional contra la Resistencia a los Antimicrobianos de Chile está formado por integrantes de distintos Ministerios del país, quienes representan los puntos focales para el plan en sus propias instituciones y que conforman el grupo interministerial de coordinación del Plan Nacional.', '111. Prevenir y controlar las infecciones asociadas a salud humana y a sanidad vegetal y animal', 'IV.2. Fortalecer los instrumentos regulatorios para disminuir el uso de antimicrobianos en animales de producción. IV.4. Regular el uso de antimicrobianos en agricultura.', 'Chile enfrentó el desafío de implementar un Plan Nacional contra la Resistencia a los Antimicrobianos con enfoque de Una Salud a partir del 2017, formulando un Plan Nacional intersectorial que estableció compromisos interministeriales para avanzar en los lineamientos estratégicos establecidos.', 'Los antimicrobianos son claves, ya sea para el tratamiento de enfermedades en humanos como en animales y vegetales -los que representan parte importante de los recursos silvoagropecuarios de nuestro país-, razón por la que el Ministerio de Agricultura y sus servicios apoyan constantemente a los productores en el uso prudente, juicioso y responsable de los antibióticos, con el objetivo de mantener los estándares de calidad que nos posicionan como líderes a nivel mundial.', "Resulta imperativo conocer las repercusiones de estas diversas interacciones con el medio ambiente y la biodiversidad, los reservorios patógenos que pueden ser los causantes de futuras pandemias originadas mediante zoonosis, previniendo la generación de la Resistencia Antimicrobiana a tiempo y promoviendo el enfoque de 'Una Salud'.", 'El mal uso y el abuso de antimicrobianos, como los antibióticos, han favorecido su resistencia y están poniendo en jaque ámbitos que ya creíamos resueltos. Por ejemplo, la administración excesiva o el mal uso de antibióticos en animales de compañía y los posibles traspasos de enfermedades a la población por contacto estrecho o la contaminación de suelos y agua; la incorporación masiva en el sector agrícola, especialmente en la extinción de plagas con pesticidas y control de microbios en la industria cámica; o el uso intensivo de sustancias farmacológicas en el desarrollo de especies acuícolas para el consumo humano.', "La RAM, por lo tanto, es un problema complejo que requiere de un enfoque multisectorial para su abordaje. Esta estrategia es el llamado enfoque de 'Una Salud', que significa la puesta en marcha de programas y politicas colaborativas e integradas entre los distintos sectores involucrados que permitan mejores resultados, en una visión de que lo que hacemos en un sector afecta a los demás, y que el trabajo conjunto es lo que se requiere para abordar estas problemáticas.", 'El nuevo Plan Nacional contra la Resistencia a los Antimicrobianos ha sido diseñado para el período 2021 a 2025 y ha sumado nuevos Ministerios al trabajo conjunto. Es así como al Ministerio de Salud, Ministerio de Economía a través del Servicio Nacional de Pesca y Acuicultura y Ministerio de Agricultura, se han sumado los Ministerios de Educación, Ministerio de Medio Ambiente y Ministerio de Ciencias, Tecnología, Conocimiento e Innovación, lo que permitirá ampliar el rango de las acciones contempladas hacia sectores que no fueron abordados en el primer plan.', 'Diversas campañas comunicacionales del Servicio Agrícola y Ganadero (SAG), del Servicio Nacional de Pesca y Acuicultura (SERNAPESCA), de la Agencia Chilena para la Inocuidad y la Calidad Alimentaria (ACHIPIA) y del Ministerio de Salud (MINSAD fueron desplegadas cada añoa través de diversos medios de comunicación, con el objetivo de informar a la población general, a los productores y a los prescriptores sobre la importancia del uso responsable y prudente de los antibióticos.', "Chile cuenta en la actualidad con una institucionalidad más robusta y en permanente proceso de integración para el abordaje de la RAM bajo el principio 'Una salud', que promueve el enfoque interdisciplinario e integrado de los problemas que afectan la salud pública.", 'Durante los últimos años destacó el trabajo realizado por el Servicio Agrícola y Ganadero (SAG) en atención a la recomendación de la OIE a los países miembros de recabar información cuantitativa respecto de la venta de antimicrobianos, que permita establecer patrones de utilización. Así, durante 2017 se aprueba la norma que establece los requisitos para la venta de antimicrobianos de uso veterinario en Chile.', 'En el año 2019 se estableció la primera mesa de trabajo intersectorial para enfrentar la resistencia bacteriana en pequeños animales. La instancia está conformada por varios integrantes de la Facultad de Ciencias Veterinarias y Pecuarias (FAVET) de la Universidad de Chile, y participan académicos y profesionales de la Universidad Mayor, Universidad de Concepción, Comité de antimicrobianos de la Sociedad Chilena de Infectología, Instituto de Salud Pública, Servicio Agrícola y Ganadero y el Colegio Médico Veterinario, contando además con el apoyo del grupo Una Salud-Chile.', 'El desarrollo de este documento ha contemplado una metodología que tomó como insumo fundamental los lineamientos estratégicos de la OMS sobre RAM (2015) y su adaptación a la realidad nacional, trabajando desde una perspectiva intersectorial.', "El Plan Nacional contra la Resistencia a los Antimicrobianos es una iniciativa intersectorial que funciona bajo la perspectiva de 'Una Salud', en que diversos actores institucionales del sector público y privado convergen en el desarrollo de acciones que tienen por objetivo combatir la resistencia de las bacterias y otros microorganismos a los antimicrobianos.", 'A través de este objetivo se busca difundir contenido que permita informar y crear conciencia en la población general sobre la prevención de infecciones y el uso correcto de los antimicrobianos, tanto en humano como en animales y vegetales, a través de una perspectiva ecológica.', "Esta línea estratégica busca aunar los actuales esfuerzos y actividades de vigilancia de la RAM que forman parte del sistema nacional de vigilancia, desde la perspectiva de 'Una Salud', y reforzar las actividades del actual sistema de vigilancia de la RAM en salud humana.", "A través de este objetivo se incorporarán microorganismos seleccionados a un sistema integrado de vigilancia de la RAM que unifique la información proveniente del ambito de salud humana, animal, vegetal y del medio ambiente, bajo el principio de 'Una Salud'...", 'Todas las áreas de la salud humana, animal y vegetal deben trabajar en conjunto para evitar la aparición de enfermedades infecciosas como medida de acción contra la resistencia a los antimicrobianos.', 'Este objetivo busca prevenir y controlar infecciones en la producción animal, promoviendo el bienestar animal y las buenas prácticas ganaderas, así como la regulación de residuos que contengan antimicrobianos para evitar la contaminación del medioambiente.', 'Esta línea estratégica busca fortalecer el marco normativo además del monitoreo y fiscalización del uso prudente y responsable de los antimicrobianos tanto en salud humana como en animales y agricultura.', 'Este objetivo apunta a fortalecer los instrumentos regulatorios y herramientas de buenas prácticas orientadas a fomentar el uso prudente y responsable de antimicrobianos, incluida la reducción de su uso.', 'Este objetivo busca investigar la presencia de patógenos ambientales resistentes que potencialmente podrían infectar a humanos, o bien, ser reservorios de mecanismos de resistencia que podrían ser transferidos a patógenos humanos.']</t>
+  </si>
+  <si>
+    <t>['1,4, Generar instancias de capacitación locales para profesionales de la salud en relación con el control de infecciones, el uso de antimicrobianos y la RAM,', '111. Prevenir y controlar las infecciones asociadas a salud humana y a sanidad vegetal y animal', 'IV,1 Regular el uso de antimicrobianos en las personas.', 'El Plan Nacional contra la RAM de Chile 2017- 2020 contempló las mismas líneas estratégicas del Plan de Acción Mundial, logrando avances tanto en salud humana como en sanidad animal.', 'Los antimicrobianos constituyen medicamentos indispensables para tratar una serie de procesos infecciosos, tanto en humanos como en animales.', 'El Plan Nacional contra la RAM de Chile 2017- 2020 contempló las mismas líneas estratégicas del Plan de Acción Mundial, logrando avances tanto en salud humana como en sanidad animal, gracias al trabajo conjunto de distintos organismos gubernamentales y en colaboración con la academia y las sociedades científicas.', 'El primer paso fue potenciar el tema de la resistencia a los antimicrobianos como una problemática de salud pública trascendental que requiere del apoyo político de múltiples sectores para su abordaje.', 'diversos cursos de formación en RAM en salud humana ofrecidos por el Ministerio de Salud, sociedades científicas, universidades y organismos internacionales', 'En Chile, desde 1982 se cuenta con el Programa de Vigilancia de las Infecciones Asociadas a la Atención de Salud (IAAS), iniciativa que, además de mantener un sistema de vigilancia específica para RAM de agentes asociados con IAAS por más de dos décadas, en los últimos años ha elaborado y actualizado diversos documentos regulatorios destinados a mejorar la vigilancia y contención de la diseminación de la RAM.', 'La aprobación durante 2018 de la norma técnica de prevención y diseminación de agentes con resistencia a antimicrobianos de importancia en Salud Pública (ARAISP), cuyo objetivo es prevenir la diseminación en forma endémica o epidémica de ARAISP y sus consecuencias en establecimientos de atención cerrada.', "durante el periodo el Ministerio de Salud desarrolló la Norma General Técnica N'210 aprobada el 29 de diciembre de 2020, que corresponde a la actualización de la Norma General Técnica N%43 sobre racionalización del uso de antimicrobianos en la atención clínica, en la que se fortalece la creación de Programas Responsables de la Optimización del uso de Antimicrobianos (PROA) en hospitales de mediana y alta complejidad", '» Departamento de Enfermedades Transmisibles. (DIPRECE-MINSAL). » Instituto de Salud Pública (ISP). Ministerio de Salud. » Programa Nacional de Control de Infecciones Asociadas a la Atención de Salud (IAAS) (DIGERA- MINSAD', 'La Comisión contra la Resistencia a los Antimicrobianos del Ministerio de Salud, conformada por distintos departamentos del Ministerio de Salud y del Instituto de Salud Pública, que tiene por función contribuir a las acciones estipuladas en el Plan Nacional contra la RAM desde la perspectiva de la salud humana.', '3. Prevenir y controlar las infecciones asociadas a la salud humana y a la sanidad animal y vegetal.', 'Este objetivo busca desarrollar conocimientos sobre la RAM y capacidades en el uso prudente y responsable de antimicrobianos, tanto en prescriptores en ejercicio como en nuevos.', 'Con este objetivo se busca fortalecer la vigilancia de la resistencia a los antimicrobianos en las infecciones asociadas a la atención de salud mediante la recolección y monitoreo de Agentes con Resistencia a los Antimicrobianos de Importancia en Salud Pública (ARAISP), que correlacione la información obtenida con el resultado sanitario, a través de la evaluación de indicadores epidemiológicos respecto de los principales síndromes clínicos causados por dichos agentes en establecimientos de salud y su tendencia en el tiempo, y que permita establecer planes de mejora y medidas correctivas.', 'La prevención y el control de las infecciones permiten disminuir el uso de antimicrobianos y la presión de selección que éstos ejercen sobre los microorganismos. Todas las áreas de la salud humana, animal y vegetal deben trabajar en conjunto para evitar la aparición de enfermedades infecciosas como medida de acción contra la resistencia a los antimicrobianos.', 'Este objetivo busca prevenir y controlar las I|AAS mediante el fortalecimiento del trabajo del Programa Nacional de Control de Infecciones Asociadas a la Atención de Salud (IAAS) en los hospitales del país en sus distintos ámbitos y componentes, con el propósito de mejorar los resultados en materia, tanto de prevención de lAAS específicas (en particular de aquellas que se asocian con mayor frecuencia a resistencia antimicrobiana de importancia en Salud Pública)', 'Este objetivo busca desarrollar estrategias para reducir el riesgo de infección o de enfermedad provocadas por microorganismos específicos, ya sea a través de acciones de promoción de la salud, vacunación o uso de medicamentos preventivos en población vulnerable.', 'Otras líneas estratégicas del Programa que buscan prevenir nuevas infecciones son: las campañas de comunicación social para la prevención del VIH y las ITS, de emisión anual; la implementación de tamizaje a través de test rápido de lectura visual, disponible en los niveles primarios en todas las comunas del país; la estrategia de acceso a preservativos, la implementación de Profilaxis Pre Exposición Sexual-PrEP, destinada a poblaciones de mayor vulnerabilidad y riesgo, entre otras.', 'Este objetivo busca desarrollar estrategias específicas de control de infecciones en lugares donde residen personas mayores, tales como los Establecimientos de Larga Estadía de Adultos Mayores (ELEAM), En la actualidad estos establecimientos están sujetos a normativas que regulan las condiciones sanitarias y ambientales básicas para su funcionamiento, que dentro de sus objetivos, buscan evitar la producción y diseminación de infecciones en esta población.', 'IV.1 Regular el uso de antimicrobianos en las personas', 'se contempla la elaboración de reportes de consumo de antimicrobianos, y la monitorización del uso de antimicrobianos seleccionados en los ámbitos clínicos mediante la implementación de los PROA en hospitales de mediana y alta complejidad y otros niveles de atención.', 'Decreto Exento N*132 de 2018. Ministerio de Salud. Aprueba Norma Técnica n%203 sobre contención de diseminación de agentes con resistencia a los antimicrobianos de importancia en salud pública (ARAISP) en establecimientos cerrados de salud', "Resolución Exenta N* 1146 de 2020. Ministerio de Salud. Aprueba 'Norma General Técnica n%210 para la racionalización del uso de antimicrobianos en la atención clínica'"]</t>
+  </si>
+  <si>
+    <t>['11.6. Fortalecer la vigilancia de la resistencia a los antimicrobianos en microorganismos patógenos de animales de producción de alimentos.', 'IV.2. Fortalecer los instrumentos regulatorios para disminuir el uso de antimicrobianos en animales de producción.', 'El Plan Nacional contra la RAM de Chile 2017- 2020 contempló las mismas líneas estratégicas del Plan de Acción Mundial, logrando avances tanto en salud humana como en sanidad animal.', 'el Ministerio de Agricultura y sus servicios apoyan constantemente a los productores en el uso prudente, juicioso y responsable de los antibióticos', 'El Plan Nacional contra la RAM de Chile 2017- 2020 contempló las mismas líneas estratégicas del Plan de Acción Mundial, logrando avances tanto en salud humana como en sanidad animal, gracias al trabajo conjunto de distintos organismos gubernamentales y en colaboración con la academia y las sociedades científicas.', 'El primer paso fue potenciar el tema de la resistencia a los antimicrobianos como una problemática de salud pública trascendental que requiere del apoyo político de múltiples sectores para su abordaje. Así, en abril del 2017 se firmó un acuerdo de cooperación entre el Ministerio de Salud, el Ministerio de Agricultura y el Ministerio de Economía, a través del Servicio Nacional de Pesca y Acuicultura, para hacer frente a la RAM.', 'A estas actividades promovidas por los organismos gubernamentales se ha sumado fuertemente el ámbito académico, desde las universidades y sociedades científicas, hasta asociaciones de investigadores de salud humana y animal mediante la organización y participación en conferencias, seminarios y talleres sobre RAM, entre otras actividades.', 'durante los últimos años destacó el trabajo realizado por el Servicio Agrícola y Ganadero (SAG), en atención a la recomendación de la OIE a los paises miembros de recabar información cuantitativa respecto de la venta de antimicrobianos, que permita establecer patrones de utilización. Así, durante 2017 se aprueba la norma que establece los requisitos para la venta de antimicrobianos de uso veterinario en Chile.', 'En el año 2019 se estableció la primera mesa de trabajo intersectorial para enfrentar la resistencia bacteriana en pequeños animales.', "En producción de animales acuáticos, el Instituto de Fomento Pesquero (IFOP) ha desarrollado un programa de investigación científica llamado 'Vigilancia de la resistencia de los agentes patógenos a los antimicrobianos de uso habitual en la salmonicultura nacional' que se ha ido desarrollando por etapas (actualmente etapa VI).", 'Mesa intersectorial de resistencia a los antimicrobianos en animales pequeños, iniciativa que reúne a la Oficina de Zoonosis y Control de Vectores del Ministerio de Salud, el Colegio Médico Veterinario, Facultades de Medicina Veterinaria de distintas universidades, el Programa de Tenencia Responsable de Animales de Compañía de la Subsecretaría de Desarrollo Regional y Administrativo, participantes del SAG, ISP y otras sociedades científicas.', '3. Prevenir y controlar las infecciones asociadas a la salud humana y a la sanidad animal y vegetal.', 'Por otra parte, se continuará y fortalecerá el desarrollo de programas de inducción y formación continua para la actualización de competencias de prescriptores de antimicrobianos y otros profesionales usuarios y aplicadores de antimicrobianos en salud humana, animal y vegetal.', 'El fortalecimiento de los laboratorios también incluye a aquellos que operan en los ámbitos de sanidad animal, sanidad vegetal e inocuidad alimentaria.', 'Este objetivo busca ampliar la vigilancia de microorganismos patógenos causantes de enfermedades en animales de producción de alimentos hacia la vigilancia de la resistencia a los antimicrobianos que éstos presentan, de modo de contribuir a optimizar el uso de los antimicrobianos en la producción animal y permitir, además, detectar la emergencia de nuevos mecanismos de resistencia y sus determinantes, que podrían entrar en la cadena alimentaria.', 'Este objetivo busca promover el bienestar animal y las buenas prácticas ganaderas en la producción animal, tendientes a mantener a los animales en un nivel óptimo de salud y bienestar durante todo el ciclo productivo, a fin de evitar ambientes propicios para el desarrollo de enfermedades.', 'Esta línea estratégica busca fortalecer el marco normativo además del monitoreo y fiscalización del uso prudente y responsable de los antimicrobianos tanto en salud humana como en animales y agricultura.', 'IV.2. Fortalecer los instrumentos regulatorios para disminuir el uso de antimicrobianos en animales de producción', 'Servicio Nacional de Pesca y Acuicultura. Manual de buenas prácticas en el uso de antimicrobianos y antiparasitarios en salmonicultura chilena [Internet]. 2015 [fecha de descarga: 9 de diciembre de 2020].']</t>
+  </si>
+  <si>
+    <t>['Cecilia Aburto Schweitzer. Ministerio de Medio Ambiente.', 'IV.4. Regular el uso de antimicrobianos en agricultura.', 'destacando el valor de la cooperación y el rol de los diversos grupos y disciplinas que trabajan en esta temática, con una perspectiva sistémica que considera la interconexión de su dimensión social y medioambiental.', 'El rol que juega el medio ambiente en la aparición y propagación de la resistencia a los antimicrobianos es vital.', 'El fenómeno de la resistencia antimicrobiana, RAM, es, en cierta medida, comparable con el cambio climático. También tiene su origen en la conducta poco responsable de nuestra especie y puede acarrear consecuencias graves. Por ejemplo, la administración excesiva o el mal uso de antibióticos en animales de compañía y los posibles traspasos de enfermedades a la población por contacto estrecho o la contaminación de suelos y agua; la incorporación masiva en el sector agrícola, especialmente en la extinción de plagas con pesticidas y control de microbios en la industria cámica; o el uso intensivo de sustancias farmacológicas en el desarrollo de especies acuícolas para el consumo humano, Todas son situaciones donde se pone en riesgo la sostenibilidad de los sistemas agroalimentarios y se amenaza la salud, por la contaminación de productos y del medioambiente con bacterias resistentes o residuos de antimicrobianos.', 'el decreto incorpora la vigilancia en matrices ambientales, tales como agua y alimentos', '12 publicaciones sobre resistencia a antimicrobianos desde el ámbito medioambiental (fundamentalmente estudios en aguas superficiales).', 'A través de este objetivo se busca difundir contenido que permita informar y crear conciencia en la población general sobre la prevención de infecciones y el uso correcto de los antimicrobianos, tanto en humano como en animales y vegetales, a través de una perspectiva ecológica.', "A través de este objetivo se incorporarán microorganismos seleccionados a un sistema integrado de vigilancia de la RAM que unifique la información proveniente del ambito de salud humana, animal, vegetal y del medio ambiente, bajo el principio de 'Una Salud' y que permita la provisión efectiva de datos.", 'la prevención de las infecciones debe darse tanto al interior de los establecimientos de salud como en los ámbitos comunitarios, lo que incluye las medidas de higiene y sanidad ambiental para evitar la exposición a microorganismos patógenos.', 'A través de este objetivo se busca disminuir el riesgo de la población de adquirir infecciones en los ambientes comunitarios, a través de acciones de higiene y saneamiento ambiental.', "Con este objetivo se busca, evitar la contaminación del medioambiente con Residuos de Establecimientos de Atención de Salud (REAS) que contengan antimicrobianos y fortalecer la regulación de 'lodos' para mejorar los estándares del manejo, análisis y aplicación de lodos al suelo, en el contexto de la cadena alimentaria.", 'En el ámbito vegetal se contempla regular el uso de fertilizantes de origen animal y plaguicidas con acción antimicrobiana, incorporándolos a un listado de evaluación de su impacto en la emergencia de resistencia a los antimi-', 'Este objetivo busca investigar la presencia de patógenos ambientales resistentes que potencialmente podrían infectar a humanos, o bien, ser reservorios de mecanismos de resistencia que podrían ser transferidos a patógenos humanos.']</t>
+  </si>
+  <si>
+    <t>['11.6. Fortalecer la vigilancia de la resistencia a los antimicrobianos en microorganismos patógenos de animales de producción de alimentos.', 'IV.4. Regular el uso de antimicrobianos en agricultura.', 'el Ministerio de Agricultura y sus servicios apoyan constantemente a los productores en el uso prudente, juicioso y responsable de los antibióticos, con el objetivo de mantener los estándares de calidad que nos posicionan como líderes a nivel mundial.', 'la incorporación masiva en el sector agrícola, especialmente en la extinción de plagas con pesticidas y control de microbios en la industria cámica; o el uso intensivo de sustancias farmacológicas en el desarrollo de especies acuícolas para el consumo humano, Todas son situaciones donde se pone en riesgo la sostenibilidad de los sistemas agroalimentarios y se amenaza la salud, por la contaminación de productos y del medioambiente con bacterias resistentes o residuos de antimicrobianos.', 'El uso de estos fármacos en animales de producción de alimentos terrestres y acuáticos es fundamental para la salud y el bienestar animal ya que permite combatir las enfermedades infecciosas, lo que además se relaciona con la seguridad alimentaria.', 'Así, en abril del 2017 se firmó un acuerdo de cooperación entre el Ministerio de Salud, el Ministerio de Agricultura y el Ministerio de Economía, a través del Servicio Nacional de Pesca y Acuicultura, para hacer frente a la RAM.', "Por su parte, SERNAPESCA cuenta actualmente con un programa de certificación 'libre de uso de antimicrobianos' aplicado a la industria de la salmonicultura", 'En el año 2019 se estableció la primera mesa de trabajo intersectorial para enfrentar la resistencia bacteriana en pequeños animales.', 'Grupo interministerial para la Re- sistencia a los antimicrobianos en la cadena alimentaria (GIRAM) | » Agencia Chilena para la Calidad e Inocuidad Alimentaria (ACHI- PIA). Ministerio de Agricultura. SEGUNDA ETAPA » Servicio Agrícola y Ganadero (SAG). División de Protección Agrí- &amp;gt;» » cola y Forestal y División de Protección Pecuaria. Ministerio de Agricultura.', '» Grupo interministerial para la Resistencia a los Antimicrobianos en la cadena alimentaria (GIRAM), liderada por ACHIPIA y que reúne a los referentes públicos y privados relacionados con las cadenas productivas.', 'Concienciación para el uso prudente y responsable de antimicrobianos en la producción agropecuaria y acuicultura, entre otras iniciativas de este tipo.', 'El fortalecimiento de los laboratorios también incluye a aquellos que operan en los ámbitos de sanidad animal, sanidad vegetal e inocuidad alimentaria, en los cuales se requiere la estandarización de las pautas para las pruebas de susceptibilidad y la conformación de una red integrada que permita la gestión de datos óptima y continua y su transferencia al sistema integrado de vigilancia.', 'Este objetivo busca ampliar la vigilancia de microorganismos patógenos causantes de enfermedades en animales de producción de alimentos hacia la vigilancia de la resistencia a los antimicrobianos que éstos presentan, de modo de contribuir a optimizar el uso de los antimicrobianos en la producción animal y permitir, además, detectar la emergencia de nuevos mecanismos de resistencia y sus determinantes, que podrían entrar en la cadena alimentaria.', 'Este objetivo busca promover el bienestar animal y las buenas prácticas ganaderas en la producción animal, tendientes a mantener a los animales en un nivel óptimo de salud y bienestar durante todo el ciclo productivo, a fin de evitar ambientes propicios para el desarrollo de enfermedades.', 'Esta línea estratégica busca fortalecer el marco normativo además del monitoreo y fiscalización del uso prudente y responsable de los antimicrobianos tanto en salud humana como en animales y agricultura.', 'Este objetivo apunta a fortalecer los instrumentos regulatorios y herramientas de buenas prácticas orientadas a fomentar el uso prudente y responsable de antimicrobianos, incluida la reducción de su uso.', "14, Resolución Exenta N'5571 de 2017. Servicio Agrícola y Ganadero. Establece requisitos para la declaración de venta de antimicrobianos [Internet] [fecha de descarga: 8 de diciembre de 2020].", 'Servicio Nacional de Pesca y Acuicultura. Manual de buenas prácticas en el uso de antimicrobianos y antiparasitarios en salmonicultura chilena [Internet]. 2015 [fecha de descarga: 9 de diciembre de 2020].']</t>
+  </si>
+  <si>
+    <t>['se contempla la elaboración de reportes de consumo de antimicrobianos, y la monitorización del uso de antimicrobianos seleccionados en los ámbitos clínicos mediante la implementación de los PROA en hospitales de mediana y alta complejidad y otros niveles de atención.', 'se busca integrar los hallazgos de la vigilancia de RAM desarrollados en los distintos ámbitos a través de la generación de un reporte periódico']</t>
+  </si>
+  <si>
+    <t>['durante 2017 se aprueba la norma que establece los requisitos para la venta de antimicrobianos de uso veterinario en Chile. Dicha medida establece que los laboratorios nacionales de producción farmacéutica y los establecimientos importadores deberán declarar anualmente la cantidad absoluta, en kilogramos, de antimicrobianos activos comercializados durante el año']</t>
+  </si>
+  <si>
+    <t>['El grupo coordinador del Plan Nacional contra la Resistencia a los Antimicrobianos de Chile está formado por integrantes de distintos Ministerios del país, quienes representan los puntos focales para el plan en sus propias instituciones y que conforman el grupo interministerial de coordinación del Plan Nacional.', 'Chile enfrentó el desafío de implementar un Plan Nacional contra la Resistencia a los Antimicrobianos con enfoque de Una Salud a partir del 2017, formulando un Plan Nacional intersectorial que estableció compromisos interministeriales para avanzar en los lineamientos estratégicos establecidos.', 'Generar un plan de trabajo transversal en esta temática, con proyección de cinco años, bajo una mirada interministerial, además de la colaboración de diversos actores del mundo público y privado', 'En 2016 el país fue pionero en América Latina en formular un Plan Nacional intersectorial estableciendo compromisos interministeriales para avanzar en las estrategias formuladas.', 'El primer paso fue potenciar el tema de la resistencia a los antimicrobianos como una problemática de salud pública trascendental que requiere del apoyo político de múltiples sectores para su abordaje. Así, en abril del 2017 se firmó un acuerdo de cooperación entre el Ministerio de Salud, el Ministerio de Agricultura y el Ministerio de Economía, a través del Servicio Nacional de Pesca y Acuicultura, para hacer frente a la RAM.', 'En el año 2019 se estableció la primera mesa de trabajo intersectorial para enfrentar la resistencia bacteriana en pequeños animales.', 'la primera mesa corresponde a la Comisión contra la Resistencia a los Antimicrobianos del Ministerio de Salud, coordinada por la Secretaria Técnica del plan; la segunda, al Grupo interministerial para la Implementación del Plan de Acción Nacional coordinada por ACHIPIA.', 'Mesa intersectorial', 'Grupo interministerial para la Re- sistencia a los antimicrobianos en la cadena alimentaria (GIRAM)', 'Es así como el Plan Nacional se basa en la coordinación de seis Ministerios, quienes han oficializado su colaboración a través del nombramiento de referentes técnicos como puntos focales, en respuesta a la solicitud de la Subsecretaría de Salud Pública del Ministerio de Salud, y han contribuido activamente en el diseño del Plan RAM 2021- 2025. Este compromiso de colaboración ha permitido instalar una Mesa Interministerial que operará en el periodo de implementación del plan bajo la coordinación del Ministerio de Salud.', 'se espera comenzar con la descentralización de las acciones a través de la conformación de Mesas Intersectoriales Regionales lideradas por las Secretarías Regionales Ministeriales de Salud', 'Para el cumplimiento de este objetivo se creará un comité científico-técnico que gestione el análisis, la discusión y la difusión de los resultados del programa de vigilancia de RAM.']</t>
+  </si>
+  <si>
+    <t>['111.5. Incorporar medidas regulatorias en relación con la disposición final de residuos que contengan antimicrobianos.', 'IV.2. Fortalecer los instrumentos regulatorios para disminuir el uso de antimicrobianos en animales de producción.', 'promover la regulación y el uso responsable y prudente de antimicrobianos', 'en los últimos años ha elaborado y actualizado diversos documentos regulatorios destinados a mejorar la vigilancia y contención de la diseminación de la RAM', 'La aprobación durante 2018 de la norma técnica de prevención y diseminación de agentes con resistencia a antimicrobianos de importancia en Salud Pública (ARAISP), cuyo objetivo es prevenir la diseminación en forma endémica o epidémica de ARAISP y sus consecuencias en establecimientos de atención cerrada.', 'durante 2017 se aprueba la norma que establece los requisitos para la venta de antimicrobianos de uso veterinario en Chile. Dicha medida establece que los laboratorios nacionales de producción farmacéutica y los establecimientos importadores deberán declarar anualmente la cantidad absoluta, en kilogramos, de antimicrobianos activos comercializados durante el año. En la misma línea, se aprueba una segunda norma que establece requisitos para el registro, la comercialización y el uso de antimicrobianos en el área veterinaria, destacando la incorporación del requerimiento de explicitar la finalidad de uso, la condición de venta bajo receta médica, la definición de situaciones en que aplica la venta bajo receta retenida y la prohibición explícita de uso de antimicrobianos como promotores de crecimiento.', "durante el periodo el Ministerio de Salud desarrolló la Norma General Técnica N'210 aprobada el 29 de diciembre de 2020, que corresponde a la actualización de la Norma General Técnica N%43 sobre racionalización del uso de antimicrobianos en la atención clínica, en la que se fortalece la creación de Programas Responsables de la Optimización del uso de Antimicrobianos (PROA) en hospitales de mediana y alta complejidad", '4. Regular y vigilar el uso de los antimicrobianos.', 'es necesario reforzar la normativa sanitaria de forma de garantizar que los residuos de antimicrobianos sean manejados de manera adecuada en los establecimientos de atención de salud, incluyendo los establecimientos veterinarios.', 'Esta línea estratégica busca fortalecer el marco normativo además del monitoreo y fiscalización del uso prudente y responsable de los antimicrobianos tanto en salud humana como en animales y agricultura.', 'Este objetivo apunta a fortalecer los instrumentos regulatorios y herramientas de buenas prácticas orientadas a fomentar el uso prudente y responsable de antimicrobianos, incluida la reducción de su uso.', 'el diseño de acciones de promoción y medidas de concientización adecuadas en materia medio ambiental y del fortalecimiento del marco normativo nacional en estas materias.', 'Decreto N97, de 2020. Ministerio de Salud. Aprueba el reglamento sobre notificación de enfermedades transmisibles de declaración obligatoria y su vigilancia', 'Decreto Exento N*132 de 2018. Ministerio de Salud. Aprueba Norma Técnica n%203 sobre contención de diseminación de agentes con resistencia a los antimicrobianos de importancia en salud pública (ARAISP) en establecimientos cerrados de salud']</t>
+  </si>
+  <si>
+    <t>['1,2 Promover en las y los docentes la incorporación de las temáticas de resistencia y uso prudente y responsable de los antimicrobianos en ámbitos educacionales.', 'En relación con la formación profesional, los contenidos educativos sobre RAM sistemáticos y con enfoque interdisciplinario son aún escasos, pero han surgido variadas iniciativas de formación presencial y en línea respecto al uso de antimicrobianos en medicina humana y veterinaria, tales como el Diplomado sobre buen uso de antimicrobianos en acuicultura, que surgió bajo la colaboración de SERNAPESCA y la Facultad de Medicina Veterinaria de la Universidad de Chile y diversos cursos de formación en RAM en salud humana ofrecidos por el Ministerio de Salud, sociedades científicas, universidades y organismos internacionales.', 'Fortalecer la concientización y la formación respecto a la RAM en la comunidad en general y en grupos específicos.', 'Promover en las y los docentes la incorporación de las temáticas de resistencia y uso prudente y responsable de los antimicrobianos en ámbitos educacionales', 'Para esto se requiere, por un lado, incorporar la RAM como temática relevante en los planes de estudio de las carreras profesionales y técnicas de salud, especialmente en medicina humana, medicina veterinaria, odontología, obstetricia, además de química y farmacia, de modo de sensibilizar a los futuros prescriptores y dispensadores de antimicrobianos sobre la RAM y las acciones para controlar su emergencia.']</t>
+  </si>
+  <si>
+    <t>['I. Fortalecer la concientización y la formación respecto a la RAM, tanto de la comunidad en general como de grupos especificos', 'todo esto apoyado con una comunicación efectiva a la población y una adecuada formación profesional para evitar el mal uso de los antimicrobianos', 'definiendo objetivos a partir de cinco lineamientos estratégicos orientados a sensibilizar y educar a actores clave y población general sobre la RAM', 'Diversas campañas comunicacionales del Servicio Agrícola y Ganadero (SAG), del Servicio Nacional de Pesca y Acuicultura (SERNAPESCA), de la Agencia Chilena para la Inocuidad y la Calidad Alimentaria (ACHIPIA) y del Ministerio de Salud (MINSAD fueron desplegadas cada año a través de diversos medios de comunicación, con el objetivo de informar a la población general, a los productores y a los prescriptores sobre la importancia del uso responsable y prudente de los antibióticos.', 'El Plan Nacional 2017-2020 empujó fuertemente el interés en la temática de la resistencia a antimicrobianos... junto a campañas comunicacionales de concientización;', 'A través de este objetivo se busca difundir contenido que permita informar y crear conciencia en la población general sobre la prevención de infecciones y el uso correcto de los antimicrobianos, tanto en humano como en animales y vegetales, a través de una perspectiva ecológica. Estas actividades se refieren a campañas informativas periódicas a través de medios de comunicación y redes sociales, desarrolladas integradamente por los organismos públicos responsables del Plan Nacional contra la RAM.', 'Desarrollar e implementar estrategias comunicacionales educativas dirigidas a la comunidad', 'Otras líneas estratégicas del Programa que buscan prevenir nuevas infecciones son: las campañas de comunicación social para la prevención del VIH y las ITS, de emisión anual;']</t>
+  </si>
+  <si>
+    <t>["Agradecimientos al proyecto 'Trabajando Juntos para combatir la Resistencia a los Antimicrobianos', coordinado por la Organización Panamericana de la Salud (OPS), la Organización de las Naciones Unidas para la Alimentación y la Agricultura (FAO) y la Organización Mundial de Sanidad Animal (OIE) y financiado por la Unión Europea.", 'A partir de entonces, los países han elaborado Planes de Acción Nacionales bajo los lineamientos de los organismos internacionales, con un carácter intersectorial y bajo el enfoque de Una Salud, lo que permite desarrollar estrategias no sólo desde el sector salud propiamente tal, sino también desde otros relacionados al uso de antimicrobianos y a sus consecuencias ecológicas.', 'El Plan Nacional contra la RAM de Chile 2017- 2020 contempló las mismas líneas estratégicas del Plan de Acción Mundial, logrando avances tanto en salud humana como en sanidad animal, gracias al trabajo conjunto de distintos organismos gubernamentales y en colaboración con la academia y las sociedades científicas.', 'La Organización Mundial de la Salud (OMS) ha instruido a los paises miembros a elaborar Planes Nacionales para enfrentar los desafíos derivados de la resistencia a los antimicrobianos (RAM), desde una perspectiva multisectorial y definiendo objetivos a partir de cinco lineamientos estratégicos orientados a sensibilizar y educar a actores clave y población general sobre la RAM.', 'Además, durante 2019 nuestro país tuvo a su cargo la organización de la Conferencia Mundial sobre Sanidad de Animales Acuáticos de la Organización Internacional de Sanidad Animal (OIE), actividad que complementa los esfuerzos por posicionar el tema en todas las áreas del país.', 'a fines de 2020 se inició la participación en el proyecto conjunto entre CDC, OPS y Argentina, Iniciativa Red de Redes para RAM que busca fortalecer la capacidad de detección de eventos de RAM de importancia para la salud pública y facilitar una respuesta rápida para la contención de ciertos agentes con resistencia antimicrobiana de interés', "participó activamente, en 2018, en la organización del taller internacional 'Desarrollo de competencias en la vigilancia de la resistencia a los antimicrobianos entre las economías APEC', organizado por ACHIPIA y la Facultad de Ciencias Veterinarias y Pecuarias de la Universidad de Chile", "ISP participó en la organización del taller internacional 'Desarrollo de competencias en la vigilancia de la resistencia a los antimicrobianos entre las economías APEC'"]</t>
+  </si>
+  <si>
+    <t>['11,1. Desarrollar un sistema de vigilancia integrada sobre RAM en microorganismos seleccionados.', 'Fortalecer la vigilancia de laboratorio en relación con la RAM.', 'generar sinergias para el desarrollo de un programa de vigilancia integrada de la Resistencia Antimicrobiana, que cubra toda la cadena alimentaria y nos permita con sus resultados tomar nuevas medidas de prevención.', 'La vigilancia de la resistencia antimicrobiana constituye una herramienta esencial para obtener una visión global de bacterias y mecanismos de resistencia críticos, cuyos resultados permitan evaluar estrategias para contener la diseminación de la RAM.', 'Los estudios de vigilancia pueden proporcionar valiosa información para detectar tendencias en el tipo de microorganismo y la frecuencia de algunos patógenos en ciertos ecosistemas (causantes de infecciones en humanos y en los mecanismos de resistencia antimicrobiana) y desarrollar intervenciones específicas y adaptadas a cada contexto.', 'el decreto incorpora la vigilancia en matrices ambientales, tales como agua y alimentos, y la vigilancia de brotes de enfermedades de cualquier etiología transmisible, incluyendo brotes producidos por enfermedades transmitidas por alimentos (ETA) y por infecciones asociadas a la atención de salud (IAAS)', 'Dentro de los avances más importantes en cuanto a vigilancia de la RAM, se encuentra la aprobación del nuevo Reslamento sobre Notificación de Enfermedades Transmisibles de Declaración Obligatoria y su Vigilancia, el que amplía el número de agentes etiológicos sujetos a vigilancia de susceptibilidad a antimicrobianos que han', 'a fines de 2020 se inició la participación en el proyecto conjunto entre CDC, OPS y Argentina, Iniciativa Red de Redes para RAM que busca fortalecer la capacidad de detección de eventos de RAM de importancia para la salud pública y facilitar una respuesta rápida para la contención de ciertos agentes con resistencia antimicrobiana de interés', 'durante los últimos años destacó el trabajo realizado por el Servicio Agrícola y Ganadero (SAG), en atención a la recomendación de la OIE a los paises miembros de recabar información cuantitativa respecto de la venta de antimicrobianos, que permita establecer patrones de utilización.', 'que permitirá, además, monitorizar el consumo de estos fármacos en estos establecimientos de salud a nivel nacional', "En producción de animales acuáticos, el Instituto de Fomento Pesquero (IFOP) ha desarrollado un programa de investigación científica llamado 'Vigilancia de la resistencia de los agentes patógenos a los antimicrobianos de uso habitual en la salmonicultura nacional' que se ha ido desarrollando por etapas (actualmente etapa VI). El programa se ha enfocado en dos grandes temáticas: por Una parte, en la validación y estandarización de técnicas de evaluación de susceptibilidad bacteriana frente a los antimicrobianos de mayor uso en la salmonicultura nacional para los diferentes agentes patógenos.", '2. Fortalecer el sistema nacional de vigilancia de la resistencia a los antimicrobianos.', "Esta línea estratégica busca aunar los actuales esfuerzos y actividades de vigilancia de la RAM que forman parte del sistema nacional de vigilancia, desde la perspectiva de 'Una Salud', y reforzar las actividades del actual sistema de vigilancia de la RAM en salud humana.", "A través de este objetivo se incorporarán microorganismos seleccionados a un sistema integrado de vigilancia de la RAM que unifique la información proveniente del ambito de salud humana, animal, vegetal y del medio ambiente, bajo el principio de 'Una Salud' y que permita la provisión efectiva de datos.", 'En los próximos años se busca ampliar las capacidades de la red de laboratorio de tuberculosis para realizar la vigilancia universal de la tuberculosis resistente a fármacos desde la primera muestra, mediante la ampliación de la cobertura de pruebas moleculares para el diagnóstico inicial de tuberculosis, además de reforzar el estudio de los mecanismos de resistencia a través de la utilización de técnicas de secuenciamiento genético.', 'Este objetivo contempla implementar un sistema de monitoreo del consumo de antimicrobianos que permita una mejor gestión para el control de su uso, vigilando la prescripción y uso de los antimicrobianos en la industria de animales de producción terrestre y acuáticos, además de animales de compañía.', 'Por una parte, se busca integrar los hallazgos de la vigilancia de RAM desarrollados en los distintos ámbitos a través de la generación de un reporte periódico, que a su vez asegure la debida protección de información sensible, tanto para salud humana como para la industria productora de alimentos de origen animal y vegetal.', 'Por ello se quiere desarrollar un diagnóstico en base a los antecedentes que se han levantado a la fecha a nivel nacional en materia de patógenos y resistencia, además de investigaciones relativas al impacto ambiental de los antimicrobianos en diferentes ecosistemas nacionales, y su respectiva evaluación de riesgo para la transmisión de RAM en el medio ambiente.', "Decreto Exento N*16, de 2019. Ministerio de Salud. Modifica Norma Técnica n*%175 sobre 'vgilancia nacional de resistencia a los antimicrobianos en agentes que pueden producir infecciones asociadas'", '22. Instituto de Fomento Pesquero. IFOP realizará difusión de resultados del Programa de Vigilancia de Resistencia Bacteriana en acuicultura vía streaming [Internet]. 2020 [fecha de descarga: 08 de marzo de 2021].']</t>
+  </si>
+  <si>
+    <t>['Dentro de los avances más importantes en cuanto a vigilancia de la RAM, se encuentra la aprobación del nuevo Reslamento sobre Notificación de Enfermedades Transmisibles de Declaración Obligatoria y su Vigilancia, el que amplía el número de agentes etiológicos sujetos a vigilancia de susceptibilidad a antimicrobianos', 'a fines de 2020 se inició la participación en el proyecto conjunto entre CDC, OPS y Argentina, Iniciativa Red de Redes para RAM que busca fortalecer la capacidad de detección de eventos de RAM de importancia para la salud pública y facilitar una respuesta rápida para la contención de ciertos agentes con resistencia antimicrobiana de interés', '2. Fortalecer el sistema nacional de vigilancia de la resistencia a los antimicrobianos.', "Esta línea estratégica busca aunar los actuales esfuerzos y actividades de vigilancia de la RAM que forman parte del sistema nacional de vigilancia, desde la perspectiva de 'Una Salud', y reforzar las actividades del actual sistema de vigilancia de la RAM en salud humana. De esta manera se pretende mejorar la capacidad de detección de la RAM y dar respuesta precoz e integrada frente a situaciones de riesgo.", 'El sistema de vigilancia comenzará en una cadena productiva de alimentos priorizada, integrada con muestras clínicas aisladas de pacientes, para extenderse paulatinamente a otros microorganismos de relevancia y cadenas productivas.']</t>
+  </si>
+  <si>
+    <t>['Generar instancias de capacitación locales para profesionales de la salud en relación con el control de infecciones, el uso de antimicrobianos y la RAM,', '111. Prevenir y controlar las infecciones asociadas a salud humana y a sanidad vegetal y animal', 'Chile, además, tiene una larga historia en cuanto a vigilancia de microorganismos resistentes, control de infecciones nosocomiales e implementación de medidas de higiene y saneamiento.', 'prevenir la aparición de infecciones y controlarlas una vez que aparecen (particularmente en ambientes hospitalarios)', 'En Chile, desde 1982 se cuenta con el Programa de Vigilancia de las Infecciones Asociadas a la Atención de Salud (IAAS), iniciativa que, además de mantener un sistema de vigilancia específica para RAM de agentes asociados con IAAS por más de dos décadas, en los últimos años ha elaborado y actualizado diversos documentos regulatorios destinados a mejorar la vigilancia y contención de la diseminación de la RAM.', 'La aprobación durante 2018 de la norma técnica de prevención y diseminación de agentes con resistencia a antimicrobianos de importancia en Salud Pública (ARAISP), cuyo objetivo es prevenir la diseminación en forma endémica o epidémica de ARAISP y sus consecuencias en establecimientos de atención cerrada.', '3. Prevenir y controlar las infecciones asociadas a la salud humana y a la sanidad animal y vegetal.', 'Este objetivo busca incorporar a todos los profesionales de la salud en la adquisición de conocimientos sobre el control de infecciones, el uso prudente y responsable de antimicrobianos y la RAM.', 'La prevención de las infecciones debe darse tanto al interior de los establecimientos de salud como en los ámbitos comunitarios, lo que incluye las medidas de higiene y sanidad ambiental para evitar la exposición a microorganismos patógenos.', 'Este objetivo busca prevenir y controlar las I|AAS mediante el fortalecimiento del trabajo del Programa Nacional de Control de Infecciones Asociadas a la Atención de Salud (IAAS) en los hospitales del país en sus distintos ámbitos y componentes, con el propósito de mejorar los resultados en materia, tanto de prevención de IAAS específicas (en particular de aquellas que se asocian con mayor frecuencia a resistencia antimicrobiana de importancia en Salud Pública), como en contención de la diseminación de agentes con mecanismos de resistencia con potencial epidémico.', 'Otras líneas estratégicas del Programa que buscan prevenir nuevas infecciones son: las campañas de comunicación social para la prevención del VIH y las ITS, de emisión anual; la implementación de tamizaje a través de test rápido de lectura visual, disponible en los niveles primarios en todas las comunas del país; la estrategia de acceso a preservativos, la implementación de Profilaxis Pre Exposición Sexual-PrEP, destinada a poblaciones de mayor vulnerabilidad y riesgo, entre otras.', 'Este objetivo busca desarrollar estrategias específicas de control de infecciones en lugares donde residen personas mayores, tales como los Establecimientos de Larga Estadía de Adultos Mayores (ELEAM), En la actualidad estos establecimientos están sujetos a normativas que regulan las condiciones sanitarias y ambientales básicas para su funcionamiento, que dentro de sus objetivos, buscan evitar la producción y diseminación de infecciones en esta población.', 'la creación de un reglamento por parte del MINSAL que establezca las condiciones de higiene y seguridad de los lugares de mantención de mascotas', "Decreto Exento N'g894 de 2017. Ministerio de Salud. Aprueba Norma General Técnica n*190 para la prevención de la infección de la herida operatoria"]</t>
+  </si>
+  <si>
+    <t>['destacó el trabajo realizado por el Servicio Agrícola y Ganadero (SAG), en atención a la recomendación de la OIE a los paises miembros de recabar información cuantitativa respecto de la venta de antimicrobianos']</t>
+  </si>
+  <si>
+    <t>['IV. Regular y monitorizar el uso de los antimicrobianos', 'Dicha medida establece que los laboratorios nacionales de producción farmacéutica y los establecimientos importadores deberán declarar anualmente la cantidad absoluta, en kilogramos, de antimicrobianos activos comercializados durante el año. En la misma línea, se aprueba una segunda norma que establece requisitos para el registro, la comercialización y el uso de antimicrobianos en el área veterinaria, destacando la incorporación del requerimiento de explicitar la finalidad de uso, la condición de venta bajo receta médica.', '4. Regular y vigilar el uso de los antimicrobianos.', 'Si bien en Chile la adquisición de antimicrobianos está regulada a través de la autorización de la comercialización a través del registro sanitario, la condición de venta con receta médica retenida y la fiscalización de las farmacias, aún es necesario avanzar en el uso prudente y responsable de los antimicrobianos por parte de los prescriptores.', 'Durante el próximo periodo se requiere avanzar en la regulación de la prescripción en la Atención Primaria de Salud y en el desarrollo de estrategias para controlar el expendio de antimicrobianos en lugares no autorizados como ferias libres, internet y redes sociales.']</t>
+  </si>
+  <si>
+    <t>['111.5. Incorporar medidas regulatorias en relación con la disposición final de residuos que contengan antimicrobianos.', 'IV. Regular y monitorizar el uso de los antimicrobianos', 'la Asamblea Mundial de la Salud destacó la Resistencia a los Antimicrobianos (RAM) como una grave amenaza para la salud mundial e instó a los países miembros a desarrollar Planes de Acción Nacionales a partir de un Plan de Acción Global para combatir la RAM, reconociendo como principales líneas estratégicas el uso prudente y responsable de los antimicrobianos', 'promover la regulación y el uso responsable y prudente de antimicrobianos', 'La aprobación en 2018 de la actualización de la Norma Técnica de prevención de Infección en Herida Operatoria, que regula, entre otros aspectos, el uso profiláctico de antibióticos', 'Dicha medida establece que los laboratorios nacionales de producción farmacéutica y los establecimientos importadores deberán declarar anualmente la cantidad absoluta, en kilogramos, de antimicrobianos activos comercializados durante el año. En la misma línea, se aprueba una segunda norma que establece requisitos para el registro, la comercialización y el uso de antimicrobianos en el área veterinaria, destacando la incorporación del requerimiento de explicitar la finalidad de uso, la condición de venta bajo receta médica, la definición de situaciones en que aplica la venta bajo receta retenida y la prohibición explícita de uso de antimicrobianos como promotores de crecimiento.', "el Ministerio de Salud desarrolló la Norma General Técnica N'210 aprobada el 29 de diciembre de 2020, que corresponde a la actualización de la Norma General Técnica N%43 sobre racionalización del uso de antimicrobianos en la atención clínica, en la que se fortalece la creación de Programas Responsables de la Optimización del uso de Antimicrobianos (PROA) en hospitales de mediana y alta complejidad", '4. Regular y vigilar el uso de los antimicrobianos.', 'es necesario reforzar la normativa sanitaria de forma de garantizar que los residuos de antimicrobianos sean manejados de manera adecuada en los establecimientos de atención de salud, incluyendo los establecimientos veterinarios.', 'Esta línea estratégica busca fortalecer el marco normativo además del monitoreo y fiscalización del uso prudente y responsable de los antimicrobianos tanto en salud humana como en animales y agricultura.', 'se requiere avanzar en la regulación de la prescripción en la Atención Primaria de Salud y en el desarrollo de estrategias para controlar el expendio de antimicrobianos en lugares no autorizados como ferias libres, internet y redes sociales.', "Resolución Exenta N'6801 de 2017, Servicio Agrícola y Ganadero. Establece requisitos para el registro, comercialización y Uso de antimicrobianos", "20. Resolución Exenta N* 1146 de 2020. Ministerio de Salud. Aprueba 'Norma General Técnica n%210 para la racionalización del uso de antimicrobianos en la atención clínica'"]</t>
+  </si>
+  <si>
+    <t>['promover la investigación en RAM, buscando impulsar proyectos científicos que sean relevantes para la creación de nuevo conocimiento en microorganismos, generar mecanismos de resistencia a los antimicrobianos y proveer soluciones alternativas al uso de éstos.', 'Este objetivo busca establecer como una de las líneas de investigación prioritaria para el país la investigación en RAM, de modo que se puedan focalizar proyectos de investigación que sean relevantes para la creación de nuevos conocimientos en microorganismos, resistencia a los antimicrobianos y soluciones alternativas a su uso.']</t>
+  </si>
+  <si>
+    <t>['The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment. We refer to this integrated approach based on a public health perspective as the One Health approach.', 'We continue to strive to put a One Health approach on the international agenda, and remind health ministers of their coordinating responsibility; they must press for measures in all sectors in the interest of public health.', 'Such a joint conference is unique, and of major importance with regard to the One Health approach.', 'In order to further emphasise the importance of a One Health approach to antibiotic resistance, we will strive to place the outcomes of the conference on both Health Council and Agriculture Council agendas as Council Conclusions.', 'We express our appreciation for the fact that all involved parties recognise that antibiotic resistance is a shared problem, and that a joint approach is required.', 'The approach will be formulated per sector, with specific goals per animal species where possible. The goal is an animal farming sector where the health of the animals in the entire chain is the norm, and disease and antibiotic therapy the exception. In order to achieve this, it is crucial that all partners in the entire chain focus on the prevention of animal diseases.', 'While developing a new policy, attention will also be given to the effect of antibiotic use in animals on the environment (see paragraph 5 on the environment in this letter).', 'The action plan must result in an advisory report on the most effective management measures by mid 2016. At the very least, the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment. To this end, measurements will be performed in waste water from health facilities and residential areas, in waste water treatment plants and in manure, among other places.', 'Coherent communication initiatives in the context of the One Health approach to antibiotic resistance are crucial throughout the chain of public-professionals-administrators.']</t>
+  </si>
+  <si>
+    <t>['The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment.', 'Good implementation of the WHO Global Action Plan on antimicrobial resistance in the coming years is of great importance.', 'The specific objective is reaching consensus on surveillance of resistant bacteria and antibiotic use in human healthcare, as a basis for developing infection prevention measures and promoting prudent use of antibiotics.', 'Avoidable harm and mortality among patients due to infections caused by resistant bacteria must be prevented wherever possible. To this end, the further development and spread of (multi)resistance must be managed as much as possible, in order to ensure that effective treatment of infections with antibiotics remains possible in future.', '1. A significant further reduction in the emergence and spread of multiresistant bacteria in healthcare becomes visible during the next five years.', 'The measures are in line with Health Council recommendations on antibiotic use in hospitals with regard to antibiotic stewardship, monitoring of prophylactic use and surveillance.', 'In curative and long-term care, we see countless examples of innovation in the domain of infection prevention and prevention of spread.', 'Increasing public awareness of the problem and increasing knowledge about how antibiotics work and should be used.', 'In addition to specific activities targeting the general public in the broadest sense, the strategy targeting professionals and administrators will be realised in cooperation with healthcare actors.']</t>
+  </si>
+  <si>
+    <t>['The main focus within the approach to antibiotic resistance in the Netherlands itself lies in healthcare and animal farming.', 'Via this international partnership, we also motivate our partners to reduce antibiotic resistance in animal farming within their countries. We introduce them to our policies based on the precautionary principle and the practice of reducing antibiotic usage in animal farming in the Netherlands.', 'Furthermore, we will strive for reduction of the use of critical antibiotics in animals. From a public health perspective, a ban on the use of last resort antibiotics (such as carbapenems) for the treatment of animals will be addressed, with reference to the current legislative process of relevant EU regulations.', 'Therefore, the goal is reduction and prudent use of antibiotics in animal farming in order to limit the development of resistance where possible.', 'The sectors and veterinarians will need to do everything in their power to further reduce antibiotic use. In order to achieve a further reduction, effort is needed specifically on: Additional measures by sectors/veterinarians and strong continuation of implementation of the current policy.', 'In 2015 we will work together with stakeholders to develop a new policy to prevent the introduction and spread of carbapenem-resistance in animal farming and in the food chain.', 'From 2002 onwards, the Netherlands has monitored the occurrence of antibiotic resistance in animals and food.', 'At the very least, the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment. To this end, measurements will be performed in waste water from health facilities and residential areas, in waste water treatment plants and in manure, among other places.']</t>
+  </si>
+  <si>
+    <t>['The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment.', 'While developing a new policy, attention will also be given to the effect of antibiotic use in animals on the environment (see paragraph 5 on the environment in this letter).', 'While developing a new policy, attention will also be given to the effect of antibiotic use in animals on the environment (see paragraph 5 on the environment in this letter).', 'Despite these uncertainties, the research by ZonMw and the recommendations by the RIVM show that the environment does play a role in the transmission of antibiotic resistance. This outcome provides ample reason to initiate a number of activities.', 'the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment.']</t>
+  </si>
+  <si>
+    <t>['We motivate our partners to reduce antibiotic resistance in animal farming within their countries. We introduce them to our policies based on the precautionary principle and the practice of reducing antibiotic usage in animal farming in the Netherlands.', 'Furthermore, we will strive for reduction of the use of critical antibiotics in animals. From a public health perspective, a ban on the use of last resort antibiotics (such as carbapenems) for the treatment of animals will be addressed, with reference to the current legislative process of relevant EU regulations.', 'Therefore, the goal is reduction and prudent use of antibiotics in animal farming in order to limit the development of resistance where possible.', "The sectors and veterinarians will need to do everything in their power to further reduce antibiotic use. In order to achieve a further reduction, effort is needed specifically on: Additional measures by sectors/veterinarians and strong continuation of implementation of the current policy. The large animal farming sectors face the challenge of stimulating farmers and veterinarians in the 'action area' (red) and the 'warning area' (orange) to shift towards the 'target area' (green) of restrained and prudent antibiotic use.", 'In 2015 we will work together with stakeholders to develop a new policy to prevent the introduction and spread of carbapenem-resistance in animal farming and in the food chain.', 'An effective approach to antibiotic resistance and the food chain requires greater knowledge about the transmission route, and the specific attribution of food to antibiotic resistance. Therefore, we focus strongly on continued monitoring and research.']</t>
+  </si>
+  <si>
+    <t>['Naturally, we will monitor the implementation of the multi-annual agenda and inform Parliament on its progress at regular intervals.', 'We will regularly inform Parliament of the progress of the approach to antibiotic resistance. We propose to send an initial progress report in late December 2015.']</t>
+  </si>
+  <si>
+    <t>['A significant further reduction in the emergence and spread of multiresistant bacteria in healthcare becomes visible during the next five years. The number of avoidable healthcare-associated infections will be reduced by 50% in five years, compared with a baseline defined by the relevant actors. During the next five years, the objective is to achieve a reduction of at least 50% in the use of incorrectly prescribed antibiotics across the entire healthcare chain.', 'Our current goal focuses on a 70% reduction compared with 2009.', 'The approach will be formulated per sector, with specific goals per animal species where possible.', 'This action plan must result in an advisory report on the most effective management measures by mid 2016.']</t>
+  </si>
+  <si>
+    <t>['The number of avoidable healthcare-associated infections will be reduced by 50% in five years, compared with a baseline defined by the relevant actors. The objective is to achieve a reduction of at least 50% in the use of incorrectly prescribed antibiotics across the entire healthcare chain, relative to a baseline determined with stakeholders.', 'Our current goal focuses on a 70% reduction compared with 2009.']</t>
+  </si>
+  <si>
+    <t>['this includes a specific financial contribution from the Ministry of Health, Welfare and Sport to the WHO']</t>
+  </si>
+  <si>
+    <t>['From a public health perspective, a ban on the use of last resort antibiotics (such as carbapenems) for the treatment of animals will be addressed, with reference to the current legislative process of relevant EU regulations.', 'Continuation of more stringent NVWA (the Netherlands Food and Consumer Product Safety Authority) inspections and enforcement of restricted antibiotic use in animal farming and identification and control of illegal activities.', 'In the context of a recently proposed European Regulation on veterinary medicines, we pursue measures that contribute to a major reduction of the use of these substances in Europe. For example, we propose mandatory susceptibility testing prior to use of these medicines to be included in this new Regulation.']</t>
+  </si>
+  <si>
+    <t>['A communication strategy targeted towards professionals and the general public will be developed, aimed at raising awareness on the urgency of the problem, and personal responsibility.', "In October 2014, a campaign aimed at raising public awareness 'Ziekmakers zie je niet' ('You can't see what makes you ill') was commissioned by the Ministry of Health, Welfare and Sport. A follow-up campaign will be launched in the summer of 2015.", 'A multi-annual communication strategy will be developed targeting all: the public, professionals and administrators.', 'Increasing public awareness of the problem and increasing knowledge about how antibiotics work and should be used. A national campaign must raise public awareness and give people more knowledge on which to base their own choices.', 'The general public, professionals and administrators are the main target group in the communication strategy.', 'In the fall we will launch an easily accessible general public awareness campaign. As part of this effort, we will distribute a special issue of the comic Luke and Lucy, Auntie Biotica, in GP waiting rooms as quickly as possible after the summer holidays. This special issue is an initiative of the Belgian Committee for the Coordination of Antimicrobial Policy (BAPCOC) and addresses appropriate use of antibiotics via accessible information for the general public.']</t>
+  </si>
+  <si>
+    <t>['Therefore, international cooperation is a priority when dealing with antibiotic resistance.', 'We support the WHO, FAO and OIE in these efforts. In concrete terms, this includes a specific financial contribution from the Ministry of Health, Welfare and Sport to the WHO, and strategic secondments to the WHO.', "The Netherlands is actively involved in the action packages antibiotic resistance and zoonotic diseases. Together with our fellow 'leading countries' in the antibiotic resistance action package, the Netherlands strives to strengthen and improve coordination of technical assistance provided to countries who request it. Naturally, this is done based on demand and in close consultation with the WHO. Additionally, the leading countries develop an approach specifically for countries where combating and preventing antibiotic resistance is still in its infancy. In doing so, we contribute to the implementation of the WHO antimicrobial resistance Global Action Plan and other international guidelines.", '3. During the next five years, international cooperation with other EU countries regarding antibiotic resistance will be promoted, in order to realise an infrastructure that allows for the joint management of reducing the development and spread of antibiotic resistance.', 'the reduction of transmission of resistant bacteria via food can be pursued at the international level.', "We support and cooperate in international initiatives designed to develop new business models. An existing example is the project 'DRIVE-AB', which is funded via the European Innovative Medicines Initiative and is also part of the WHO Global Action Plan on antimicrobial resistance.", 'Two communication activities will be deployed at the international level: - 1. During the previously mentioned meeting of the Global Health Security Agenda in South Korea in September 2015. - 2. In preparation of the European Antibiotic Awareness day in November 2015.']</t>
+  </si>
+  <si>
+    <t>['the National Institute for Public Health and the Environment (RIVM) was recently appointed as WHO Collaborating Centre for Antimicrobial Resistance Epidemiology and Surveillance. This means the RIVM provides technical support to WHO member states in creating and strengthening surveillance of resistant bacteria, following the Dutch model.', 'Additionally, nursing homes and hospitals will participate in regional surveillance, as recommended by the Health Council (appendix 4) and the regional containment of resistance.', 'Efforts are also necessary in the domain of surveillance. Effective control of infectious diseases requires timely and adequate insight into who becomes ill where, when and why, and how the underlying infections spread.', 'From 2002 onwards, the Netherlands has monitored the occurrence of antibiotic resistance in animals and food. From 2014, all European member states are monitoring for resistant bacteria in animals and food thanks to mandatory European regulations.', 'At the very least, the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment.', 'At the very least, the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment. To this end, measurements will be performed in waste water from health facilities and residential areas, in waste water treatment plants and in manure, among other places.']</t>
+  </si>
+  <si>
+    <t>['the National Institute for Public Health and the Environment (RIVM) was recently appointed as WHO Collaborating Centre for Antimicrobial Resistance Epidemiology and Surveillance. This means the RIVM provides technical support to WHO member states in creating and strengthening surveillance of resistant bacteria, following the Dutch model.']</t>
+  </si>
+  <si>
+    <t>['The recent report on hygiene and infection prevention in nursing homes leads to the conclusion that greater efforts are required on behalf of long-term care institutions.', '4. The number of avoidable healthcare-associated infections will be reduced by 50% in five years, compared with a baseline defined by the relevant actors.', 'Consumers can also prevent exposure to resistant bacteria by preparing food in a hygienic manner. The Netherlands Nutrition Centre informs consumers about general hygiene guidelines that can contribute to general food safety.', 'Innovation aimed at the prevention of infections and their spread and alternatives to antibiotics', 'In curative and long-term care, we see countless examples of innovation in the domain of infection prevention and prevention of spread.', 'Providing concrete advice on the prevention of bacterial infections. Themes include food safety, hygiene, transmission of (resistant) bacteria via pets and the importance of following instructions about the use of antibiotics and hygiene guidelines.', "The follow-up to the public awareness campaign by the Netherlands Nutrition Centre ('Ziekmakers zie je niet', 'You can't see what makes you ill'), which focuses on raising awareness, improving knowledge and providing concrete recommendations for both kitchen hygiene and preparing and storing food in order to reduce pathogens, is scheduled for this summer."]</t>
+  </si>
+  <si>
+    <t>['We support the WHO, FAO and OIE in these efforts.', 'In doing so, we contribute to the implementation of the WHO antimicrobial resistance Global Action Plan and other international guidelines.']</t>
+  </si>
+  <si>
+    <t>['Furthermore, we will strive for reduction of the use of critical antibiotics in animals. From a public health perspective, a ban on the use of last resort antibiotics (such as carbapenems) for the treatment of animals will be addressed, with reference to the current legislative process of relevant EU regulations.', 'During the next five years, the objective is to achieve a reduction of at least 50% in the use of incorrectly prescribed antibiotics across the entire healthcare chain, relative to a baseline determined with stakeholders.', 'Continuation of more stringent NVWA (the Netherlands Food and Consumer Product Safety Authority) inspections and enforcement of restricted antibiotic use in animal farming and identification and control of illegal activities.', 'For example, we propose mandatory susceptibility testing prior to use of these medicines to be included in this new Regulation. Additionally, we aim for a general ban on the use of last resort antibiotics (such as carbapenems) in animals in this Regulation.']</t>
+  </si>
+  <si>
+    <t>['3. During the next five years, international cooperation with other EU countries regarding antibiotic resistance will be promoted, in order to realise an infrastructure that allows for the joint management of reducing the development and spread of antibiotic resistance.', 'Additionally, there will be a strong focus on research into new antibiotics, new treatments and innovative(medical) technology.', "We support and cooperate in international initiatives designed to develop new business models. An existing example is the project 'DRIVE-AB', which is funded via the European Innovative Medicines Initiative and is also part of the WHO Global Action Plan on antimicrobial resistance."]</t>
+  </si>
+  <si>
+    <t>['The strong connections between human, animal, and fish health and the environment call for a crossdisciplinary approach. This strategy therefore aims to examine in a holistic way the use of antibiotics and other drivers of resistance, the development and spread of resistance among humans, animals, in food and in the natural environment.', 'The Government intends to accomplish this through better scientific understanding and by increasing the understanding among both prescribers and the general public about antibiotics and their use.', 'A considerable effort is needed to generate a better and more comprehensive understanding of the extent of antibiotic resistance in humans, food, animals and in the environment.', 'This reaffirms that the problem of antibiotic resistance must be addressed through strong cooperation between the various sectors.', 'ensure that guidelines for the use of antibiotics are up-to-date, and that information campaigns lead to compliance with the recommendations, in conjunction with relevant professional bodies within the human and animal health sectors.', 'The government will: - help to develop better diagnostic methods for infectious diseases and alternative treatment strategies in the areas of both human and animal health, through participation in international research collaborations.', "The WHO is the key normative body in the field of human health, and is the natural authority in the fight against antibiotic resistance, in close collaboration with the UN's Food and Agriculture Organization (FAO) and the World Organization for Animal Health (OIE).", "The objective is to expand today's systems by standardizing, improving and extending the monitoring of both antibiotic use and antibiotic resistance to encompass humans, animals, food and the external environment.", 'Combating antibiotic resistance requires the efforts of many sectors. The four government ministries behind this strategy have sectoral responsibility for their respective goals and underlying agencies.', 'There is broad international agreement that antibiotic resistance represents a danger to both human and animal health.', 'In May 2015 the World Health Organization adopted a global action plan against antibiotic resistance in close cooperation with the World Organization for Animal Health (OIE) and the Food and Agriculture Organization (FAO).', 'Studies of Norwegian fish farming have been undertaken to examine the development of antibiotic resistance in both pathogenic bacteria and in environmental sediments.']</t>
+  </si>
+  <si>
+    <t>['Improve the level of understanding and competence regarding the use of antibiotics, among the general population as well as among prescribers', 'Treat and eradicate infections caused by resistant bacteria', '1. Antibiotic use in the total inhabitants will be reduced by 30 percent, measured in DDD 6 /1000 inhabitants/day, as compared with 2012.', 'The government will: - · carry out mapping of antibiotic resistant bacteria in humans, in food, in relevant animal populations and in sentinel environments.', 'The government will: - · assure that studies are carried out on the burden of disease resulting from antibiotic resistance and associated economic costs.', 'The government will: - carry out county by county infection control conferences for municipality physicians and other health personnel within the municipality health and care services, with particular attention to technical guidelines for prescription of antibiotics.', 'The government will: - introduce a requirement to include a diagnostic code on all antibiotic prescriptions for people.', 'General protection against the spread of infection is an important part of the preventive health effort, and is firmly embedded in the Norwegian legislative and regulatory framework.', 'The government will: - · help to develop better diagnostic methods for infectious diseases and alternative treatment strategies in the areas of both human and animal health, through participation in international research collaborations.', 'The government will: - · assess the expedience of screening for other selected microbial resistance properties, in addition to methicillin-resistant Staphylococcus aureus (MRSA), in connection with admission to healthcare institutions.', "So far, the focus has been on the human side, but a broader 'one health' perspective is currently under consideration.", 'On the human side, much of the infrastructure needed to monitor antibiotic use and antibiotic resistance, as well as hospital infections, is already in place.', 'Around 85 per cent of all antibiotics intended for use in humans are prescribed by general practitioners, while 7-10 per cent is prescribed in hospitals and the remainder in other healthcare institutions, like nursing homes.', 'Monitoring in Norway shows that the problem of resistance is increasing, even though the situation is better than in many other countries. With some infections, such as tuberculosis and gonorrhea, antibiotic resistance is already a major problem.']</t>
+  </si>
+  <si>
+    <t>['Medicines and animal health', 'Mapping of resevoirs of antibiotic resistant bacteria will be carried out in the most relevant animal populations and plants important to food safety.', 'The government will: - · carry out mapping of antibiotic resistant bacteria in humans, in food, in relevant animal populations and in sentinel environments.', 'The Government will: - · in coordination with the business community, start the process to phase out the use of narasin as a food additive for poultry, as long as this does not have a negative effect on animal health and well-being or lead to greater use of antibiotics for treatment.', "The veterinary medicine register (VetReg), which was established in 2011, will be developed so that animal health personnel can see their colleagues' prescribing practices, similar to what is planned for doctors.", 'The government will ensure that guidelines for the use of antibiotics are up-to-date, and that information campaigns lead to compliance with the recommendations, in conjunction with relevant professional bodies within the human and animal health sectors.', 'In the area of animal health, we need an overarching emergency response to control not only diseases caused by resistant bacteria in Norway, but also diseases which may be brought into the country from abroad.', 'The government will: - · help to develop better diagnostic methods for infectious diseases and alternative treatment strategies in the areas of both human and animal health, through participation in international research collaborations.', 'work to ensure that LA-MRSA does not establish itself in the Norwegian pig populations.', 'The government will: - · work to strengthen the normative role of the WHO, FAO and OIE in the field of antibiotic resistance, and support the implementation by the organizations and their member states of the measures stipulated in the global action plan, initially in the area of monitoring and surveillance.', 'On the veterinary side, too, much of the infrastructure for monitoring antibiotic use and antibiotic resistance is already in place. The field is regulated through legislation, statutory regulations, guidelines and therapy recommendations.', 'Consumption of antibiotics by Norwegian livestock is among the lowest in Europe. In the period 1995-2013 consumption by terrestrial animals decreased by 35 per cent. For food-producing animals alone, the reduction came to 38 per cent.', 'Intensified monitoring and effective infection prevention measures, including limited use of antibiotics, is crucial to prevent the spread of such bacteria.', 'The industry has implemented a number of measures to reduce the incidence of resistant bacteria in Norwegian poultry flocks.', 'The development and use of effective vaccines has been, and still is, the most important strategy to avoid the need for antibiotics in fish farming.']</t>
+  </si>
+  <si>
+    <t>['To understand how nature can spread resistance to various environments, it will be important to map the presence of resistance in the bacterial population in soil, fresh water, the ocean, sediments, wild and domestic animals.', 'Mapping of antibiotic resistant bacteria will be carried out in representative environments and selected organisms in animals, water and soil with varying degrees of exposure to antibiotics.', 'We need better scientific understanding concerning the degree of antibiotic resistance to be found in various environments. Such mapping needs to be carried out on a regular basis in order to follow development and spread, and is essential for assessing the impact of measures to limit its development.', 'The Government will: - ·  initiate studies to explore the effects of resistancepromotors other than antibiotics, including disinfectants, biocides and heavy metals, in the natural environment.', 'implement measures to cleanse environments of concentrations of resistant bacteria, if new knowledge and cost/benefit evaluations indicate this would be expedient.', "The objective is to expand today's systems by standardizing, improving and extending the monitoring of both antibiotic use and antibiotic resistance to encompass humans, animals, food and the external environment.", 'Environment (E): The role of the environment as a driver for the selection for and spread of AMR.', 'In 2014 GenØk launched a research project aimed at identifying the presence of the antibiotic resistant gene nptll in variously exposed soil samples from cultivated fields.', 'Data indicate that the aquaculture industry contributes to the spread and maintenance of antibiotic resistance in the marine environment.', 'Bacteria populations in nature (soil, water, sediments) can be exposed to other microbes and/or DNA from the manmade environment. Such exposure creates opportunities for the exchange of genetic material.']</t>
+  </si>
+  <si>
+    <t>['Mapping of resevoirs of antibiotic resistant bacteria will be carried out in the most relevant animal populations and plants important to food safety. The use of antibiotics in terrestrial animals used for food production will be reduced by at least 10 percent compared with 2013.', 'The government will: - · carry out mapping of antibiotic resistant bacteria in humans, in food, in relevant animal populations and in sentinel environments. - · assess whether new infection control measures are warranted in the overall food chain, including in the risk assessment carried out by the Scientific Committee for Food Safety (VKM).', 'assess whether new infection control measures are warranted in the overall food chain, including in the risk assessment carried out by the Scientific Committee for Food Safety (VKM).', 'Official authorities work through the Norwegian Food Safety Authority (Mattilsynet) to assure good and appropriate prescription practices among veterinarians and aqua medicine biologists who work in fish farming.', 'In addition, efforts should be made to introduce an international ban on the use of antibiotics to enhance growth in food production.', "The Norwegian Food Safety Authority (NFSA) has overall responsibility for ensuring compliance with the regulations throughout the entire food production chain. Through the NFSA's monitoring and control programs (OK programs), antibiotic resistance in animals and food is surveyed.", 'Intensified monitoring and effective infection prevention measures, including limited use of antibiotics, is crucial to prevent the spread of such bacteria.', 'The industry has implemented a number of measures to reduce the incidence of resistant bacteria in Norwegian poultry flocks.']</t>
+  </si>
+  <si>
+    <t>["ensure that selected Norwegian Foreign Service missions provide annual reports on the respective countries' efforts regarding antibiotic resistance.", 'The government will: - continue the interdepartmental working group that will follow up implementation of the strategy. - review the status at mid-point and towards the end of the strategy period.']</t>
+  </si>
+  <si>
+    <t>["The overarching goals for the period 2015-2020 include measurable and verifiable goals such as 'Reduce the total use of antibiotics' and 'More appropriate use of antibiotics.'", '- 1. Antibiotic use in the total inhabitants will be reduced by 30 percent, measured in DDD 6 /1000 inhabitants/day, as compared with 2012.\n- 3. Prescription of antibiotics will be reduced from an average today of 450 prescriptions per 1000 inhabitants per year to 250 prescriptions per 1000 inhabitants per year.\n- 4. Prescription of antibiotics for respiratory infections will be reduced by 20 percent, measured in DDD/1000 inhabitants/day, compared to 2012.\n- 4. The use of antibiotics in terrestrial animals used for food production will be reduced by at least 10 percent compared with 2013.\n- 5. The use of antibiotics in household pets will be reduced by at least 30 percent compared with 2013.']</t>
+  </si>
+  <si>
+    <t>["The overarching goals for the period 2015-2020 include 'Reduce the total use of antibiotics' and 'More appropriate use of antibiotics,' which are measurable and verifiable.", '1. Antibiotic use in the total inhabitants will be reduced by 30 percent, measured in DDD 6 /1000 inhabitants/day, as compared with 2012.']</t>
+  </si>
+  <si>
+    <t>['The government will: continue the interdepartmental working group that will follow up implementation of the strategy.']</t>
+  </si>
+  <si>
+    <t>['The government will: - ·  assess whether to expand the Prescription Register, establish a national microbiological data base, and develop a better suited set of regulations, thereby assuring better real-time access to data.', 'The government will: - work for a ban on veterinarians being able to profit financially from the sale of antibiotics, in an EU context and otherwise where such a ban would be expedient.', 'Efforts to prevent and limit antibiotic resistance are regulated by means of legislation, statutory regulations and guidelines.']</t>
+  </si>
+  <si>
+    <t>['The Government intends to accomplish this through better scientific understanding and by increasing the understanding among both prescribers and the general public about antibiotics and their use.', 'Mass media campaigns to educate the public about antibiotic resistance have been carried out in Belgium and France with positive results.', 'ensure that guidelines for the use of antibiotics are up-to-date, and that information campaigns lead to compliance with the recommendations, in conjunction with relevant professional bodies within the human and animal health sectors.', 'In order for countries to build a robust, shared understanding of the problem, a communications effort is required that does not presume prior medical knowledge.', 'assess the need to initiate, in collaboration with other agencies, a time-limited international communications campaign to promote understanding of the challenges associated with antibiotic resistance and, through this, create a shared international understanding of the issue beyond the human and animal health, food and agriculture sectors.', 'The plan has five strategic goals: 1) increase awareness and understanding of antibiotic resistance']</t>
+  </si>
+  <si>
+    <t>['The fight against antibiotic resistance calls for international cooperation.', 'Strengthen normative international collaboration', 'This strategy is consistent with the Global Action Plan against antibiotic resistance that was approved at the World Health Assembly in May 2015 and a resolution from FAO in June 2015.', 'The government will: - · help to develop better diagnostic methods for infectious diseases and alternative treatment strategies in the areas of both human and animal health, through participation in international research collaborations.', '## 2.6. Strengthen normative international collaboration\n\nAntibiotic resistance is not a challenge that can be resolved nationally. Resistant bacteria from other parts of the world may also find their way to Norway. A long-lasting and effective international response is a prerequisite for sustainable results in Norway.', 'The government will: - ·  work to strengthen the normative role of the WHO, FAO and OIE in the field of antibiotic resistance, and support the implementation by the organizations and their member states of the measures stipulated in the global action plan, initially in the area of monitoring and surveillance.', 'The government will: - assess the need to initiate, in collaboration with other agencies, a time-limited international communications campaign to promote understanding of the challenges associated with antibiotic resistance and, through this, create a shared international understanding of the issue beyond the human and animal health, food and agriculture sectors.', 'Sweden leads the Council-initiated Joint Programming Initiative on Antimicrobial Resistance (JPI-AMR), in which Norway participates along with 18 European countries and Canada.', 'ensure that Norwegian competence with respect to sustainability and responsible aquaculture is made available to developing countries, including expertise on vaccine development.', 'In May 2015 the World Health Organization adopted a global action plan against antibiotic resistance in close cooperation with the World Organization for Animal Health (OIE) and the Food and Agriculture Organization (FAO).']</t>
+  </si>
+  <si>
+    <t>['Mapping of antibiotic resistant bacteria will be carried out in representative environments and selected organisms in animals, water and soil with varying degrees of exposure to antibiotics.', 'The government will: - ·  carry out mapping of antibiotic resistant bacteria in humans, in food, in relevant animal populations and in sentinel environments. - ·  assess whether to expand the Prescription Register, establish a national microbiological data base, and develop a better suited set of regulations, thereby assuring better real-time access to data. - ·  assess the establishment of a project to set up a national microbiological data base, with the purpose of continuous monitoring of instances of antibiotic resistance and the occurrence of microbes that often lead to inappropriate use of antibiotics.', 'To assure good monitoring of prescriptions, good prescription registers are an important tool. These registers currently provide good oversight concerning the use of various antibiotics with respect to age, sex and geographic location. However, they do not include information concerning diagnoses, so it is not currently possible to determine which antibiotics are used against various infections in humans.', 'The government will investigate the creation of a system for feedback to GPs and animal health personnel with regard to the use of antibiotics in their own practices, including the offer of peer assessment of antibiotic prescribing practices.', 'improve the monitoring and analysis of incidences of resistant bacteria, both in clinical isolates (from infections), capacity of the healthy portion of the population to act as carriers and, in particular, incidences of infection associated with the health services.', 'work to strengthen the normative role of the WHO, FAO and OIE in the field of antibiotic resistance, and support the implementation by the organizations and their member states of the measures stipulated in the global action plan, initially in the area of monitoring and surveillance.', "The objective is to expand today's systems by standardizing, improving and extending the monitoring of both antibiotic use and antibiotic resistance to encompass humans, animals, food and the external environment.", 'Surveillance (C): Standardization and extension of surveillance systems to establish a global surveillance program on antibiotic resistance and antibiotic use.', 'The FHI operates the Norwegian Surveillance System for Communicable Diseases (MSIS). This health register is intended to help monitor infectious diseases in people in Norway through the continuous and systematic collection, analysis, interpretation and reporting of information on incidences of communicable diseases.', 'The Norwegian Surveillance Program for Antibiotic Resistance in Microbes from feed, animals and nutrients (NORM-VET), which was set up in 2000 and is coordinated by the Veterinary Institute.', 'The plan has five strategic goals: 1) increase awareness and understanding of antibiotic resistance, 2) increase knowledge through monitoring and research, 3) reduce incidences of infection, 4) optimize use of antimicrobial agents, and 5) secure sustainable investments in the work to combat antibiotic resistance.', 'In Norway, the first cases of LA-MRSA (livestock-associated methicillin-resistant Staphylococcus aureus) were identified in pigs in 2013. To obtain an overview of how widespread the bacterium is in Norwegian pig farms, the NFSA carries out a survey of breeding sow populations numbering more than 10 pigs (around 1,000 herds).']</t>
+  </si>
+  <si>
+    <t>['The government will: improve the monitoring and analysis of incidences of resistant bacteria, both in clinical isolates (from infections), capacity of the healthy portion of the population to act as carriers and, in particular, incidences of infection associated with the health services.', 'The FHI operates the Norwegian Surveillance System for Communicable Diseases (MSIS). This health register is intended to help monitor infectious diseases in people in Norway through the continuous and systematic collection, analysis, interpretation and reporting of information on incidences of communicable diseases. The duty to report applies to around 60 diseases, several of which are associated with antibiotic resistance.']</t>
+  </si>
+  <si>
+    <t>['Infection prevention and control measures ....................15', 'we must improve our efforts at improving hygiene in hospitals, nursing homes and in society', 'The government will: ... assess whether new infection control measures are warranted in the overall food chain, including in the risk assessment carried out by the Scientific Committee for Food Safety (VKM).', 'assess the need for changing recommendations concerning kitchen hygiene and risk communications on food handling in the context of emergence of resistant bacteria.', "Official regulations concerning infection prevention in health and support services include requirements that institutions' infection control programs shall include written guidelines on the use of antibiotics.", '## 2.4. Improved infection control', 'General protection against the spread of infection is an important part of the preventive health effort, and is firmly embedded in the Norwegian legislative and regulatory framework. The regulations relating to the control of infectious diseases stipulate that all institutions included in the municipal health and social care service, as well as the specialist health service, shall have an infection control program.', 'The government will: - · implement measures to cleanse environments of concentrations of resistant bacteria, if new knowledge and cost/benefit evaluations indicate this would be expedient.', 'strive to integrate the issue of antibiotic resistance into initiatives relating to disease monitoring and infection prevention to which Norway contributes.', 'Interventions (F): Designing and testing interventions to prevent acquisition, transmission and infection caused by AMR.', 'This helps to ensure that necessary infection prevention and control measures are implemented.', 'The plan has five strategic goals: 1) increase awareness and understanding of antibiotic resistance, 2) increase knowledge through monitoring and research, 3) reduce incidences of infection, 4) optimize use of antimicrobial agents, and 5) secure sustainable investments in the work to combat antibiotic resistance.', 'Intensified monitoring and effective infection prevention measures, including limited use of antibiotics, is crucial to prevent the spread of such bacteria.', 'Other important factors include breeding for increased resistance to disease, better operating routines to produce more robust stocks, stricter standards for water circulation at fish farms and improved hygiene for infection prevention and control.', 'According to the NFSA and the public health authorities, good hand and kitchen hygiene will protect us against antibiotic resistant bacteria.']</t>
+  </si>
+  <si>
+    <t>['This strategy is consistent with the Global Action Plan against antibiotic resistance that was approved at the World Health Assembly in May 2015 and a resolution from FAO in June 2015.', 'The government will: - work to strengthen the normative role of the WHO, FAO and OIE in the field of antibiotic resistance, and support the implementation by the organizations and their member states of the measures stipulated in the global action plan, initially in the area of monitoring and surveillance.', 'In May 2015 the World Health Organization adopted a global action plan against antibiotic resistance in close cooperation with the World Organization for Animal Health (OIE) and the Food and Agriculture Organization (FAO). This will now be implemented. The global action plan stipulates, among other things, that each country should draw up national strategies for efforts in this field.']</t>
+  </si>
+  <si>
+    <t>['The government will: - ·  assess whether to expand the Prescription Register, establish a national microbiological data base, and develop a better suited set of regulations, thereby assuring better real-time access to data.', "Official regulations concerning infection prevention in health and support services include requirements that institutions' infection control programs shall include written guidelines on the use of antibiotics.", 'The government will: - · introduce a requirement to include a diagnostic code on all antibiotic prescriptions for people.']</t>
+  </si>
+  <si>
+    <t>['The main goal of this strategy is to reduce the total use of antibiotics and to assure responsible use of antibiotics in all sectors.', 'ii) that antibiotics are only used when they are needed', 'Prescribing doctors, dentists and veterinarians are responsible for appropriate clinical diagnosis and for assessing whether treatment with antibiotics is necessary and prudent. Prescribers must take responsibility for explaining to their patients and customers why and when antibiotics should not be used.', "Official regulations concerning infection prevention in health and support services include requirements that institutions' infection control programs shall include written guidelines on the use of antibiotics.", 'Responsible use should follow technical guidelines for the use of antibiotics. The focus on responsible use must be expanded to maintain current good practices in Norway.', 'The government will introduce a requirement to include a diagnostic code on all antibiotic prescriptions for people.', 'The government will: - work for a ban on veterinarians being able to profit financially from the sale of antibiotics, in an EU context and otherwise where such a ban would be expedient.', 'Efforts to prevent and limit antibiotic resistance are regulated by means of legislation, statutory regulations and guidelines.']</t>
+  </si>
+  <si>
+    <t>['The fight against antibiotic resistance calls for international cooperation. We must see to it that new antibiotics and diagnostics are developed.', 'Contribute internationally to the development of vaccines, new antibiotics and diagnostic tools', '4. Be a driver in international and normative work to improve access, responsible use, and development of new antibiotics, vaccines and better diagnostic tools.', 'The government will: - · help to develop better diagnostic methods for infectious diseases and alternative treatment strategies in the areas of both human and animal health, through participation in international research collaborations.', 'the government will: ... work to promote an approach that combines enhanced access, more responsible use and the development of new antibiotics and diagnostic methods.', 'The government will: - participate actively in the international debate about incentive schemes for the development of new antibiotics, while supporting efforts to develop vaccines.', 'consider increasing contributions to research that can lead to new or better antibiotics and diagnostic methods, including through the JPI-AMR.']</t>
+  </si>
+  <si>
+    <t>['The plan is focusing on five major elements with defined objectives, activities and monitoring tools by adopting the One Health approach. It will coordinate efforts for raising awareness among health care providers, veterinary and agriculture professionals and the public.', '2.1  MDRO Surveillance: Both in Human and Animal', 'A nationally coordinated effort and adopting the ONE HEALTH approach by all concerned sectors and the whole society is crucial and mandatory to combat the resistance in the country.', 'The aim of this report is to give an overview of AMR in Oman, highlight the challenges and provide a proposed strategy and a roadmap for the national stakeholders to combat the threat of AMR in human and animal sectors. The principles of One health will be adopted and implemented.', 'To combat antimicrobial resistance through nationally coordinated efforts between different sectors and stakeholders through the following objectives: - 4. To promote rational use of antimicrobial agents at all healthcare levels, and veterinary settings', 'Conduct point prevalence studies at the animal and agriculture sectors to assess the prevalence of MDROs. Implement food borne pathogens AMR surveillance in animal health and agriculture sectors using the standards published by OIE.', 'The plan addresses multiple priority sectors by including strategies for both human health through the Antibiotic Stewardship Programs in hospitals and animal health by prohibiting the use of Critically Important Antibiotics in animals and requiring prescriptions for antimicrobials used in food animals.', 'To have scientific recommendations on the use in the veterinary sector of last resort antimicrobials for humans (e.g. tigecycline and colistin) sector - To reduce the overall use of antimicrobials in veterinary medicine (better targeted treatments, guided by best practice guidelines …. etc) - To regulate and reduce the use of medicated feeds.', 'The National AMR Committee will lead the implementation of this Strategy as a comprehensive, integrated Programme across government. The committee will be composed of all the stakeholders including: Ministry of Health, Ministry of Agriculture and Fisheries wealth, Ministry of Environment, and others, indicating a One Health approach.', 'The unit will be receiving data from antimicrobial stewardship teams in the hospital, the MDRO surveillance data, the consumption data from both health and animal sectors.', 'Develop curricula on antimicrobial resistance for professionals in the healthcare, veterinary and agriculture sectors (including infection prevention and control, rational use of antimicrobial medicines, surveillance) and implement pre-service and in-service training', 'Establish or strengthen surveillance on antimicrobial resistance in animal health and agriculture sectors', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health.', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health']</t>
+  </si>
+  <si>
+    <t>['It will also support implementation of antimicrobial stewardship programs in all healthcare settings', '3.  Rational use of Antimicrobials in human and animal health', 'The national action plan detailed the strategic national objectives to fight AMR through national coordination, it emphasizes on the role of awareness, surveillance, optimization of antibiotic consumption and use, the infection prevention and control measures, research and international collaboration with WHO, FOA and OIE.', 'The aim of this report is to give an overview of AMR in Oman, highlight the challenges and provide a proposed strategy and a roadmap for the national stakeholders to combat the threat of AMR in human and animal sectors.', "To reduce the adverse impact on patient's outcomes", '## 3.  Rational use of Antimicrobials in human and animal health\n\n## 3.1 Human\n\n## 3.1.1 Legalizations:\n- -link dispensing of all antimicrobial agents to a prescription and unique prescriber/pharmacist identifiers\n- -Prohibit over the counter sale of antimicrobials\n- - Develop standards for selecting and using generic antimicrobial agents.\n- - Ensure that only antimicrobials meeting international standards of quality, safety and efficacy grant marketing authorization.\n- -Introduce legal requirements for manufacturers to collect and report data on antimicrobial distribution (including import/export).\n- -Introduce requirements for pharmaceutical companies to comply with national or international codes of practice on promotional activities.\n- -Develop antimicrobials restriction for community.', 'It is highly recommended that all hospitals implement an Antibiotic Stewardship Programs.', 'High standards of infection prevention and control will remain crucial to minimize the risk of infection, limit the emergence and spread of multi drug resistant organisms in human and animals.', 'Five priority actions are crucial to accelerate the response against the MDR-TB epidemic: 1. Prevent the development of drug-resistance through high quality treatment of drug-susceptibility TB. 2. Expand rapid testing and detection of drug resistant TB cases. 3. Provide immediate access to effective treatment and proper care. 4. Prevent transmission through infection control. 5. Increase political commitment with financing.', 'Develop curricula on antimicrobial resistance for professionals in the healthcare, veterinary and agriculture sectors (including infection prevention and control, rational use of antimicrobial medicines, surveillance) and implement pre-service and in-service training', 'Conduct National campaigns awareness for patients and public on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.', '3. Reduce the  incidence of infection  through effective  infection prevention  measures', '3. Reduce the incidence of infection through effective infection prevention measures', '●  Develop and implement evidence-based standard treatment guidelines to guide stewardship programmes in human health', '●  Establish antimicrobial stewardship programs in all hospitals that ensure rational use of antibiotics through several interventions including feedback and education.']</t>
+  </si>
+  <si>
+    <t>['It will also support implementation of antimicrobial stewardship programs in all healthcare settings and elimination of the use of medically-important antibiotics for growth promotion in food animals.', '2.1  MDRO Surveillance: Both in Human and Animal', 'The aim of this report is to give an overview of AMR in Oman, highlight the challenges and provide a proposed strategy and a roadmap for the national stakeholders to combat the threat of AMR in human and animal sectors.', 'To promote rational use of antimicrobial agents at all healthcare levels, and veterinary settings', '- Conduct point prevalence studies at the animal and agriculture sectors to assess the prevalence of MDROs.\n- Implement food borne pathogens AMR surveillance in animal health and agriculture sectors using the standards published by OIE.\n- Adapt the FAO/WHO Codex Alimentarius Code of practice to minimize and contain AMR in these sectors.', '## 3.2 Animals\n\n## 3.2.1 Legalizations:\n\n- prohibit the use of the Critically Important Antibiotics (CIA) in animals .\n- All antimicrobials used for disease control in food animals require obligatory prescriptions by licensed veterinarians.\n- Terminate or rapidly phase out the use of antimicrobials for growth promotion.\n- Create national systems to monitor antimicrobial usage in food animals according to OIE standards.\n- To have scientific recommendations on the use in the veterinary sector of last resort antimicrobials for humans (e.g. tigecycline and colistin) sector', '-To reduce the overall use of antimicrobials in veterinary medicine (better targeted treatments, guided by best practice guidelines …. etc)', '- Monitor and improve infection prevention and control practices in animal health, both through enhanced dissemination and implementation of best practice and better use of data and diagnostics.', 'Develop curricula on antimicrobial resistance for professionals in the healthcare, veterinary and agriculture sectors (including infection prevention and control, rational use of antimicrobial medicines, surveillance) and implement pre-service and in-service training', 'Establish or strengthen surveillance on antimicrobial resistance in animal health and agriculture sectors', 'Animal Health', 'Strengthen animal health and agricultural practices through implementation of the standards published in the terrestrial and aquatic animal health codes of the organization for Animal Health(OIE) and Codex Alimentarius code of practice to minimize and contain antimicrobial resistance', 'Develop recommendations for the use of vaccines as a method of preventing infections in animals and reduction of antimicrobial use', 'Establish or strengthen mechanisms for registration of antimicrobial medicines within relevant national authorities according to global standards (e.g International Cooperation on Harmonization of Technical Requirement for registration of Veterinary Medicinal Products)', '●  Identify and consider banning non-health use of critically important antibiotics for humans in the animal sector\n●  Promote the prudent use of antimicrobials and legalize the distribution and dispensing of antimicrobials by prescription, carried out by accredited veterinary professionals\n●  Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health']</t>
+  </si>
+  <si>
+    <t>['10-Ministry of Environment']</t>
+  </si>
+  <si>
+    <t>['It will also support implementation of antimicrobial stewardship programs in all healthcare settings and elimination of the use of medically-important antibiotics for growth promotion in food animals.', 'The World Health Organization has reported recently an alarming increase in the incidence of resistant strains of Salmonella, which is mainly due to increasing use of antibiotics in animal husbandry and agriculture.', 'Enhance awareness among patients, health care works, and agriculture and veterinary professionals of the impact and the magnitude of the problem through improved communication, coordination, education and training.', '- Conduct point prevalence studies at the animal and agriculture sectors to assess the prevalence of MDROs.\n- Implement food borne pathogens AMR surveillance in animal health and agriculture sectors using the standards published by OIE.\n- Adapt the FAO/WHO Codex Alimentarius Code of practice to minimize and contain AMR in these sectors.', '-prohibit the use of the Critically Important Antibiotics (CIA) in animals .\n- All antimicrobials used for disease control in food animals require obligatory prescriptions by licensed veterinarians.\n- Terminate or rapidly phase out the use of antimicrobials for growth promotion.\n- Create national systems to monitor antimicrobial usage in food animals according to OIE standards.\n- To have scientific recommendations on the use in the veterinary sector of last resort antimicrobials for humans (e.g. tigecycline and colistin) sector', '- To reduce the overall use of antimicrobials in veterinary medicine (better targeted treatments, guided by best practice guidelines …. etc)\n- To regulate and reduce the use of medicated feeds.\n- Upgrade the capacity the national animal laboratories to effectively monitor for residues of antimicrobials of concern (critically important antimicrobials including fluoroquinolones, third and fourth generation cephalosporins and macrolides).\n- Encouraging retailers to review their standards for meat and animal products and to set clear specifications, concerning bio-security, antimicrobial stewardship and good husbandry throughout the supply chain for overseas as well as nationally sourced meat and animal products, working with suppliers and veterinarians to ensure compliance.', "- Make available the use of vaccines in husbandry.\n- Adopt and adhere to government guidance on bio-security, animal husbandry and on farm health planning for each of the major farming sectors and to take proactive action to reduce the risk of disease occurring in their animals under experienced veterinarian supervision.\n- Consider the use of 'farm assurance schemes' as a mechanism to increase adherence to best husbandry including isolation of sick animals, testing of new stock and responsible use of antibiotic principles by veterinarians only, while ensuring animal health and welfare.", 'The World Health Organization has reported recently an alarming increase in the incidence of resistant strains of Salmonella, which is mainly due to increasing use of antibiotics in animal husbandry and agriculture.', 'Develop curricula on antimicrobial resistance for professionals in the healthcare, veterinary and agriculture sectors (including infection prevention and control, rational use of antimicrobial medicines, surveillance) and implement pre-service and in-service training', '\uf0b7 Establish or strengthen surveillance on antimicrobial resistance in animal health and agriculture sectors', 'Strengthen animal health and agricultural practices through implementation of the standards published in the terrestrial and aquatic animal health codes of the organization for Animal Health(OIE) and Codex Alimentarius code of practice to minimize and contain antimicrobial resistance', '● Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health']</t>
+  </si>
+  <si>
+    <t>['Surveillance and feedback on antibiotic utilization should be conducted regularly or at least twice a year (every 6 monthly). Report of this surveillance and feedback must be submitted to the hospital leadership and reported to the central antimicrobial unit at Directorate General of Disease Surveillance &amp; Control.', '-Monitor regularly key performance indicators of the strategic goals and activities.', 'Annual report of all the activities should be submitted to the National AMR committee.']</t>
+  </si>
+  <si>
+    <t>['●  Assess the investment needs for implementation of the national action plan on research and development']</t>
+  </si>
+  <si>
+    <t>['It addresses the need to establish a National reference center and a national AMR committee with defined roles and responsibilities to coordinate, follow up the implantation of National Action Plan.', 'The National AMR Committee will lead the implementation of this Strategy as a comprehensive, integrated Programme across government. The committee will be composed of all the stakeholders including: Ministry of Health, Private sector (Hospitals &amp; pharmacies), Ministry of Agriculture and Fisheries wealth, Sultan Qaboos University, Armed Forces hospitals, Royal Oman Police, Research council and other agencies supporting research, Media, Community leaders, Consumer protection, Ministry of Municipality (Food Safety Center), Ministry of Environment, Oman Medical Specialty Board (OMSB).', 'Annual report of all the activities should be submitted to the National AMR committee']</t>
+  </si>
+  <si>
+    <t>['-link dispensing of all antimicrobial agents to a prescription and unique prescriber/pharmacist identifiers\n- Prohibit over the counter sale of antimicrobials\n- Ensure that only antimicrobials meeting international standards of quality, safety and efficacy grant marketing authorization.\n-Introduce legal requirements for manufacturers to collect and report data on antimicrobial distribution (including import/export).\n-Introduce requirements for pharmaceutical companies to comply with national or international codes of practice on promotional activities.\n-Develop antimicrobials restriction for community.', '-prohibit the use of the Critically Important Antibiotics (CIA) in animals .\n- All antimicrobials used for disease control in food animals require obligatory prescriptions by licensed veterinarians.\n- Terminate or rapidly phase out the use of antimicrobials for growth promotion.\n- Create national systems to monitor antimicrobial usage in food animals according to OIE standards.', '- To regulate and reduce the use of medicated feeds.', '-Develop regulations and national policies with regards to the use of antimicrobials in health and animal husbandry.', '●  Develop and enforce legislation and regulations on prescription and dispensing of medicine including antibiotic (self- regulation by professional association) informed by identification of barriers', '●  Develop and enforce regulations to control promotional practices by industry', '●  Promote the prudent use of antimicrobials and legalize the distribution and dispensing of antimicrobials by prescription, carried out by accredited veterinary professionals']</t>
+  </si>
+  <si>
+    <t>['Include the importance of rationale use of antimicrobials and the impact of antimicrobial resistance in the curricula of nursing, pharmacy, dental, medical and veterinary and agricultural schools.', '8) Education on AMS program via continuous medical education (CME) and antibiotic awareness campaign. Provide regular updates on antimicrobial prescribing, practice and usage for healthcare professionals.', 'Develop curricula on antimicrobial resistance for professionals in the healthcare, veterinary and agriculture sectors (including infection prevention and control, rational use of antimicrobial medicines, surveillance) and implement pre-service and in-service training', 'Conduct National campaigns awareness for patients and public on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.']</t>
+  </si>
+  <si>
+    <t>['It will coordinate efforts for raising awareness among health care providers, veterinary and agriculture professionals and the public.', 'it emphasizes on the role of awareness, surveillance, optimization of antibiotic consumption and use, the infection prevention and control measures', 'Conduct Regular National campaigns to increase and improve the awareness among HCW, veterinary and agriculture and the Public.', '8) Education on AMS program via continuous medical education (CME) and antibiotic awareness campaign.', 'Conduct National campaigns awareness for patients and public on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.', 'Conduct National campaigns awareness for patients and public on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.', '\uf0b7 Promote personal hygiene through social mobilization and behavior change activities']</t>
+  </si>
+  <si>
+    <t>['It will also support World Health Assembly resolution 67.25 (Antimicrobial Resistance) and WHO Global Action Plan (WHA 68.7), which urges countries to take urgent action at the national, regional, and local levels to combat antimicrobial resistance.', 'it emphasizes on the role of awareness, surveillance, optimization of antibiotic consumption and use, the infection prevention and control measures, research and international collaboration with WHO, FOA and OIE.', 'The principles of One health will be adopted and implemented. Taking into considerations the challenges present, and adapting certain well evident intervention based on international recommendations such as WHO, EU, and the GCC Infection control working group.', 'Collaborate and participate in regional and global networks for exchange of expertise in surveillance and research in both human and animal sectors.', 'Seek international collaboration with organization such as WHO, FAO, OIE…', 'The molecular epidemiology of MDRA have been assessed in a collaborative study between six GCC (Oman,KSA,Bahrain,Kuwait ,Qatar &amp; UAE) countries and Queensland university in Australia.', 'Establish mechanisms for regular sharing of antimicrobial resistance data across human and animal health environmental sectors at the national, regional and global levels as per global standards', 'Strengthen animal health and agricultural practices through implementation of the standards published in the terrestrial and aquatic animal health codes of the organization for Animal Health(OIE) and Codex Alimentarius code of practice to minimize and contain antimicrobial resistance', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics.', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics.']</t>
+  </si>
+  <si>
+    <t>['Surveillance and monitoring of AMR trends in human and animal health will be implemented to assess the magnitude of the problem and help in planning the interventions to reduce the incidence of AMR in both sectors.', '2. Surveillance', 'the actual magnitude of these organisms need to be addressed by implementing the national surveillance system.', 'The Central Public Health Laboratories have launched in 2014 national antimicrobial resistance surveillance among enteric isolates including Salmonella.', 'Surveillance of the incidence and trend of MDROs and the Healthcare Associated Infections (HAIs) is very crucial to understand and assess the national magnitude of the problem and needed to plan interventions and monitor their effectiveness. -Standardization of Antimicrobial Laboratory testing and unifying the MDROs definitions. -Upgrade the Laboratory capacity in all hospitals with qualified human resources and needed to tools to accurately identify MDROs and to identify newly or emerging mechanisms of resistance. -Ensure the quality of laboratory methods used for identification and antimicrobial susceptibility testing by ensuring the adherence to standard operating procedures (SOP), internal and external quality control schemes -Establish and upgrade the molecular bacteriology section at the Central Public Health Laboratories to cater as a national reference laboratory for MDROs. -Adapt a national MDROs surveillance using the Global Antimicrobial Surveillance framework.', 'Adapt a national MDROs surveillance using the Global Antimicrobial Surveillance framework.', 'Surveillance and feedback on antibiotic utilization should be conducted regularly or at least twice a year (every 6 monthly). Report of this surveillance and feedback must be submitted to the hospital leadership and reported to the central antimicrobial unit at Directorate General of Disease Surveillance &amp; Control.', '- Upgrade the capacity the national animal laboratories to effectively monitor for residues of antimicrobials of concern (critically important antimicrobials including fluoroquinolones, third and fourth generation cephalosporins and macrolides).', 'All surveillance data of MDROs and antimicrobial consumption should be reported to this unit. The unit will be receiving data from antimicrobial stewardship teams in the hospital, the MDRO surveillance data, the consumption data from both health and animal sectors.', 'The source of these isolates are mainly from infection control samples where hospitals are implementing active surveillance for CRE among high risk patients.', 'The Central Public Health Laboratories have launched in 2014 a national antimicrobial resistance surveillance among enteric isolates including Salmonella.', 'The national TB reference laboratory in Oman has an important role in controlling the spread of infections, through the early detection, isolation, identification and susceptibility testing.', 'Establish a national reference centre for antimicrobial resistance with the ability to systematically collect, analyse and report data on antimicrobial use and resistance in order to inform decision making at national and international levels', '\uf0b7 Establish an antimicrobial resistance surveillance network integrating all laboratories']</t>
+  </si>
+  <si>
+    <t>['-Upgrade the Laboratory capacity in all hospitals with qualified human resources and needed to tools to accurately identify MDROs and to identify newly or emerging mechanisms of resistance.', 'Establish a national reference centre for antimicrobial resistance with the ability to systematically collect, analyse and report data on antimicrobial use and resistance in order to inform decision making at national and international levels', 'Designate at least a national reference laboratory for antimicrobial resistance capable of quality assured identification and susceptibility testing and reporting, including on newly emerged resistance']</t>
+  </si>
+  <si>
+    <t>['it emphasizes on the role of awareness, surveillance, optimization of antibiotic consumption and use, the infection prevention and control measures', 'Educate patients on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.', 'High standards of infection prevention and control will remain crucial to minimize the risk of infection, limit the emergence and spread of multi drug resistant organisms in human and animals.', '- Monitor and improve infection prevention and control practices in animal health, both through enhanced dissemination and implementation of best practice and better use of data and diagnostics.', '4. Prevent transmission through infection control.', 'Conduct National campaigns awareness for patients and public on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.', 'Conduct National campaigns awareness for patients and public on the importance of measures to prevent infection, such as immunization, hygiene and cough etiquette.', '3. Reduce the  incidence of infection  through effective  infection prevention  measures\n\uf0b7 Promote personal hygiene through social mobilization and behavior change activities', 'Infection prevention and control in healthcare settings', 'Reduce the incidence of infection through effective infection prevention measures']</t>
+  </si>
+  <si>
+    <t>['it emphasizes on the role of awareness, surveillance, optimization of antibiotic consumption and use, the infection prevention and control measures, research and international collaboration with WHO, FOA and OIE.', 'Adapt the FAO/WHO Codex Alimentarius Code of practice to minimize and contain AMR in these sectors.', 'Create national systems to monitor antimicrobial usage in food animals according to OIE standards.', 'Seek international collaboration with organization such as WHO, FAO, OIE…', 'Strengthen animal health and agricultural practices through implementation of the standards published in the terrestrial and aquatic animal health codes of the organization for Animal Health(OIE) and Codex Alimentarius code of practice to minimize and contain antimicrobial resistance', 'Establish or strengthen mechanisms for registration of antimicrobial medicines within relevant national authorities according to global standards (e.g International Cooperation on Harmonization of Technical Requirement for registration of Veterinary Medicinal Products)', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics.', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics.']</t>
+  </si>
+  <si>
+    <t>['-link dispensing of all antimicrobial agents to a prescription and unique prescriber/pharmacist identifiers\n- Prohibit over the counter sale of antimicrobials\n- Develop standards for selecting and using generic antimicrobial agents.\n- Ensure that only antimicrobials meeting international standards of quality, safety and efficacy grant marketing authorization.\n-Introduce legal requirements for manufacturers to collect and report data on antimicrobial distribution (including import/export).\n-Develop antimicrobials restriction for community.', 'All antimicrobials used for disease control in food animals require obligatory prescriptions by licensed veterinarians.', '-Develop regulations and national policies with regards to the use of antimicrobials in health and animal husbandry.', '●  Develop and enforce legislation and regulations on prescription and dispensing of medicine including antibiotic (self- regulation by professional association) informed by identification of barriers', '●  Promote the prudent use of antimicrobials and legalize the distribution and dispensing of antimicrobials by prescription, carried out by accredited veterinary professionals']</t>
+  </si>
+  <si>
+    <t>['To promote rational use of antimicrobial agents at all healthcare levels, and veterinary settings', '-link dispensing of all antimicrobial agents to a prescription and unique prescriber/pharmacist identifiers\n- Prohibit over the counter sale of antimicrobials\n- Develop standards for selecting and using generic antimicrobial agents.\n- Ensure that only antimicrobials meeting international standards of quality, safety and efficacy grant marketing authorization.\n- Introduce legal requirements for manufacturers to collect and report data on antimicrobial distribution (including import/export).\n- Introduce requirements for pharmaceutical companies to comply with national or international codes of practice on promotional activities.\n- Develop antimicrobials restriction for community.', 'Several interventions can be implemented to ensure the rational antibiotic use including: Antibiotic time-out pre-authorization policy, prospective audits on appropriate use and feedback in addition to establishing pharmacist driven interventions such as automatic switch of IV to PO, Time-sensitive automatic stop orders for specified antibiotic prescriptions.', '- To regulate and reduce the use of medicated feeds.', '-Develop regulations and national policies with regards to the use of antimicrobials in health and animal husbandry.', 'Develop curricula on antimicrobial resistance for professionals in the healthcare, veterinary and agriculture sectors (including infection prevention and control, rational use of antimicrobial medicines, surveillance) and implement pre-service and in-service training', '●  Develop and enforce legislation and regulations on prescription and dispensing of medicine including antibiotic (self- regulation by professional association) informed by identification of barriers', 'Establish antimicrobial stewardship programs in all hospitals that ensure rational use of antibiotics through several interventions including feedback and education.', '●  Establish antimicrobial stewardship programs in all hospitals that ensure rational use of antibiotics through several interventions including feedback and education.', 'Adopt policies on the use of antimicrobial agents in terrestrial and aquatic animals, and agriculture, including: implementation of Codex Alimentaruis and OIE intergovernmental standards and guidelines such as the List of Antimicrobials of Veterinary Importance as well as WHO/OIE guidance on the use of critically important antibiotics, phasing out of the use of antibiotics for animal growth promotion and crop protection and crop protection in the absence of risk analysis, and reduction in nontherapeutic use of antimicrobial medicines in animal health']</t>
+  </si>
+  <si>
+    <t>['it emphasizes on the role of awareness, surveillance, optimization of antibiotic consumption and use, the infection prevention and control measures, research and international collaboration with WHO, FOA and OIE.', 'The molecular epidemiology of MDRA have been assessed in a collaborative study between six GCC (Oman, KSA, Bahrain, Kuwait, Qatar and UAE) countries and Queensland university in Australia.', 'Collaborate and participate in regional and global networks for exchange of expertise in surveillance and research in both human and animal sectors.', 'Develop a collaborative research sectors including, healthcare, drug regulatory agencies, veterinarian care and agriculture.']</t>
+  </si>
+  <si>
+    <t>['In the food chain, antibiotic resistance is a threat to animal health and animal welfare, to food safety, trade and economic development. Excessive use of antibiotics in animal production increases the risk of spread of resistant bacteria.', 'Swedish efforts should continue to be based on a broad, crosssectoral One Health perspective, involving multiple areas such as human and animal health, the environment, research, education, trade and international development cooperation.', 'The strategy applies until the end of 2023 and maintains the long-term focus, its overarching goal continuing to be to preserve the possibility of effective treatment of bacterial infections in humans and animals.', 'Preventive efforts such as vaccination programmes and prevention of sexually transmitted infections, reduce both the use of antibiotics and the consequences of the development of resistance.', 'The need for antibiotics in animals is reduced through efficient disease control, good farm management, biosecurity and sound animal husbandry. Safe international trade in both living animals and animal products is particularly important. This also reduces the risk of resistant bacteria spreading to other animals, to foods, to the environment and to humans.', 'These challenges cannot be solved by individual nations; they require coordinated international cooperation spanning multiple sectors, also including low-income countries and their particular circumstances.', 'the staff in health and social care, dentistry and the animal and food sector to have good knowledge of the issue of resistance, antibiotics and antimicrobial agents, infection prevention and control practices and the One Health concept', 'Efforts to prevent and manage antibiotic resistance spans several sectors and parties.', 'The global action plan adopted by the WHO Member States in 2015 emphasises the importance of having an explicit One Health perspective in tackling AMR.', 'Antibiotic resistance and other antimicrobial resistance are a global and cross-sectoral threat to health that necessitates input from the whole international community.', 'The Government expects Sweden to continue to support WHO, FAO, OIE and UNEP in efforts to tackle AMR, in accordance with the global action plan on AMR and equivalent documents in the agriculture and food sectors.', 'Sweden to continue to build alliances with other countries to pursue the AMR issue at a high political level with the aim of highlighting important overarching issues from a One Health perspective; Sweden to take part in Nordic cooperation on AMR', 'Sweden also has a programme for surveillance of antibiotic resistance in bacteria from animals and in food. The Swedish National Veterinary Institute and the Public Health Agency of Sweden are tasked with monitoring antibiotic resistance, which is done in collaboration with the Swedish Board of Agriculture and the Swedish National Food Agency.', 'The Public Health Agency of Sweden is tasked with working to ensure that the possibility of using antibiotics effectively in humans and animals is maintained. The National Veterinary Institute likewise has a remit to take action to ensure responsible use of antibiotics in the veterinary and food sector through Strama VL.', 'One Health has long been an established approach in Sweden, and the first national action plan against antibiotic resistance in 2000 was already cross-sectoral.']</t>
+  </si>
+  <si>
+    <t>['The overarching objective of the Swedish Strategy to Combat Antibiotic Resistance is to preserve the possibility of effective treatment of bacterial infections in humans and animals.', 'the overarching goal continuing to be to preserve the possibility of effective treatment of bacterial infections in humans and animals.', 'effective measures are taken to prevent infections and infection transmission and to minimise the spread of multi-resistant bacteria', 'The Government expects a high level of compliance with vaccination, monitoring and health programmes to be maintained to promote human and animal health and consequently reduce the need for antibiotics.', 'The Government expects - · antibiotics to continue only to be used after being prescribed by professionals who are authorised to prescribe antibiotics - · recommendations on diagnostics and management of common infections to be kept up-to-date and harmonised as far as possible and applied in day-to-day work in the healthcare system and in veterinary care', 'greater knowledge of infectious diseases contributes to new antibiotics, other treatment options, diagnostic methods and vaccines being developed', 'The Government expects - · existing diagnostics and treatments to be developed and optimised in line with the needs and priorities of healthcare organisations', 'The Government expects staff in health and social care, dentistry and the animal and food sector to have good knowledge of the issue of resistance, antibiotics and antimicrobial agents, infection prevention and control practices and the One Health concept.', 'Strama, a national working group within the Swedish national system for knowledge management in healthcare, to support national efforts of the entities responsible for healthcare and to coordinate the regional Strama groups in working towards prudent and responsible use of antibiotics', 'Effective infection prevention and control programmes such as good healthcare hygiene and other preventive measures, reduce the spread of infectious diseases in society and in health and social care.', 'The Public Health Agency of Sweden is tasked with working to ensure that the possibility of using antibiotics effectively in humans and animals is maintained.']</t>
+  </si>
+  <si>
+    <t>['In the food chain, antibiotic resistance is a threat to animal health and animal welfare, to food safety, trade and economic development. Excessive use of antibiotics in animal production increases the risk of spread of resistant bacteria.', 'The overarching objective of the Swedish Strategy to Combat Antibiotic Resistance is to preserve the possibility of effective treatment of bacterial infections in humans and animals.', 'the ability to systematically monitor the long-term trends regarding infections in humans and animals, the resistance situation and sale and use of antibiotics to be maintained, coordinated and developed', 'The Government expects relevant actors in animal production, veterinary medicine and the food chain to have access to expertise on hygiene and infection prevention and control in order to ensure good animal health and safe food.', 'it is important that antibiotics and other antimicrobial agents are used only when they are of benefit, that the right type of antibiotic is used and that treatment recommendations are developed, kept up to date and followed. To reduce the growth of resistance, antibiotics must also be used responsibly in animal husbandry.', 'data to be available regarding reasons for prescribing of medicines in veterinary medicine in order to enable checking or supervision of compliance with treatment recommendations.', 'staff in health and social care, dentistry and the animal and food sector to have good knowledge of the issue of resistance, antibiotics and antimicrobial agents, infection prevention and control practices and the One Health concept', 'For the animal sector there are groupings with similar objectives such as Strama VL (Veterinary and Food) and the Swedish Veterinary Association for Infection Prevention and Control.', 'OIE has prepared a strategy to support Member Countries on AMR related efforts and responsible use of antimicrobial agents in animal production.', 'Healthy animals are an overarching goal in Swedish animal production. Strategies based on improving animal', 'Sweden to press for the expansion, development and use of harmonised global surveillance systems for antibiotic resistance and antibiotic use in humans and animals and, where appropriate, also for foods and the environment.', 'Sweden to support a global phase-out of the use of antibiotics as growth promoters in animal production and of other routine use of antibiotics in groups of animals', 'A corresponding approach with vaccination programmes, infection prevention and control programmes and rules for hygiene procedures is used to keep animals healthy in Sweden.', 'The Public Health Agency of Sweden is tasked with working to ensure that the possibility of using antibiotics effectively in humans and animals is maintained. The National Veterinary Institute likewise has a remit to take action to ensure responsible use of antibiotics in the veterinary and food sector through Strama VL.', 'the Swedish Board of Agriculture has developed regulations on the use of antibiotics in animals.']</t>
+  </si>
+  <si>
+    <t>['Swedish efforts should continue to be based on a broad, crosssectoral One Health perspective, involving multiple areas such as human and animal health, the environment, research, education, trade and international development cooperation.', 'access to data on antibiotic resistance and the sale and use of antibiotics and other antimicrobial agents in all sectors, as well as data on healthcare-associated infections and the emission of antibiotics to the environment is improved', 'emissions of antibiotics and antimicrobial substances to the environment are minimised.', 'The emission of antibiotics and other antimicrobial agents to the environment can contribute to increased resistance. Advanced treatment of waste water is one way of reducing the dispersal of antibiotics, resistant bacteria and other antimicrobial agents to the environment. Minimising emissions from the manufacturing of antibiotics and other antimicrobial agents can also contribute to reduced dispersal to the environment.', 'antibiotics that are not used to be returned to pharmacies and disposed of in an environmentally correct manner', 'the Knowledge Centre for Pharmaceuticals in the Environment at the Medical Products Agency to collate and disseminate knowledge on the development and spread of antibiotic resistance in the environment, as well as the risks to the environment and to human and animal health.', 'Knowledge of the role of the environment in the development and spread of antibiotic resistance and what effects can occur in the environment is also increasing. To prevent emissions of antibiotic residues to the environment, there is a need for emissions from manufacturing to be minimised, for people throughout the world to have access to clean water and sanitation and for discarded antibiotics to be collected and managed in an environmentally sound way.', 'Sweden to push for environmental data to form part of the basis for the approval process of antibiotics and be made available to governmental agencies and other relevant stakeholders. The data should be used for the assessment of environmental risks of development and spread of antibiotic resistance.', 'Many different measures are required to deal with emissions of antibiotics to the environment. In addition to work in progress to promote responsible use of antibiotics, the Government in 2018 launched a three-year programme to install advanced wastewater treatment. The aim is to reduce emissions of pharmaceutical residues, including antibiotics, from wastewater treatment plants.']</t>
+  </si>
+  <si>
+    <t>['Antibiotics are also important to cure diseases in animals and to ensure food security.', 'In the food chain, antibiotic resistance is a threat to animal health and animal welfare, to food safety, trade and economic development. Excessive use of antibiotics in animal production increases the risk of spread of resistant bacteria.', 'relevant actors in animal production, veterinary medicine and the food chain to have access to expertise on hygiene and infection prevention and control in order to ensure good animal health and safe food', 'it is important that antibiotics and other antimicrobial agents are used only when they are of benefit, that the right type of antibiotic is used and that treatment recommendations are developed, kept up to date and followed. To reduce the growth of resistance, antibiotics must also be used responsibly in animal husbandry.', 'consumers to be aware that food from producers who work to achieve good animal health and use antibiotics only when they are really needed contributes to counteracting the spread of resistant bacteria in society', 'Strama VL (Veterinary and Food) to continue to provide knowledge-based support to various stakeholders in the veterinary and food sectors', 'FAO has developed its own action plan to support the food and agriculture sectors in particular in implementing the global action plan.', 'Adverse effects of antibiotic resistance in food production therefore pose a threat to the goal of abolishing hunger and several other goals in the 2030 Agenda for Sustainable Development.', 'Sweden to continue to support WHO, FAO, OIE and UNEP in efforts to tackle AMR, in accordance with the global action plan on AMR and equivalent documents in the agriculture and food sectors', 'Sweden to support a global phase-out of the use of antibiotics as growth promoters in animal production and of other routine use of antibiotics in groups of animals', 'Sweden also has a programme for surveillance of antibiotic resistance in bacteria from animals and in food.', 'The National Veterinary Institute likewise has a remit to take action to ensure responsible use of antibiotics in the veterinary and food sector through Strama VL.', "The Public Health Agency of Sweden and the Swedish Board of Agriculture chair the collaborative function, which hosts the sector-wide communication platform 'Save Antibiotics', and an annual Antibiotics Forum, in which a broad group of stakeholders meet."]</t>
+  </si>
+  <si>
+    <t>['The results from surveillance of resistance and antibiotic use in humans and animals are presented annually in a joint report by the Swedish National Veterinary Institute and the Public Health Agency of Sweden.']</t>
+  </si>
+  <si>
+    <t>["An example is the national '250 target' in primary care (fewer than 250 antibiotic prescriptions issued per 1,000 inhabitants per year), which was introduced in 2009."]</t>
+  </si>
+  <si>
+    <t>['The Government expects a national collaborative function with relevant government agencies and other stakeholders to coordinate overarching national efforts.', 'A national collaborative function currently comprising 25 government agencies and other organisations coordinates national efforts against antibiotic resistance since 2012.']</t>
+  </si>
+  <si>
+    <t>['Sweden to push for the development of regulations to steer towards minimised emissions of antibiotics to the environment in pharmaceutical production', 'In addition, the Swedish Board of Agriculture has developed regulations on the use of antibiotics in animals.']</t>
+  </si>
+  <si>
+    <t>['antibiotic resistance, infection prevention and control and healthcare hygiene to be included in relevant basic education and professional training.']</t>
+  </si>
+  <si>
+    <t>['Objective 5: Improved awareness and understanding in society of antibiotic resistance and countermeasures', 'It is beneficial that many parties in Sweden are working to disseminate knowledge about antibiotic resistance and preventive measures through their channels and networks.', 'A high level of awareness of the problem of antibiotic resistance among relevant professions and industries, managements of healthcare organisations, the general public and decision makers is an important element in efforts towards responsible use of antibiotics.', "the collaborative function hosts the sector-wide communication platform 'Save Antibiotics', and an annual Antibiotics Forum, in which a broad group of stakeholders meet."]</t>
+  </si>
+  <si>
+    <t>['Objective 7: Leadership within the EU and international cooperation', 'Sweden should continue to pursue the issue of antibiotic resistance at the international and EU levels.', 'Swedish efforts to combat antibiotic resistance at the national, EU and international levels need to be long-term and sustainable and be based on effective initiatives in all relevant areas. Sweden should continue to show leadership in international efforts, in line with the Swedish Policy for Global Development, global commitments made under the 2030 Agenda for Sustainable Development and EU activities. The strategy is based on ongoing Swedish efforts to combat antibiotic resistance, on the global action plan on antimicrobial resistance adopted by the WHO, the FAO action plan, the OIE strategy and on other relevant plans and strategies such as the EU Action Plan against Antimicrobial Resistance.', 'It is based on developments in several areas, in particular internationally with increased engagement within the UN system.', 'These challenges cannot be solved by individual nations; they require coordinated international cooperation spanning multiple sectors, also including low-income countries and their particular circumstances. The EU is an important platform in international research cooperation for Sweden.', 'This objective signifies that Sweden continues to show international leadership in efforts to tackle antimicrobial resistance and urges responsible use of antimicrobial agents around the world. Antibiotic resistance and other antimicrobial resistance (AMR) is a global problem that requires all countries to contribute to its solution. Large international organisations such as WHO, FAO, OIE and UNEP are platforms for these efforts.', "Sweden should contribute to other countries' efforts on reducing the development of resistance and curbing spread.", 'The Government expects - · Sweden to continue to support WHO, FAO, OIE and UNEP in efforts to tackle AMR, in accordance with the global action plan on AMR and equivalent documents in the agriculture and food sectors', 'Sweden to continue to build alliances with other countries to pursue the AMR issue at a high political level with the aim of highlighting important overarching issues from a One Health perspective; Sweden to take part in Nordic cooperation on AMR', 'The Public Health Agency of Sweden supports the expansion of the Global Antimicrobial Resistance Surveillance System through its WHO Collaborating Centre.', 'Sweden was also one of the initiators of the international research cooperation Joint Programming Initiative on Antimicrobial Resistance (JPIAMR) that was launched in 2010. Ever since, Sweden has played a leading role in this cooperation, in part through the secretariat being located at the Swedish Research Council. Sweden is also a member of the Global AMR R&amp;D Hub, a collaboration platform for research policy issues in the area of resistance.']</t>
+  </si>
+  <si>
+    <t>['Objective 1: Increased knowledge through enhanced surveillance\n\nThis objective signifies that\n\n- ·   access to data on antibiotic resistance and the sale and use of antibiotics and other antimicrobial agents in all sectors, as well as data on healthcare-associated infections and the emission of antibiotics to the environment is improved\n- ·   the outcome and cost-effectiveness of various measures is evaluated, using continuous data collection.', 'Sweden to employ effective systems for early detection, collation, analysis and reporting of antibiotic resistance and healthcare-associated infections', 'data to be available regarding reasons for prescribing of medicines in veterinary medicine in order to enable checking or supervision of compliance with treatment recommendations.', 'Sweden to press for the expansion, development and use of harmonised global surveillance systems for antibiotic resistance and antibiotic use in humans and animals and, where appropriate, also for foods and the environment.', 'Surveillance is essential in order to draw up and evaluate relevant measures against antibiotic resistance and is the basis for recommendations on the treatment of infectious diseases. Diagnostics with routine taking of samples forms the basis of surveillance in the Swedish healthcare system. This, combined with automated, daily collation of laboratory results, produces clinically relevant resistance data.']</t>
+  </si>
+  <si>
+    <t>['Sweden to employ effective systems for early detection, collation, analysis and reporting of antibiotic resistance and healthcare-associated infections', 'Sweden to press for the expansion, development and use of harmonised global surveillance systems for antibiotic resistance and antibiotic use in humans and animals and, where appropriate, also for foods and the environment.']</t>
+  </si>
+  <si>
+    <t>['effective measures are taken to prevent infections and infection transmission and to minimise the spread of multi-resistant bacteria', 'The Government expects personnel in relevant organisations to have and apply knowledge of antibiotic resistance, infection transmission and the importance of a high level of compliance with basic hygiene practices as part of systematic and evidence-based infection prevention efforts.', 'reducing the spread of infectious diseases and consequently the need for antibiotics relies on acute awareness of the importance of good hygiene and preventive measures.', 'To prevent emissions of antibiotic residues to the environment, there is a need for emissions from manufacturing to be minimised, for people throughout the world to have access to clean water and sanitation and for discarded antibiotics to be collected and managed in an environmentally sound way.', 'Effective infection prevention and control programmes such as good healthcare hygiene and other preventive measures, reduce the spread of infectious diseases in society and in health and social care.']</t>
+  </si>
+  <si>
+    <t>['The strategy is based on ongoing Swedish efforts to combat antibiotic resistance, on the global action plan on antimicrobial resistance adopted by the WHO, the FAO action plan, the OIE strategy and on other relevant plans and strategies such as the EU Action Plan against Antimicrobial Resistance.', 'Sweden continues to show international leadership in efforts to tackle antimicrobial resistance and urges responsible use of antimicrobial agents around the world. Large international organisations such as WHO, FAO, OIE and UNEP are platforms for these efforts.', 'The Government expects Sweden to continue to support WHO, FAO, OIE and UNEP in efforts to tackle AMR, in accordance with the global action plan on AMR and equivalent documents in the agriculture and food sectors.', 'Sweden to urge effective cooperation on responsible use of antibiotics in animal production under EU free trade agreements to counteract antibiotic resistance']</t>
+  </si>
+  <si>
+    <t>['The Government expects antibiotics to continue only to be used after being prescribed by professionals who are authorised to prescribe antibiotics.', 'Evidence-based national treatment recommendations provide important support to physicians and veterinarians as well as a reference point to follow up prescription. Prescribing targets that are developed in consideration of current treatment recommendations and the possibility of follow-up can be a useful tool in efforts to combat antibiotic resistance.']</t>
+  </si>
+  <si>
+    <t>['public procurement to be used as a strategic tool to attain the goals of the strategy, for example by setting requirements for animal welfare, responsible use of antibiotics and reduced environmental impact of antibiotics.', 'The Government expects antibiotics to continue only to be used after being prescribed by professionals who are authorised to prescribe antibiotics.', 'In Sweden, where antibiotics are available on prescription only, prescribers have a heavy responsibility for responsible use.', 'Sweden to urge effective cooperation on responsible use of antibiotics in animal production under EU free trade agreements to counteract antibiotic resistance', 'The interdisciplinary organization Strama has promoted responsible use of antibiotics since it was formed in 1995. The Strama model is based on peer-to-peer feedback to prescribers, in particular how their prescribing relates to established treatment recommendations and set targets. Evidence-based national treatment recommendations provide important support to physicians and veterinarians as well as a reference point to follow up prescription. Prescribing targets that are developed in consideration of current treatment recommendations and the possibility of follow-up can be a useful tool in efforts to combat antibiotic resistance.', 'Effectively regulated sale of antibiotics both for veterinary and human use fosters responsible use of antibiotics.']</t>
+  </si>
+  <si>
+    <t>['Sweden to take part in international research cooperation in the field of antibiotic resistance and related areas', 'The importance of international cooperation and coordination in the area of research is highlighted under Objective 4 in the present strategy.', 'Sweden was also one of the initiators of the international research cooperation Joint Programming Initiative on Antimicrobial Resistance (JPIAMR) that was launched in 2010.']</t>
+  </si>
+  <si>
     <t>The NAP was developed based on the national strategy covering almost all the areas recommended by the WHO and other relevant global agencies, ensuring a multi-sectoral approach.</t>
   </si>
   <si>
@@ -227,13 +584,385 @@
   </si>
   <si>
     <t>The document does not mention participation in international collaborative research.</t>
+  </si>
+  <si>
+    <t>The action plan establishes FPT commitments on AMR over the next 5 years (2023 to 2027). Ten priority actions will guide Canada's multi-sectoral and multi-jurisdictional efforts across 5 pillars: research and innovation; surveillance; stewardship; infection prevention and control (IPC); and leadership.</t>
+  </si>
+  <si>
+    <t>In human health, AMU is trending downward overall with a more than 25% decrease in both community and healthcare sectors from 2017 to 2021.</t>
+  </si>
+  <si>
+    <t>Antimicrobials are essential to keep animals healthy and to help maintain a safe and secure food supply.</t>
+  </si>
+  <si>
+    <t>Action related to AMR and the environment is an increasing area of priority.</t>
+  </si>
+  <si>
+    <t>The agriculture sector will be a critical partner in helping balance the need to preserve the effectiveness of antimicrobials for human and animal health with the need for safe and affordable food products.</t>
+  </si>
+  <si>
+    <t>Regular public reporting on progress will help partners adjust interventions over time and ensure best practices are shared with domestic and international stakeholders.</t>
+  </si>
+  <si>
+    <t>Collaboration with partners is required to understand what data gaps need to be addressed to ensure baselines and other metrics can be adapted to different sectors and be used to inform actions.</t>
+  </si>
+  <si>
+    <t>Establish baselines and targets for national, provincial and territorial levels of AMR and appropriate AMU in human health.</t>
+  </si>
+  <si>
+    <t>The document does not specify any budget allocation for the strategies or actions.</t>
+  </si>
+  <si>
+    <t>The PHAC AMR Task Force will work closely with the FPT AMR Steering Committee, First Nations, Inuit and Métis partners, and other partners across sectors to develop an effective network of networks approach.</t>
+  </si>
+  <si>
+    <t>Health Canada introduced multiple regulatory and policy changes to strengthen the oversight and responsible use of MIAs in animals.</t>
+  </si>
+  <si>
+    <t>Professional education, training and ongoing development in the human health and veterinary sectors and in agriculture and agri-food practices should consistently include AMR and AMU.</t>
+  </si>
+  <si>
+    <t>Foster understanding of the risks of AMR and the importance of appropriate use of antimicrobials in humans and animals amongst the public, patients and producers through awareness/education campaigns.</t>
+  </si>
+  <si>
+    <t>Canada will continue to play a leadership role in key international fora such as the Global AMR Research and Development Hub.</t>
+  </si>
+  <si>
+    <t>Surveillance is closely linked to other pillars such as, research and innovation, stewardship, and IPC, as it supports and informs actions, reveals trends and gaps, and helps measure the effect of interventions.</t>
+  </si>
+  <si>
+    <t>The modernization of surveillance infrastructure is integral to a coordinated response to AMR.</t>
+  </si>
+  <si>
+    <t>Strategies that can help prevent the transmission of antimicrobial-resistant pathogens include addressing information gaps, updating and promoting uptake of infection prevention guidelines.</t>
+  </si>
+  <si>
+    <t>Canada has strong technical knowledge and experience with integrated AMR/AMU surveillance systems and research.</t>
+  </si>
+  <si>
+    <t>The development and dissemination of guidelines and other appropriate stewardship tools and standards will allow stakeholders to integrate stewardship programs into their daily operations.</t>
+  </si>
+  <si>
+    <t>Canada must continue to strengthen its multidisciplinary research and innovation on AMR to support mitigation efforts and help secure access to antimicrobials and other health-related products.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes a One Health approach, stating that it allows for the development of strategies not only from the health sector but also from other sectors related to antimicrobial use and its ecological consequences.</t>
+  </si>
+  <si>
+    <t>The NAP includes specific actions aimed at preventing infections associated with health care and controlling antimicrobial resistance in human health.</t>
+  </si>
+  <si>
+    <t>The NAP outlines strategies to prevent and control infections in animals, including those in production and companion animals.</t>
+  </si>
+  <si>
+    <t>The NAP addresses the environmental impact of antimicrobial resistance and includes strategies for monitoring and controlling environmental contamination.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions aimed at regulating the use of antimicrobials in agriculture and promoting responsible practices in food production.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the need for annual or biannual operational plans that allow for continuous planning and evaluation of proposed activities.</t>
+  </si>
+  <si>
+    <t>The NAP outlines specific objectives and timelines for the implementation of its strategies.</t>
+  </si>
+  <si>
+    <t>The NAP includes objectives related to monitoring and reducing the prevalence of antimicrobial resistance and the use of antimicrobials.</t>
+  </si>
+  <si>
+    <t>The document does not specify budget allocations for the strategies or actions outlined.</t>
+  </si>
+  <si>
+    <t>The NAP does not include an assessment of future budget requirements for the activities.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the establishment of a multisectoral committee to coordinate actions against antimicrobial resistance.</t>
+  </si>
+  <si>
+    <t>The NAP includes strategies to strengthen regulatory frameworks for the use of antimicrobials.</t>
+  </si>
+  <si>
+    <t>The NAP promotes the incorporation of AMR topics into educational curricula and training programs for health professionals.</t>
+  </si>
+  <si>
+    <t>The NAP outlines plans for public awareness campaigns to inform the community about the responsible use of antimicrobials.</t>
+  </si>
+  <si>
+    <t>The NAP acknowledges collaboration with international organizations such as WHO, FAO, and OIE in combating AMR.</t>
+  </si>
+  <si>
+    <t>The NAP includes objectives for developing integrated surveillance systems for AMR across various sectors.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need to strengthen capacities for detecting and reporting new resistance patterns.</t>
+  </si>
+  <si>
+    <t>The NAP includes strategies for preventing infections through improved sanitation and hygiene measures.</t>
+  </si>
+  <si>
+    <t>The NAP refers to the implementation of international standards and guidelines for AMR control.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to regulate the distribution and prescription of antibiotics.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for regulations to ensure the rational use of antibiotics.</t>
+  </si>
+  <si>
+    <t>The NAP promotes participation in international research collaborations to develop new solutions for AMR.</t>
+  </si>
+  <si>
+    <t>The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment.</t>
+  </si>
+  <si>
+    <t>The main focus within the approach to antibiotic resistance in the Netherlands itself lies in healthcare and animal farming.</t>
+  </si>
+  <si>
+    <t>The goal is reduction and prudent use of antibiotics in animal farming in order to limit the development of resistance where possible.</t>
+  </si>
+  <si>
+    <t>Knowledge about the development of, the occurrence of and the spread of antibiotic resistance in people and animals, but also in the environment (soil, water and air) is crucial to controlling antibiotic resistance.</t>
+  </si>
+  <si>
+    <t>An effective approach to antibiotic resistance and the food chain requires greater knowledge about the transmission route, and the specific attribution of food to antibiotic resistance.</t>
+  </si>
+  <si>
+    <t>We will monitor the implementation of the multi-annual agenda and inform Parliament on its progress at regular intervals.</t>
+  </si>
+  <si>
+    <t>Actors agree to the following goals: A significant further reduction in the emergence and spread of multiresistant bacteria in healthcare becomes visible during the next five years.</t>
+  </si>
+  <si>
+    <t>The number of avoidable healthcare-associated infections will be reduced by 50% in five years, compared with a baseline defined by the relevant actors.</t>
+  </si>
+  <si>
+    <t>The document does not mention the establishment of a multisectoral committee or task force.</t>
+  </si>
+  <si>
+    <t>We will strive for reduction of the use of critical antibiotics in animals and a ban on the use of last resort antibiotics for the treatment of animals.</t>
+  </si>
+  <si>
+    <t>A communication strategy targeted towards professionals and the general public will be developed, aimed at raising awareness on the urgency of the problem.</t>
+  </si>
+  <si>
+    <t>A national campaign must raise public awareness and give people more knowledge on which to base their own choices.</t>
+  </si>
+  <si>
+    <t>We support the WHO, FAO and OIE in these efforts.</t>
+  </si>
+  <si>
+    <t>The National Institute for Public Health and the Environment (RIVM) was recently appointed as WHO Collaborating Centre for Antimicrobial Resistance Epidemiology and Surveillance.</t>
+  </si>
+  <si>
+    <t>The strategy consists of eleven 'action packages'. The Netherlands is actively involved in the action packages antibiotic resistance and zoonotic diseases.</t>
+  </si>
+  <si>
+    <t>Greater efforts are required on behalf of long-term care institutions to improve hygiene and infection prevention.</t>
+  </si>
+  <si>
+    <t>We will strive for reduction of the use of critical antibiotics in animals and address food safety aspects.</t>
+  </si>
+  <si>
+    <t>We will develop an approach in 2015 to prevent the introduction and spread of carbapenem-resistance in animal farming.</t>
+  </si>
+  <si>
+    <t>We will pursue measures that contribute to a major reduction of the use of these substances in Europe.</t>
+  </si>
+  <si>
+    <t>We support and cooperate in international initiatives designed to develop new business models.</t>
+  </si>
+  <si>
+    <t>The strategy aims to examine in a holistic way the use of antibiotics and other drivers of resistance, the development and spread of resistance among humans, animals, in food and in the natural environment.</t>
+  </si>
+  <si>
+    <t>The sector-specific goals for health include reducing antibiotic use in the total inhabitants by 30 percent and improving prescribing practices.</t>
+  </si>
+  <si>
+    <t>The NAP includes goals such as mapping reservoirs of antibiotic resistant bacteria in animal populations and reducing antibiotic use in terrestrial animals used for food production.</t>
+  </si>
+  <si>
+    <t>The NAP includes goals for mapping antibiotic resistant bacteria in representative environments and studying the effects of other drivers of resistance in nature.</t>
+  </si>
+  <si>
+    <t>The NAP includes specific goals for reducing antibiotic use in food-producing animals and household pets.</t>
+  </si>
+  <si>
+    <t>The government will continue the interdepartmental working group that will follow up implementation of the strategy and review the status at mid-point and towards the end of the strategy period.</t>
+  </si>
+  <si>
+    <t>The overarching goals for the period 2015-2020 include measurable targets such as reducing total antibiotic use and improving knowledge of antibiotic resistance.</t>
+  </si>
+  <si>
+    <t>The sector-specific goals include specific numerical targets for reducing antibiotic prescriptions and use in various sectors.</t>
+  </si>
+  <si>
+    <t>The description of measures is limited to measures that can be implemented within applicable budget frameworks.</t>
+  </si>
+  <si>
+    <t>The document does not provide an assessment of future budget requirements for the activities listed.</t>
+  </si>
+  <si>
+    <t>The government will continue the interdepartmental working group that will follow up implementation of the strategy.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for infection control programs and guidelines on the use of antibiotics in health services.</t>
+  </si>
+  <si>
+    <t>The government will carry out county by county infection control conferences for health personnel, focusing on technical guidelines for antibiotic prescription.</t>
+  </si>
+  <si>
+    <t>The government will ensure that the public is well informed about appropriate use of antibiotics and evaluate mass media campaigns aimed at preventing unnecessary antibiotic use.</t>
+  </si>
+  <si>
+    <t>The NAP states that Norway will work to strengthen the normative role of the WHO, FAO, and OIE in the field of antibiotic resistance.</t>
+  </si>
+  <si>
+    <t>The government will carry out mapping of antibiotic resistant bacteria in humans, food, and relevant animal populations.</t>
+  </si>
+  <si>
+    <t>The NAP includes measures to assess the expedience of screening for selected microbial resistance properties in connection with healthcare admissions.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the importance of infection prevention and control measures as part of the preventive health effort.</t>
+  </si>
+  <si>
+    <t>The NAP states that Norway will work to strengthen international collaboration and support the implementation of measures stipulated in the global action plan.</t>
+  </si>
+  <si>
+    <t>The NAP includes the establishment of a veterinary medicine register to improve prescription practices among veterinarians.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for guidelines and regulations concerning the use of antibiotics in health services.</t>
+  </si>
+  <si>
+    <t>The government will participate actively in the international debate about incentive schemes for the development of new antibiotics and support efforts to develop vaccines.</t>
+  </si>
+  <si>
+    <t>The plan is focusing on five major elements with defined objectives, activities and monitoring tools by adopting the One Health approach.</t>
+  </si>
+  <si>
+    <t>The NAP includes specific actions in the human health sector, including promoting rational use of antimicrobial agents at all healthcare levels.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions targeting animal health, such as prohibiting the use of Critically Important Antibiotics in animals and requiring prescriptions for antimicrobials used in food animals.</t>
+  </si>
+  <si>
+    <t>The document does not explicitly mention strategies or actions targeting the environment.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions related to agriculture, such as monitoring antimicrobial usage in food animals and implementing standards published by OIE.</t>
+  </si>
+  <si>
+    <t>The NAP mentions that annual reports of all activities should be submitted to the National AMR committee.</t>
+  </si>
+  <si>
+    <t>The document does not provide quantitative targets for AMR prevalence or antimicrobial use.</t>
+  </si>
+  <si>
+    <t>The document does not mention any specific budget allocation for the strategies.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the establishment of a National AMR Committee composed of various stakeholders for coordination.</t>
+  </si>
+  <si>
+    <t>The NAP includes legalizations to link dispensing of all antimicrobial agents to a prescription and to prohibit over-the-counter sales.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to include the importance of rational use of antimicrobials in the curricula of nursing, pharmacy, dental, medical, and veterinary schools.</t>
+  </si>
+  <si>
+    <t>The NAP mentions conducting regular national campaigns to increase awareness among healthcare workers, veterinary professionals, and the public.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for international collaboration with organizations such as WHO, FAO, and OIE.</t>
+  </si>
+  <si>
+    <t>The NAP includes establishing a national reference center for antimicrobial resistance capable of systematic data collection and analysis.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the need to upgrade laboratory capacity to identify newly or emerging mechanisms of resistance.</t>
+  </si>
+  <si>
+    <t>The NAP includes activities to ensure high standards of infection prevention and control to minimize the risk of infection.</t>
+  </si>
+  <si>
+    <t>The NAP mentions adapting the FAO/WHO Codex Alimentarius Code of practice to minimize and contain AMR in animal health and agriculture sectors.</t>
+  </si>
+  <si>
+    <t>The NAP includes legalizations to link dispensing of all antimicrobial agents to a prescription.</t>
+  </si>
+  <si>
+    <t>The NAP includes legal requirements for manufacturers to collect and report data on antimicrobial distribution.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for collaborative research sectors including healthcare, drug regulatory agencies, and veterinary care.</t>
+  </si>
+  <si>
+    <t>The strategy represents a roadmap for efforts to tackle antibiotic resistance... based on a broad, cross-sectoral One Health perspective, involving multiple areas such as human and animal health, the environment, research, education, trade and international development cooperation.</t>
+  </si>
+  <si>
+    <t>The NAP mentions specific actions in the human health sector, including... effective measures are taken to prevent infections and infection transmission and to minimise the spread of multi-resistant bacteria.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions such as... the need for antibiotics in animals is reduced through efficient disease control, good farm management, biosecurity and sound animal husbandry.</t>
+  </si>
+  <si>
+    <t>The NAP states... emissions of antibiotics and antimicrobial substances to the environment are minimised.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes... safe international trade in both living animals and animal products is particularly important.</t>
+  </si>
+  <si>
+    <t>The Government expects... activities regarding antibiotic resistance are followed up and the lessons learnt are acted upon.</t>
+  </si>
+  <si>
+    <t>The national '250 target' in primary care (fewer than 250 antibiotic prescriptions issued per 1,000 inhabitants per year) was introduced in 2009.</t>
+  </si>
+  <si>
+    <t>The NAP includes... the number of antibiotic prescriptions filled annually fell by around one million between 2009 and 2017.</t>
+  </si>
+  <si>
+    <t>A national collaborative function currently comprising 25 government agencies and other organisations coordinates national efforts against antibiotic resistance since 2012.</t>
+  </si>
+  <si>
+    <t>The NAP includes... the Swedish Board of Agriculture regulations govern the use in animals of drugs that are particularly important for the treatment of humans.</t>
+  </si>
+  <si>
+    <t>The NAP expects... antibiotic resistance, infection prevention and control and healthcare hygiene to be included in relevant basic education and professional training.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes... it is important that the information is coordinated in each sector and between the sectors, so that the general public receive the same message.</t>
+  </si>
+  <si>
+    <t>The NAP states... Sweden to continue to support WHO, FAO, OIE and UNEP in efforts to tackle AMR.</t>
+  </si>
+  <si>
+    <t>The NAP includes... access to data on antibiotic resistance and the sale and use of antibiotics and other antimicrobial agents in all sectors, as well as data on healthcare-associated infections.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes... the ability to systematically monitor the long-term trends regarding infections in humans and animals, the resistance situation and sale and use of antibiotics.</t>
+  </si>
+  <si>
+    <t>The NAP states... infection prevention and control measures and practices are fundamental in curbing infections and spread of infection in health and social care and in veterinary care.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes... Sweden to urge the EU to pursue issues relevant to AMR at the global level.</t>
+  </si>
+  <si>
+    <t>The NAP states... antibiotics to continue only to be used after being prescribed by professionals who are authorised to prescribe antibiotics.</t>
+  </si>
+  <si>
+    <t>The NAP expects... Sweden to take part in international research cooperation in the field of antibiotic resistance and related areas.</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,21 +1025,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -348,7 +1069,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -382,7 +1103,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -417,10 +1137,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -593,16 +1312,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I155"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -631,510 +1348,3546 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D2" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F2" t="s">
-        <v>50</v>
+        <v>171</v>
       </c>
       <c r="G2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="G3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D4" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F4" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F6" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F8" t="s">
-        <v>54</v>
+        <v>175</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F9" t="s">
-        <v>55</v>
+        <v>176</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F10" t="s">
-        <v>56</v>
+        <v>177</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F11" t="s">
-        <v>57</v>
+        <v>178</v>
       </c>
       <c r="G11" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F12" t="s">
-        <v>58</v>
+        <v>179</v>
       </c>
       <c r="G12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="E13" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F13" t="s">
-        <v>59</v>
+        <v>180</v>
       </c>
       <c r="G13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D14" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="E14" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F14" t="s">
-        <v>60</v>
+        <v>181</v>
       </c>
       <c r="G14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E15" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>182</v>
       </c>
       <c r="G15" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="E16" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>183</v>
       </c>
       <c r="G16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>63</v>
+        <v>184</v>
       </c>
       <c r="G17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F18" t="s">
-        <v>64</v>
+        <v>185</v>
       </c>
       <c r="G18" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>186</v>
       </c>
       <c r="G19" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D21" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E21" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F21" t="s">
-        <v>67</v>
+        <v>188</v>
       </c>
       <c r="G21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="E22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="G22" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>9</v>
       </c>
       <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F23" t="s">
+        <v>189</v>
+      </c>
+      <c r="G23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" t="s">
+        <v>190</v>
+      </c>
+      <c r="G24" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+      <c r="B25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s">
+        <v>191</v>
+      </c>
+      <c r="G25" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+      <c r="B26" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="s">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>20</v>
+      </c>
+      <c r="C28" t="s">
+        <v>38</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" t="s">
+        <v>194</v>
+      </c>
+      <c r="G28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" t="s">
+        <v>10</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" t="s">
+        <v>61</v>
+      </c>
+      <c r="E29" t="s">
+        <v>38</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" t="s">
+        <v>10</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>38</v>
+      </c>
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E31" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" t="s">
+        <v>197</v>
+      </c>
+      <c r="G31" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" t="s">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>38</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>198</v>
+      </c>
+      <c r="G32" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33" t="s">
+        <v>39</v>
+      </c>
+      <c r="D33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E33" t="s">
+        <v>39</v>
+      </c>
+      <c r="F33" t="s">
+        <v>178</v>
+      </c>
+      <c r="G33" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" t="s">
+        <v>10</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" t="s">
+        <v>65</v>
+      </c>
+      <c r="E34" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" t="s">
+        <v>199</v>
+      </c>
+      <c r="G34" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
+      <c r="A35" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
+      <c r="A36" t="s">
+        <v>10</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>38</v>
+      </c>
+      <c r="D36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" t="s">
+        <v>201</v>
+      </c>
+      <c r="G36" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
+      <c r="A37" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C37" t="s">
+        <v>38</v>
+      </c>
+      <c r="D37" t="s">
+        <v>68</v>
+      </c>
+      <c r="E37" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" t="s">
+        <v>202</v>
+      </c>
+      <c r="G37" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" t="s">
+        <v>10</v>
+      </c>
+      <c r="B38" t="s">
+        <v>30</v>
+      </c>
+      <c r="C38" t="s">
+        <v>38</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" t="s">
+        <v>203</v>
+      </c>
+      <c r="G38" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
+      <c r="A39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B39" t="s">
         <v>31</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>70</v>
+      </c>
+      <c r="E39" t="s">
+        <v>38</v>
+      </c>
+      <c r="F39" t="s">
+        <v>204</v>
+      </c>
+      <c r="G39" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
+      <c r="A40" t="s">
+        <v>10</v>
+      </c>
+      <c r="B40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C40" t="s">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>71</v>
+      </c>
+      <c r="E40" t="s">
+        <v>38</v>
+      </c>
+      <c r="F40" t="s">
+        <v>205</v>
+      </c>
+      <c r="G40" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" t="s">
+        <v>10</v>
+      </c>
+      <c r="B41" t="s">
         <v>33</v>
       </c>
-      <c r="D23" t="s">
-        <v>39</v>
-      </c>
-      <c r="E23" t="s">
+      <c r="C41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" t="s">
+        <v>38</v>
+      </c>
+      <c r="F41" t="s">
+        <v>206</v>
+      </c>
+      <c r="G41" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B42" t="s">
+        <v>34</v>
+      </c>
+      <c r="C42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D42" t="s">
+        <v>73</v>
+      </c>
+      <c r="E42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F42" t="s">
+        <v>207</v>
+      </c>
+      <c r="G42" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" t="s">
+        <v>38</v>
+      </c>
+      <c r="D43" t="s">
+        <v>74</v>
+      </c>
+      <c r="E43" t="s">
+        <v>38</v>
+      </c>
+      <c r="F43" t="s">
+        <v>200</v>
+      </c>
+      <c r="G43" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" t="s">
+        <v>10</v>
+      </c>
+      <c r="B44" t="s">
+        <v>36</v>
+      </c>
+      <c r="C44" t="s">
+        <v>38</v>
+      </c>
+      <c r="D44" t="s">
+        <v>75</v>
+      </c>
+      <c r="E44" t="s">
+        <v>38</v>
+      </c>
+      <c r="F44" t="s">
+        <v>208</v>
+      </c>
+      <c r="G44" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B45" t="s">
+        <v>37</v>
+      </c>
+      <c r="C45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D45" t="s">
+        <v>76</v>
+      </c>
+      <c r="E45" t="s">
+        <v>38</v>
+      </c>
+      <c r="F45" t="s">
+        <v>209</v>
+      </c>
+      <c r="G45" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>38</v>
+      </c>
+      <c r="D46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E46" t="s">
+        <v>38</v>
+      </c>
+      <c r="F46" t="s">
+        <v>210</v>
+      </c>
+      <c r="G46" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" t="s">
+        <v>11</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>38</v>
+      </c>
+      <c r="D47" t="s">
+        <v>78</v>
+      </c>
+      <c r="E47" t="s">
+        <v>38</v>
+      </c>
+      <c r="F47" t="s">
+        <v>211</v>
+      </c>
+      <c r="G47" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" t="s">
+        <v>11</v>
+      </c>
+      <c r="B48" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D48" t="s">
+        <v>79</v>
+      </c>
+      <c r="E48" t="s">
+        <v>38</v>
+      </c>
+      <c r="F48" t="s">
+        <v>212</v>
+      </c>
+      <c r="G48" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" t="s">
+        <v>11</v>
+      </c>
+      <c r="B49" t="s">
+        <v>19</v>
+      </c>
+      <c r="C49" t="s">
+        <v>38</v>
+      </c>
+      <c r="D49" t="s">
+        <v>80</v>
+      </c>
+      <c r="E49" t="s">
+        <v>38</v>
+      </c>
+      <c r="F49" t="s">
+        <v>213</v>
+      </c>
+      <c r="G49" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D50" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" t="s">
+        <v>38</v>
+      </c>
+      <c r="F50" t="s">
+        <v>214</v>
+      </c>
+      <c r="G50" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C51" t="s">
+        <v>38</v>
+      </c>
+      <c r="D51" t="s">
+        <v>82</v>
+      </c>
+      <c r="E51" t="s">
+        <v>38</v>
+      </c>
+      <c r="F51" t="s">
+        <v>215</v>
+      </c>
+      <c r="G51" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" t="s">
+        <v>11</v>
+      </c>
+      <c r="B52" t="s">
+        <v>22</v>
+      </c>
+      <c r="C52" t="s">
+        <v>39</v>
+      </c>
+      <c r="D52" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" t="s">
+        <v>38</v>
+      </c>
+      <c r="F52" t="s">
+        <v>216</v>
+      </c>
+      <c r="G52" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" t="s">
+        <v>11</v>
+      </c>
+      <c r="B53" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" t="s">
+        <v>38</v>
+      </c>
+      <c r="D53" t="s">
+        <v>83</v>
+      </c>
+      <c r="E53" t="s">
+        <v>38</v>
+      </c>
+      <c r="F53" t="s">
+        <v>217</v>
+      </c>
+      <c r="G53" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" t="s">
+        <v>24</v>
+      </c>
+      <c r="C54" t="s">
+        <v>39</v>
+      </c>
+      <c r="D54" t="s">
+        <v>45</v>
+      </c>
+      <c r="E54" t="s">
+        <v>39</v>
+      </c>
+      <c r="F54" t="s">
+        <v>218</v>
+      </c>
+      <c r="G54" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
+      <c r="A55" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" t="s">
+        <v>45</v>
+      </c>
+      <c r="E55" t="s">
+        <v>39</v>
+      </c>
+      <c r="F55" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
+      <c r="A56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>38</v>
+      </c>
+      <c r="D56" t="s">
+        <v>84</v>
+      </c>
+      <c r="E56" t="s">
+        <v>38</v>
+      </c>
+      <c r="F56" t="s">
+        <v>220</v>
+      </c>
+      <c r="G56" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" t="s">
+        <v>11</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57" t="s">
+        <v>38</v>
+      </c>
+      <c r="D57" t="s">
+        <v>85</v>
+      </c>
+      <c r="E57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F57" t="s">
+        <v>221</v>
+      </c>
+      <c r="G57" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" t="s">
+        <v>11</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D58" t="s">
+        <v>86</v>
+      </c>
+      <c r="E58" t="s">
+        <v>38</v>
+      </c>
+      <c r="F58" t="s">
+        <v>222</v>
+      </c>
+      <c r="G58" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
+      <c r="A59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="s">
+        <v>38</v>
+      </c>
+      <c r="D59" t="s">
+        <v>87</v>
+      </c>
+      <c r="E59" t="s">
+        <v>38</v>
+      </c>
+      <c r="F59" t="s">
+        <v>223</v>
+      </c>
+      <c r="G59" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
+      <c r="A60" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60" t="s">
+        <v>38</v>
+      </c>
+      <c r="D60" t="s">
+        <v>88</v>
+      </c>
+      <c r="E60" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" t="s">
+        <v>224</v>
+      </c>
+      <c r="G60" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" t="s">
+        <v>38</v>
+      </c>
+      <c r="D61" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" t="s">
+        <v>38</v>
+      </c>
+      <c r="F61" t="s">
+        <v>225</v>
+      </c>
+      <c r="G61" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
+      <c r="A62" t="s">
+        <v>11</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62" t="s">
+        <v>38</v>
+      </c>
+      <c r="D62" t="s">
+        <v>90</v>
+      </c>
+      <c r="E62" t="s">
+        <v>38</v>
+      </c>
+      <c r="F62" t="s">
+        <v>226</v>
+      </c>
+      <c r="G62" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
+      <c r="A63" t="s">
+        <v>11</v>
+      </c>
+      <c r="B63" t="s">
         <v>33</v>
       </c>
-      <c r="F23" t="s">
-        <v>68</v>
-      </c>
-      <c r="G23" t="s">
+      <c r="C63" t="s">
+        <v>38</v>
+      </c>
+      <c r="D63" t="s">
+        <v>91</v>
+      </c>
+      <c r="E63" t="s">
+        <v>38</v>
+      </c>
+      <c r="F63" t="s">
+        <v>227</v>
+      </c>
+      <c r="G63" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
+      <c r="A64" t="s">
+        <v>11</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64" t="s">
+        <v>38</v>
+      </c>
+      <c r="D64" t="s">
+        <v>92</v>
+      </c>
+      <c r="E64" t="s">
+        <v>38</v>
+      </c>
+      <c r="F64" t="s">
+        <v>228</v>
+      </c>
+      <c r="G64" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
+      <c r="A65" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65" t="s">
+        <v>38</v>
+      </c>
+      <c r="D65" t="s">
+        <v>93</v>
+      </c>
+      <c r="E65" t="s">
+        <v>38</v>
+      </c>
+      <c r="F65" t="s">
+        <v>229</v>
+      </c>
+      <c r="G65" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
+      <c r="A66" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66" t="s">
+        <v>38</v>
+      </c>
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>38</v>
+      </c>
+      <c r="F66" t="s">
+        <v>230</v>
+      </c>
+      <c r="G66" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
+      <c r="A67" t="s">
+        <v>11</v>
+      </c>
+      <c r="B67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C67" t="s">
+        <v>38</v>
+      </c>
+      <c r="D67" t="s">
+        <v>95</v>
+      </c>
+      <c r="E67" t="s">
+        <v>38</v>
+      </c>
+      <c r="F67" t="s">
+        <v>231</v>
+      </c>
+      <c r="G67" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
+      <c r="A68" t="s">
+        <v>12</v>
+      </c>
+      <c r="B68" t="s">
+        <v>16</v>
+      </c>
+      <c r="C68" t="s">
+        <v>38</v>
+      </c>
+      <c r="D68" t="s">
+        <v>96</v>
+      </c>
+      <c r="E68" t="s">
+        <v>38</v>
+      </c>
+      <c r="F68" t="s">
+        <v>232</v>
+      </c>
+      <c r="G68" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
+      <c r="A69" t="s">
+        <v>12</v>
+      </c>
+      <c r="B69" t="s">
+        <v>17</v>
+      </c>
+      <c r="C69" t="s">
+        <v>38</v>
+      </c>
+      <c r="D69" t="s">
+        <v>97</v>
+      </c>
+      <c r="E69" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" t="s">
+        <v>233</v>
+      </c>
+      <c r="G69" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
+      <c r="A70" t="s">
+        <v>12</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70" t="s">
+        <v>38</v>
+      </c>
+      <c r="D70" t="s">
+        <v>98</v>
+      </c>
+      <c r="E70" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" t="s">
+        <v>234</v>
+      </c>
+      <c r="G70" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
+      <c r="A71" t="s">
+        <v>12</v>
+      </c>
+      <c r="B71" t="s">
+        <v>19</v>
+      </c>
+      <c r="C71" t="s">
+        <v>38</v>
+      </c>
+      <c r="D71" t="s">
+        <v>99</v>
+      </c>
+      <c r="E71" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" t="s">
+        <v>235</v>
+      </c>
+      <c r="G71" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
+      <c r="A72" t="s">
+        <v>12</v>
+      </c>
+      <c r="B72" t="s">
+        <v>20</v>
+      </c>
+      <c r="C72" t="s">
+        <v>38</v>
+      </c>
+      <c r="D72" t="s">
+        <v>100</v>
+      </c>
+      <c r="E72" t="s">
+        <v>38</v>
+      </c>
+      <c r="F72" t="s">
+        <v>236</v>
+      </c>
+      <c r="G72" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
+      <c r="A73" t="s">
+        <v>12</v>
+      </c>
+      <c r="B73" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D73" t="s">
+        <v>101</v>
+      </c>
+      <c r="E73" t="s">
+        <v>38</v>
+      </c>
+      <c r="F73" t="s">
+        <v>237</v>
+      </c>
+      <c r="G73" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
+      <c r="A74" t="s">
+        <v>12</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>38</v>
+      </c>
+      <c r="D74" t="s">
+        <v>102</v>
+      </c>
+      <c r="E74" t="s">
+        <v>38</v>
+      </c>
+      <c r="F74" t="s">
+        <v>238</v>
+      </c>
+      <c r="G74" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
+      <c r="A75" t="s">
+        <v>12</v>
+      </c>
+      <c r="B75" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" t="s">
+        <v>38</v>
+      </c>
+      <c r="D75" t="s">
+        <v>103</v>
+      </c>
+      <c r="E75" t="s">
+        <v>38</v>
+      </c>
+      <c r="F75" t="s">
+        <v>239</v>
+      </c>
+      <c r="G75" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
+      <c r="A76" t="s">
+        <v>12</v>
+      </c>
+      <c r="B76" t="s">
+        <v>24</v>
+      </c>
+      <c r="C76" t="s">
+        <v>38</v>
+      </c>
+      <c r="D76" t="s">
+        <v>104</v>
+      </c>
+      <c r="E76" t="s">
+        <v>39</v>
+      </c>
+      <c r="F76" t="s">
+        <v>198</v>
+      </c>
+      <c r="G76" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
+      <c r="A77" t="s">
+        <v>12</v>
+      </c>
+      <c r="B77" t="s">
+        <v>25</v>
+      </c>
+      <c r="C77" t="s">
+        <v>39</v>
+      </c>
+      <c r="D77" t="s">
+        <v>45</v>
+      </c>
+      <c r="E77" t="s">
+        <v>39</v>
+      </c>
+      <c r="F77" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
+      <c r="A78" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" t="s">
+        <v>26</v>
+      </c>
+      <c r="C78" t="s">
+        <v>39</v>
+      </c>
+      <c r="D78" t="s">
+        <v>45</v>
+      </c>
+      <c r="E78" t="s">
+        <v>39</v>
+      </c>
+      <c r="F78" t="s">
+        <v>240</v>
+      </c>
+      <c r="G78" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
+      <c r="A79" t="s">
+        <v>12</v>
+      </c>
+      <c r="B79" t="s">
+        <v>27</v>
+      </c>
+      <c r="C79" t="s">
+        <v>38</v>
+      </c>
+      <c r="D79" t="s">
+        <v>105</v>
+      </c>
+      <c r="E79" t="s">
+        <v>38</v>
+      </c>
+      <c r="F79" t="s">
+        <v>241</v>
+      </c>
+      <c r="G79" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
+      <c r="A80" t="s">
+        <v>12</v>
+      </c>
+      <c r="B80" t="s">
+        <v>28</v>
+      </c>
+      <c r="C80" t="s">
+        <v>39</v>
+      </c>
+      <c r="D80" t="s">
+        <v>45</v>
+      </c>
+      <c r="E80" t="s">
+        <v>38</v>
+      </c>
+      <c r="F80" t="s">
+        <v>242</v>
+      </c>
+      <c r="G80" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
+      <c r="A81" t="s">
+        <v>12</v>
+      </c>
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="s">
+        <v>38</v>
+      </c>
+      <c r="D81" t="s">
+        <v>106</v>
+      </c>
+      <c r="E81" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" t="s">
+        <v>243</v>
+      </c>
+      <c r="G81" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
+      <c r="A82" t="s">
+        <v>12</v>
+      </c>
+      <c r="B82" t="s">
+        <v>30</v>
+      </c>
+      <c r="C82" t="s">
+        <v>38</v>
+      </c>
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" t="s">
+        <v>38</v>
+      </c>
+      <c r="F82" t="s">
+        <v>244</v>
+      </c>
+      <c r="G82" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
+      <c r="A83" t="s">
+        <v>12</v>
+      </c>
+      <c r="B83" t="s">
+        <v>31</v>
+      </c>
+      <c r="C83" t="s">
+        <v>38</v>
+      </c>
+      <c r="D83" t="s">
+        <v>108</v>
+      </c>
+      <c r="E83" t="s">
+        <v>38</v>
+      </c>
+      <c r="F83" t="s">
+        <v>245</v>
+      </c>
+      <c r="G83" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
+      <c r="A84" t="s">
+        <v>12</v>
+      </c>
+      <c r="B84" t="s">
+        <v>32</v>
+      </c>
+      <c r="C84" t="s">
+        <v>38</v>
+      </c>
+      <c r="D84" t="s">
+        <v>109</v>
+      </c>
+      <c r="E84" t="s">
+        <v>38</v>
+      </c>
+      <c r="F84" t="s">
+        <v>246</v>
+      </c>
+      <c r="G84" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
+      <c r="A85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B85" t="s">
         <v>33</v>
+      </c>
+      <c r="C85" t="s">
+        <v>38</v>
+      </c>
+      <c r="D85" t="s">
+        <v>110</v>
+      </c>
+      <c r="E85" t="s">
+        <v>38</v>
+      </c>
+      <c r="F85" t="s">
+        <v>247</v>
+      </c>
+      <c r="G85" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
+      <c r="A86" t="s">
+        <v>12</v>
+      </c>
+      <c r="B86" t="s">
+        <v>34</v>
+      </c>
+      <c r="C86" t="s">
+        <v>38</v>
+      </c>
+      <c r="D86" t="s">
+        <v>111</v>
+      </c>
+      <c r="E86" t="s">
+        <v>38</v>
+      </c>
+      <c r="F86" t="s">
+        <v>248</v>
+      </c>
+      <c r="G86" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
+      <c r="A87" t="s">
+        <v>12</v>
+      </c>
+      <c r="B87" t="s">
+        <v>35</v>
+      </c>
+      <c r="C87" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" t="s">
+        <v>45</v>
+      </c>
+      <c r="E87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F87" t="s">
+        <v>249</v>
+      </c>
+      <c r="G87" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
+      <c r="A88" t="s">
+        <v>12</v>
+      </c>
+      <c r="B88" t="s">
+        <v>36</v>
+      </c>
+      <c r="C88" t="s">
+        <v>38</v>
+      </c>
+      <c r="D88" t="s">
+        <v>112</v>
+      </c>
+      <c r="E88" t="s">
+        <v>38</v>
+      </c>
+      <c r="F88" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
+      <c r="A89" t="s">
+        <v>12</v>
+      </c>
+      <c r="B89" t="s">
+        <v>37</v>
+      </c>
+      <c r="C89" t="s">
+        <v>38</v>
+      </c>
+      <c r="D89" t="s">
+        <v>113</v>
+      </c>
+      <c r="E89" t="s">
+        <v>38</v>
+      </c>
+      <c r="F89" t="s">
+        <v>251</v>
+      </c>
+      <c r="G89" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
+      <c r="A90" t="s">
+        <v>13</v>
+      </c>
+      <c r="B90" t="s">
+        <v>16</v>
+      </c>
+      <c r="C90" t="s">
+        <v>38</v>
+      </c>
+      <c r="D90" t="s">
+        <v>114</v>
+      </c>
+      <c r="E90" t="s">
+        <v>38</v>
+      </c>
+      <c r="F90" t="s">
+        <v>252</v>
+      </c>
+      <c r="G90" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
+      <c r="A91" t="s">
+        <v>13</v>
+      </c>
+      <c r="B91" t="s">
+        <v>17</v>
+      </c>
+      <c r="C91" t="s">
+        <v>38</v>
+      </c>
+      <c r="D91" t="s">
+        <v>115</v>
+      </c>
+      <c r="E91" t="s">
+        <v>38</v>
+      </c>
+      <c r="F91" t="s">
+        <v>253</v>
+      </c>
+      <c r="G91" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
+      <c r="A92" t="s">
+        <v>13</v>
+      </c>
+      <c r="B92" t="s">
+        <v>18</v>
+      </c>
+      <c r="C92" t="s">
+        <v>38</v>
+      </c>
+      <c r="D92" t="s">
+        <v>116</v>
+      </c>
+      <c r="E92" t="s">
+        <v>38</v>
+      </c>
+      <c r="F92" t="s">
+        <v>254</v>
+      </c>
+      <c r="G92" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
+      <c r="A93" t="s">
+        <v>13</v>
+      </c>
+      <c r="B93" t="s">
+        <v>19</v>
+      </c>
+      <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>117</v>
+      </c>
+      <c r="E93" t="s">
+        <v>38</v>
+      </c>
+      <c r="F93" t="s">
+        <v>255</v>
+      </c>
+      <c r="G93" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
+      <c r="A94" t="s">
+        <v>13</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" t="s">
+        <v>118</v>
+      </c>
+      <c r="E94" t="s">
+        <v>38</v>
+      </c>
+      <c r="F94" t="s">
+        <v>256</v>
+      </c>
+      <c r="G94" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
+      <c r="A95" t="s">
+        <v>13</v>
+      </c>
+      <c r="B95" t="s">
+        <v>21</v>
+      </c>
+      <c r="C95" t="s">
+        <v>38</v>
+      </c>
+      <c r="D95" t="s">
+        <v>119</v>
+      </c>
+      <c r="E95" t="s">
+        <v>38</v>
+      </c>
+      <c r="F95" t="s">
+        <v>257</v>
+      </c>
+      <c r="G95" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
+      <c r="A96" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>120</v>
+      </c>
+      <c r="E96" t="s">
+        <v>38</v>
+      </c>
+      <c r="F96" t="s">
+        <v>258</v>
+      </c>
+      <c r="G96" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
+      <c r="A97" t="s">
+        <v>13</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>38</v>
+      </c>
+      <c r="D97" t="s">
+        <v>121</v>
+      </c>
+      <c r="E97" t="s">
+        <v>38</v>
+      </c>
+      <c r="F97" t="s">
+        <v>259</v>
+      </c>
+      <c r="G97" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
+      <c r="A98" t="s">
+        <v>13</v>
+      </c>
+      <c r="B98" t="s">
+        <v>24</v>
+      </c>
+      <c r="C98" t="s">
+        <v>39</v>
+      </c>
+      <c r="D98" t="s">
+        <v>45</v>
+      </c>
+      <c r="E98" t="s">
+        <v>39</v>
+      </c>
+      <c r="F98" t="s">
+        <v>260</v>
+      </c>
+      <c r="G98" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
+      <c r="A99" t="s">
+        <v>13</v>
+      </c>
+      <c r="B99" t="s">
+        <v>25</v>
+      </c>
+      <c r="C99" t="s">
+        <v>39</v>
+      </c>
+      <c r="D99" t="s">
+        <v>45</v>
+      </c>
+      <c r="E99" t="s">
+        <v>39</v>
+      </c>
+      <c r="F99" t="s">
+        <v>261</v>
+      </c>
+      <c r="G99" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
+      <c r="A100" t="s">
+        <v>13</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100" t="s">
+        <v>38</v>
+      </c>
+      <c r="D100" t="s">
+        <v>122</v>
+      </c>
+      <c r="E100" t="s">
+        <v>38</v>
+      </c>
+      <c r="F100" t="s">
+        <v>262</v>
+      </c>
+      <c r="G100" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
+      <c r="A101" t="s">
+        <v>13</v>
+      </c>
+      <c r="B101" t="s">
+        <v>27</v>
+      </c>
+      <c r="C101" t="s">
+        <v>38</v>
+      </c>
+      <c r="D101" t="s">
+        <v>123</v>
+      </c>
+      <c r="E101" t="s">
+        <v>38</v>
+      </c>
+      <c r="F101" t="s">
+        <v>263</v>
+      </c>
+      <c r="G101" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
+      <c r="A102" t="s">
+        <v>13</v>
+      </c>
+      <c r="B102" t="s">
+        <v>28</v>
+      </c>
+      <c r="C102" t="s">
+        <v>39</v>
+      </c>
+      <c r="D102" t="s">
+        <v>45</v>
+      </c>
+      <c r="E102" t="s">
+        <v>38</v>
+      </c>
+      <c r="F102" t="s">
+        <v>264</v>
+      </c>
+      <c r="G102" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
+      <c r="A103" t="s">
+        <v>13</v>
+      </c>
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="s">
+        <v>38</v>
+      </c>
+      <c r="D103" t="s">
+        <v>124</v>
+      </c>
+      <c r="E103" t="s">
+        <v>38</v>
+      </c>
+      <c r="F103" t="s">
+        <v>265</v>
+      </c>
+      <c r="G103" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" t="s">
+        <v>13</v>
+      </c>
+      <c r="B104" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" t="s">
+        <v>38</v>
+      </c>
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104" t="s">
+        <v>38</v>
+      </c>
+      <c r="F104" t="s">
+        <v>266</v>
+      </c>
+      <c r="G104" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" t="s">
+        <v>13</v>
+      </c>
+      <c r="B105" t="s">
+        <v>31</v>
+      </c>
+      <c r="C105" t="s">
+        <v>38</v>
+      </c>
+      <c r="D105" t="s">
+        <v>126</v>
+      </c>
+      <c r="E105" t="s">
+        <v>38</v>
+      </c>
+      <c r="F105" t="s">
+        <v>267</v>
+      </c>
+      <c r="G105" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" t="s">
+        <v>13</v>
+      </c>
+      <c r="B106" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>38</v>
+      </c>
+      <c r="D106" t="s">
+        <v>127</v>
+      </c>
+      <c r="E106" t="s">
+        <v>38</v>
+      </c>
+      <c r="F106" t="s">
+        <v>268</v>
+      </c>
+      <c r="G106" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" t="s">
+        <v>13</v>
+      </c>
+      <c r="B107" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" t="s">
+        <v>38</v>
+      </c>
+      <c r="D107" t="s">
+        <v>128</v>
+      </c>
+      <c r="E107" t="s">
+        <v>38</v>
+      </c>
+      <c r="F107" t="s">
+        <v>269</v>
+      </c>
+      <c r="G107" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" t="s">
+        <v>13</v>
+      </c>
+      <c r="B108" t="s">
+        <v>34</v>
+      </c>
+      <c r="C108" t="s">
+        <v>38</v>
+      </c>
+      <c r="D108" t="s">
+        <v>129</v>
+      </c>
+      <c r="E108" t="s">
+        <v>38</v>
+      </c>
+      <c r="F108" t="s">
+        <v>270</v>
+      </c>
+      <c r="G108" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" t="s">
+        <v>13</v>
+      </c>
+      <c r="B109" t="s">
+        <v>35</v>
+      </c>
+      <c r="C109" t="s">
+        <v>38</v>
+      </c>
+      <c r="D109" t="s">
+        <v>130</v>
+      </c>
+      <c r="E109" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" t="s">
+        <v>271</v>
+      </c>
+      <c r="G109" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" t="s">
+        <v>13</v>
+      </c>
+      <c r="B110" t="s">
+        <v>36</v>
+      </c>
+      <c r="C110" t="s">
+        <v>38</v>
+      </c>
+      <c r="D110" t="s">
+        <v>131</v>
+      </c>
+      <c r="E110" t="s">
+        <v>38</v>
+      </c>
+      <c r="F110" t="s">
+        <v>272</v>
+      </c>
+      <c r="G110" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" t="s">
+        <v>13</v>
+      </c>
+      <c r="B111" t="s">
+        <v>37</v>
+      </c>
+      <c r="C111" t="s">
+        <v>38</v>
+      </c>
+      <c r="D111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E111" t="s">
+        <v>38</v>
+      </c>
+      <c r="F111" t="s">
+        <v>273</v>
+      </c>
+      <c r="G111" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" t="s">
+        <v>14</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+      <c r="C112" t="s">
+        <v>38</v>
+      </c>
+      <c r="D112" t="s">
+        <v>133</v>
+      </c>
+      <c r="E112" t="s">
+        <v>38</v>
+      </c>
+      <c r="F112" t="s">
+        <v>274</v>
+      </c>
+      <c r="G112" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7">
+      <c r="A113" t="s">
+        <v>14</v>
+      </c>
+      <c r="B113" t="s">
+        <v>17</v>
+      </c>
+      <c r="C113" t="s">
+        <v>38</v>
+      </c>
+      <c r="D113" t="s">
+        <v>134</v>
+      </c>
+      <c r="E113" t="s">
+        <v>38</v>
+      </c>
+      <c r="F113" t="s">
+        <v>275</v>
+      </c>
+      <c r="G113" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7">
+      <c r="A114" t="s">
+        <v>14</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114" t="s">
+        <v>38</v>
+      </c>
+      <c r="D114" t="s">
+        <v>135</v>
+      </c>
+      <c r="E114" t="s">
+        <v>38</v>
+      </c>
+      <c r="F114" t="s">
+        <v>276</v>
+      </c>
+      <c r="G114" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7">
+      <c r="A115" t="s">
+        <v>14</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" t="s">
+        <v>38</v>
+      </c>
+      <c r="D115" t="s">
+        <v>136</v>
+      </c>
+      <c r="E115" t="s">
+        <v>39</v>
+      </c>
+      <c r="F115" t="s">
+        <v>277</v>
+      </c>
+      <c r="G115" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7">
+      <c r="A116" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+      <c r="C116" t="s">
+        <v>38</v>
+      </c>
+      <c r="D116" t="s">
+        <v>137</v>
+      </c>
+      <c r="E116" t="s">
+        <v>38</v>
+      </c>
+      <c r="F116" t="s">
+        <v>278</v>
+      </c>
+      <c r="G116" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" t="s">
+        <v>14</v>
+      </c>
+      <c r="B117" t="s">
+        <v>21</v>
+      </c>
+      <c r="C117" t="s">
+        <v>38</v>
+      </c>
+      <c r="D117" t="s">
+        <v>138</v>
+      </c>
+      <c r="E117" t="s">
+        <v>38</v>
+      </c>
+      <c r="F117" t="s">
+        <v>279</v>
+      </c>
+      <c r="G117" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7">
+      <c r="A118" t="s">
+        <v>14</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118" t="s">
+        <v>39</v>
+      </c>
+      <c r="D118" t="s">
+        <v>45</v>
+      </c>
+      <c r="E118" t="s">
+        <v>39</v>
+      </c>
+      <c r="F118" t="s">
+        <v>175</v>
+      </c>
+      <c r="G118" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7">
+      <c r="A119" t="s">
+        <v>14</v>
+      </c>
+      <c r="B119" t="s">
+        <v>23</v>
+      </c>
+      <c r="C119" t="s">
+        <v>39</v>
+      </c>
+      <c r="D119" t="s">
+        <v>45</v>
+      </c>
+      <c r="E119" t="s">
+        <v>39</v>
+      </c>
+      <c r="F119" t="s">
+        <v>280</v>
+      </c>
+      <c r="G119" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" t="s">
+        <v>14</v>
+      </c>
+      <c r="B120" t="s">
+        <v>24</v>
+      </c>
+      <c r="C120" t="s">
+        <v>39</v>
+      </c>
+      <c r="D120" t="s">
+        <v>45</v>
+      </c>
+      <c r="E120" t="s">
+        <v>39</v>
+      </c>
+      <c r="F120" t="s">
+        <v>281</v>
+      </c>
+      <c r="G120" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" t="s">
+        <v>14</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121" t="s">
+        <v>38</v>
+      </c>
+      <c r="D121" t="s">
+        <v>139</v>
+      </c>
+      <c r="E121" t="s">
+        <v>39</v>
+      </c>
+      <c r="F121" t="s">
+        <v>178</v>
+      </c>
+      <c r="G121" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" t="s">
+        <v>14</v>
+      </c>
+      <c r="B122" t="s">
+        <v>26</v>
+      </c>
+      <c r="C122" t="s">
+        <v>38</v>
+      </c>
+      <c r="D122" t="s">
+        <v>140</v>
+      </c>
+      <c r="E122" t="s">
+        <v>38</v>
+      </c>
+      <c r="F122" t="s">
+        <v>282</v>
+      </c>
+      <c r="G122" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" t="s">
+        <v>14</v>
+      </c>
+      <c r="B123" t="s">
+        <v>27</v>
+      </c>
+      <c r="C123" t="s">
+        <v>38</v>
+      </c>
+      <c r="D123" t="s">
+        <v>141</v>
+      </c>
+      <c r="E123" t="s">
+        <v>38</v>
+      </c>
+      <c r="F123" t="s">
+        <v>283</v>
+      </c>
+      <c r="G123" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" t="s">
+        <v>14</v>
+      </c>
+      <c r="B124" t="s">
+        <v>28</v>
+      </c>
+      <c r="C124" t="s">
+        <v>38</v>
+      </c>
+      <c r="D124" t="s">
+        <v>142</v>
+      </c>
+      <c r="E124" t="s">
+        <v>38</v>
+      </c>
+      <c r="F124" t="s">
+        <v>284</v>
+      </c>
+      <c r="G124" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" t="s">
+        <v>14</v>
+      </c>
+      <c r="B125" t="s">
+        <v>29</v>
+      </c>
+      <c r="C125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s">
+        <v>143</v>
+      </c>
+      <c r="E125" t="s">
+        <v>38</v>
+      </c>
+      <c r="F125" t="s">
+        <v>285</v>
+      </c>
+      <c r="G125" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" t="s">
+        <v>14</v>
+      </c>
+      <c r="B126" t="s">
+        <v>30</v>
+      </c>
+      <c r="C126" t="s">
+        <v>38</v>
+      </c>
+      <c r="D126" t="s">
+        <v>144</v>
+      </c>
+      <c r="E126" t="s">
+        <v>38</v>
+      </c>
+      <c r="F126" t="s">
+        <v>286</v>
+      </c>
+      <c r="G126" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127" t="s">
+        <v>31</v>
+      </c>
+      <c r="C127" t="s">
+        <v>38</v>
+      </c>
+      <c r="D127" t="s">
+        <v>145</v>
+      </c>
+      <c r="E127" t="s">
+        <v>38</v>
+      </c>
+      <c r="F127" t="s">
+        <v>287</v>
+      </c>
+      <c r="G127" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" t="s">
+        <v>14</v>
+      </c>
+      <c r="B128" t="s">
+        <v>32</v>
+      </c>
+      <c r="C128" t="s">
+        <v>38</v>
+      </c>
+      <c r="D128" t="s">
+        <v>146</v>
+      </c>
+      <c r="E128" t="s">
+        <v>38</v>
+      </c>
+      <c r="F128" t="s">
+        <v>288</v>
+      </c>
+      <c r="G128" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" t="s">
+        <v>14</v>
+      </c>
+      <c r="B129" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" t="s">
+        <v>38</v>
+      </c>
+      <c r="D129" t="s">
+        <v>147</v>
+      </c>
+      <c r="E129" t="s">
+        <v>38</v>
+      </c>
+      <c r="F129" t="s">
+        <v>289</v>
+      </c>
+      <c r="G129" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" t="s">
+        <v>14</v>
+      </c>
+      <c r="B130" t="s">
+        <v>34</v>
+      </c>
+      <c r="C130" t="s">
+        <v>38</v>
+      </c>
+      <c r="D130" t="s">
+        <v>148</v>
+      </c>
+      <c r="E130" t="s">
+        <v>38</v>
+      </c>
+      <c r="F130" t="s">
+        <v>290</v>
+      </c>
+      <c r="G130" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" t="s">
+        <v>14</v>
+      </c>
+      <c r="B131" t="s">
+        <v>35</v>
+      </c>
+      <c r="C131" t="s">
+        <v>38</v>
+      </c>
+      <c r="D131" t="s">
+        <v>149</v>
+      </c>
+      <c r="E131" t="s">
+        <v>38</v>
+      </c>
+      <c r="F131" t="s">
+        <v>291</v>
+      </c>
+      <c r="G131" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" t="s">
+        <v>14</v>
+      </c>
+      <c r="B132" t="s">
+        <v>36</v>
+      </c>
+      <c r="C132" t="s">
+        <v>38</v>
+      </c>
+      <c r="D132" t="s">
+        <v>150</v>
+      </c>
+      <c r="E132" t="s">
+        <v>38</v>
+      </c>
+      <c r="F132" t="s">
+        <v>292</v>
+      </c>
+      <c r="G132" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" t="s">
+        <v>14</v>
+      </c>
+      <c r="B133" t="s">
+        <v>37</v>
+      </c>
+      <c r="C133" t="s">
+        <v>38</v>
+      </c>
+      <c r="D133" t="s">
+        <v>151</v>
+      </c>
+      <c r="E133" t="s">
+        <v>38</v>
+      </c>
+      <c r="F133" t="s">
+        <v>293</v>
+      </c>
+      <c r="G133" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" t="s">
+        <v>15</v>
+      </c>
+      <c r="B134" t="s">
+        <v>16</v>
+      </c>
+      <c r="C134" t="s">
+        <v>38</v>
+      </c>
+      <c r="D134" t="s">
+        <v>152</v>
+      </c>
+      <c r="E134" t="s">
+        <v>38</v>
+      </c>
+      <c r="F134" t="s">
+        <v>294</v>
+      </c>
+      <c r="G134" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" t="s">
+        <v>15</v>
+      </c>
+      <c r="B135" t="s">
+        <v>17</v>
+      </c>
+      <c r="C135" t="s">
+        <v>38</v>
+      </c>
+      <c r="D135" t="s">
+        <v>153</v>
+      </c>
+      <c r="E135" t="s">
+        <v>38</v>
+      </c>
+      <c r="F135" t="s">
+        <v>295</v>
+      </c>
+      <c r="G135" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" t="s">
+        <v>15</v>
+      </c>
+      <c r="B136" t="s">
+        <v>18</v>
+      </c>
+      <c r="C136" t="s">
+        <v>38</v>
+      </c>
+      <c r="D136" t="s">
+        <v>154</v>
+      </c>
+      <c r="E136" t="s">
+        <v>38</v>
+      </c>
+      <c r="F136" t="s">
+        <v>296</v>
+      </c>
+      <c r="G136" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" t="s">
+        <v>15</v>
+      </c>
+      <c r="B137" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" t="s">
+        <v>38</v>
+      </c>
+      <c r="D137" t="s">
+        <v>155</v>
+      </c>
+      <c r="E137" t="s">
+        <v>38</v>
+      </c>
+      <c r="F137" t="s">
+        <v>297</v>
+      </c>
+      <c r="G137" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" t="s">
+        <v>15</v>
+      </c>
+      <c r="B138" t="s">
+        <v>20</v>
+      </c>
+      <c r="C138" t="s">
+        <v>38</v>
+      </c>
+      <c r="D138" t="s">
+        <v>156</v>
+      </c>
+      <c r="E138" t="s">
+        <v>38</v>
+      </c>
+      <c r="F138" t="s">
+        <v>298</v>
+      </c>
+      <c r="G138" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" t="s">
+        <v>15</v>
+      </c>
+      <c r="B139" t="s">
+        <v>21</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" t="s">
+        <v>157</v>
+      </c>
+      <c r="E139" t="s">
+        <v>38</v>
+      </c>
+      <c r="F139" t="s">
+        <v>299</v>
+      </c>
+      <c r="G139" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" t="s">
+        <v>15</v>
+      </c>
+      <c r="B140" t="s">
+        <v>22</v>
+      </c>
+      <c r="C140" t="s">
+        <v>38</v>
+      </c>
+      <c r="D140" t="s">
+        <v>158</v>
+      </c>
+      <c r="E140" t="s">
+        <v>38</v>
+      </c>
+      <c r="F140" t="s">
+        <v>300</v>
+      </c>
+      <c r="G140" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" t="s">
+        <v>15</v>
+      </c>
+      <c r="B141" t="s">
+        <v>23</v>
+      </c>
+      <c r="C141" t="s">
+        <v>38</v>
+      </c>
+      <c r="D141" t="s">
+        <v>158</v>
+      </c>
+      <c r="E141" t="s">
+        <v>38</v>
+      </c>
+      <c r="F141" t="s">
+        <v>301</v>
+      </c>
+      <c r="G141" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" t="s">
+        <v>15</v>
+      </c>
+      <c r="B142" t="s">
+        <v>24</v>
+      </c>
+      <c r="C142" t="s">
+        <v>39</v>
+      </c>
+      <c r="D142" t="s">
+        <v>45</v>
+      </c>
+      <c r="E142" t="s">
+        <v>39</v>
+      </c>
+      <c r="F142" t="s">
+        <v>198</v>
+      </c>
+      <c r="G142" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" t="s">
+        <v>15</v>
+      </c>
+      <c r="B143" t="s">
+        <v>25</v>
+      </c>
+      <c r="C143" t="s">
+        <v>39</v>
+      </c>
+      <c r="D143" t="s">
+        <v>45</v>
+      </c>
+      <c r="E143" t="s">
+        <v>39</v>
+      </c>
+      <c r="F143" t="s">
+        <v>178</v>
+      </c>
+      <c r="G143" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" t="s">
+        <v>15</v>
+      </c>
+      <c r="B144" t="s">
+        <v>26</v>
+      </c>
+      <c r="C144" t="s">
+        <v>38</v>
+      </c>
+      <c r="D144" t="s">
+        <v>159</v>
+      </c>
+      <c r="E144" t="s">
+        <v>38</v>
+      </c>
+      <c r="F144" t="s">
+        <v>302</v>
+      </c>
+      <c r="G144" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" t="s">
+        <v>15</v>
+      </c>
+      <c r="B145" t="s">
+        <v>27</v>
+      </c>
+      <c r="C145" t="s">
+        <v>38</v>
+      </c>
+      <c r="D145" t="s">
+        <v>160</v>
+      </c>
+      <c r="E145" t="s">
+        <v>38</v>
+      </c>
+      <c r="F145" t="s">
+        <v>303</v>
+      </c>
+      <c r="G145" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" t="s">
+        <v>15</v>
+      </c>
+      <c r="B146" t="s">
+        <v>28</v>
+      </c>
+      <c r="C146" t="s">
+        <v>38</v>
+      </c>
+      <c r="D146" t="s">
+        <v>161</v>
+      </c>
+      <c r="E146" t="s">
+        <v>38</v>
+      </c>
+      <c r="F146" t="s">
+        <v>304</v>
+      </c>
+      <c r="G146" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7">
+      <c r="A147" t="s">
+        <v>15</v>
+      </c>
+      <c r="B147" t="s">
+        <v>29</v>
+      </c>
+      <c r="C147" t="s">
+        <v>38</v>
+      </c>
+      <c r="D147" t="s">
+        <v>162</v>
+      </c>
+      <c r="E147" t="s">
+        <v>38</v>
+      </c>
+      <c r="F147" t="s">
+        <v>305</v>
+      </c>
+      <c r="G147" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148" t="s">
+        <v>30</v>
+      </c>
+      <c r="C148" t="s">
+        <v>38</v>
+      </c>
+      <c r="D148" t="s">
+        <v>163</v>
+      </c>
+      <c r="E148" t="s">
+        <v>38</v>
+      </c>
+      <c r="F148" t="s">
+        <v>306</v>
+      </c>
+      <c r="G148" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" t="s">
+        <v>15</v>
+      </c>
+      <c r="B149" t="s">
+        <v>31</v>
+      </c>
+      <c r="C149" t="s">
+        <v>38</v>
+      </c>
+      <c r="D149" t="s">
+        <v>164</v>
+      </c>
+      <c r="E149" t="s">
+        <v>38</v>
+      </c>
+      <c r="F149" t="s">
+        <v>307</v>
+      </c>
+      <c r="G149" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" t="s">
+        <v>15</v>
+      </c>
+      <c r="B150" t="s">
+        <v>32</v>
+      </c>
+      <c r="C150" t="s">
+        <v>38</v>
+      </c>
+      <c r="D150" t="s">
+        <v>165</v>
+      </c>
+      <c r="E150" t="s">
+        <v>38</v>
+      </c>
+      <c r="F150" t="s">
+        <v>308</v>
+      </c>
+      <c r="G150" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" t="s">
+        <v>15</v>
+      </c>
+      <c r="B151" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" t="s">
+        <v>38</v>
+      </c>
+      <c r="D151" t="s">
+        <v>166</v>
+      </c>
+      <c r="E151" t="s">
+        <v>38</v>
+      </c>
+      <c r="F151" t="s">
+        <v>309</v>
+      </c>
+      <c r="G151" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" t="s">
+        <v>15</v>
+      </c>
+      <c r="B152" t="s">
+        <v>34</v>
+      </c>
+      <c r="C152" t="s">
+        <v>38</v>
+      </c>
+      <c r="D152" t="s">
+        <v>167</v>
+      </c>
+      <c r="E152" t="s">
+        <v>38</v>
+      </c>
+      <c r="F152" t="s">
+        <v>310</v>
+      </c>
+      <c r="G152" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" t="s">
+        <v>15</v>
+      </c>
+      <c r="B153" t="s">
+        <v>35</v>
+      </c>
+      <c r="C153" t="s">
+        <v>38</v>
+      </c>
+      <c r="D153" t="s">
+        <v>168</v>
+      </c>
+      <c r="E153" t="s">
+        <v>38</v>
+      </c>
+      <c r="F153" t="s">
+        <v>303</v>
+      </c>
+      <c r="G153" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" t="s">
+        <v>15</v>
+      </c>
+      <c r="B154" t="s">
+        <v>36</v>
+      </c>
+      <c r="C154" t="s">
+        <v>38</v>
+      </c>
+      <c r="D154" t="s">
+        <v>169</v>
+      </c>
+      <c r="E154" t="s">
+        <v>38</v>
+      </c>
+      <c r="F154" t="s">
+        <v>311</v>
+      </c>
+      <c r="G154" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" t="s">
+        <v>15</v>
+      </c>
+      <c r="B155" t="s">
+        <v>37</v>
+      </c>
+      <c r="C155" t="s">
+        <v>38</v>
+      </c>
+      <c r="D155" t="s">
+        <v>170</v>
+      </c>
+      <c r="E155" t="s">
+        <v>38</v>
+      </c>
+      <c r="F155" t="s">
+        <v>312</v>
+      </c>
+      <c r="G155" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>

--- a/data/6-performance/combined_data_new.xlsx
+++ b/data/6-performance/combined_data_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="358">
   <si>
     <t>country</t>
   </si>
@@ -52,6 +52,9 @@
     <t>chile</t>
   </si>
   <si>
+    <t>libya</t>
+  </si>
+  <si>
     <t>netherlands</t>
   </si>
   <si>
@@ -304,6 +307,69 @@
     <t>['promover la investigación en RAM, buscando impulsar proyectos científicos que sean relevantes para la creación de nuevo conocimiento en microorganismos, generar mecanismos de resistencia a los antimicrobianos y proveer soluciones alternativas al uso de éstos.', 'Este objetivo busca establecer como una de las líneas de investigación prioritaria para el país la investigación en RAM, de modo que se puedan focalizar proyectos de investigación que sean relevantes para la creación de nuevos conocimientos en microorganismos, resistencia a los antimicrobianos y soluciones alternativas a su uso.']</t>
   </si>
   <si>
+    <t>['في سبتمبر 5102 قطع رؤساء الدول بما فيها دولة ليبيا في الجمعية العامة للأمم المتحدة بنيويورك التزما باتباع نهج واسع ومنسق في معالجة الأسباب الجذرية التي تقف وراء مقاومة مضادات الميكروبات عبر قطاعات متعددة، وخصوصا منها صحة الإنسان وصحة الحيوان والزراعة.', 'استحداث ممارسات للامن البيولوجي في المراكز البيطرية و مزارع تربية الحيوانات و الصناعات الغذائية و الزراعة.', "The Libyan national action plan has been aligned with WHO five objectives. Analysis of the current situation and addressing the gaps and the needs to reach the main goal 'one health' approach involves several national sectors and actors, including human and veterinary health, agriculture and food and drug control center and environmental agencies.", 'A country situation analysis concluded in February 2018, focused on the concept of one health approach for strengthening systems to counter infectious diseases and related issues that threaten human, animal, and environmental health.', 'The purpose of the ACC is to oversee and, when necessary, to coordinate AMR-related activities in all sectors to ensure a systematic, comprehensive approach.', 'The national ACC will be composed of members representing the relevant sectors, notably human health, animal health and production and the food and environment sectors.', 'Facilitate linkages with AMR surveillance across human health, animal health and environmental sectors.', 'Establish evidence based public communications programme targeting audiences in human health related practices (Food chain, environment) and animal health related practices (Food chain, environment, plant).', '2.1.2. Review, draft and produce the AMR and related topics to include them in the undergraduate curricula for human and animal health professionals, food production and agriculture.', '3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human and animal health and plants) in governmental and private sectors.', 'Objective 8 Establishing bio-security in veterinary settings and animal husbandry, health food industry and agriculture', 'Objective 13 Improve and ensure appropriate use of antimicrobials in animals', 'Activity 1.1.1.  Estimate awareness and knowledge through behavioural studies about level of awareness of AMR as public health issue among human and animal health care workers.', 'Sub-activity 1.1.1.1 Measure AMR awareness among the human healthcare workers. Sub-activity 1.1.1.2 Measure AMR awareness among the animal healthcare workers.', 'Activity 1.1.3. Organize training programs for different relevant professional groups (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians) on antimicrobial ethics in prescribing, dispensing and use.', 'Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Revising existing undergraduate curriculum for human health professionals, animal health professionals and agriculture professionals to incorporate AMR', 'Revising existing undergraduate curriculum for human health professionals, animal health professionals and agriculture professionals to incorporate AMR', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Sub-activity 8.1.1  Establishing bio-security committee at veterinary settings level and animal husbandry, health food industry and agriculture.', 'Sub-activity 11.3.2 Training on registration and inspection of AMs in animal health', 'Strategic intervention 13.1. Improve and ensure appropriate use of antimicrobials in animals', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Enhance bio-security and hygienic practices in veterinary settings and animal husbandry, health food industry and agriculture']</t>
+  </si>
+  <si>
+    <t>['ترتكز الخطة الوطنية الليبية على 04 هدف اساس ي تتمحور حول ستة محاور مستهدفة 0 . ) التوعية و التثقيف 5 ) . تعز يز  اداء المختبرات و رصد معدلات مقاومة المضادات الحيوية 3 ) تعز يز  السياسات والبرامج وتطبيق تدابير الوقاية من عدوى الالتهابات ومكافحتها . 4 ) تنظيم وتعز يز  استعمال الأدوية الجيدة النوعية والتخلص منها كما ينبغي .', '05 . ضمان الاستخدام الجيد للمضادات الحيوية في الانسان .', '12. Ensure appropriate use of antimicrobial agents in human.', 'As human health is the ultimate concern of activities to control AMR, the ministry of health lead the group', 'The national ACC will be composed of members representing the relevant sectors, notably human health, animal health and production and the food and environment sectors.', 'A national AMR focal point should be designated to coordinate AMR activities and tasks in the health sector.', 'A major component of future policies for prevention and control of antimicrobial resistance in Libya should be education of healthcare workers, pharmacists, students, and the general public.', '1.1. Establish evidence based public communications programme targeting audiences in human health related practices (Food chain, environment).', 'conduct training and produce materials for HCWs on how to handle AMR during outbreaks.', 'Enhance behaviour change towards better use of antimicrobial medications ( 85% among healthcare workers, and 50% among public)', '3.1   Establish  behavioural  changes  program addressing the economic,  social and cultural factors.', 'Build laboratory capacity to produce high-quality microbiological data for patient management and support surveillance activities in both human and animal sectors.', 'Strengthening the IPC program in Libya', '7.1. Strengthening the structure of IPC program at governmental/private levels.', '7.4.4. Establishing national training programs for health care workers on IPC principles.', 'Objective 12 Ensure appropriate use of AM in human\n\n- 12.1. Improve awareness and education on rational use of AMs in healthcare facilities (Public &amp; Private health facilities).', '12.1. Improve awareness and education on rational use of AMs in healthcare facilities (Public &amp; Private health facilities).', '14.1. Establish a surveillance system to monitor and assess antimicrobial consumption in human.', 'Strategic intervention 1.1.  Prepare an evidence-based public communication programme for people in human health practice.', 'Strategic intervention 1.1.  Prepare an evidence-based public communication programme for people in human health practice.', 'Sub-activity 1.1.1.1 Measure AMR awareness among the human healthcare workers.', 'Sub-activity 1.1.1.1 Measure AMR awareness among the human healthcare workers.', 'Activity 1.1.3. Organize training programs for different relevant professional groups (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians) on antimicrobial ethics in prescribing, dispensing and use.', 'Strategic intervention 2.1. Include AMR and related topics as a core component of professional education, training, certification and development.', 'Include AMR and related topics in undergraduate curricula for human health professionals', 'Include AMR and related topics in undergraduate curricula for human health professionals', 'Revising existing undergraduate curriculum for human health professionals to incorporate AMR', 'Sub-activity 2.1.1.2. Revising existing undergraduate curriculum for human health professionals to incorporate AMR', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Activity 4.1.2.  Recruit office members ( e.g. epidemiologist, microbiologist, clinician and data manager)', 'Strategic intervention 7.1: Strengthening the structure of IPC program at governmental/private levels', 'Strategic intervention 7.1: Strengthening the structure of IPC program at governmental/private levels', 'Sub-activity 7.1.1 Establishing a technical working group (multi-sectorial).', 'Sub-activity 7.2.2. TOT Training course for health care workers on guidelines and protocol', 'Sub-activity 7.4.3. Establishing a national training programs for health care workers on IPC principles', 'Sub-activity 7.6.2. Develop monitoring tools at level of Health care workers on IPC practices', 'Activity 9.1. Promotion of personal hygiene by social mobilization and behavioral change activities.', 'Strategic intervention 9.2.  Expand vaccination coverage to include adults and healthcare workers', 'Strategic intervention 9.2.  Expand vaccination coverage to include adults and healthcare workers', 'Activity 9.2. Expand vaccination coverage to include adults.', 'Awareness campaigns to include adult vulnerable groups within national vaccination programs', 'Improve IPC program at level of health centres at the camps', 'Sub-activity 11.1.1. Training programme on supply chain Management Focusing on AMs', 'Strategic activity 11.3. Strength the national regulatory authority responsible for registering, inspecting and monitoring use for human health', 'Strategic intervention 12.1. Improve awareness and education on rational use of AMs in healthcare facilities (public and private health facilities)', 'Strategic intervention 12.2.  Establishment of national standard guidelines for common infectious diseases (public and private health facilities)', 'Strategic intervention 12.2. Establishment of national standard guidelines for common infectious diseases (public and private health facilities)', 'Activity 12.3.  Establish AM stewardship program in healthcare facilities', 'Awareness campaign targeting dispensers, prescribers, consumers and healthcare providers on existing rules and regulation governing AMs', 'Awareness campaign targeting dispensers, prescribers, consumers and healthcare providers on existing rules and regulation governing AMs', 'Sub-activity 3.2.2.   Develop list to restrict AMs  used for critical human cases', 'Activity 14.1.  Establish a surveillance system to monitor and assess antimicrobial consumption in human', 'Activity 14.1.1.   Develop or adopt methodology to estimate AMs consumption in human health through expert consultation', '2.1.  Include AMR and  related topics as a core  component of professional  education, training,  certification and  development.', 'Include AMR and related topics as a core component of professional education, training, certification and development.', 'Strengthening the IPC program (objective) - Proportion of secondary health care facilities applying IPC measures', '12.2.1  Develop standard treatment guidelines for URTI, septicaemia, surgical &amp; dental Ams use', '14.1.1 Develop methodology to estimate AMs consumption in human health through expert consultation | Methodology formulated and approved.']</t>
+  </si>
+  <si>
+    <t>['0 . ز يادة الوعي فيما يخص مقاومة الجر اثيم للمضادات الحيوية في فئة العامليين في قطاع الصحة و الصحة الحيوانية .', '8 . استحداث ممار سات للامن البيولوجي في المر اكز  البيطر ية و  مز ار ع تر بية الحيوانات و الصناعات الغذائية و الزراعة.', '8. Establishing bio-security (hygienic practices) in veterinary settings and animal husbandry, health food industry and agriculture.', 'Furthermore, the ACC must be appropriately integrated and have clearly defined roles and responsibilities in existing health system, public health and disease-specific programmes, animal health and production, the food sector and environmental initiatives.', '2. Facilitate linkages with AMR surveillance across human health, animal health and environmental sectors.', '1.2. Establish evidence based public communications programme targeting audiences in animal health related practices (Food chain, environment, plant).', '2.1.2. Review, draft and produce the AMR and related topics to include them in the undergraduate curricula for human and animal health professionals, food production and agriculture.', '3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human and animal health and plants) in governmental and private sectors.', 'Build laboratory capacity to produce high-quality microbiological data for patient management and support surveillance activities in both human and animal sectors.', 'Objective 8 Establishing bio-security in veterinary settings and animal husbandry, health food industry and agriculture', '11.2.2. Enforce regulation to minimize all substandard and falsified AMs for humans and animals.', '## Objective  13 Improve and ensure appropriate use of antimicrobials in animals', 'Activity 1.1.1.  Estimate awareness and knowledge through behavioural studies about level of awareness of AMR as public health issue among human and animal health care workers.', 'Sub-activity 1.1.1.2 Measure AMR awareness among the animal healthcare workers.', 'Sub-activity 1.1.1.2 Measure AMR awareness among the animal healthcare workers.', 'Activity 1.1.3. Organize training programs for different relevant professional groups (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians) on antimicrobial ethics in prescribing, dispensing and use.', 'Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Activity 2.1.1.  Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Revising existing undergraduate curriculum for human health professionals, animal health professionals and agriculture professionals to incorporate AMR', 'Sub-activity 2.1.1.2. Revising existing undergraduate curriculum for human health professionals, animal health professionals and agriculture professionals to incorporate AMR', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Sub-activity 8.1.1 Establishing bio-security committee at veterinary settings level and animal husbandry, health food industry and agriculture.', 'Establishing bio-security committee at veterinary settings level and animal husbandry, health food industry and agriculture.', 'Sub-activity 8.2.1. Write and approve guideline in animal health Include hygiene and bio-security and control as core content in training education of veterinary professionals', 'Sub-activity 11.3.2   Training on registration and  inspection of AMs in animal  health', 'Strategic intervention 13.1.  Improve and ensure appropriate use of antimicrobials in animals', 'Strategic intervention 13.1.  Improve and ensure appropriate use of antimicrobials in animals', 'Activity 13.1.  Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Sub-activity 3.2.1.  Identify the list of AMs currently in use in animals', 'Activity 13.3.  Restrict use of AMs as growth promoters', '8.1. Enhance bio-security and hygienic practices in veterinary settings and animal husbandry, health food industry and agriculture', 'Develop list to restrict AMS used for critical human cases in animal use']</t>
+  </si>
+  <si>
+    <t>['8 . استحداث ممار سات للامن البيولوجي في المر اكز  البيطر ية و  مز ار ع تر بية الحيوانات و  الصناعات الغذائية و الزراعة .', 'The national ACC will be composed of members representing the relevant sectors, notably human health, animal health and production and the food and environment sectors.', '2. Facilitate linkages with AMR surveillance across human health, animal health and environmental sectors.', 'Establish evidence based public communications programme targeting audiences in human health related practices (Food chain, environment).', '10.2. Improve environmental sanitation of water supply, and waste management (liquid and solid).', 'Sub-activity 3.2.2.  Strengthening waste management system including medical waste', 'Sub-activity 10.1.3  Improve environmental sanitation at level of camps', 'Sub-activity 10.1.3  Improve environmental sanitation at level of camps', 'Strategic Interventions 10.2.  Improve environmental sanitation of water supply, and waste management (liquid and solid) at level of migrant camps.', 'Improve environmental sanitation of water supply, and waste management (liquid and solid) at level of migrant camps.', 'Activity 10.2.1 Improve WASH services and Activity 10.2.2 Strengthening waste management system.', '10.1.  Improve environmental sanitation of water supply,  and waste management']</t>
+  </si>
+  <si>
+    <t>['في سبتمبر 5102 قطع رؤساء الدول بما فيها دولة ليبيا في الجمعية العامة للأمم المتحدة بنيويورك التزما باتباع نهج واسع ومنسق في معالجة الأسباب الجذرية التي تقف وراء مقاومة مضادات الميكروبات عبر قطاعات متعددة، وخصوصا منها صحة الإنسان وصحة الحيوان والزراعة.', '8 . استحداث ممار سات للامن البيولوجي في المر اكز  البيطر ية و  مز ار ع تر بية الحيوانات و  الصناعات الغذائية و الزراعة.', '8. Establishing bio-security (hygienic practices) in veterinary settings and animal husbandry, health food industry and agriculture.', 'Furthermore, the ACC must be appropriately integrated and have clearly defined roles and responsibilities in existing health system, public health and disease-specific programmes, animal health and production, the food sector and environmental initiatives.', '1.2. Establish evidence based public communications programme targeting audiences in animal health related practices (Food chain, environment, plant).', 'Objective 8 Establishing bio-security in veterinary settings and animal husbandry, health food industry and agriculture', '11.2.2. Enforce regulation to minimize all substandard and falsified AMs for humans and animals.', '## Objective  13 Improve and ensure appropriate use of antimicrobials in animals', 'Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Revising existing undergraduate curriculum for human health professionals, animal health professionals and agriculture professionals to incorporate AMR', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Sub-activity 8.1.1  Establishing bio-security committee at veterinary settings level and animal husbandry, health food industry and agriculture.', 'Establishing bio-security committee at veterinary settings level and animal husbandry, health food industry and agriculture.', 'Sub-activity 11.3.2   Training on registration and  inspection of AMs in animal  health', 'Strategic intervention 13.1.  Improve and ensure appropriate use of antimicrobials in animals', 'Strategic intervention 13.1.  Improve and ensure appropriate use of antimicrobials in animals', 'Activity 13.1.  Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Sub-activity 3.2.1. Identify the list of AMs currently in use in animals', 'Activity 13.3.  Restrict use of AMs as growth promoters', '8.1.  Enhance bio-security  and  hygienic practices in  veterinary settings and  animal husbandry, health  food industry and  agriculture']</t>
+  </si>
+  <si>
+    <t>['\uf0b7 خطة الر صد والتقييم تحدد مؤشر ات الاداء و الانجاز لكافة النشاطات.', 'Monitoring and evaluation plan', 'The ACC should provide a periodic progressing report for information for mutually reinforce activities among sectors to NCDC and UN partners (WHO and IOM) which will be discussed at the regular meeting of NSC.', 'Aggregate and report national AMR data and data on implementation status of national AMR surveillance system to GLASS.', '## Strategic intervention 7.6 . Establishing a National M&amp;amp;E Program', 'Annually', 'Reporting data to GLASS', 'Data delivered from non-human labs; Output; Number of Labs; Annually; ASU; Report', 'Annually']</t>
+  </si>
+  <si>
+    <t>['خطة تنفيذية توضح النشاطات و الية تنفيذها و الجدول الزمني لتنفيذها و التكلفة .', '1. Increase national awareness of AMR among target groups within 5 years up to 85%.', 'Objective 1 Increase national awareness of AMR among target groups within 5 years', 'Enhance behaviour change towards better use of antimicrobial medications ( 85%  among healthcare workers, and 50% among public)', '2020 | ACC with MoE | A decision is taken to include AMR in the curricula', 'Q2 2019 and Q4 2019', 'Sub-activity 5.1.2.4  Implementation of the plan                                           |                 | Q4 2020 | NRL    | ASU&amp;NRL                                      | 100.000 | NCDC | Implementati on of the plan', 'Q2 2019', 'Q2 2019', 'Sub-activity 7.2.3. cascade Training courses for health care workers on guidelines and protocol | Training courses | 6 | 2020-2023 | Nationwide | | 30 | No. of HCW trained', 'Sub-activity 7.5.1. Develop minimum standards for IPC in health care facilities and assessment of existing HCF | 1 | 2019-2022 | Nationwide | MoH | No of HCF assessed', 'Sub-activity 8.2.2. Conduct a TOT training courses on IC (bio-security) | Training course | 1 | 2020-2022 | Nationwide | MoA | 30 | | | Sub-activity 8.2.3. Conduct a series of cascade training courses on IC (bio-security) | Training course | 10 | 2020-2022 | Nationwide | MoA | 50 | | No. of professionals trained', '1                                                                                                                                                     | 2019-2020                                                                                                                                             | Nationwide', '1                                                                                                                                                     | 2019-2022', 'Sub-activity 11.1.1. Training programme on supply chain Management Focusing on AMs | Training course | 1 | Q3 2019 | Nationwide | MOH, MSO in coordination with SHAMS project | 10.000 | Number of participant trained', 'Sub-activity 11.2.1 Conduct orientation workshop on existing legislation targeting high level decision makers of all stakeholders', 'Sub-activity 12.1.2 training workshop on rational use of AM(public &amp; private health facilities) | 6 | 2020-2022 | Nationwide', 'Q4 2019', 'Sub-activity 12.3.1. Conduct expert consultation meeting for developing framework of AM stewardship program in Libya Q4 2019', 'Increase national awareness of AMR among target groups within 5 years up to 85%.', 'Yes/No  No. of curricula  /No. of  professional  groups to target              | Annually', 'Proportion of secondary health care facilities applying IPC measures', 'KAP Score Every 4 years', 'AMS programme implemented in 3 hospitals | Output | proportional | Annually']</t>
+  </si>
+  <si>
+    <t>['1. Increase national awareness of AMR among target groups within 5 years up to 85%. 3. Enhance behaviour change towards better use of Antimicrobial medications (85% among healthcare workers, and 60% among public).', 'Enhance behaviour change towards better use of antimicrobial medications ( 85%  among healthcare workers, and 50% among public)']</t>
+  </si>
+  <si>
+    <t>["the availability of dedicated funds will increase the operational effectiveness of the ACC. Seed funds from the government and external sources are often required initially, but government funds should be secured as early as possible to ensure political 'ownership' and increase the likelihood of programme sustainability.", '20.000', 'Activity 1.1.2. Establish a communication plan that includes (financial resources, human resources, training and formulation of national intersectoral coordination body)', 'Sub-activity 1.1.2.2 Assign a team of expertise to draw the outline of the frame for the plan. | 5.000 | Plan drafted', 'Sub-activity 1.3.3.1 Drafting key messages on AMR best-use practices . 2019 | local | ACC and concerned stakeholders | 5.000 | Approved messages', '10.000', '5.000', 'Cost  (LD) 5.000 and 10 allocated for the respective sub-activities indicate budget allocation for strategies directed at tackling AMR.', 'Sub-activity 5.1.2.4  Implementation of the plan | 100.000 | NCDC | Implementati on of the plan', '5.000', 'Sub-activity 7.3.1. Develop / update and distribution of nosocomial surveillance manuals | Expert meeting | | Q2 2019 | Nationwide | NCDC/MoH and hospitals | 40.000', '15.000', '10.000', '10.000', 'Sub-activity 11.2.1 Conduct orientation workshop on existing legislation targeting high level decision makers of all stakeholders | workshop | 1 | Q3 2019 | Pharmacy administration/ MoH | 10.000 |', 'Sub-activity 12.1.1. Assess AMs use in health care facilities (public &amp; private health facilities) through questionnaire for health care providers. | Survey | 1 | Q4 2019 | Nationwide | MoH Infection control administration at NCDC | 20.000 | Report on the result of Questionnaire', 'Sub-activity 2.3.1. Conduct expert consultation meeting for developing framework of AM stewardship program in Libya - 20.000', '60.000', '60.000']</t>
+  </si>
+  <si>
+    <t>['\uf0b7 خطة تنفيذية توضح النشاطات و الية تنفيذها و الجدول الزمني لتنفيذها و التكلفة.']</t>
+  </si>
+  <si>
+    <t>['و ايفاءا  لالتز اماتنا  الدولية,  وضع  المر كز الوطني  لمكافحة الامر اض خطة عمل وطنية لمقاومة مضادات الميكروبات تحت مظلة مكتب منظمة الصحة العالمية بليبيا وباشر اف لجنة واسعة من الخبر اء و  الا كاديميين من مختلف القطاعات اات العلاقة.', 'ACC     | Antimicrobial resistance Coordination Committee', 'Therefore, a large committee of all stakeholders was formed with four technical subcommittees were established to addresses every aspect to contain antimicrobial resistance in the country.', 'A governance mechanism is essential for coordinating national efforts to combat AMR. in order to comprise a national steering committee (NSC), which will establish supporting technical working group as needed.', 'The main purpose of the national steering committee is to oversee activities.', 'The national ACC will be composed of members representing the relevant sectors, notably human health, animal health and production and the food and environment sectors.', 'ACC will form subcommittees SOCs aligned with global strategic objectives of AMR: awareness raising and behaviour changes, knowledge, surveillance, Infection Prevention and Control (IPC), hygiene and biosecurity and rational antimicrobial consumption and Use.', 'The TWG will remain a national group and shall interact with country representatives of the required sectors, as determined by the scope of work.', '7.1.1. Establishing a multi-sectorial committee: the committee should include qualified /empowered /authorized members.', 'Sub-activity 7.1.1  Establishing a technical working group (multi-sectorial).', 'Establishing a technical working group (multi-sectorial).', 'Sub-activity 3.1.1. Establish committee in MoA to review existing legislation governing the control of procurement, prescription and dispensing AMs for animal use']</t>
+  </si>
+  <si>
+    <t>['A governance mechanism is essential for coordinating national efforts to combat AMR.', '3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human and animal health and plants) in governmental and private sectors.', '11.2. Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market.', '12.4. Enforcement of the legislation for the AMs dispense and prescription.', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Sub-activity 3.1.1.2. Review of current laws related to AMR', 'Strategic activity 11.2. Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market', 'Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market', 'Strength the national regulatory authority responsible for registering, inspecting and monitoring use for human health', 'Strategic intervention 12.4.  Enforcement of the legislation for the AMs dispense and prescription', 'Enforcement of the legislation for the AMs dispense and prescription', 'Activity 12.4. Enforcement of the legislation for the AMs dispense and prescription', 'Activity 13.1.  Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Activity 13.1.  Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Sub-activity 3.1.1. Establish committee in MoA to review existing legislation governing the control of procurement, prescription and dispensing AMs for animal use']</t>
+  </si>
+  <si>
+    <t>['ترتكز الخطة الوطنية الليبية على 04 هدف اساس ي تتمحور حول ستة محاور مستهدفة 0 . ) التوعية و التثقيف', '1. Increase national awareness of AMR among target groups within 5 years up to 85%. 2. Improve knowledge on AMR and related topics.', 'A major component of future policies for prevention and control of antimicrobial resistance in Libya should be education of healthcare workers, pharmacists, students, and the general public.', 'Organize training programs for relevant professional groups (physicians, dentists, pharmacists, nurses, Lab. Technicians) on ethics of antimicrobial prescribing, dispensing and use in addition to communication skills.', '2.2. Include AMR and related topics as a core component of the school curricula', 'Activity 1.1.3. Organize training programs for different relevant professional groups (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians) on antimicrobial ethics in prescribing, dispensing and use.', 'Strategic intervention 2.1. Include AMR and related topics as a core component of professional education, training, certification and development.', 'Activity 2.1.1.  Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Include AMR and related topics in undergraduate curricula for human health professionals, animal health professionals and agriculture professionals', 'Advocate for the AMR curricula among relevant decision makers (Education and Higher Education) to get their approval.', 'A decision is taken to include AMR in the curricula', 'Strategic intervention 2.2. Include AMR and related topics as a core component of school curricula.', 'Advocate for the AMR in school teaching programmes among relevant decision makers (ministry of Education) to get their approval.', 'Sub-activity 7.4.3. Establishing a national training programs for health care workers on IPC principles', 'Include AMR and related topics as a core component of professional education, training, certification and development.', 'Include AMR and related topics as a core component of professional education, training, certification and development.']</t>
+  </si>
+  <si>
+    <t>['تر تكز  الخطة الوطنية الليبية على 04 هدف اساس ي تتمحور حول ستة محاور مستهدفة 0 . ) التوعية و التثقيف 5 ) . تعز يز  اداء المختبر ات و ر صد معدلات مقاومة المضادات الحيوية 3 ) تعز يز  السياسات والبر امج وتطبيق تدابير  الوقاية من عدوى الالتهابات ومكافحتها .', '1. Increase national awareness of AMR among target groups within 5 years up to 85%.', 'ACC will form subcommittees SOCs aligned with global strategic objectives of AMR: awareness raising and behaviour changes', 'Develop awareness and understanding of antimicrobial resistance through effective communication, education, behaviour changes, and training', '1.3.3 Organize mass public awareness campaigns using different media (traditional media, sub regional and national channels, social media)', '3.1.4. Organizing community outreach programs and apply cultural sensitive methods to enhance behavioural changes.', '9.1 Promotion of personal hygiene by social mobilization and behavioral change activities.', '12.1. Improve awareness and education on rational use of AMs in healthcare facilities (Public &amp; Private health facilities).', '12.4.1. Awareness campaign targeting dispensers, prescribers, consumers and healthcare providers on existing rules and regulation governing AM.', 'Strategic intervention 1.1.  Prepare an evidence-based public communication programme for people in human health practice.', 'Prepare an evidence-based public communication programme for people in human health practice.', 'Strategic intervention 1.3. : Establish evidence based public communications programme targeting audience in the public (teachers, media personnel, community leaders, local non-governmental organizations (NGOs), influential figures and celebrities, etc).', 'Activity 1.3.3 . Organize mass public awareness campaigns using different media ( traditional media, Social media)', 'Strategic Interventions 9.1. Promotion of personal hygiene by social mobilization and behavioral change activities.', 'Sub-activity 9.2.1 Awareness campaigns to include adult vulnerable groups within national vaccination programs', 'Awareness campaigns to include adult vulnerable groups within national vaccination programs', 'Promotion of personal hygiene by social mobilization and behavioural change activities of migrants at camps/community', 'Promotion of personal hygiene by social mobilization and behavioural change activities of migrants at camps/community', 'Knowledge of personal hygiene need to be assessed as a base line for the social mobilization campaigns', 'Sub-activity 12.4.1. Awareness campaign targeting dispensers, prescribers, consumers and healthcare providers on existing rules and regulation governing AMs', 'Awareness campaign targeting dispensers, prescribers, consumers and healthcare providers on existing rules and regulation governing AMs', 'Sub-activity 3.3.2. Awareness campaign for the farmers', '1.1.  Increase national awareness of AMR among target groups within 5 years up to 85%.', 'Reaching out to the immigrants in camps and detention centres with awareness messages on', '9.1.  Promotion of personal hygiene by social mobilization and behavioral change activities']</t>
+  </si>
+  <si>
+    <t>['حيث شددت الخطة الوطنية على اهمية العمل بمفهوم الصحة الواحدة واهمية اشر ك كافة القطاعات اات علاقة', 'The Global Action Plan (GAP) on AMR was adopted in 2015 by all countries through decisions in the World Health Assembly, the FAO Governing Conference and the World Assembly of OIE Delegates.', 'The ACC should provide a periodic progressing report for information for mutually reinforce activities among sectors to NCDC and UN partners (WHO and IOM) which will be discussed at the regular meeting of NSC.', 'Collaboration with internal and external agencies and organizations is essential for many countries. WHO country office can support Libya in identifying and facilitating relations with external partners. ACC will be invited, encouraged and supported to participate in any existing initiatives of the WHO country office, regional office or WHO headquarters.', 'Build sustained partnerships and work nationally and internationally on containment of AMR;', 'There are many international agencies such as WHO, scientific societies, and other institutions that provide excellent and accurate educational resources that should be used as guidelines.', '4.1.9. Encourage collaboration with international organisations.', '6.1.3. Encourage collaboration with international organizations.', 'Encourage collaboration with international organizations.', 'Sub-activity 1.1.2.1 Conducting an advocacy workshop for concerned ministers on AMR plan. workshop 1 2019 ACC + WHO expertise', 'Sub-activity 1.1.3.2 Conducting a workshop for different professions related to AMR (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians). | Medical Manpower Development Center + WHO', 'Sub-activity 5.1.2.2 Assessment of the potential NRL - National or international assessor (WHO)', 'National international assessor(WHO)']</t>
+  </si>
+  <si>
+    <t>['ترتكز الخطة الوطنية الليبية على 04 هدف اساس ي تتمحور حول ستة محاور مستهدفة 0 . ) التوعية و التثقيف 5 ) . تعز يز اداء المختبرات و رصد معدلات مقاومة المضادات الحيوية', 'انشاء شبكة ر صد وطنية لتحديد انماط ومعدلات مقاومة المضادات الحيوية .', '4. Set up a national surveillance system for antimicrobial resistance. 5. Build laboratory capacity to produce high-quality microbiological data for patient management and support surveillance activities in both human and animal sectors. 6. Identify research priorities for AMR surveillance.', 'The focal point should... coordinate national activities for establishment of AMR surveillance systems.', 'Establishing AMR surveillance unit affiliated to the IP&amp;C administration at the NCDC to oversee the development and functioning of the national AMR surveillance system and has multidisciplinary team comprising a range of disciplines: epidemiologist, microbiologists, clinicians, data managers and the focal point for AMR surveillance and reporting to GLASS.', 'Establishing monitoring systems based on routine testing of antimicrobial susceptibility and education of healthcare workers, pharmacists, and the community on the health risks associated with the problem and benefits of prudent use of antimicrobials are some of the steps that can be taken to tackle the problem in the future. Surveillance of antimicrobial consumption and use is desperately needed.', 'Set up a national surveillance system for antimicrobial resistance', '4.1.1. Write and approve terms of reference for a national coordinating centre for ASU with the mandate to oversee the AMR surveillance programme, including collecting, aggregating and sharing data.', '4.1.7. Enrolment and data reporting to GLASS.', 'Build laboratory capacity to produce high-quality microbiological data for patient management and support surveillance activities in both human and animal sectors.', '5.3.1. Assessment of the potential surveillance sites. 5.3.2. Training laboratory personnel in referring adequate epidemiological data. 5.3.3. Training of laboratory technicians on approved standard investigation procedures.', '7.3.3. Establish a national coordination structure for surveillance of AMR.', 'Establish the national surveillance system for antimicrobial use &amp; consumption', '14.1. Establish a surveillance system to monitor and assess antimicrobial consumption in human.', 'Strategic intervention 4.1.  Establish AMR surveillance unit (ASU).', 'Activity 4.1.1.  Write and approve terms of reference for a ASU with the mandate to oversee the AMR surveillance programme, including collecting, aggregating  and sharing data.', 'Activity 4.1.1.  Write and approve terms of reference for a ASU with the mandate to oversee the AMR surveillance programme, including collecting, aggregating  and sharing data.', 'Sub-activity 4.1.4.1  Develop &amp; approve surveillance protocols and training plan', 'Develop &amp; approve surveillance protocols and training plan', 'Activity 4.1.7.  Enrolment in GLASS.', 'Strategic interventions 5.1. Upgrade a national reference laboratory for AMR surveillance.', 'Building capacity of peripheral laboratories (PL).', 'Activity 5.3.1. Assessment of the potential surveillance sites', 'Sub-activity 5.3.1.1 Write &amp; approve terms of reference for surveillance sites', 'Sub-activity 5.3.1.1  Assessment of the potential surveillance sites&amp; identifying the gaps', 'Strategic intervention 7.3. Establishing sentinel nosocomial surveillance sites at different health facilities at different regions', 'Sub-activity 7.3.3. Develop and update NRL facility to coordinate an effective epidemiological surveillances', 'Strategic intervention 14.1. establish the national surveillance system for antimicrobial use and consumption', 'Activity 14.1.  Establish a surveillance system to monitor and assess antimicrobial consumption in human', '4.1. ASU functioning and delivering data - Reporting data to GLASS', '5.3.1.4. Implement improvement plan of non-human labs - Data delivered from non-human labs', 'Establishing Sentinel Nosocomial Surveillance sites at different health facilities at different regions']</t>
+  </si>
+  <si>
+    <t>['انشاء شبكة ر صد وطنية لتحديد انماط ومعدلات مقاومة المضادات الحيوية.', '4. Set up a national surveillance system for antimicrobial resistance.', 'Establishing AMR surveillance unit affiliated to the IP&amp;amp;C administration at the NCDC to oversee the development and functioning of the national AMR surveillance system and has multidisciplinary team comprising a range of disciplines: epidemiologist, microbiologists, clinicians, data managers and the focal point for AMR surveillance and reporting to GLASS.', '4.1.1. Write and approve terms of reference for a national coordinating centre for ASU with the mandate to oversee the AMR surveillance programme, including collecting, aggregating and sharing data.', '7.3.3. Establish a national coordination structure for surveillance of AMR.', 'Activity 4.1.1.  Write and approve terms of reference for a ASU with the mandate to oversee the AMR surveillance programme, including collecting, aggregating  and sharing data.']</t>
+  </si>
+  <si>
+    <t>['تعز يز السياسات والبر امج وتطبيق تدابير الوقاية من عدوى الالتهابات ومكافحتها.', 'تعزيز النظافة و الصرف الصحي السليم في المجتمع.', '3. Infection Prevention, hygiene and sanitation', 'ACC will form subcommittees SOCs aligned with global strategic objectives of AMR: awareness raising and behaviour changes, knowledge, surveillance, Infection Prevention and Control (IPC), hygiene and biosecurity and rational antimicrobial consumption and Use.', 'reducing the impact of hospital-acquired infection in our hospitals is urgently required. Such action will most likely reduce antimicrobial use in the hospital setting and may lead to a reduction in high rates of antimicrobial resistance reported from hospitals in Libya. Programs dealing with control of nosocomial infections in the country should be strengthened and updated regularly.', 'Reduce the Incidence of Infection through Effective Sanitation, Hygiene and Infection Prevention Measures', '7.1. Strengthening the structure of IPC program at governmental/private levels.', '9.1 Promotion of personal hygiene by social mobilization and behavioral change activities.', '10.1.  Promotion  of  personal  hygiene  by  social  mobilization  of  migrants at camps/community and  behavioral change activities.', 'Strategic intervention 7.1: Strengthening the structure of IPC program at governmental/private levels', 'Strategic intervention 7.1: Strengthening the structure of IPC program at governmental/private levels', '## Strategic intervention 7.4. Training and education of IPC', 'Strategic Interventions 8.1. Strengthening the structure of ICP (bio-security) program at Governmental/Private levels', 'Sub-activity 8.2.1. Write and approve guideline in animal health Include hygiene and bio-security and control as core content in training education of veterinary professionals', 'Strategic Interventions 9.1. Promotion of personal hygiene by social mobilization and behavioral change activities.', 'Strategic Interventions 10.1: Promotion of personal hygiene by social mobilization and behavioural change activities of migrants at camps/community', 'Promotion of personal hygiene by social mobilization and behavioural change activities of migrants at camps/community', 'Activity 10.1: Promotion of personal hygiene by social mobilization and behavioural change activities of migrants at camps/community', 'Improve IPC program at level of health centres at the camps', 'Sub-activity 10.1.2 Improve IPC program at level of health centres at the camps', 'Sub-activity 10.1.3  Improve environmental sanitation at level of camps', 'Improve environmental sanitation of water supply, and waste management (liquid and solid) at level of migrant camps.', 'Improve environmental sanitation of water supply, and waste management (liquid and solid) at level of migrant camps.', 'Activity 10.2.1 Improve WASH services', 'Strengthening the IPC program (objective) - Proportion of secondary health care facilities applying IPC measures', '8.1. Enhance bio-security and hygienic practices in veterinary settings and animal husbandry, health food industry and agriculture', 'Promotion of personal hygiene by social mobilization and behavioral change activities']</t>
+  </si>
+  <si>
+    <t>['ترتكز الخطة الوطنية الليبية على 04 هدف اساس ي تتمحور حول ستة محاور مستهدفة 0 . ) التوعية و التثقيف 5 ) . تعز يز  اداء المختبرات و رصد معدلات مقاومة المضادات الحيوية 3 ) تعز يز  السياسات والبرامج وتطبيق تدابير الوقاية من عدوى الالتهابات ومكافحتها . 4 ) تنظيم وتعزيز استعمال الأدوية الجيدة النوعية والتخلص منها كما ينبغي.', '11. Ensure sustainable access to high quality antimicrobial medicines.', '3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human and animal health and plants) in governmental and private sectors.', '11.2. Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market.', '12.4. Enforcement of the legislation for the AMs dispense and prescription.', 'Activity 1.1.3. Organize training programs for different relevant professional groups (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians) on antimicrobial ethics in prescribing, dispensing and use.', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Strategic activity 11.2. Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market', 'Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market', 'Strength the national regulatory authority responsible for registering, inspecting and monitoring use for human health', 'Strategic intervention 12.4.  Enforcement of the legislation for the AMs dispense and prescription', 'Enforcement of the legislation for the AMs dispense and prescription', 'Activity 12.4. Enforcement of the legislation for the AMs dispense and prescription', 'Activity 13.1.  Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Sub-activity 3.1.1. Establish committee in MoA to review existing legislation governing the control of procurement, prescription and dispensing AMs for animal use', 'Develop list to restrict AMs used for critical human cases']</t>
+  </si>
+  <si>
+    <t>['4 ) تنظيم وتعز يز استعمال الأدوية الجيدة النوعية والتخلص منها كما ينبغي.', '05 . ضمان الاستخدام الجيد للمضادات الحيوية في الانسان .', '4. Rational use of antimicrobials, 12. Ensure appropriate use of antimicrobial agents in human, 13. Improve and ensure appropriate use of antimicrobials in animals.', 'ACC will form subcommittees SOCs aligned with global strategic objectives of AMR: awareness raising and behaviour changes, knowledge, surveillance, Infection Prevention and Control (IPC), hygiene and biosecurity and rational antimicrobial consumption and Use.', '3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human and animal health and plants) in governmental and private sectors.', '11.2. Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market.', '12.4. Enforcement of the legislation for the AMs dispense and prescription.', 'Activity 1.1.3. Organize training programs for different relevant professional groups (Physicians, Dentists, Veterinarians, Pharmacists, Nurses, and Lab. Technicians) on antimicrobial ethics in prescribing, dispensing and use.', 'Activity 3.1.2. Advocate for the development and enforcement of legislations related to dispensing of antimicrobial medications (human &amp; animal health and plants) in governmental and private sectors.', 'Health related laws are revised', 'Strategic activity 11.2. Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market', 'Enforcement of legislation to ensure the only safe effective and regulated medicines that are available in the market', 'Enforce regulation to minimize all substandard and falsified AMs for humans and animals', 'Strategic intervention 12.2. Establishment of national standard guidelines for common infectious diseases (public and private health facilities)', 'Strategic intervention 12.4.  Enforcement of the legislation for the AMs dispense and prescription', 'Enforcement of the legislation for the AMs dispense and prescription', 'Activity 12.4. Enforcement of the legislation for the AMs dispense and prescription', 'Awareness campaign targeting dispensers, prescribers, consumers and healthcare providers on existing rules and regulation governing AMs', 'Activity 13.1.  Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Develop legislation for the control of procurement, prescription and dispensing AMs for animal use', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Activity 13.2.  Restrict use of critically important AMs for human medicine in food production animal', 'Activity 13.3.  Restrict use of AMs as growth promoters', '12.2.1  Develop standard treatment guidelines for URTI, septicaemia, surgical &amp; dental Ams use']</t>
+  </si>
+  <si>
+    <t>['6.1.3. Encourage collaboration with international organizations.', '6.1.3. Encourage collaboration with international organizations.']</t>
+  </si>
+  <si>
     <t>['The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment. We refer to this integrated approach based on a public health perspective as the One Health approach.', 'We continue to strive to put a One Health approach on the international agenda, and remind health ministers of their coordinating responsibility; they must press for measures in all sectors in the interest of public health.', 'Such a joint conference is unique, and of major importance with regard to the One Health approach.', 'In order to further emphasise the importance of a One Health approach to antibiotic resistance, we will strive to place the outcomes of the conference on both Health Council and Agriculture Council agendas as Council Conclusions.', 'We express our appreciation for the fact that all involved parties recognise that antibiotic resistance is a shared problem, and that a joint approach is required.', 'The approach will be formulated per sector, with specific goals per animal species where possible. The goal is an animal farming sector where the health of the animals in the entire chain is the norm, and disease and antibiotic therapy the exception. In order to achieve this, it is crucial that all partners in the entire chain focus on the prevention of animal diseases.', 'While developing a new policy, attention will also be given to the effect of antibiotic use in animals on the environment (see paragraph 5 on the environment in this letter).', 'The action plan must result in an advisory report on the most effective management measures by mid 2016. At the very least, the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment. To this end, measurements will be performed in waste water from health facilities and residential areas, in waste water treatment plants and in manure, among other places.', 'Coherent communication initiatives in the context of the One Health approach to antibiotic resistance are crucial throughout the chain of public-professionals-administrators.']</t>
   </si>
   <si>
@@ -710,6 +776,72 @@
   </si>
   <si>
     <t>The NAP promotes participation in international research collaborations to develop new solutions for AMR.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the importance of a One Health approach, addressing human health, animal health, and agriculture.</t>
+  </si>
+  <si>
+    <t>The NAP includes specific actions aimed at increasing awareness and improving practices in human health.</t>
+  </si>
+  <si>
+    <t>The NAP outlines strategies to enhance animal health practices and address antimicrobial use in animals.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions related to environmental sanitation and hygiene.</t>
+  </si>
+  <si>
+    <t>The NAP addresses agricultural practices and the use of antimicrobials in food production.</t>
+  </si>
+  <si>
+    <t>The NAP includes a monitoring and evaluation plan to track progress.</t>
+  </si>
+  <si>
+    <t>The NAP sets specific targets for awareness and behavior change within defined timeframes.</t>
+  </si>
+  <si>
+    <t>The NAP includes quantitative targets for reducing AMR prevalence and improving antimicrobial use.</t>
+  </si>
+  <si>
+    <t>The NAP includes an operational plan with budget allocations for various activities.</t>
+  </si>
+  <si>
+    <t>The NAP assesses future budget requirements for its activities.</t>
+  </si>
+  <si>
+    <t>The NAP establishes a national steering committee for AMR coordination.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to strengthen the legislative framework for antimicrobial use.</t>
+  </si>
+  <si>
+    <t>The NAP includes initiatives to integrate AMR education into training programs for healthcare professionals.</t>
+  </si>
+  <si>
+    <t>The NAP outlines public awareness campaigns targeting various community groups.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes collaboration with international organizations for AMR initiatives.</t>
+  </si>
+  <si>
+    <t>The NAP includes the establishment of an AMR surveillance unit for data collection and analysis.</t>
+  </si>
+  <si>
+    <t>The NAP includes strategies to enhance capacity for detecting and reporting new resistance.</t>
+  </si>
+  <si>
+    <t>The NAP outlines specific strategies for sanitation and infection prevention.</t>
+  </si>
+  <si>
+    <t>The NAP aligns with international standards and guidelines for AMR control.</t>
+  </si>
+  <si>
+    <t>The NAP includes regulations for the distribution and prescription of antibiotics.</t>
+  </si>
+  <si>
+    <t>The NAP mandates the rational use of antibiotics through regulatory measures.</t>
+  </si>
+  <si>
+    <t>The NAP encourages participation in international research collaborations.</t>
   </si>
   <si>
     <t>The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment.</t>
@@ -1313,7 +1445,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1353,22 +1485,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F2" t="s">
-        <v>171</v>
+        <v>193</v>
       </c>
       <c r="G2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1376,22 +1508,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F3" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1399,22 +1531,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F4" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G4" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1422,22 +1554,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F5" t="s">
-        <v>173</v>
+        <v>195</v>
       </c>
       <c r="G5" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1445,22 +1577,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F6" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1468,22 +1600,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F7" t="s">
-        <v>174</v>
+        <v>196</v>
       </c>
       <c r="G7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1491,22 +1623,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>175</v>
+        <v>197</v>
       </c>
       <c r="G8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1514,22 +1646,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>176</v>
+        <v>198</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1537,22 +1669,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>177</v>
+        <v>199</v>
       </c>
       <c r="G10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1560,22 +1692,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1583,22 +1715,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F12" t="s">
-        <v>179</v>
+        <v>201</v>
       </c>
       <c r="G12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1606,22 +1738,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
-        <v>180</v>
+        <v>202</v>
       </c>
       <c r="G13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1629,22 +1761,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F14" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="G14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1652,22 +1784,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F15" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
       <c r="G15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1675,22 +1807,22 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="E16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F16" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1698,22 +1830,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D17" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="G17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1721,22 +1853,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D18" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F18" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1744,22 +1876,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F19" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="G19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1767,22 +1899,22 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F20" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1790,22 +1922,22 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F21" t="s">
-        <v>188</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1813,22 +1945,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D22" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1836,22 +1968,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F23" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="G23" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1859,22 +1991,22 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E24" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F24" t="s">
-        <v>190</v>
+        <v>212</v>
       </c>
       <c r="G24" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1882,22 +2014,22 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F25" t="s">
-        <v>191</v>
+        <v>213</v>
       </c>
       <c r="G25" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1905,22 +2037,22 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F26" t="s">
-        <v>192</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1928,22 +2060,22 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G27" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1951,22 +2083,22 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F28" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="G28" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1974,22 +2106,22 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E29" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F29" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="G29" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1997,22 +2129,22 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E30" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="G30" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2020,22 +2152,22 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E31" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F31" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
       <c r="G31" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2043,22 +2175,22 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E32" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F32" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="G32" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2066,22 +2198,22 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E33" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G33" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2089,22 +2221,22 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D34" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E34" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F34" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="G34" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2112,22 +2244,22 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D35" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F35" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G35" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2135,22 +2267,22 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E36" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F36" t="s">
-        <v>201</v>
+        <v>223</v>
       </c>
       <c r="G36" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2158,22 +2290,22 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E37" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F37" t="s">
-        <v>202</v>
+        <v>224</v>
       </c>
       <c r="G37" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2181,22 +2313,22 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E38" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F38" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G38" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2204,22 +2336,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D39" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E39" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F39" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="G39" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2227,22 +2359,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="G40" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2250,22 +2382,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E41" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F41" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G41" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2273,22 +2405,22 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F42" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="G42" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2296,22 +2428,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" t="s">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G43" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2319,22 +2451,22 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D44" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F44" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="G44" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2342,22 +2474,22 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F45" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="G45" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2365,22 +2497,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E46" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F46" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="G46" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2388,22 +2520,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="E47" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F47" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="G47" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2411,22 +2543,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D48" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E48" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F48" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="G48" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2434,22 +2566,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D49" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E49" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F49" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="G49" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2457,22 +2589,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D50" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="E50" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F50" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="G50" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2480,22 +2612,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D51" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E51" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F51" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
       <c r="G51" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2503,22 +2635,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F52" t="s">
-        <v>216</v>
+        <v>238</v>
       </c>
       <c r="G52" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2526,22 +2658,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D53" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E53" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F53" t="s">
-        <v>217</v>
+        <v>239</v>
       </c>
       <c r="G53" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2549,22 +2681,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E54" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F54" t="s">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="G54" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2572,22 +2704,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E55" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F55" t="s">
-        <v>219</v>
+        <v>241</v>
       </c>
       <c r="G55" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2595,22 +2727,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D56" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E56" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F56" t="s">
-        <v>220</v>
+        <v>242</v>
       </c>
       <c r="G56" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2618,22 +2750,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D57" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="E57" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F57" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G57" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2641,22 +2773,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E58" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F58" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="G58" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2664,22 +2796,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D59" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E59" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F59" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="G59" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2687,22 +2819,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D60" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E60" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F60" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="G60" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2710,22 +2842,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D61" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E61" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F61" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="G61" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2733,22 +2865,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D62" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E62" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F62" t="s">
-        <v>226</v>
+        <v>248</v>
       </c>
       <c r="G62" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2756,22 +2888,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D63" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E63" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F63" t="s">
-        <v>227</v>
+        <v>249</v>
       </c>
       <c r="G63" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2779,22 +2911,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D64" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E64" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F64" t="s">
-        <v>228</v>
+        <v>250</v>
       </c>
       <c r="G64" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2802,22 +2934,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F65" t="s">
-        <v>229</v>
+        <v>251</v>
       </c>
       <c r="G65" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2825,22 +2957,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D66" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E66" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F66" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="G66" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2848,22 +2980,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D67" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E67" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F67" t="s">
-        <v>231</v>
+        <v>253</v>
       </c>
       <c r="G67" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2871,22 +3003,22 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D68" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E68" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F68" t="s">
-        <v>232</v>
+        <v>254</v>
       </c>
       <c r="G68" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2894,22 +3026,22 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E69" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F69" t="s">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="G69" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2917,22 +3049,22 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D70" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E70" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F70" t="s">
-        <v>234</v>
+        <v>256</v>
       </c>
       <c r="G70" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2940,22 +3072,22 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D71" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E71" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F71" t="s">
-        <v>235</v>
+        <v>257</v>
       </c>
       <c r="G71" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2963,22 +3095,22 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D72" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E72" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>258</v>
       </c>
       <c r="G72" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2986,22 +3118,22 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D73" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E73" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F73" t="s">
-        <v>237</v>
+        <v>259</v>
       </c>
       <c r="G73" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3009,22 +3141,22 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E74" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F74" t="s">
-        <v>238</v>
+        <v>260</v>
       </c>
       <c r="G74" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3032,22 +3164,22 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D75" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F75" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="G75" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3055,22 +3187,22 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C76" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E76" t="s">
         <v>39</v>
       </c>
       <c r="F76" t="s">
-        <v>198</v>
+        <v>262</v>
       </c>
       <c r="G76" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3078,22 +3210,22 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C77" t="s">
         <v>39</v>
       </c>
       <c r="D77" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
       <c r="E77" t="s">
         <v>39</v>
       </c>
       <c r="F77" t="s">
-        <v>178</v>
+        <v>263</v>
       </c>
       <c r="G77" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3101,22 +3233,22 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C78" t="s">
         <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>45</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
         <v>39</v>
       </c>
       <c r="F78" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
       <c r="G78" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3124,22 +3256,22 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F79" t="s">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="G79" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3147,22 +3279,22 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C80" t="s">
         <v>39</v>
       </c>
       <c r="D80" t="s">
-        <v>45</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F80" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="G80" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3170,22 +3302,22 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D81" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F81" t="s">
-        <v>243</v>
+        <v>267</v>
       </c>
       <c r="G81" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3193,22 +3325,22 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E82" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="G82" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3216,22 +3348,22 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D83" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F83" t="s">
-        <v>245</v>
+        <v>269</v>
       </c>
       <c r="G83" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3239,22 +3371,22 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D84" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F84" t="s">
-        <v>246</v>
+        <v>270</v>
       </c>
       <c r="G84" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3262,22 +3394,22 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D85" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F85" t="s">
-        <v>247</v>
+        <v>271</v>
       </c>
       <c r="G85" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3285,22 +3417,22 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C86" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D86" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="E86" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F86" t="s">
-        <v>248</v>
+        <v>272</v>
       </c>
       <c r="G86" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3308,22 +3440,22 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
         <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>45</v>
+        <v>115</v>
       </c>
       <c r="E87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F87" t="s">
-        <v>249</v>
+        <v>273</v>
       </c>
       <c r="G87" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3331,22 +3463,22 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D88" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="E88" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F88" t="s">
-        <v>250</v>
+        <v>274</v>
       </c>
       <c r="G88" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3354,22 +3486,22 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D89" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E89" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F89" t="s">
-        <v>251</v>
+        <v>275</v>
       </c>
       <c r="G89" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3377,22 +3509,22 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F90" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="G90" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3400,22 +3532,22 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D91" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="E91" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F91" t="s">
-        <v>253</v>
+        <v>277</v>
       </c>
       <c r="G91" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3423,22 +3555,22 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D92" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E92" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F92" t="s">
-        <v>254</v>
+        <v>278</v>
       </c>
       <c r="G92" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3446,22 +3578,22 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E93" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F93" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="G93" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3469,22 +3601,22 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D94" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E94" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F94" t="s">
-        <v>256</v>
+        <v>280</v>
       </c>
       <c r="G94" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3492,22 +3624,22 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D95" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="E95" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F95" t="s">
-        <v>257</v>
+        <v>281</v>
       </c>
       <c r="G95" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3515,22 +3647,22 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E96" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F96" t="s">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="G96" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3538,22 +3670,22 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E97" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F97" t="s">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="G97" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3561,22 +3693,22 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C98" t="s">
         <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>45</v>
+        <v>126</v>
       </c>
       <c r="E98" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F98" t="s">
-        <v>260</v>
+        <v>220</v>
       </c>
       <c r="G98" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3584,22 +3716,22 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E99" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F99" t="s">
-        <v>261</v>
+        <v>200</v>
       </c>
       <c r="G99" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3607,22 +3739,22 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F100" t="s">
-        <v>262</v>
+        <v>284</v>
       </c>
       <c r="G100" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3630,22 +3762,22 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F101" t="s">
-        <v>263</v>
+        <v>285</v>
       </c>
       <c r="G101" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3653,22 +3785,22 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C102" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D102" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E102" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F102" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G102" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3676,22 +3808,22 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D103" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E103" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F103" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G103" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3699,22 +3831,22 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="E104" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F104" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G104" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3722,22 +3854,22 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D105" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E105" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F105" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G105" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3745,22 +3877,22 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D106" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="E106" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F106" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="G106" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3768,22 +3900,22 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D107" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E107" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F107" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G107" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3791,22 +3923,22 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D108" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F108" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="G108" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3814,22 +3946,22 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C109" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D109" t="s">
-        <v>130</v>
+        <v>46</v>
       </c>
       <c r="E109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F109" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G109" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3837,22 +3969,22 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D110" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E110" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F110" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G110" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3860,22 +3992,22 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D111" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E111" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F111" t="s">
-        <v>273</v>
+        <v>295</v>
       </c>
       <c r="G111" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3883,22 +4015,22 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D112" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E112" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F112" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G112" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3906,22 +4038,22 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="E113" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F113" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="G113" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3929,22 +4061,22 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D114" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E114" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F114" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="G114" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3952,22 +4084,22 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C115" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D115" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E115" t="s">
         <v>39</v>
       </c>
       <c r="F115" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G115" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3975,22 +4107,22 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D116" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="E116" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F116" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="G116" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3998,22 +4130,22 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="E117" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F117" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G117" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4021,22 +4153,22 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C118" t="s">
         <v>39</v>
       </c>
       <c r="D118" t="s">
-        <v>45</v>
+        <v>142</v>
       </c>
       <c r="E118" t="s">
         <v>39</v>
       </c>
       <c r="F118" t="s">
-        <v>175</v>
+        <v>302</v>
       </c>
       <c r="G118" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4044,22 +4176,22 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C119" t="s">
         <v>39</v>
       </c>
       <c r="D119" t="s">
-        <v>45</v>
+        <v>143</v>
       </c>
       <c r="E119" t="s">
         <v>39</v>
       </c>
       <c r="F119" t="s">
-        <v>280</v>
+        <v>303</v>
       </c>
       <c r="G119" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4067,22 +4199,22 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D120" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E120" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F120" t="s">
-        <v>281</v>
+        <v>304</v>
       </c>
       <c r="G120" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4090,22 +4222,22 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C121" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D121" t="s">
-        <v>139</v>
+        <v>46</v>
       </c>
       <c r="E121" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F121" t="s">
-        <v>178</v>
+        <v>305</v>
       </c>
       <c r="G121" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4113,22 +4245,22 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D122" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E122" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F122" t="s">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="G122" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4136,22 +4268,22 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D123" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E123" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F123" t="s">
-        <v>283</v>
+        <v>307</v>
       </c>
       <c r="G123" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4159,22 +4291,22 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C124" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D124" t="s">
-        <v>142</v>
+        <v>46</v>
       </c>
       <c r="E124" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F124" t="s">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="G124" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4182,22 +4314,22 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D125" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="E125" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F125" t="s">
-        <v>285</v>
+        <v>309</v>
       </c>
       <c r="G125" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4205,22 +4337,22 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D126" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="E126" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F126" t="s">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="G126" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4228,22 +4360,22 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="E127" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F127" t="s">
-        <v>287</v>
+        <v>311</v>
       </c>
       <c r="G127" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4251,22 +4383,22 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D128" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="E128" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F128" t="s">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="G128" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4274,22 +4406,22 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D129" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="E129" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F129" t="s">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="G129" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4297,22 +4429,22 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D130" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="E130" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F130" t="s">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="G130" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4320,22 +4452,22 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D131" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="E131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F131" t="s">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="G131" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4343,22 +4475,22 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D132" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E132" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F132" t="s">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="G132" t="s">
-        <v>38</v>
+        <v>357</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4366,22 +4498,22 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D133" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E133" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F133" t="s">
-        <v>293</v>
+        <v>317</v>
       </c>
       <c r="G133" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4389,22 +4521,22 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D134" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="E134" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F134" t="s">
-        <v>294</v>
+        <v>318</v>
       </c>
       <c r="G134" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4412,22 +4544,22 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D135" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="E135" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F135" t="s">
-        <v>295</v>
+        <v>319</v>
       </c>
       <c r="G135" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4435,22 +4567,22 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D136" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="E136" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F136" t="s">
-        <v>296</v>
+        <v>320</v>
       </c>
       <c r="G136" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4458,22 +4590,22 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C137" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D137" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="E137" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F137" t="s">
-        <v>297</v>
+        <v>321</v>
       </c>
       <c r="G137" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4481,22 +4613,22 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D138" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="E138" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F138" t="s">
-        <v>298</v>
+        <v>322</v>
       </c>
       <c r="G138" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4504,22 +4636,22 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D139" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E139" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F139" t="s">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="G139" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4527,22 +4659,22 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D140" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="E140" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F140" t="s">
-        <v>300</v>
+        <v>197</v>
       </c>
       <c r="G140" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4550,22 +4682,22 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D141" t="s">
-        <v>158</v>
+        <v>46</v>
       </c>
       <c r="E141" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F141" t="s">
-        <v>301</v>
+        <v>324</v>
       </c>
       <c r="G141" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4573,22 +4705,22 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D142" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E142" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F142" t="s">
-        <v>198</v>
+        <v>325</v>
       </c>
       <c r="G142" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4596,22 +4728,22 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C143" t="s">
         <v>39</v>
       </c>
       <c r="D143" t="s">
-        <v>45</v>
+        <v>161</v>
       </c>
       <c r="E143" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F143" t="s">
-        <v>178</v>
+        <v>200</v>
       </c>
       <c r="G143" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4619,22 +4751,22 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D144" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="E144" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F144" t="s">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="G144" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4642,22 +4774,22 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D145" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="E145" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F145" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="G145" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4665,22 +4797,22 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D146" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="E146" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F146" t="s">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="G146" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4688,22 +4820,22 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D147" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="E147" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F147" t="s">
-        <v>305</v>
+        <v>329</v>
       </c>
       <c r="G147" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4711,22 +4843,22 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D148" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="E148" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F148" t="s">
-        <v>306</v>
+        <v>330</v>
       </c>
       <c r="G148" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4734,22 +4866,22 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D149" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E149" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F149" t="s">
-        <v>307</v>
+        <v>331</v>
       </c>
       <c r="G149" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4757,22 +4889,22 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D150" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="E150" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F150" t="s">
-        <v>308</v>
+        <v>332</v>
       </c>
       <c r="G150" t="s">
-        <v>313</v>
+        <v>40</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4780,22 +4912,22 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D151" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="E151" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F151" t="s">
-        <v>309</v>
+        <v>333</v>
       </c>
       <c r="G151" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4803,22 +4935,22 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D152" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="E152" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F152" t="s">
-        <v>310</v>
+        <v>334</v>
       </c>
       <c r="G152" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4826,22 +4958,22 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F153" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="G153" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4849,22 +4981,22 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D154" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="E154" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F154" t="s">
-        <v>311</v>
+        <v>336</v>
       </c>
       <c r="G154" t="s">
-        <v>313</v>
+        <v>39</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4872,22 +5004,528 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
+        <v>38</v>
+      </c>
+      <c r="C155" t="s">
+        <v>39</v>
+      </c>
+      <c r="D155" t="s">
+        <v>173</v>
+      </c>
+      <c r="E155" t="s">
+        <v>39</v>
+      </c>
+      <c r="F155" t="s">
+        <v>337</v>
+      </c>
+      <c r="G155" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7">
+      <c r="A156" t="s">
+        <v>16</v>
+      </c>
+      <c r="B156" t="s">
+        <v>17</v>
+      </c>
+      <c r="C156" t="s">
+        <v>39</v>
+      </c>
+      <c r="D156" t="s">
+        <v>174</v>
+      </c>
+      <c r="E156" t="s">
+        <v>39</v>
+      </c>
+      <c r="F156" t="s">
+        <v>338</v>
+      </c>
+      <c r="G156" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" t="s">
+        <v>16</v>
+      </c>
+      <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="C157" t="s">
+        <v>39</v>
+      </c>
+      <c r="D157" t="s">
+        <v>175</v>
+      </c>
+      <c r="E157" t="s">
+        <v>39</v>
+      </c>
+      <c r="F157" t="s">
+        <v>339</v>
+      </c>
+      <c r="G157" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" t="s">
+        <v>16</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158" t="s">
+        <v>39</v>
+      </c>
+      <c r="D158" t="s">
+        <v>176</v>
+      </c>
+      <c r="E158" t="s">
+        <v>39</v>
+      </c>
+      <c r="F158" t="s">
+        <v>340</v>
+      </c>
+      <c r="G158" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" t="s">
+        <v>16</v>
+      </c>
+      <c r="B159" t="s">
+        <v>20</v>
+      </c>
+      <c r="C159" t="s">
+        <v>39</v>
+      </c>
+      <c r="D159" t="s">
+        <v>177</v>
+      </c>
+      <c r="E159" t="s">
+        <v>39</v>
+      </c>
+      <c r="F159" t="s">
+        <v>341</v>
+      </c>
+      <c r="G159" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" t="s">
+        <v>16</v>
+      </c>
+      <c r="B160" t="s">
+        <v>21</v>
+      </c>
+      <c r="C160" t="s">
+        <v>39</v>
+      </c>
+      <c r="D160" t="s">
+        <v>178</v>
+      </c>
+      <c r="E160" t="s">
+        <v>39</v>
+      </c>
+      <c r="F160" t="s">
+        <v>342</v>
+      </c>
+      <c r="G160" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" t="s">
+        <v>16</v>
+      </c>
+      <c r="B161" t="s">
+        <v>22</v>
+      </c>
+      <c r="C161" t="s">
+        <v>39</v>
+      </c>
+      <c r="D161" t="s">
+        <v>179</v>
+      </c>
+      <c r="E161" t="s">
+        <v>39</v>
+      </c>
+      <c r="F161" t="s">
+        <v>343</v>
+      </c>
+      <c r="G161" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" t="s">
+        <v>16</v>
+      </c>
+      <c r="B162" t="s">
+        <v>23</v>
+      </c>
+      <c r="C162" t="s">
+        <v>39</v>
+      </c>
+      <c r="D162" t="s">
+        <v>180</v>
+      </c>
+      <c r="E162" t="s">
+        <v>39</v>
+      </c>
+      <c r="F162" t="s">
+        <v>344</v>
+      </c>
+      <c r="G162" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" t="s">
+        <v>16</v>
+      </c>
+      <c r="B163" t="s">
+        <v>24</v>
+      </c>
+      <c r="C163" t="s">
+        <v>39</v>
+      </c>
+      <c r="D163" t="s">
+        <v>180</v>
+      </c>
+      <c r="E163" t="s">
+        <v>39</v>
+      </c>
+      <c r="F163" t="s">
+        <v>345</v>
+      </c>
+      <c r="G163" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" t="s">
+        <v>16</v>
+      </c>
+      <c r="B164" t="s">
+        <v>25</v>
+      </c>
+      <c r="C164" t="s">
+        <v>40</v>
+      </c>
+      <c r="D164" t="s">
+        <v>46</v>
+      </c>
+      <c r="E164" t="s">
+        <v>40</v>
+      </c>
+      <c r="F164" t="s">
+        <v>220</v>
+      </c>
+      <c r="G164" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" t="s">
+        <v>16</v>
+      </c>
+      <c r="B165" t="s">
+        <v>26</v>
+      </c>
+      <c r="C165" t="s">
+        <v>40</v>
+      </c>
+      <c r="D165" t="s">
+        <v>46</v>
+      </c>
+      <c r="E165" t="s">
+        <v>40</v>
+      </c>
+      <c r="F165" t="s">
+        <v>200</v>
+      </c>
+      <c r="G165" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" t="s">
+        <v>16</v>
+      </c>
+      <c r="B166" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" t="s">
+        <v>181</v>
+      </c>
+      <c r="E166" t="s">
+        <v>39</v>
+      </c>
+      <c r="F166" t="s">
+        <v>346</v>
+      </c>
+      <c r="G166" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7">
+      <c r="A167" t="s">
+        <v>16</v>
+      </c>
+      <c r="B167" t="s">
+        <v>28</v>
+      </c>
+      <c r="C167" t="s">
+        <v>39</v>
+      </c>
+      <c r="D167" t="s">
+        <v>182</v>
+      </c>
+      <c r="E167" t="s">
+        <v>39</v>
+      </c>
+      <c r="F167" t="s">
+        <v>347</v>
+      </c>
+      <c r="G167" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" t="s">
+        <v>16</v>
+      </c>
+      <c r="B168" t="s">
+        <v>29</v>
+      </c>
+      <c r="C168" t="s">
+        <v>39</v>
+      </c>
+      <c r="D168" t="s">
+        <v>183</v>
+      </c>
+      <c r="E168" t="s">
+        <v>39</v>
+      </c>
+      <c r="F168" t="s">
+        <v>348</v>
+      </c>
+      <c r="G168" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" t="s">
+        <v>16</v>
+      </c>
+      <c r="B169" t="s">
+        <v>30</v>
+      </c>
+      <c r="C169" t="s">
+        <v>39</v>
+      </c>
+      <c r="D169" t="s">
+        <v>184</v>
+      </c>
+      <c r="E169" t="s">
+        <v>39</v>
+      </c>
+      <c r="F169" t="s">
+        <v>349</v>
+      </c>
+      <c r="G169" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" t="s">
+        <v>16</v>
+      </c>
+      <c r="B170" t="s">
+        <v>31</v>
+      </c>
+      <c r="C170" t="s">
+        <v>39</v>
+      </c>
+      <c r="D170" t="s">
+        <v>185</v>
+      </c>
+      <c r="E170" t="s">
+        <v>39</v>
+      </c>
+      <c r="F170" t="s">
+        <v>350</v>
+      </c>
+      <c r="G170" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" t="s">
+        <v>16</v>
+      </c>
+      <c r="B171" t="s">
+        <v>32</v>
+      </c>
+      <c r="C171" t="s">
+        <v>39</v>
+      </c>
+      <c r="D171" t="s">
+        <v>186</v>
+      </c>
+      <c r="E171" t="s">
+        <v>39</v>
+      </c>
+      <c r="F171" t="s">
+        <v>351</v>
+      </c>
+      <c r="G171" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" t="s">
+        <v>16</v>
+      </c>
+      <c r="B172" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" t="s">
+        <v>39</v>
+      </c>
+      <c r="D172" t="s">
+        <v>187</v>
+      </c>
+      <c r="E172" t="s">
+        <v>39</v>
+      </c>
+      <c r="F172" t="s">
+        <v>352</v>
+      </c>
+      <c r="G172" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" t="s">
+        <v>16</v>
+      </c>
+      <c r="B173" t="s">
+        <v>34</v>
+      </c>
+      <c r="C173" t="s">
+        <v>39</v>
+      </c>
+      <c r="D173" t="s">
+        <v>188</v>
+      </c>
+      <c r="E173" t="s">
+        <v>39</v>
+      </c>
+      <c r="F173" t="s">
+        <v>353</v>
+      </c>
+      <c r="G173" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" t="s">
+        <v>16</v>
+      </c>
+      <c r="B174" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" t="s">
+        <v>39</v>
+      </c>
+      <c r="D174" t="s">
+        <v>189</v>
+      </c>
+      <c r="E174" t="s">
+        <v>39</v>
+      </c>
+      <c r="F174" t="s">
+        <v>354</v>
+      </c>
+      <c r="G174" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" t="s">
+        <v>16</v>
+      </c>
+      <c r="B175" t="s">
+        <v>36</v>
+      </c>
+      <c r="C175" t="s">
+        <v>39</v>
+      </c>
+      <c r="D175" t="s">
+        <v>190</v>
+      </c>
+      <c r="E175" t="s">
+        <v>39</v>
+      </c>
+      <c r="F175" t="s">
+        <v>347</v>
+      </c>
+      <c r="G175" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" t="s">
+        <v>16</v>
+      </c>
+      <c r="B176" t="s">
         <v>37</v>
       </c>
-      <c r="C155" t="s">
+      <c r="C176" t="s">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s">
+        <v>191</v>
+      </c>
+      <c r="E176" t="s">
+        <v>39</v>
+      </c>
+      <c r="F176" t="s">
+        <v>355</v>
+      </c>
+      <c r="G176" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7">
+      <c r="A177" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177" t="s">
         <v>38</v>
       </c>
-      <c r="D155" t="s">
-        <v>170</v>
-      </c>
-      <c r="E155" t="s">
-        <v>38</v>
-      </c>
-      <c r="F155" t="s">
-        <v>312</v>
-      </c>
-      <c r="G155" t="s">
-        <v>313</v>
+      <c r="C177" t="s">
+        <v>39</v>
+      </c>
+      <c r="D177" t="s">
+        <v>192</v>
+      </c>
+      <c r="E177" t="s">
+        <v>39</v>
+      </c>
+      <c r="F177" t="s">
+        <v>356</v>
+      </c>
+      <c r="G177" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/data/6-performance/combined_data_new.xlsx
+++ b/data/6-performance/combined_data_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1241" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="444">
   <si>
     <t>country</t>
   </si>
@@ -55,6 +55,12 @@
     <t>libya</t>
   </si>
   <si>
+    <t>malta</t>
+  </si>
+  <si>
+    <t>myanmar</t>
+  </si>
+  <si>
     <t>netherlands</t>
   </si>
   <si>
@@ -370,6 +376,129 @@
     <t>['6.1.3. Encourage collaboration with international organizations.', '6.1.3. Encourage collaboration with international organizations.']</t>
   </si>
   <si>
+    <t>['AMR is not only a challenge in human healthcare but equally impacts on animal health and the environment. This complex, inter-related, problem requires concerted efforts by various stakeholders from a multitude of sectors - including healthcare specialists, veterinarians, pharmacists, educationalists, policy makers, legislative bodies, agriculture, industry and the public.', "This reflects the wider action plans on this important issue of the Food and Agriculture Organization (FAO)'s, World Organisation for Animal Health Organisation and World Health Organisation (WHO)'s.", '5.1 Legislation regulating Human Health and Animal Sector', 'It recognizes the interconnectedness of humans, animals and the environment and adopts a whole of Government, a whole of society and a comprehensive One Health Approach to AMR, recognizing the complexity of the issue.', 'The Strategy is a cross-sectoral response to the threat of AMR in Malta. Its focus lies in controlling and possibly reversing current AMR trends. The aims, objectives and actions needed to achieve this vision have been informed by a review of national and international literature as well as expert advice from key stakeholders.', 'The Strategy recognises the interconnectedness of humans, animals and the environment. In view of the complexity of the issue, it adopts a whole of Government, a whole of society and a comprehensive One Health Approach to AMR.', "The WHO, in its Global Action Plan on Antimicrobial Resistance (2015), which was subsequently adopted by the World Animal Health Organisation (OIE) and the Food and Agriculture Organisation, the United Nations Political Declaration on AMR (2016) and the European Union One Health Action Plan against Antimicrobial Resistance (2011) as amended in 2016 through 'A European One Health Action Plan against Antimicrobial Resistance (AMR)' highlight the efforts necessary to address this global treat.", 'The NAC has representation from various professional groups involved in the prescribing and dispensing of antibiotics, addressing both Human Health and Animal Health.', '## 5.3 Interventions to address AMR in Animal Health and the Environment', 'The guiding principle leading the Strategy is that of One Health. This principle recognises the inextricable link between humans, animals and the environment and emphasis that achieving optimal health outcomes for people and animals requires the collaboration and cooperation of Human Health, Animal Health and the environment.', 'Implement effective One Health antimicrobial stewardship practices across Human and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing and administering of antimicrobials.', 'Implement effective antimicrobial stewardship practices across Human Health and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing, administering and disposal of antimicrobials.', 'Introduce specific measures to improve antibiotic prescribing and use in the community, hospitals and veterinary practice (including delayed prescribing in the case of human medicine), and formal systems of access by primary care stakeholders to specialists in infectious diseases/microbiology for both human and animal health.', 'Strengthen relevant surveillance and feedback systems on antibiotic use and resistance in human and Animal Health as well as the environment.', '3.4 Establish and implement a nationally representative and coordinated programme for surveillance of antimicrobial usage in hospitals, the community, environment, animal and aquatic medicine and agriculture, in both food and non-food, and aquatic production, including by sector and by antibiotic (broad and narrow).', 'Improve infection prevention and control measures across Human Health and Animal Health settings to help prevent infections and the spread of antimicrobial resistance.', 'Expand educational Animal Health campaigns aimed specifically at farmers, animal and pet owners emphasising the risks of non-prescribed use of antibiotics or acquisition of antibiotics from unlicensed sources as well as the benefits and costeffectiveness of greater hygiene.', 'The Strategy supports a collaborative effort through a One Health Approach to enhance those practices that encourage the appropriate and prudent use of antibiotics, change those practices that have contributed to the development of resistance and implement new initiatives to reduce inappropriate antibiotic usage and resistance.']</t>
+  </si>
+  <si>
+    <t>['This Strategy and Action Plan focuses on improvements in surveillance, stewardship measures for the proper use of antibiotics, infection prevention and control as well as education and research.', '5.2 Interventions to address AMR in Human Health', 'The main strategic aims of the AMR Strategy are to: 1. Strengthen the infrastructure needed to address the AMR situation through adequate support of the inter-sectoral coordinating mechanism (ICM), appropriate legislation and strengthening of relevant surveillance and feedback systems in Human and Animal Health as well as the environment.', 'With the aim of maintaining efficacy of antibiotics for both humans and animals for the long term and to improve Human and Animal Health, the Strategy sets priorities for future actions, whilst highlighting good practice initiatives which are already being implemented to address AMR.', 'Malta is not immune to the significant challenge of AMR. Indeed, in common with most Mediterranean countries, several drug-bug resistance combinations are locally prevalent in significantly greater proportions than other EU regions, especially northern countries, which tend to report lower resistance. These local challenges manifest themselves in Human Health - at hospital and community settings - as well as in the animal sector.', 'Most of its past activities have focused on Human Health.', '## 5.2 Interventions to address AMR in Human Health', 'The Infection Control Department (ICD) at MDH coordinates all activities related to the prevention and control of HAI in the hospital.', 'The aim of this Strategy is to provide a plan of action for Malta, designed to ensure the efficacy of antibiotics for the long term. This focuses on the appropriate use of antibiotics and minimising the development and spread of AMR, thereby improving Human and Animal Health.', 'Introduce appropriate legislation to establish minimum standards for infection prevention and control in Human Healthcare and residential care institutions.', 'Implement effective antimicrobial stewardship practices across Human Health and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing, administering and disposal of antimicrobials.', 'Introduce specific measures to improve antibiotic prescribing and use in the community, hospitals and veterinary practice (including delayed prescribing in the case of human medicine), and formal systems of access by primary care stakeholders to specialists in infectious diseases/microbiology for both human and animal health.', 'Strengthen relevant surveillance and feedback systems on antibiotic use and resistance in human and Animal Health as well as the environment.', '3.3 Focus surveillance on priority organisms and drug-bug combinations most relevant to Human Health (Table 1).', 'Improve infection prevention and control measures across Human Health and Animal Health settings to help prevent infections and the spread of antimicrobial resistance.', 'Enhance the knowledge and awareness on AMR among healthcare and veterinary professionals by ensuring the availability of continuing professional education activities, on AMR and prudent use of antibiotics, not sponsored by industry.', '- 5.7 Set up a help-line dedicated to infections and antibiotic use, manned by appropriate healthcare professionals, to allow the public to phone and discuss basic issues so as to provide reassurance and support.', 'The Strategy supports a collaborative effort through a One Health Approach to enhance those practices that encourage the appropriate and prudent use of antibiotics, change those practices that have contributed to the development of resistance and implement new initiatives to reduce inappropriate antibiotic usage and resistance.', 'Malta is not immune from the significant challenges from AMR that all countries are facing, which - unless effectively addressed - will have significant patient safety consequences.', 'the launch of a hospital wide AMR Strategy in 2010. The cornerstone of the initiative was a policy of Root Cause Analysis and subsequent corrective action.', 'Trends of antibiotic consumption within MDH have stabilized in recent years, especially in high consuming units such as intensive care, nephrology and haematology, where antibiotic stewardship programmes have been successfully introduced.']</t>
+  </si>
+  <si>
+    <t>["the Ministry of Agriculture Fisheries and Animal Rights in tandem with the Ministry for Health is launching a 'Strategy and Action Plan for the Prevention and Containment of Antimicrobial Resistance intended to target the years 2020 - 2025'.", 'The strategy focuses on measures such as improved hygiene and biosecurity in farms which will help farmers in reducing risks to overall animal health, increase cost effectively and at the same time ensuring a more prudent and controlled use of antimicrobials.', '5.3 Interventions to address AMR in Animal Health', '5.3 Interventions to address AMR in Animal Health', 'The main strategic aims of the AMR Strategy are to: ... 3. Introduce overarching measures to ensure appropriate antibiotic prescribing and use in community, hospitals and veterinary practice and in both Human and Animal Health sectors.', 'With the aim of maintaining efficacy of antibiotics for both humans and animals for the long term and to improve Human and Animal Health, the Strategy sets priorities for future actions.', 'These local challenges manifest themselves in Human Health - at hospital and community settings - as well as in the animal sector.', "Detailed information on antibiotic use in animals in Malta is also significantly limited. Malta started providing sales data of antimicrobials to the European Medicines Authority's European Surveillance of Veterinary Antimicrobial Consumption (ESVAC) network in 2018 for the year 2017.", 'Legislation directly related to AMR is limited. Current legislation requires that all antibiotics used for human patients (including topical formulations) as well as food animals, should be Prescription Only Medicines.', "The Regulation on transmissible animal diseases ('Animal Health Law') of March 2016 sets out a legal basis for monitoring animal pathogens resistant to antibiotics.", '## 5.3 Interventions to address AMR in Animal Health and the Environment', 'Each year all registered local distributors of veterinary medicinal products and distributors of medicated feed are required to supply the VPRD with information on the sales of antibiotics for that year.', 'The tool can help with the reduction of antimicrobial usage and to improve the general land-dwelling Animal Health situation.', 'Implement effective One Health antimicrobial stewardship practices across Human and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing and administering of antimicrobials.', 'Implement effective One Health antimicrobial stewardship practices across Human and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing and administering of antimicrobials.', 'Introduce, with urgency, legislation that would regulate on antimicrobial use in veterinary practice so as to ensure full compliance with all EU Medicine Veterinary legislation and EU Directive 2001/82/EC.', 'Set and monitor qualitative and quantitative targets for improvement of prescribing at national level and introduce systems to identify, benchmark and follow up high-end prescribers in community, hospital and veterinary settings.', 'Strengthen relevant surveillance and feedback systems on antibiotic use and resistance in human and Animal Health as well as the environment.', '3.4 Establish and implement a nationally representative and coordinated programme for surveillance of antimicrobial usage in hospitals, the community, environment, animal and aquatic medicine and agriculture, in both food and non-food, and aquatic production, including by sector and by antibiotic (broad and narrow).', '3.9 Establish a sentinel AMR surveillance programme in animals to capture data generated from routine tests undertaken by veterinarians, slaughter houses as well as the public health laboratory.', '5.1 Enhance the knowledge and awareness on AMR among healthcare and veterinary professionals by ensuring the availability of continuing professional education activities, on AMR and prudent use of antibiotics, not sponsored by industry.', 'Expand educational Animal Health campaigns aimed specifically at farmers, animal and pet owners emphasising the risks of non-prescribed use of antibiotics or acquisition of antibiotics from unlicensed sources as well as the benefits and costeffectiveness of greater hygiene.', 'Information on AMR in isolates of animal origin remains extremely sparse and restricted to a limited set of isolates tested annually at the National Veterinary Laboratory in compliance with Commission Implementing Decision 652/2013 (EU).', 'Absence of appropriate legislation in Animal Health that provides the necessary tools for effective intervention and regulation, especially in food animal husbandry.']</t>
+  </si>
+  <si>
+    <t>['The main strategic aims of the AMR Strategy are to: ... strengthen  relevant  surveillance  and  feedback  systems  in  Human  and  Animal Health as well as the environment.', 'Action targeting pharmaceuticals in the environment is also being developed and addressed at EU level. Article 8 of Directive 2008/105/EC (amended by Directive 2013/39/EU) obliges the European Commission to develop a strategic approach to water pollution from pharmaceutical substances. The Strategy, which is in its final stages of drafting, includes tackling antimicrobial resistance as a key aim.', 'Nevertheless, there are some local concerns regarding threats posed by abuse, overuse, misuse, environmental and ecological issues, antimicrobial residues and AMR.', '## 5.3 Interventions to address AMR in Animal Health and the Environment', 'Currently, surface water is periodically monitored for pollutants of concern, including antibiotics, by the Environment and Resource Authority (ERA).', 'The guiding principle leading the Strategy is that of One Health. This principle recognises the inextricable link between humans, animals and the environment and emphasis that achieving optimal health outcomes for people and animals requires the collaboration and cooperation of Human Health, Animal Health and the environment.', '1.8 Review and/or establish legislation to ensure adequate wastewater treatment systems to prevent discharge of antibiotics into the environment.', '2.12 Ensure proper mechanisms to enhance the prevention of the introduction of pests and to ensure the implementation of good agricultural practices and integrated pest management (IPM), thereby continuing to discourage the use of antibiotics in crop production and plant protection.', '3.4.2 Establish a comprehensive programme for at-source monitoring of antimicrobial residues in the environment, including soils and irrigation water.', 'However, additional actions need to be implemented, particularly in community and environment settings.']</t>
+  </si>
+  <si>
+    <t>["the Ministry of Agriculture Fisheries and Animal Rights in tandem with the Ministry for Health is launching a 'Strategy and Action Plan for the Prevention and Containment of Antimicrobial Resistance intended to target the years 2020 - 2025'.", 'The strategy focuses on measures such as improved hygiene and biosecurity in farms which will help farmers in reducing risks to overall animal health, increase cost effectively and at the same time ensuring a more prudent and controlled use of antimicrobials.', '5.3 Interventions to address AMR in Animal Health', "Detailed information on antibiotic use in animals in Malta is also significantly limited. Malta started providing sales data of antimicrobials to the European Medicines Authority's European Surveillance of Veterinary Antimicrobial Consumption (ESVAC) network in 2018 for the year 2017.", "Regulation 60 of Subsidiary Legislation 437.47 requires all antimicrobial Veterinary Medicinal Products to be obtained following a veterinarian's prescription.", 'Various legislation is in place in relation to Animal Health as per EU/EC regulations, directives, actions and decisions.', '## 5.3 Interventions to address AMR in Animal Health and the Environment', 'The aim of this Strategy is to provide a plan of action for Malta, designed to ensure the efficacy of antibiotics for the long term. This focuses on the appropriate use of antibiotics and minimising the development and spread of AMR, thereby improving Human and Animal Health.', 'Introduce, with urgency, legislation that would regulate on antimicrobial use in veterinary practice so as to ensure full compliance with all EU Medicine Veterinary legislation and EU Directive 2001/82/EC.', "Encourage farmers' cooperatives and other similar associations to explore models for the provision of farm veterinary services to achieve more cost-effective economies of scale.", '3.4 Establish and implement a nationally representative and coordinated programme for surveillance of antimicrobial usage in hospitals, the community, environment, animal and aquatic medicine and agriculture, in both food and non-food, and aquatic production, including by sector and by antibiotic (broad and narrow).', 'Improve hygiene standards in farms to prevent cross-transmission of animal pathogens.', 'Expand educational Animal Health campaigns aimed specifically at farmers, animal and pet owners emphasising the risks of non-prescribed use of antibiotics or acquisition of antibiotics from unlicensed sources as well as the benefits and costeffectiveness of greater hygiene.']</t>
+  </si>
+  <si>
+    <t>['Implementation and evaluation of the Strategy will be supported by an Implementation Plan that provides the detail of specific actions, targets, time frames and indicators.', '3.5 Strengthen systems to feedback data on antimicrobial resistance and antibiotic consumption used in human and animal care and produce an annual AMR report for Malta.', '4.4 Establish structure, process and outcome Key Performance Indicators (KPIs) to allow monitoring and evaluation of IPC activities and structures of healthcare facilities at national and institutional level, to ensure uniformity in competence and output.']</t>
+  </si>
+  <si>
+    <t>["the Ministry for Health is launching a 'Strategy and Action Plan for the Prevention and Containment of Antimicrobial Resistance intended to target the years 2020 - 2025'", 'Implementation and evaluation of the Strategy will be supported by an Implementation Plan that provides the detail of specific actions, targets, time frames and indicators. The Plan will be developed during 2018-2019 in consultation with stakeholders. Implementation will take a staged approach over the period 2018-2025.', 'Set and monitor qualitative and quantitative targets for improvement of prescribing at national level and introduce systems to identify, benchmark and follow up high-end prescribers in community, hospital and veterinary settings.', '4.4 Establish structure, process and outcome Key Performance Indicators (KPIs) to allow monitoring and evaluation of IPC activities and structures of healthcare facilities at national and institutional level, to ensure uniformity in competence and output.']</t>
+  </si>
+  <si>
+    <t>['Set and monitor qualitative and quantitative targets for improvement of prescribing at national level and introduce systems to identify, benchmark and follow up high-end prescribers in community, hospital and veterinary settings.']</t>
+  </si>
+  <si>
+    <t>['Strengthen the infrastructure needed to address the AMR situation through adequate support of the inter-sectoral coordinating mechanism (ICM)', 'Subsidiary Legislation 465.08 of 2008 established the National Antibiotic Committee (NAC), a committee that serves as the Intersectoral Coordinating Mechanism for Malta.', 'Owners: Intersectoral Co-Ordinating Mechanism (Superintendence of Public Health through the National Antimicrobial Committee)']</t>
+  </si>
+  <si>
+    <t>['The use and administration of antimicrobials needs a proper holistic regulatory framework intended to prevent the abuse, misuse, and overuse of antimicrobials.', 'Strengthen the infrastructure needed to address the AMR situation through adequate support of the inter-sectoral coordinating mechanism (ICM), appropriate legislation and strengthening of relevant surveillance and feedback systems in Human and Animal Health as well as the environment.', 'Current legislation requires that all antibiotics used for human patients (including topical formulations) as well as food animals, should be Prescription Only Medicines.', 'Various legislation is in place in relation to Animal Health as per EU/EC regulations, directives, actions and decisions. EU guidelines have been adopted and adapted as needed. However, there is lack of legislation covering prescription, distribution, marketing, dispensing and retail of all veterinary medicinal products including antibiotics for animals.', 'The Veterinary Surgeon Council has issued a series of documents as a guide for Professional Conduct which draws attention to the legal and ethical obligations related to the prudent use of veterinary medicinal products. It is obligatory to adhere to this guidance and sanctions may be taken against veterinarians who do not follow it.', 'Review current relevant legislation to strengthen governance to prevent and counteract AMR and address the gaps in legislation and regulation to ensure leadership, engagement and accountability for actions to combat antimicrobial resistance.', 'Ensure the necessary legislation and infrastructure to address AMR and implement effective strategies. The following actions are required to ensure a more robust legislative framework: - 1.1 Review and update legislation relevant to antimicrobial usage and antimicrobial resistance and its enforcement.', 'Introduce, with urgency, legislation that would regulate on antimicrobial use in veterinary practice so as to ensure full compliance with all EU Medicine Veterinary legislation and EU Directive 2001/82/EC.', 'Lack of effective legislation, especially setting minimum IPC standards for hospitals and nursing homes. Absence of appropriate legislation in Animal Health that provides the necessary tools for effective intervention and regulation, especially in food animal husbandry.']</t>
+  </si>
+  <si>
+    <t>['Foster improved awareness and education on AMR among healthcare professionals, veterinary professionals, livestock keepers, animal owners and the public, as well as the measures needed to prevent it.', 'The main role of the NAC has been primarily educational, both in terms of guideline development as well as educational campaigns aimed at both healthcare professionals as well as the public.', 'Education on AMR of healthcare professionals at undergraduate levels is somewhat heterogeneous. In the MD course run by the University of Malta, there has been a significant increase in IPC related lectures and tutorials (medical students receive more than 15 hours on IPC) but at the same time there has been a reduction in contact time on antimicrobial agent pharmacology.', 'Efforts have been made to include or increase emphasis on subjects related with AMR in this course. Furthermore, there is a proposal to include veterinary medicinal products (with an emphasis on AMR) in the undergraduate programme leading to a degree in pharmacy to bridge some of the gap between education and industry thus enhancing interest in the subject.', 'Increase awareness and understanding of the use of antibiotics to treat and prevent infections through education and training.', 'Ensure inclusion of AMR, prudent antibiotic use and infection prevention and control as a defined contact time during undergraduate courses for healthcare professionals, with particular attention to avoiding fragmentation or inconsistencies through improved inter-linking or centralised modules.', 'Include topics on AMR, hygiene and antibiotic use in the curricula of primary and secondary schools to ensure children are educated about the problem from an early age.', 'Coverage of IPC and antibiotic stewardship in some undergraduate courses.']</t>
+  </si>
+  <si>
+    <t>['This could be reached through a proper awareness program amongst all those involved including livestock breeders and veterinarians.', 'Foster improved awareness and education on AMR among healthcare professionals, veterinary professionals, livestock keepers, animal owners and the public, as well as the measures needed to prevent it.', 'The main role of the NAC has been primarily educational, both in terms of guideline development as well as educational campaigns aimed at both healthcare professionals as well as the public.', 'Education of the public has so far been primarily in relation to the European Antibiotic Awareness Day. The lack of a dedicated budget and resources causes planning challenges. Dissemination of information has relied on billboards as well as media opportunities through radio and TV talk shows.', 'Increase awareness and understanding of the use of antibiotics to treat and prevent infections through education and training.', '5.6 Address literacy, on AMR and correct antibiotic use among both the public and journalists by developing and implementing regular campaigns making full use of conventional and social media platforms.', '5.7 Set up a help-line dedicated to infections and antibiotic use, manned by appropriate healthcare professionals, to allow the public to phone and discuss basic issues so as to provide reassurance and support.', 'Impact of previous initiatives aimed at over-the-counter (OTC) and public awareness, albeit on a limited scale.', 'Past NAC experience in organising activities for European Antibiotic Awareness Day.']</t>
+  </si>
+  <si>
+    <t>["This reflects the wider action plans on this important issue of the Food and Agriculture Organization (FAO)'s, World Organisation for Animal Health Organisation and World Health Organisation (WHO)'s.", 'Objective 7: International partnerships and collaboration', 'The Strategy aligns with the World Health Organisation (WHO) Global Action Plan on Antimicrobial Resistance, the EU Action Plan on Antimicrobial Resistance as well as National legislation.', 'The Strategy aligns with the WHO Global Action Plan on Antimicrobial Resistance, the EU Action on Antimicrobial Resistance as well as National Legislation.', 'These Strategies emphasise the importance of national, regional, and international collaboration for the control and spread of resistance.', 'Since 2016, Malta started giving sales data on antimicrobials to the OIE and also started participating in the ESVAC project on the sales of antimicrobials in 2018.', 'Interdisciplinary collaboration which needs to be facilitated at various levels including national, through a whole of government approach, and international is critical between the numerous stakeholders.', 'Strengthen international partnerships and collaboration on regional and global efforts to respond to AMR.', 'Ensure that antibiotics listed within the WATCH and RESERVE groups of the AWaRE list of antibiotics, issued by WHO, are targeted by stewardship programmes, at national and institutional levels.', 'Strengthen international partnerships and collaboration on regional, European and global efforts to respond to antimicrobial resistance.', 'It will involve many stakeholders and require a high level of cross sectoral cooperation at both the national and international levels.']</t>
+  </si>
+  <si>
+    <t>['This Strategy and Action Plan focuses on improvements in surveillance, stewardship measures for the proper use of antibiotics, infection prevention and control as well as education and research.', '5.2.1   AMR surveillance', '5.3.1   AMR surveillance', 'Strengthen the infrastructure needed to address the AMR situation through adequate support of the inter-sectoral coordinating mechanism (ICM), appropriate legislation and strengthening of relevant surveillance and feedback systems in Human and Animal Health as well as the environment.', 'Between 2001 and 2010, European countries collected resistance data through the European Antimicrobial Resistance Surveillance System (EARSS). As of 2011, EARSS, whose new acronym is EARS-Net, has become fully integrated in the ECDC database (TESSy). The EU additionally established the European Surveillance of Antimicrobial Consumption (ESAC) to monitor the consumption of antibiotics in both the inpatient and outpatient sectors.', 'It is legally empowered to collect wholesaler antibiotic sales data.', "The Regulation on transmissible animal diseases ('Animal Health Law') of March 2016 sets out a legal basis for monitoring animal pathogens resistant to antibiotics.", 'The surveillance of AMR at MDH is already well established and on par (if not above average) to that performed in most EU hospitals. This relates both to day to day surveillance and outbreak detection as well as monitoring of trends. Regular feedback of data is communicated to decision makers as well as healthcare workers.', 'AMR surveillance in animals is currently very restricted and carried out by the National Veterinary Laboratory only on resistance of Salmonella species in poultry (layers and broilers) and swine as well as for E. coli under Decision 2013/652.', 'As of 2017 the process for data collection, reporting and evaluation has been reviewed and data analysis intensified. As of 2018 the data collected is more reflective of the local situation.', 'Develop nationally coordinated One Health surveillance of AMR and antimicrobial usage.', 'Strengthen relevant surveillance and feedback systems on antibiotic use and resistance in human and Animal Health as well as the environment.', '3.2 Strengthen surveillance systems of antibiotic resistance, especially in primary care and in veterinary practice.', '3.9 Establish a sentinel AMR surveillance programme in animals to capture data generated from routine tests undertaken by veterinarians, slaughter houses as well as the public health laboratory.', '7.2. Participate in international surveillance initiatives.', 'Information on AMR in isolates of animal origin remains extremely sparse and restricted to a limited set of isolates tested annually at the National Veterinary Laboratory in compliance with Commission Implementing Decision 652/2013 (EU).', 'Extensive surveillance data on antimicrobial resistance in governmental hospitals.']</t>
+  </si>
+  <si>
+    <t>['Coordinated surveillance is essential to understand the magnitude, distribution and impact of resistant organisms and antimicrobial usage, identify emerging resistance and trends, and determine associations between usage and resistance.']</t>
+  </si>
+  <si>
+    <t>['This Strategy and Action Plan focuses on improvements in surveillance, stewardship measures for the proper use of antibiotics, infection prevention and control as well as education and research.', 'The strategy focuses on measures such as improved hygiene and biosecurity in farms which will help farmers in reducing risks to overall animal health, increase cost effectively and at the same time ensuring a more prudent and controlled use of antimicrobials.', '5.2.3   Infection Prevention and Control (IPC)', '4. Improve Infection Prevention and Control (IPC) through national coordination and oversight, implementation of effective IPC multi-modal strategies in all healthcare facilities (with the control of CRE designated as a national priority) and foster hygiene standards in farms to prevent cross-transmission of animal pathogens.', 'The Infection Control Department (ICD) at MDH coordinates all activities related to the prevention and control of HAI in the hospital. It also provides technical assistance, when requested by other public hospitals, each of which now have an appointed Practice Nurse in IPC. The ICD has developed a comprehensive set of policies and Standard Operating Procedures that are also used by the other public hospitals, is active in IPC education and organises an annual national conference. The Unit also adopts a Plan-Do-Study-Act approach utilising Root Cause Analysis tools to identify and address causative factors for serious infections, such as MRSA bacteraemia. In addition, a strong emphasis is placed on process audits including hand hygiene facilities and performance, management of central lines, peripheral venous cannula care, compliance with contact precautions, and environmental cleaning amongst others.', 'Improve infection prevention and control measures across Human Health and Animal Health settings to help prevent infections and the spread of AMR.', '1.5 Introduce appropriate legislation to establish minimum standards for infection prevention and control in Human Healthcare and residential care institutions.', 'Improve infection prevention and control measures across Human Health and Animal Health settings to help prevent infections and the spread of antimicrobial resistance.', '5.5 Undertake specific awareness and education campaigns to veterinarians, including safe disposal of waste generated by veterinary practice, appropriate use of disinfectants in clinics and infection prevention and control measures.', 'Expand educational Animal Health campaigns aimed specifically at farmers, animal and pet owners emphasising the risks of non-prescribed use of antibiotics or acquisition of antibiotics from unlicensed sources as well as the benefits and costeffectiveness of greater hygiene.', 'As a direct consequence of numerous initiatives within this department to improve infection prevention and control practices, incidence of MDR A. baumannii has reduced significantly.', 'Presence of dedicated Infection Prevention and Control (IPC) personnel in acute care and rehabilitation hospitals.']</t>
+  </si>
+  <si>
+    <t>["This reflects the wider action plans on this important issue of the Food and Agriculture Organization (FAO)'s, World Organisation for Animal Health Organisation and World Health Organisation (WHO)'s.", 'Introduce, with urgency, legislation that would regulate on antimicrobial use in veterinary practice so as to ensure full compliance with all EU Medicine Veterinary legislation and EU Directive 2001/82/EC.']</t>
+  </si>
+  <si>
+    <t>['Introduce overarching measures to ensure appropriate antibiotic prescribing and use in community, hospitals and veterinary practice and in both Human and Animal Health sectors.', 'Current legislation requires that all antibiotics used for human patients (including topical formulations) as well as food animals, should be Prescription Only Medicines.', 'Implement effective One Health antimicrobial stewardship practices across Human and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing and administering of antimicrobials.', '1.1 Review and update legislation relevant to antimicrobial usage and antimicrobial resistance and its enforcement.', 'Implement effective antimicrobial stewardship practices across Human Health and Animal Health settings to ensure the appropriate and prudent prescribing, dispensing, administering and disposal of antimicrobials.', 'Set and monitor qualitative and quantitative targets for improvement of prescribing at national level and introduce systems to identify, benchmark and follow up high-end prescribers in community, hospital and veterinary settings.']</t>
+  </si>
+  <si>
+    <t>['The use and administration of antimicrobials needs a proper holistic regulatory framework intended to prevent the abuse, misuse, and overuse of antimicrobials.', 'This could be reached through a proper awareness program amongst all those involved including livestock breeders and veterinarians.', 'Introduce overarching measures to ensure appropriate antibiotic prescribing and use in community, hospitals and veterinary practice and in both Human and Animal Health sectors.', 'Current legislation requires that all antibiotics used for human patients (including topical formulations) as well as food animals, should be Prescription Only Medicines.', 'The Veterinary Surgeon Council has issued a series of documents as a guide for Professional Conduct which draws attention to the legal and ethical obligations related to the prudent use of veterinary medicinal products. It is obligatory to adhere to this guidance and sanctions may be taken against veterinarians who do not follow it.', 'Review current relevant legislation to strengthen governance to prevent and counteract AMR and address the gaps in legislation and regulation to ensure leadership, engagement and accountability for actions to combat antimicrobial resistance.', 'The following actions are required to ensure a more robust legislative framework: - 1.1 Review and update legislation relevant to antimicrobial usage and antimicrobial resistance and its enforcement.', 'Introduce, with urgency, legislation that would regulate on antimicrobial use in veterinary practice so as to ensure full compliance with all EU Medicine Veterinary legislation and EU Directive 2001/82/EC.', 'Set and monitor qualitative and quantitative targets for improvement of prescribing at national level and introduce systems to identify, benchmark and follow up high-end prescribers in community, hospital and veterinary settings.', '4.1 Implement and enforce national IPC regulations that include minimum/core infection prevention and control standards for primary, tertiary, rehabilitation and residential settings, and establish plans to monitor and evaluate their effectiveness.']</t>
+  </si>
+  <si>
+    <t>['5. Encourage and support innovation, research and networking in areas relevant to AMR.', 'Strengthen international partnerships and collaboration on regional and global efforts to respond to AMR.', 'Strengthen international partnerships and collaboration on regional, European and global efforts to respond to antimicrobial resistance.']</t>
+  </si>
+  <si>
+    <t>['through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', 'Combating antimicrobial resistance would, however, require highest political commitment, multi-sectoral coordination, sustained investment and technical assistance.', 'These include a strong laboratory network, existing Infection control and biosecurity programs in human and animal health sectors and a National One Health Strategy which identifies AMR as a priority.', 'This will be done by building on existing strengths of functional national hospital and public health laboratory network in human and animal health sectors, having a nationwide AMR surveillance system in place along with a national early warning system to identify early the emergence of resistance in priority pathogens and to critical antimicrobials by 2022.', "global leaders committed to 'taking a broad, coordinated approach to address the root causes of AMR across multiple sectors, especially in human health, animal health and agriculture'", 'Agriculture is the backbone of the Myanmar economy: the sector contributes to 37.8% of Gross Domestic Product (GDP), accounts for 25 to 30 % of total export earnings and employs 70 % of the labour force. Livestock and fisheries account for 20% of agricultural GDP of Myanmar. Livestock and fisheries sector is proposed to expand to achieve food security and self-sufficiency.', 'The text discusses the growth of livestock and aquaculture, highlighting the need for antimicrobial use in these sectors, which indicates a recognition of the interconnectedness of human health, animal health, and food security.', 'The indicators in situation analysis protocol were grouped into seven focus areas: ... 7. One-Health engagement.', 'A One Health Strategy has recently formulated with a One Health Secretariat being proposed and led by Central Epidemiology Unit at MoHS. One Health platform will undertake joint surveillance and response on six priority diseases (avian influenza, rabies, anthrax, tuberculosis, Japanese encephalitis, food borne zoonoses) and AMR.', 'These include: Whole-of-society engagement including a One Health approach', 'The NACC is envisioned as a multi-sectoral group of senior programme managers from different ministries with adequate representation of non-governmental agencies, cooperatives, civil society representatives, media, international agencies (WHO/FAO/OIE). By way of its multi-sectoral composition, it will ensure adequate integration of AMR containment efforts into the existing health system, public health and disease-specific programmes, animal health and production food sector and other environmental initiatives.', 'Deputy Director General (Labs) will be the National AMR focal point responsible for coordinating AMR activities and tasks in the health, animal, aquaculture, food production and environment sectors.', 'Each of the TWGs will be responsible for programme planning and budgeting referring to NAP on AMR while focusing on One Health and for coordinating between the different agencies and secretariats.', 'The GAP AMR has identified the need to raise awareness of AMR and promote behavioural change through public communication programmes that target different audiences in human health, animal health and agricultural practices as well as a wide range of consumers related to these sectors.', 'Strategic intervention 1.2 Include AMR and related topics such as Infection Prevention Control as a core component of professional education, training, certification and Development for health care providers and veterinarians', 'The Plan will be rolled out as below: Objective 2.1: Set up a national surveillance system for antimicrobial resistance under the leadership of a National Coordinating Centre.', 'ASCU will develop a One Health AMR surveillance plan in humans, animal and food (sample selection, number of samples, sample processing, logistics)', 'The NHL will coordinate a national network of surveillance laboratories to monitor AMR in human clinical, animal and food samples. Further, environmental surveillance for AMR will be carried out as per 2.1 (8) in human/animal health surveillance labs.', 'The ASCU will identify agencies (related to agriculture, human and animal health, drug control, environmental health) to be involved in AMR hazard and risk assessment, and outline their roles and responsibilities.', 'The Strategic Plan as outlined below aims to roll out a comprehensive multi-sectoral national IPC programme on a limited scale in healthcare facilities in public and private sector and in selected food chains (farms, slaughterhouses, food processors, aquaculture etc.).', 'The Task Force will develop a national IPC policy, mandating the creation and harmonization of National IPC Programmes in healthcare facilities, animal health care facilities, and food production systems.', 'TWG will conduct a formal assessment of National IPC Programme in 2022, followed by recommendations of nationwide scale up in all human and animal healthcare facilities across the nation and across all food production systems.', 'The Task Force will review and evaluate the existing national campaigns, generate new evidence wherever necessary and modify guidelines suitably to address issue of sanitation and hygiene including, food handling practices and vaccination in humans and animals.', 'Myanmar will establish a robust system for regulation and surveillance of use of antimicrobial agents for control of use of antimicrobial substances in human, veterinary and food production sectors.', 'The Policy will be applicable to human and animal health, aquaculture and food production sectors.', 'MoHS will further strengthen DG FDA in serving its mandates of drug control, import, manufacture, quality, distribution, pricing, market authorization, advertising, retail sales, and inspection, and to implement the relevant policies. DG FDA will cover drugs used in human health (and support regulation of animal health, aquaculture and food production till the time the Veterinary FDA is fully functional).', 'Strategic intervention 4.3 Monitoring antimicrobial use (AMU) and sales in humans, animals and fisheries; monitor trends of residues of antimicrobials in food chains to inform interventions to promote prudent use of antimicrobials', 'Priority research will include: a. Research to estimate and characterize burden and risk of AMR and AMU in human, animal and food production sectors including prescribing behaviours as well as treatment and care-seeking, barriers and drivers for uptake of prudent antimicrobial use practices.', 'The successful implementation of the NAP AMR will bring together all the critical players from the human and animal health and related domains creating greater responsibility, ownership and transparency.', 'Plan, implement, monitor and evaluate strategic interventions for improving awareness and antimicrobial use practices in different target groups, including professionals in human health, animal health and agriculture sectors', 'Plan and implement, strategic interventions under the national program for AMR surveillance in human health, animal health and agriculture sectors including quality assured laboratory network and early warning systems.', 'Plan and implement, strategic interventions for the national AMSP program in human health, animal health and agriculture sectors including identifying implementation agencies, partner agencies, scope of activities, budgetary outlays']</t>
+  </si>
+  <si>
+    <t>['Objective 3.1: To establish a national infection prevention and control programme', 'Objective 3.2: Decrease Hospital Acquired Infection (HAI) and associated AMR through facility based HAI surveillance programme (Human Health)', 'To implement strategic objective 1 related to bridging knowledge and awareness gaps, NAP AMR will establish an evidence-based public communications programme on a national scale to improve awareness of AMR amongst general public and professionals.', 'To implement strategic objective 3 related to strengthening of hygiene, infection prevention and control, a national infection prevention and control programme would be implemented in compliance with IPC guidelines within healthcare settings, animal husbandry systems and food production systems. Also, actions to decrease Hospital Acquired Infection (HAI) and associated AMR through facility based HAI surveillance programme (Human Health) would be conducted.', 'In the scenario of limited local production, antimicrobials such as β-lactams, tetracycline, fluoroquinolones, aminoglycosides, macrolides and sulphonamides and most are imported from Asian and European countries.', 'A national multisectoral steering committee has been announced with the Deputy Director General of National Health Laboratory (NHL) identified as the National Focal Point. Further governance mechanisms to implement plans under different strategic objectives and interventions will be developed as part of the NAP AMR.', 'AMR surveillance in humans National laboratory network strengthening Early warning system national AMR containment policy for control of human use of antimicrobials; AMR stewardship in the', 'AMR stewardship in the healthcare settings', 'Objective 4: Optimize the use of antimicrobial medicines in human and animal health', 'Given the ultimate goal of AMR containment efforts that are geared to improve human health outcomes, the NMSC will be formed under the leadership of MoHS with MoHS as the Chairperson.', 'Strategic intervention 1.1 Establish an evidence-based public communications programme targeting audiences in policy making, human and animal health practice, the general public and professional on prudent use of antimicrobials', 'Objective 1.2: Improve knowledge of AMR and related topics in professionals through professional education and training deployed at the national scale', 'Human health sector is ahead with a strong quality assured network of laboratories performing AMR testing.', 'ASCU will develop a One Health AMR surveillance plan in humans, animal and food (sample selection, number of samples, sample processing, logistics)', 'Objective 2.2: Build laboratory capacity under the leadership of a National Referral Laboratory (NRL) to produce high-quality microbiological data for patient and food-safety management and support surveillance activities.', 'Infection prevention and control, especially in the context of hospitals, is an important aspect of a strategic plan to contain AMR since clinical settings represent an ecosystem of high antimicrobial usage.', 'Objective 3.1: To establish a national infection prevention and control programme through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', 'The TaskForce on IPC will develop IPC guidelines with implementation and M&amp;E plans covering infection prevention and control in all health care settings (hospital and ambulatory) in human sector including linking it with hospital accreditation system;', 'Objective  3.2:  Decrease  Hospital  Acquired  Infection  (HAI)  and associated AMR through facility based HAI surveillance programme (Human Health)', 'MoHS and MoALI will implement formal campaigns for sanitation and hygiene including biosecurity and animal husbandry', 'Objective 4.1: Establish a national AMR containment policy, Antimicrobial Stewardship Programmes (AMSP) and Standard Treatment Guidelines (STG) at the national scale for prudent use of antimicrobials', 'Develop comprehensive, evidence based guidelines for a National Antimicrobial Stewardship Programme (AMSP) with aim of improving and measuring the appropriate use of antimicrobials in human and animal health care, ambulatory and community settings as well as aquaculture.', 'MoHS will further strengthen DG FDA in serving its mandates of drug control, import, manufacture, quality, distribution, pricing, market authorization, advertising, retail sales, and inspection, and to implement the relevant policies. DG FDA will cover drugs used in human health.', 'Strategic intervention 4.3 Monitoring antimicrobial use (AMU) and sales in humans, animals and fisheries; monitor trends of residues of antimicrobials in food chains to inform interventions to promote prudent use of antimicrobials', 'Priority research will include: a. Research to estimate and characterize burden and risk of AMR and AMU in human, animal and food production sectors including prescribing behaviours as well as treatment and care-seeking, barriers and drivers for uptake of prudent antimicrobial use practices.', 'The successful implementation of the NAP AMR will bring together all the critical players from the human and animal health and related domains creating greater responsibility, ownership and transparency.', 'Plan, implement, monitor and evaluate strategic interventions for improving awareness and antimicrobial use practices in different target groups, including professionals in human health, animal health and agriculture sectors', 'Plan and implement, strategic interventions under the national program for AMR surveillance in human health, animal health and agriculture sectors including quality assured laboratory network and early warning systems.', 'Plan and implement, strategic interventions for the national AMSP program in human health, animal health and agriculture sectors including identifying implementation agencies, partner agencies, scope of activities, budgetary outlays']</t>
+  </si>
+  <si>
+    <t>['through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', 'These include a strong laboratory network, existing Infection control and biosecurity programs in human and animal health sectors and a National One Health Strategy which identifies AMR as a priority.', 'This will be done by building on existing strengths of functional national hospital and public health laboratory network in human and animal health sectors, having a nationwide AMR surveillance system in place along with a national early warning system to identify early the emergence of resistance in priority pathogens and to critical antimicrobials by 2022.', 'National livestock policy has laid large emphasis on poultry production as well as dairy cattle while retaining a rural focus and strengthening small holder animal farms.', 'National policy on the sale or use of antimicrobials in animals and animal feed is not well established in Myanmar.', 'Animal health sector in general lags further behind in AMR containment efforts. AMR containment policy, AMR surveillance, AMSP and awareness programs have not been initiated.', 'Objective 4: Optimize the use of antimicrobial medicines in human and animal health', 'The NACC is envisioned as a multi-sectoral group of senior programme managers from different ministries with adequate representation of non-governmental agencies, cooperatives, civil society representatives, media, international agencies (WHO/FAO/OIE). By way of its multi-sectoral composition, it will ensure adequate integration of AMR containment efforts into the existing health system, public health and disease-specific programmes, animal health and production food sector and other environmental initiatives.', 'Deputy Director General (Labs) will be the National AMR focal point responsible for coordinating AMR activities and tasks in the health, animal, aquaculture, food production and environment sectors.', 'Strategic intervention 1.1 Establish an evidence-based public communications programme targeting audiences in policy making, human and animal health practice, the general public and professional on prudent use of antimicrobials', 'Strategic intervention 1.2 Include AMR and related topics such as Infection Prevention Control as a core component of professional education, training, certification and Development for health care providers and veterinarians', 'By 2022, Myanmar will consolidate its strengths in AMR surveillance and develop a high quality AMR surveillance system on a limited scale that will integrate AMR surveillance in laboratories, hospitals, AMU and surveillance in animal sectors.', 'ASCU will implement a national AMR surveillance program that is representative but with limited number of operational sites. Central Hospitals and their labs, and central veterinary diagnostic labs (Yangon and Mandalay) and regional veterinary diagnostic laboratories will be targeted in the pilot phase. Regular data of AMR along with resistance profiles of priority pathogens for human, animal and food will be made available to ASCU from these limited number of sites.', 'Veterinary Diagnostic Laboratories will cater to samples animal, animal feed and food samples and link AMR surveillance with NRL.', 'The NHL, in partnership with Veterinary Diagnostic Laboratories will develop and share AMR surveillance standards and guidelines, including SOPs, incorporating other intergovernmental standards (OIE/WHO GLASS and AGISAR/Codex) with surveillance labs.', 'This will be followed by a comprehensive analysis on AMU in the human and veterinary sector and its linkage with the resistance profiles reported in animals and humans by the laboratory based AMR surveillance programme.', 'Objective 3.1: To establish a national infection prevention and control programme through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', 'The Task Force will develop a national IPC policy, mandating the creation and harmonization of National IPC Programmes in healthcare facilities, animal health care facilities, and food production systems.', 'TWG will conduct a formal assessment of National IPC Programme in 2022, followed by recommendations of nationwide scale up in all human and animal healthcare facilities across the nation and across all food production systems.', 'MoHS and MoALI will implement formal campaigns for sanitation and hygiene including biosecurity and animal husbandry', 'Strategic intervention 4.1 Create a national AMR containment policy for control of use of antimicrobials in humans and animals, and establish a comprehensive evidence-based formal antimicrobial stewardship programmes at the national level', 'The Policy will be applicable to human and animal health, aquaculture and food production sectors.', 'MoALI will establish a National Drug Regulatory Authority (NDRA) on the lines of and with mandates similar to DG FDA. The MoALI FDA will cover drugs used in animal health, aquaculture and food production.', 'The AUSC will coordinate policies on AMU and monitoring their impact on AMR. ASUC will design an AMU monitoring program in humans and food animals including, residues testing in food products.', 'Priority research will include: a. Research to estimate and characterize burden and risk of AMR and AMU in human, animal and food production sectors including prescribing behaviours as well as treatment and care-seeking, barriers and drivers for uptake of prudent antimicrobial use practices.', 'Plan, implement, monitor and evaluate strategic interventions for improving awareness and antimicrobial use practices in different target groups, including professionals in human health, animal health and agriculture sectors', 'Plan and implement, strategic interventions under the national program for AMR surveillance in human health, animal health and agriculture sectors including quality assured laboratory network and early warning systems.', 'Plan and implement, strategic interventions for the national AMSP program in human health, animal health and agriculture sectors including identifying implementation agencies, partner agencies, scope of activities, budgetary outlays']</t>
+  </si>
+  <si>
+    <t>['By way of its multi-sectoral composition, it will ensure adequate integration of AMR containment efforts into the existing health system, public health and disease-specific programmes, animal health and production food sector and other environmental initiatives.', 'Deputy Director General (Labs) will be the National AMR focal point responsible for coordinating AMR activities and tasks in the health, animal, aquaculture, food production and environment sectors.', 'A task force will conduct Knowledge, Attitute and Practice(KAP).Studies on a national scale on AMR, AMU, environmental relationships to assess awareness levels and gaps in knowledge in different target groups.', 'Priority professional groups will include: specialist physicians/surgeons, general practitioners, veterinarians, para-veterinarian, paramedics, nursing staff, environmental health specialists, agriculture/production experts, ministry officials of relevant departments and policymakers.', 'Alternatives to non-therapeutic uses of antimicrobial agents in the context of agriculture, aquaculture and their use in crop protection', 'ASCU will assess and inventory resources for monitoring, surveillance and testing sentinel environmental sites (hospitals, animal production units, slaughterhouses, pharmaceutical manufacturing units etc.) for antimicrobial resistant organisms and antimicrobial agents', 'Further, environmental surveillance for AMR will be carried out as per 2.1 (8) in human/animal health surveillance labs.', 'Objective 3.1: To establish a national infection prevention and control programme through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', 'The Task Force, in collaboration with WHO, FAO, OIE and ASCU will identify target groups to be trained in IPC from different sectors (human health, animal health, food production/agriculture, environment) and at different levels (policy makers, programme managers, general people, industry leaders, farmers, etc.).', 'The Policy will be applicable to human and animal health, aquaculture and food production sectors.']</t>
+  </si>
+  <si>
+    <t>['through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', "The National Action Plan on AMR for the period 2017 - 2022 takes these efforts further, reinforcing the government's commitment to make universal healthcare and animal welfare, food security a reality.", 'a national infection prevention and control programme would be implemented in compliance with IPC guidelines within healthcare settings, animal husbandry systems and food production systems.', 'Agriculture is the backbone of the Myanmar economy: the sector contributes to 37.8% of Gross Domestic Product (GDP), accounts for 25 to 30 % of total export earnings and employs 70 % of the labour force. Livestock and fisheries account for 20% of agricultural GDP of Myanmar. Livestock and fisheries sector is proposed to expand to achieve food security and self-sufficiency.', 'National policy on the sale or use of antimicrobials in animals and animal feed is not well established in Myanmar. Most of antimicrobials used in livestock production are imported; major classes of antimicrobials, used in livestock production in Myanmar are beta-lactams, tetracycline, fluoroquinolone, aminoglycoside, macrolides and sulphonamides.', 'The Myanmar Pig Partnership, under the aegis of Zoonoses and Emerging Livestock Systems (ZELS) project was launched in Myanmar. The Project is an interdisciplinary research project exploring the disease risk thought to be accompanying changing pig production and consumption patterns in Myanmar.', 'Objective 4: Optimize the use of antimicrobial medicines in human and animal health', 'The NMSC will be chaired by Minister for Health &amp; Sports and Co-Chaired by Minister for Agriculture Livestock &amp; Irrigation.', 'The aim is also to revise curricula in undergraduate medical and veterinary, food industry and agriculture teaching and Continuous Professional Development courses.', 'Objective 1.2: Improve knowledge of AMR and related topics in professionals through professional education and training deployed at the national scale. Strategic intervention 1.2 Include AMR and related topics such as Infection Prevention Control as a core component of professional education, training, certification and Development for health care providers and veterinarians.', 'Alternatives to non-therapeutic uses of antimicrobial agents in the context of agriculture, aquaculture and their use in crop protection', 'ASCU will develop a One Health AMR surveillance plan in humans, animal and food (sample selection, number of samples, sample processing, logistics)', 'The NHL will coordinate a national network of surveillance laboratories to monitor AMR in human clinical, animal and food samples.', 'The ASCU will identify agencies (related to agriculture, human and animal health, drug control, environmental health) to be involved in AMR hazard and risk assessment, and outline their roles and responsibilities', 'Objective 3.1: To establish a national infection prevention and control programme through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain', 'The Task Force will develop a national IPC policy, mandating the creation and harmonization of National IPC Programmes in healthcare facilities, animal health care facilities, and food production systems.', 'MoHS and MoALI will implement formal campaigns for sanitation and hygiene including biosecurity and animal husbandry', 'The Policy will mandate provisions for the five strategic objectives enshrined in GAP and NAP AMR for Myanmar, including the phasing out of Antimicrobial Growth Promoters (AGPs) and establishment of system for certification of farm products free from antibiotic residue.', 'The Policy will be applicable to human and animal health, aquaculture and food production sectors.', 'MoALI will establish a National Drug Regulatory Authority (NDRA) on the lines of and with mandates similar to DG FDA. The MoALI FDA will cover drugs used in animal health, aquaculture and food production.', 'The AUSC will coordinate policies on AMU and monitoring their impact on AMR. ASUC will design an AMU monitoring program in humans and food animals including, residues testing in food products.', 'Priority research will include: a. Research to estimate and characterize burden and risk of AMR and AMU in human, animal and food production sectors including prescribing behaviours as well as treatment and care-seeking, barriers and drivers for uptake of prudent antimicrobial use practices.', 'Plan, implement, monitor and evaluate strategic interventions for improving awareness and antimicrobial use practices in different target groups, including professionals in human health, animal health and agriculture sectors', 'Plan and implement, strategic interventions under the national program for AMR surveillance in human health, animal health and agriculture sectors including quality assured laboratory network and early warning systems.', 'Plan and implement, strategic interventions for the national AMSP program in human health, animal health and agriculture sectors including identifying implementation agencies, partner agencies, scope of activities, budgetary outlays']</t>
+  </si>
+  <si>
+    <t>['Flexibility was built into the planning process including monitoring and reporting arrangements, in order to allow the country to determine priority actions that it needs to take in order to attain the five strategic objectives and implement actions in a step-wise manner that meets both local needs and global priorities.', 'The NACC will meet every six months. The NACC Secretariat will be located in NHL, Yangon. Reporting implementation status to NMSC, national agencies and international partners.', 'The 5 TWGs will be mandated by the NACC and will report to their Chairpersons and to the National Focal Point of the NACC. [...] Monitor and evaluate implementation of strategic interventions and corresponding key activities.', 'Under the technical guidance of ASCU, Central Epidemiology Unit (CEU) will develop an integrated human and animal IT platform for AMR surveillance reporting.', 'Data will be reported, exchanged and queried through the integrated AMR surveillance IT platform; WHONET platform implemented by ASCU will be utilised', 'Performance reports of NRL and national laboratory network', 'This will be accompanied by monitoring and concurrent evaluation followed by nationwide implementation in the next phase of NAP.', 'Report to NMSC through its Chairperson annually', 'Report to NMSC through its Chairperson annually or on urgent basis in case of an early warning', 'Report to NMSC through its Chairperson annually or on urgent basis in case of an early warning']</t>
+  </si>
+  <si>
+    <t>['By 2022, the country would have carried out nationwide evidence based awareness campaigns with regular Monitoring and Evaluation (M&amp;E).', 'a nationwide AMR surveillance system in place along with a national early warning system to identify early the emergence of resistance in priority pathogens and to critical antimicrobials by 2022.', 'By 2022, Myanmar will carry out nationwide evidence based awareness campaigns with regular M&amp;E.', 'This will be followed by nationwide scale up and scale out of awareness campaigns in 2019 with regular monitoring and evaluation', 'By 2022, Myanmar will consolidate its strengths in AMR surveillance and develop a high quality AMR surveillance system on a limited scale that will integrate AMR surveillance in laboratories, hospitals, AMU and surveillance in animal sectors. By 2022, a national early warning system will be in place to identify early the emergence of resistance in priority pathogens and to critical antimicrobials.', 'All of the above systems to optimise use of antimicrobials, however, will be implemented on a limited scale during 2017-2022.', 'Data for the use of antimicrobial substances and sales data in humans, animals, and food production sectors will be available by 2022', 'By 2022, multi-stakeholder platform and research consortia will be established that will generate program and policy relevant evidence on and compare cost effectiveness of AMR control strategies.']</t>
+  </si>
+  <si>
+    <t>['Next, the NMSC through its constituent NACC, TWGs and Task Forces will draw up a detailed operational plan in addition to its budget and monitoring and evaluation plan for successful implementation of the activities.', 'Phase 2 Phase of Programme Installation ... -Resource allocation ...', 'This will include identifying implementation agencies, partner agencies, scope of activities, budgetary outlays', 'Plan and implement, strategic interventions for the national AMSP program in human health, animal health and agriculture sectors including identifying implementation agencies, partner agencies, scope of activities, budgetary outlays']</t>
+  </si>
+  <si>
+    <t>['Technical working group (TWG) will be multi-sectoral in composition and will report to the NACC. In their respective strategic objective, the TWG will: ... Plan and budget for different activities.', 'DMR will develop a Strategic research agenda, with systematically prioritised research areas and knowledge gaps related to research and innovation in the field of AMR, and resource needs that are relevant for Myanmar (in terms of human resources, materials and funding).', 'Next, the NMSC through its constituent NACC, TWGs and Task Forces will draw up a detailed operational plan in addition to its budget and monitoring and evaluation plan for successful implementation of the activities.', 'This will include identifying implementation agencies, partner agencies, scope of activities, budgetary outlays', 'Plan and implement, strategic interventions for the national AMSP program in human health, animal health and agriculture sectors including identifying implementation agencies, partner agencies, scope of activities, budgetary outlays']</t>
+  </si>
+  <si>
+    <t>['National Multisectoral Steering Committee (NMSC) for Antimicrobial Resistance', 'NMSC : National Multi-Sectoral Steering Committee', 'A situation analysis was undertaken in September 2016 using a tool developed by WHO SEARO based on discussions between national multisectoral steering committee members, senior technical leaders of the national health authorities and veterinary sector and WHO team.', 'the formation of a National Multi-Sectoral Steering Committee (NMSC)', 'Following submission of the final report to the World Health Assembly, the Government of Myanmar will continue with its deliberations and planning process under the leadership of National MultiSectoral Steering Committee (NMSC).', 'The situation analysis process comprised of guided discussions between the National AMR Multisectoral Steering Committee members, senior technical leaders of national health authorities and veterinary sector, and WHO team.', 'A national multisectoral steering committee has been announced with the Deputy Director General of National Health Laboratory (NHL) identified as the National Focal Point.', 'As a further step, a One Health Strategy has recently formulated with a One Health Secretariat being proposed and led by Central Epidemiology Unit at MoHS.', 'The governance mechanism for Myanmar will comprise of a High Level National Multi-sectoral Steering Committee (NMSC), for antimicrobial resistance.', 'It will be chaired by Deputy Director General (Labs) and its Secretariat will be located in NHL, Yangon. Its membership will be drawn from the: - Ministry of Health and Sports - Ministry of Agriculture,Livestock and Irrigation - Ministry of Education - Ministry of Commerce - Ministry of Home Affairs - Ministry of Defence', 'The 5 TWGs will be mandated by the NACC and will report to their Chairpersons and to the National Focal Point of the NACC.', 'A task force will conduct Knowledge, Attitute and Practice(KAP).Studies on a national scale on AMR, AMU, environmental relationships to assess awareness levels and gaps in knowledge in different target groups.', '1. Task Force commissioned in 1.1 will conduct KAP Studies on a national scale to assess awareness levels and gaps in knowledge in professional groups on AMR, hygiene &amp; IPC, environmental relationships.', 'The ASCU will be located in the National Health Laboratory, Yangon and will comprise of members from NHL, CEU, Veterinary Diagnostic Lab, Veterinary Assay Lab and Directorate of Epidemiology (LVBD)', 'The ASCU will identify agencies (related to agriculture, human and animal health, drug control, environmental health) to be involved in AMR hazard and risk assessment, and outline their roles and responsibilities', 'TWG (IPC) in collaboration with TWG (Surveillance) and TWG (AMU) will commission a multi-sectoral task force that will evaluate existing IPC, Hygiene, IPC and Biosecurity components of Animal Husbandry guidelines and IPC Guidelines in food production systems.', 'The TWG (IPC) will commission a multi-sectoral task force that will, as part of Hospital IPC Guidelines, develop guidelines for HAI surveillance.', 'The TWG (IPC), in collaboration with MoE, will commission a multi-sectoral task force.', 'The TWG (AMU) in collaboration with TWG (Surveillance) and TWG (IPC) will commission a task force to develop a National AMR Containment and Use Policy and related regulatory frameworks.', 'Under the overall supervision of TWG (AMU)', 'ASCU will establish a subcommittee called Antimicrobial Use Surveillance Committee (AUSC) with appropriate mandate, TORs and Focal Point (FP) that links with ASCU', 'TWG (Research) will establish a multi-stakeholder platform to guide AMR research and innovation.', 'Following submission of the final report to the World Health Assembly, the Government of Myanmar will continue with its deliberations and planning process under the leadership of NMSC.', 'Coordinate with different TWGs for smooth implementation of the NAP', 'Report to NMSC through its Chairperson annually or on urgent basis in case of an early warning', 'Report to NMSC through its Chairperson annually or on urgent basis in case of an early warning']</t>
+  </si>
+  <si>
+    <t>['A fully functional national drug regulatory authority to oversee regulation and licensing, pharmacovigilance and market authorisation is another strong element to leverage.', 'Regulatory structures will be strengthened and newer structures established, especially in veterinary sector.', 'One of the major constraint in controlling AMU in veterinary sector has been the absence of regulatory control of veterinary sector on licensing, regulating and controlling AMAs.', 'Regulation of finished antibiotic products and active pharmaceutical ingredients (APIs) Regulation of pharmacies on over the counter (OTC) sales and inappropriate sale of antibiotics', 'The situation analysis reveals that Myanmar has a fully functional National Regulatory Authority that is responsible for regulation and licensing; pharmacovigilance and market authorization.', 'The TWG (AMU) in collaboration with TWG (Surveillance) and TWG (IPC) will commission a task force to develop a National AMR Containment and Use Policy and related regulatory frameworks.', 'Strategic intervention 4.2 Strengthening of a competent National Regulatory Agency (NRA) or Drug Regulatory Agency (DRA) which can enforce quality standards of antimicrobial drugs (veterinary, human, and food production sectors)', 'MoHS will further strengthen DG FDA in serving its mandates of drug control, import, manufacture, quality, distribution, pricing, market authorization, advertising, retail sales, and inspection, and to implement the relevant policies.', 'Regulations for import, export, local production, distribution and use of finished AMAs and APIs and OTC sales', 'b. Systems and policy research including operational research to understand and improve priority areas such as regulatory frameworks and their enforcement', 'Facilitate strengthening of existing systems and establish new regulatory systems for control of AMAs sale and use.']</t>
+  </si>
+  <si>
+    <t>['Objective 1.2: Improve knowledge of AMR and related topics in professionals through professional education and training deployed at the national scale.', 'To implement strategic objective 1 related to bridging knowledge and awareness gaps, NAP AMR will establish an evidence-based public communications programme on a national scale to improve awareness of AMR amongst general public and professionals. Necessary revision and pilot scale implementation of curricular revisions would also have been undertaken by 2022.', 'Awareness campaigns for the public Education and training strategies for professionals', 'Objective 1: Improve awareness and understanding of antimicrobial resistance through effective communication, education and training', 'The GAP AMR has also focused on making AMR a core component of the professional education training, certification, continuing education and development in the health and veterinary sectors and agricultural practice.', 'AMR and related topics will be incorporated in undergraduate and postgraduate curricula in human and animal health, the food industry and agriculture.', 'DG (DoHRH) and MoALI Counterpart, in collaboration with MoE, will review existing curricula of professional courses with respect to content on IPC and develop training modules for incorporation into professional courses.', 'MoHS and MoALI in collaboration with MoE will include sanitation and hygiene including food handling practices in the core curricula in secondary and undergraduate education for school and college students', 'Coordinate between different sectors, with educational councils and professional associations on issues related to increasing awareness for AMR and related issues']</t>
+  </si>
+  <si>
+    <t>['Objective 1.1: To improve awareness of AMR amongst the general public and professionals', 'To implement strategic objective 1 related to bridging knowledge and awareness gaps, NAP AMR will establish an evidence-based public communications programme on a national scale to improve awareness of AMR amongst general public and professionals. By 2022, the country would have carried out nationwide evidence based awareness campaigns with regular Monitoring and Evaluation (M&amp;E).', 'Hygiene and sanitation related campaigns in community settings will be conducted through systematic health promotion activities.', "Awareness efforts in different target groups have been limited and ad hoc and have ranged from Continuous Medical Educations(CMEs) for professionals (general practitioners) by public hospitals and professional societies (by Myanmar Medical Association and General Practitioners' Society) to modular (NOT curricular) teaching in professional courses.", 'Awareness campaigns for the public', 'Objective 1: Improve awareness and understanding of antimicrobial resistance through effective communication, education and training', '## Strategic Objective 1: AWARENESS', 'By 2022, Myanmar will carry out nationwide evidence based awareness campaigns with regular M&amp;E. The aim is also to revise curricula in undergraduate medical and veterinary, food industry and agriculture teaching and Continuous Professional Development courses. Strategic intervention 1.1 Establish an evidence-based public communications programme targeting audiences in policy making, human and animal health practice, the general public and professional on prudent use of antimicrobials.', 'This will be followed by nationwide scale up and scale out of awareness campaigns in 2019 with regular monitoring and evaluation', 'MoHS and MoALI will implement formal campaigns for sanitation and hygiene including biosecurity and animal husbandry', 'Essential elements of AMR containment which have so far not completely taken off the ground will now see movement as comprehensive awareness programmes are conducted.', 'Plan, implement, monitor and evaluate strategic interventions for improving awareness and antimicrobial use practices in different target groups, including professionals in human health, animal health and agriculture sectors']</t>
+  </si>
+  <si>
+    <t>['Combating antimicrobial resistance would, however, require highest political commitment, multi-sectoral coordination, sustained investment and technical assistance.', 'This will be done in large part, through leveraging existing capacity, build additional capacity as well as through international collaborations.', 'Assist Myanmar to identify vulnerabilities, opportunities and needs to meet the 68th WHA resolution on AMR and prioritise the activities for AMR containment as per NAP; To facilitate WHO in fulfilling its commitment to report on the development, implementation, monitoring and evaluation of the NAP-AMR and to identify priority areas for WHO to support.', 'International collaborations have been established recently by the NHL with global centres of excellence such as Pasteur Institute, Cambodia, National Centre for Global Health and Medicine, Japan and Niigata University, Japan.', "The development of NAP has followed the guidelines enshrined in WHO's 'Antimicrobial resistance: A manual for developing national action plans' (World Health Organization 2016).", 'The NACC is envisioned as a multi-sectoral group of senior programme managers from different ministries with adequate representation of non-governmental agencies, cooperatives, civil society representatives, media, international agencies (WHO/FAO/OIE).', 'Build sustained partnerships and work nationally and internationally on containment of AMR;', 'They will work under the technical guidance and supervision of respective TWG and will comprise of in-country as well as international experts, including those from WHO/FAO/OIE.', 'Limited scale roll out will be done with support from WHO, FAO and relevant NGOs', "Partners and Stakeholders: WHO, FAO, OIE, NGOs &amp; INGOs, MMA, MNA, MMC, GP Society, Livestock Producers' Associations, Pharmacists' Associations, Private Hospital's Association", 'The ASCU, with technical support from WHO, OIE and FAO, will develop guidelines for AMR Surveillance including guidelines for data sharing.', 'The ASCU will establish formal linkages between national AMR surveillance programme and WHO GLASS.', 'NHL will establish linkages with international and global surveillance and internationally relevant initiatives (like GLASS, GFN). Reporting to GLASS will commence from surveillance sites recruited and operationalised in initial phase.', 'Partners and Stakeholders\n\nWHO, FAO, OIE', 'The Task Force, in collaboration with WHO, FAO, OIE and ASCU will identify target groups to be trained in IPC from different sectors (human health, animal health, food production/agriculture, environment) and at different levels (policy makers, programme managers, general people, industry leaders, farmers, etc.).', "Partners and Stakeholders: National Private Hospitals' Association, MMA, Livestock Producers' Associations, ASCC, WHO, FAO, OIE, UNFPA, UNICEF, City Development Committee", "Partners and Stakeholders: National Private Hospitals' Association, MMA, UNFPA, UNICEF, MoE, Ministry of Information, WHO, FAO, OIE, NGOs, MMA, GP Society, City Development Committee", '## Partners and Stakeholders\n\nWHO, FAO, OIE', '## Partners and Stakeholders\n\nWHO, FAO, OIE', 'The strategic plan also envisions collaborations with national and international agencies, for implementation of strategic research agenda.', 'TWG (Research) will establish a multi-stakeholder platform to guide AMR research and innovation. The research platforms will develop research consortia, and establish collaboration with national and international agencies, for implementation of strategic research agenda', 'The strategic plan envisions collaborations with national and international agencies, for implementation of a strategic research agenda that will serve as a major strategy for the country.', 'Facilitate surveillance information sharing across sectors and with relevant international agencies/networks', 'Facilitate establishment of research platforms, research consortia, research funding opportunities and collaboration with national and international agencies, for to promote research and implement strategic research agenda']</t>
+  </si>
+  <si>
+    <t>['Objective 2.1: Set up a national surveillance system for antimicrobial resistance', 'Objective 2.3: Develop a multi-centric surveillance system on the national scale to provide early warning of emerging resistance and monitoring of secular trends at national and sub-national levels.', 'through facility based HAI surveillance programme (Human Health)', 'Objective 4.3: Establish mechanisms to monitor antimicrobial usage on a national scale to inform interventions to reduce overuse and promote prudent use of antimicrobial substances.', 'This will be done by building on existing strengths of functional national hospital and public health laboratory network in human and animal health sectors, having a nationwide AMR surveillance system in place along with a national early warning system to identify early the emergence of resistance in priority pathogens and to critical antimicrobials by 2022.', '2. National AMR surveillance system;', 'An AMR surveillance system that captures standardized epidemiological, clinical and laboratory data on AMR has not been set up in Myanmar.', 'AMR surveillance on a pilot scale is carried out from different sites in and around Yangon area with the help of local Veterinary Officers. Clinical samples and samples from piggeries, poultry farms, slaughterhouses and feed samples are collected on a monthly basis and tested for presence of bacterial pathogens and screened for AMR.', 'AMR surveillance in humans National laboratory network strengthening Early warning system national AMR containment policy for control of human use of antimicrobials', 'AMR surveillance in humans National laboratory network strengthening Early warning system national AMR containment policy for control of human use of antimicrobials; AMR stewardship in the', 'Objective 2: Strengthen the knowledge and evidence base through surveillance and research', 'Coordinate national activities for establishment of AMR surveillance systems', '## Strategic Objective 2: SURVEILLANCE OF AMR', 'By 2022, Myanmar will consolidate its strengths in AMR surveillance and develop a high quality AMR surveillance system on a limited scale that will integrate AMR surveillance in laboratories, hospitals, AMU and surveillance in animal sectors.', 'The ASCU, with technical support from WHO, OIE and FAO, will develop guidelines for AMR Surveillance including guidelines for data sharing (indicators, triggers, analysis plan, response plan), incorporating the critical components as outlined in guidance documents.', 'The ASCU will establish formal linkages between national AMR surveillance programme and WHO GLASS. Reporting to GLASS will commence after formal assessment of national AMR surveillance program pilots.', 'Objective 2.3: Develop a multi-centric surveillance system on the national scale to provide early warning of emerging resistance and monitoring of secular trends at national and sub-national levels.', 'The ASCU will frame guidelines and national standards for systematic collection, sharing, and assessment of AMR hazard events framed in keeping with international standards (IHR/WHO/OIE/FAO); includes surveillance manual, investigation/response guidelines, case management guidelines and lab guidelines.', 'HAI surveillance will be implemented in few public and private healthcare facilities.', 'Strategic intervention 3.2 Implement a healthcare facility-based HAI surveillance system along with related AMR surveillance (human health).', 'The TWG (AMU) in collaboration with TWG (Surveillance) and TWG (IPC) will commission a task force to develop a National AMR Containment and Use Policy and related regulatory frameworks.', 'NDRAs will establish a system for the coordination and collation of data on drug quality (including supply, storage, transportation) from different sources or parts of the nation; tracking and reporting suspected product quality and treatment failure.', 'The AUSC will coordinate policies on AMU and monitoring their impact on AMR. ASUC will design an AMU monitoring program in humans and food animals including, residues testing in food products (guidelines and standards for surveillance design, data type, reporting formats, reporting sites, sources of antimicrobial usage/sales data, list of indicators).', 'The Strategic Plan lays down a roadmap for establishing a strategic research agenda, with systematically prioritised research areas and knowledge gaps related to AMR that will feed into a national policy for research and innovation.', 'b. Systems and policy research including operational research to understand and improve priority areas such as regulatory frameworks and their enforcement, stakeholder analysis, human resources, supply chains, public private partnerships, interoperability between different elements of AMR control plans and sectors, information management systems, AMR and AMU surveillance and use in health care and ambulatory settings across sectors, laboratory support', 'Essential elements of AMR containment which have so far not completely taken off the ground will now see movement as comprehensive awareness programmes are conducted, surveillance of AMR and AMU including laboratory capacity, IPC and AMSP are strengthened and other public health functions are aligned to the new AMR goals.', 'As the nation gets closer to the end of Phase 1, it is on the verge of implementing (at any scale, even a pilot project) an AMR surveillance programme.', 'Facilitate development of guidelines for national AMR Surveillance program including guidelines for data sharing (indicators, triggers, analysis plan, response plan), incorporating the critical components as outlined in guidance documents', 'Facilitate development of guidelines for national AMR Surveillance program including guidelines for data sharing (indicators, triggers, analysis plan, response plan), incorporating the critical components as outlined in guidance documents', 'Coordinate with TWG (Surveillance) and TWG (IPC) to facilitate integrated analysis of AMR, AMU and HAI surveillance']</t>
+  </si>
+  <si>
+    <t>['Objective 2.3: Develop a multi-centric surveillance system on the national scale to provide early warning of emerging resistance and monitoring of secular trends at national and sub-national levels.', 'This will be done by building on existing strengths of functional national hospital and public health laboratory network in human and animal health sectors, having a nationwide AMR surveillance system in place along with a national early warning system to identify early the emergence of resistance in priority pathogens and to critical antimicrobials by 2022.', 'By 2022, a national early warning system will be in place to identify early the emergence of resistance in priority pathogens and to critical antimicrobials.', 'ASCU will implement a national AMR surveillance program that is representative but with limited number of operational sites. Central Hospitals and their labs, and central veterinary diagnostic labs (Yangon and Mandalay) and regional veterinary diagnostic laboratories will be targeted in the pilot phase. Regular data of AMR along with resistance profiles of priority pathogens for human, animal and food will be made available to ASCU from these limited number of sites.', 'The ASCU will establish formal linkages between national AMR surveillance programme and WHO GLASS. Reporting to GLASS will commence after formal assessment of national AMR surveillance program pilots.', 'Objective 2.3: Develop a multi-centric surveillance system on the national scale to provide early warning of emerging resistance and monitoring of secular trends at national and sub-national levels.', 'The ASCU will frame guidelines and national standards for systematic collection, sharing, and assessment of AMR hazard events framed in keeping with international standards (IHR/WHO/OIE/FAO); includes surveillance manual, investigation/response guidelines, case management guidelines and lab guidelines.', 'HAI surveillance data will be reported centrally from these public and private healthcare facilities. Data from HAI surveillance network will be integrated into National AMR surveillance network as outlines in 2.1 (7). Integrated analysis of surveillance data will form the basis for monitoring and response frameworks, including the identification of priority triggers (priority pathogens or pathogen-drug resistance combination) that will be established by ASCU.', 'Plan and implement, strategic interventions under the national program for AMR surveillance in human health, animal health and agriculture sectors including quality assured laboratory network and early warning systems.']</t>
+  </si>
+  <si>
+    <t>['Strategic objective 3: HYGIENE, INFECTION PREVENTION AND CONTROL (IPC)', 'Objective 3.1: To establish a national infection prevention and control programme through full implementation and compliance with the IPC guidelines within healthcare settings, animal husbandry systems, fisheries and the food chain.', 'formal campaigns are consolidated or launched focusing on vaccination, sanitation and hygiene at community level.', 'To implement strategic objective 3 related to strengthening of hygiene, infection prevention and control, a national infection prevention and control programme would be implemented in compliance with IPC guidelines within healthcare settings, animal husbandry systems and food production systems.', '4. Infection Prevention Control in healthcare settings;', 'Infection control and patient safety policy was introduced in health care settings by MoHS some years ago. Infection Control Committees (ICC) and teams are in place under the policy with infection control guidelines. However, except for limited activities related to education and training in hand hygiene, standard precautions and additional (transmission related) precautions, there is limited activity of ICCs.', 'Overall, AMR containment efforts in Myanmar are in the phase of exploration and adoption in different focus areas with initial implementation in awareness and hygiene/sanitation and laboratory surveillance.', 'Infection Prevention and Control and AMR stewardship programme in healthcare settings', 'Objective 3: Reduce the incidence of infection through effective sanitation, hygiene and infection prevention measures', '3. Infection Prevention and Control and Hygiene', 'Strategic intervention 1.2 Include AMR and related topics such as Infection Prevention Control as a core component of professional education, training, certification and Development for health care providers and veterinarians', 'Infection prevention and control, especially in the context of hospitals, is an important aspect of a strategic plan to contain AMR since clinical settings represent an ecosystem of high antimicrobial usage.', 'The Strategic Plan as outlined below aims to roll out a comprehensive multi-sectoral national IPC programme on a limited scale in healthcare facilities in public and private sector and in selected food chains (farms, slaughterhouses, food processors, aquaculture etc.). Similarly, HAI surveillance will be implemented in few public and private healthcare facilities. In community settings, formal campaigns for sanitation and hygiene including biosecurity and animal husbandry practices and food handling practices on a small scale in animal and food production sites.', 'The Task Force will develop a national IPC policy, mandating the creation and harmonization of National IPC Programmes in healthcare facilities, animal health care facilities, and food production systems.', 'TWG will conduct a formal assessment of National IPC Programme in 2022, followed by recommendations of nationwide scale up in all human and animal healthcare facilities across the nation and across all food production systems.', 'Strategic intervention 3.3 Promote sanitation and hygiene by social mobilisation and behavioural change activities', 'Essential elements of AMR containment which have so far not completely taken off the ground will now see movement as comprehensive awareness programmes are conducted, surveillance of AMR and AMU including laboratory capacity, IPC and AMSP are strengthened and other public health functions are aligned to the new AMR goals.', 'Develop a national IPC policy, mandating the creating of a National IPC Programme in healthcare facilities, animal health and food production systems and national HAI surveillance in health care facilities']</t>
+  </si>
+  <si>
+    <t>['They will work under the technical guidance and supervision of respective TWG and will comprise of in-country as well as international experts, including those from WHO/FAO/OIE. The Task forces will be tasked with functions such as evaluation of existing policies, frameworks, interventions, guidelines and the development of guidelines and standards.', 'The ASCU, with technical support from WHO, OIE and FAO, will develop guidelines for AMR Surveillance including guidelines for data sharing (indicators, triggers, analysis plan, response plan), incorporating the critical components as outlined in guidance documents (WHO sample templates, GLASS implementation guide, AGISAR technical recommendations, OIE, Codex Alimentarius, etc).', 'AMR surveillance standards and guidelines incorporating GLASS standards and other intergovernmental standards', 'The NHL, in partnership with Veterinary Diagnostic Laboratories will develop and share AMR surveillance standards and guidelines, including SOPs, incorporating other intergovernmental standards (OIE/WHO GLASS and AGISAR/Codex) with surveillance labs.', 'The ASCU will frame guidelines and national standards for systematic collection, sharing, and assessment of AMR hazard events framed in keeping with international standards (IHR/WHO/OIE/FAO); includes surveillance manual, investigation/response guidelines, case management guidelines and lab guidelines.', 'in line with international standards set out by OIE/FAO in animal and food production sectors.', "Antimicrobial agents in the EML will be considered for inclusion based on Myanmar's situation of current levels of AMR, availability, supply chains, financial outlays and international guidelines and standard treatment guidelines in human medicine, veterinary medicine, aquaculture and food production (including antimicrobial growth promoters; AGPs).", "Antimicrobial agents in the EML will be considered for inclusion based on Myanmar's situation of current levels of AMR, availability, supply chains, financial outlays and international guidelines and standard treatment guidelines in human medicine, veterinary medicine, aquaculture and food production (including antimicrobial growth promoters; AGPs).", '## Partners and Stakeholders\n\nWHO, FAO, OIE', 'TWG (Research) will establish a multi-stakeholder platform to guide AMR research and innovation. The research platforms will develop research consortia, and establish collaboration with national and international agencies, for implementation of strategic research agenda']</t>
+  </si>
+  <si>
+    <t>['Objective 4.2: Regulation of post-marketing quality of drugs under the leadership of an NRA/DRA to ensure access to quality antibiotics', 'initiatives are being taken to develop national standards and guidelines such as the national drug policies were updated essential medicines lists and standard treatment guidelines including for antibiotic prescription are being drafted.', 'To implement strategic objective 4 related to optimising use of antimicrobial medicines, a national AMR containment policy would be announced along with a series of measures on Antimicrobial Stewardship Programmes (AMSP) and Standard Treatment Guidelines (STG) at the national scale for prudent use of antimicrobials.', 'Regulation of finished antibiotic products and active pharmaceutical ingredients (APIs) Regulation of pharmacies on over the counter (OTC) sales and inappropriate sale of antibiotics', 'The situation analysis reveals that Myanmar has a fully functional National Regulatory Authority that is responsible for regulation and licensing; pharmacovigilance and market authorization.', 'Under supervision of DG FDA and DG Medical Services, develop an essential medicines list with special reference to use of antimicrobial agents.', 'Under supervision of DG FDA and DG Medical Services, develop an essential medicines list with special reference to use of antimicrobial agents.', 'MoHS will further strengthen DG FDA in serving its mandates of drug control, import, manufacture, quality, distribution, pricing, market authorization, advertising, retail sales, and inspection, and to implement the relevant policies.', 'Regulations for import, export, local production, distribution and use of finished AMAs and APIs and OTC sales', 'Facilitate development and implementation of national drug policy and within the policy framework guidelines and standards to improve AMU. The standards and guidelines will include EMLs and STGs.', 'Facilitate development and implementation of national drug policy and within the policy framework guidelines and standards to improve AMU. The standards and guidelines will include EMLs and STGs']</t>
+  </si>
+  <si>
+    <t>['Objective 4.1: Establish a national AMR containment policy, Antimicrobial Stewardship Programmes (AMSP) and Standard Treatment Guidelines (STG) at the', 'Stewardship Programmes (AMSP) and Standard Treatment Guidelines (STG) at the national scale for prudent use of antimicrobials', 'initiatives are being taken to develop national standards and guidelines such as the national drug policies were updated essential medicines lists and standard treatment guidelines including for antibiotic prescription are being drafted.', 'To implement strategic objective 4 related to optimising use of antimicrobial medicines, a national AMR containment policy would be announced along with a series of measures on Antimicrobial Stewardship Programmes (AMSP) and Standard Treatment Guidelines (STG) at the national scale for prudent use of antimicrobials.', 'national AMR containment policy for control of human use of antimicrobials', 'Regulation of finished antibiotic products and active pharmaceutical ingredients (APIs) Regulation of pharmacies on over the counter (OTC) sales and inappropriate sale of antibiotics', 'Objective 4: Optimize the use of antimicrobial medicines in human and animal health', 'The situation analysis reveals that Myanmar has a fully functional National Regulatory Authority that is responsible for regulation and licensing; pharmacovigilance and market authorization.', 'The Policy will mandate provisions for the five strategic objectives enshrined in GAP and NAP AMR for Myanmar', 'DG Medical Services (MoH) and DG LVBD (MoALI) will implement AMR policy for control of human and veterinary use of antimicrobial substances, including the phasing out of Antimicrobial Growth Promoters (AGPs).', 'Regional FDAs will be responsible for carrying out inspections in different types of pharmaceutical establishments; formal registration procedures for drugs; and legal provisions for penal sanctions for non-compliance.', 'Regulations for import, export, local production, distribution and use of finished AMAs and APIs and OTC sales', 'Facilitate strengthening of existing systems and establish new regulatory systems for control of AMAs sale and use.', 'Make recommendations on AMR prevention/control/containment and rational use of AMAs']</t>
+  </si>
+  <si>
+    <t>['To promote sustainable investment in new medicines, diagnostic tools, vaccines and other interventions by developing a strategic research agenda and national research policy', 'This will be done in large part, through leveraging existing capacity, build additional capacity as well as through international collaborations.', 'International collaborations have been established recently by the NHL with global centres of excellence such as Pasteur Institute, Cambodia, National Centre for Global Health and Medicine, Japan and Niigata University, Japan.', 'Objective 5: Develop the economic case for sustainable investment that takes account of the needs of all countries, and increase investment in new medicines, diagnostic tools, vaccines and other interventions', 'Basic and translational research to support the development of new treatments, diagnostic tools, vaccines and other interventions', 'The strategic plan also envisions collaborations with national and international agencies, for implementation of strategic research agenda.', 'The research platforms will develop research consortia, and establish collaboration with national and international agencies, for implementation of strategic research agenda', 'The strategic plan envisions collaborations with national and international agencies, for implementation of a strategic research agenda that will serve as a major strategy for the country, given its urgent evidence needs to guide program planning and action.', 'Facilitate establishment of research platforms, research consortia, research funding opportunities and collaboration with national and international agencies, for to promote research and implement strategic research agenda']</t>
+  </si>
+  <si>
     <t>['The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment. We refer to this integrated approach based on a public health perspective as the One Health approach.', 'We continue to strive to put a One Health approach on the international agenda, and remind health ministers of their coordinating responsibility; they must press for measures in all sectors in the interest of public health.', 'Such a joint conference is unique, and of major importance with regard to the One Health approach.', 'In order to further emphasise the importance of a One Health approach to antibiotic resistance, we will strive to place the outcomes of the conference on both Health Council and Agriculture Council agendas as Council Conclusions.', 'We express our appreciation for the fact that all involved parties recognise that antibiotic resistance is a shared problem, and that a joint approach is required.', 'The approach will be formulated per sector, with specific goals per animal species where possible. The goal is an animal farming sector where the health of the animals in the entire chain is the norm, and disease and antibiotic therapy the exception. In order to achieve this, it is crucial that all partners in the entire chain focus on the prevention of animal diseases.', 'While developing a new policy, attention will also be given to the effect of antibiotic use in animals on the environment (see paragraph 5 on the environment in this letter).', 'The action plan must result in an advisory report on the most effective management measures by mid 2016. At the very least, the implementation of the action plan must encompass measurement of the occurrence of resistant bacteria and the presence of (traces of) antibiotics in the environment. To this end, measurements will be performed in waste water from health facilities and residential areas, in waste water treatment plants and in manure, among other places.', 'Coherent communication initiatives in the context of the One Health approach to antibiotic resistance are crucial throughout the chain of public-professionals-administrators.']</t>
   </si>
   <si>
@@ -842,6 +971,135 @@
   </si>
   <si>
     <t>The NAP encourages participation in international research collaborations.</t>
+  </si>
+  <si>
+    <t>The Strategy adopts a whole of Government, a whole of society and a comprehensive One Health Approach to AMR, recognizing the complexity of the issue.</t>
+  </si>
+  <si>
+    <t>The Strategy includes specific actions in the human health sector, including improved surveillance, stewardship measures for the proper use of antibiotics, and infection prevention and control.</t>
+  </si>
+  <si>
+    <t>The Strategy outlines interventions to address AMR in Animal Health, including surveillance and education.</t>
+  </si>
+  <si>
+    <t>The Strategy includes actions targeting environmental aspects of AMR, including monitoring of antimicrobial residues in the environment.</t>
+  </si>
+  <si>
+    <t>The Strategy emphasizes the need for improved hygiene standards in farms to prevent cross-transmission of animal pathogens.</t>
+  </si>
+  <si>
+    <t>Implementation and evaluation of the Strategy will be supported by an Implementation Plan that provides the detail of specific actions, targets, time frames and indicators.</t>
+  </si>
+  <si>
+    <t>The Strategy aims to set and monitor qualitative and quantitative targets for improvement of prescribing at national level.</t>
+  </si>
+  <si>
+    <t>The Strategy includes actions to establish a comprehensive programme for at-source monitoring of antimicrobial residues in food animals and the environment.</t>
+  </si>
+  <si>
+    <t>The document mentions that the NAC is limited in its output due to lack of adequate resources both financial and human.</t>
+  </si>
+  <si>
+    <t>There is no mention of an assessment of future budget requirements for the activities listed.</t>
+  </si>
+  <si>
+    <t>The National Antibiotic Committee (NAC) serves as the Intersectoral Coordinating Mechanism for Malta.</t>
+  </si>
+  <si>
+    <t>The Strategy aims to review current relevant legislation to strengthen governance to prevent and counteract AMR.</t>
+  </si>
+  <si>
+    <t>The Strategy includes actions to enhance knowledge and awareness on AMR among healthcare and veterinary professionals and to include topics on AMR in the curricula of primary and secondary schools.</t>
+  </si>
+  <si>
+    <t>The Strategy mentions the need for awareness and education campaigns to inform the public about AMR and appropriate antibiotic use.</t>
+  </si>
+  <si>
+    <t>The Strategy emphasizes the importance of international partnerships and collaboration on regional and global efforts to respond to AMR.</t>
+  </si>
+  <si>
+    <t>The Strategy includes actions to strengthen surveillance systems of antibiotic resistance and establish a nationally representative and coordinated programme for surveillance of antimicrobial usage.</t>
+  </si>
+  <si>
+    <t>The Strategy aims to strengthen relevant surveillance and feedback systems on antibiotic use and resistance in human and animal health as well as the environment.</t>
+  </si>
+  <si>
+    <t>The Strategy includes improving infection prevention and control measures across Human Health and Animal Health settings.</t>
+  </si>
+  <si>
+    <t>The Strategy aligns with the WHO Global Action Plan on Antimicrobial Resistance and the EU Action Plan on Antimicrobial Resistance.</t>
+  </si>
+  <si>
+    <t>The Strategy includes actions to introduce appropriate legislation to establish minimum standards for infection prevention and control in Human Healthcare and residential care institutions.</t>
+  </si>
+  <si>
+    <t>The Strategy aims to implement effective One Health antimicrobial stewardship practices across Human and Animal Health settings to ensure appropriate and prudent prescribing.</t>
+  </si>
+  <si>
+    <t>The Strategy includes actions to agree on a national research agenda and promote investment to prevent, detect and contain antimicrobial resistance.</t>
+  </si>
+  <si>
+    <t>The NAP mentions a National One Health Strategy which identifies AMR as a priority.</t>
+  </si>
+  <si>
+    <t>Objective 3.2: Decrease Hospital Acquired Infection (HAI) and associated AMR through facility based HAI surveillance programme (Human Health).</t>
+  </si>
+  <si>
+    <t>The NAP includes actions related to animal health, such as the establishment of a National Drug Regulatory Authority (NDRA) for veterinary sector.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the need for environmental surveillance for AMR as part of the overall strategy.</t>
+  </si>
+  <si>
+    <t>The NAP includes objectives related to optimizing antimicrobial use in agriculture and food production sectors.</t>
+  </si>
+  <si>
+    <t>The NACC will report implementation status to NMSC, national agencies and international partners.</t>
+  </si>
+  <si>
+    <t>By 2022, the country would have carried out nationwide evidence-based awareness campaigns with regular Monitoring and Evaluation (M&amp;E).</t>
+  </si>
+  <si>
+    <t>The document does not specify quantitative targets for AMR prevalence and antimicrobial use.</t>
+  </si>
+  <si>
+    <t>Detailed planning along with the budget allotted for the respective activities will be done in due course by national stakeholders.</t>
+  </si>
+  <si>
+    <t>The NAP establishes a National Multi-Sectoral Steering Committee (NMSC) for Antimicrobial Resistance.</t>
+  </si>
+  <si>
+    <t>The NAP includes the establishment of a National Drug Policy with special reference to AMAs and AMR.</t>
+  </si>
+  <si>
+    <t>The NAP aims to revise curricula in undergraduate medical and veterinary, food industry and agriculture teaching.</t>
+  </si>
+  <si>
+    <t>The NAP includes plans for nationwide evidence-based awareness campaigns targeting various audiences.</t>
+  </si>
+  <si>
+    <t>The NAP mentions collaboration with WHO, FAO, and OIE for technical support and implementation.</t>
+  </si>
+  <si>
+    <t>The NAP includes the establishment of a national AMR surveillance system and coordination structure.</t>
+  </si>
+  <si>
+    <t>The NAP aims to develop a One Health AMR surveillance plan in humans, animals, and food.</t>
+  </si>
+  <si>
+    <t>The NAP includes objectives related to hygiene, infection prevention, and control measures.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the need to develop guidelines for AMR surveillance incorporating international standards.</t>
+  </si>
+  <si>
+    <t>The NAP includes the development of an essential medicines list with special reference to the use of antimicrobial agents.</t>
+  </si>
+  <si>
+    <t>The NAP includes the establishment of a regulatory framework for control of human and veterinary use of antimicrobial substances.</t>
+  </si>
+  <si>
+    <t>The NAP envisions collaborations with national and international agencies for implementation of strategic research agenda.</t>
   </si>
   <si>
     <t>The approach to antibiotic resistance we propose in this letter addresses all domains where human health is threatened by antibiotic-resistant bacteria; healthcare, animals, food and environment.</t>
@@ -1445,7 +1703,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I177"/>
+  <dimension ref="A1:I221"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1485,22 +1743,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="E2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F2" t="s">
-        <v>193</v>
+        <v>236</v>
       </c>
       <c r="G2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1508,22 +1766,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F3" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1531,22 +1789,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1554,22 +1812,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
-        <v>195</v>
+        <v>238</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1577,22 +1835,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1600,22 +1858,22 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>196</v>
+        <v>239</v>
       </c>
       <c r="G7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1623,22 +1881,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F8" t="s">
-        <v>197</v>
+        <v>240</v>
       </c>
       <c r="G8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1646,22 +1904,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F9" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="G9" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1669,22 +1927,22 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>199</v>
+        <v>242</v>
       </c>
       <c r="G10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1692,22 +1950,22 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F11" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -1715,22 +1973,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F12" t="s">
-        <v>201</v>
+        <v>244</v>
       </c>
       <c r="G12" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1738,22 +1996,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>245</v>
       </c>
       <c r="G13" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1761,22 +2019,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>246</v>
       </c>
       <c r="G14" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -1784,22 +2042,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F15" t="s">
-        <v>204</v>
+        <v>247</v>
       </c>
       <c r="G15" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1807,22 +2065,22 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D16" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F16" t="s">
-        <v>205</v>
+        <v>248</v>
       </c>
       <c r="G16" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1830,22 +2088,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>249</v>
       </c>
       <c r="G17" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1853,22 +2111,22 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D18" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>207</v>
+        <v>250</v>
       </c>
       <c r="G18" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1876,22 +2134,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F19" t="s">
-        <v>208</v>
+        <v>251</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1899,22 +2157,22 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="G20" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1922,22 +2180,22 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>253</v>
       </c>
       <c r="G21" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1945,22 +2203,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F22" t="s">
-        <v>194</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1968,22 +2226,22 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>211</v>
+        <v>254</v>
       </c>
       <c r="G23" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1991,22 +2249,22 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F24" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="G24" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2014,22 +2272,22 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D25" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E25" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="G25" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2037,22 +2295,22 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E26" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F26" t="s">
-        <v>214</v>
+        <v>257</v>
       </c>
       <c r="G26" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2060,22 +2318,22 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E27" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F27" t="s">
-        <v>215</v>
+        <v>258</v>
       </c>
       <c r="G27" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2083,22 +2341,22 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E28" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F28" t="s">
-        <v>216</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2106,22 +2364,22 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E29" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F29" t="s">
-        <v>217</v>
+        <v>260</v>
       </c>
       <c r="G29" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2129,22 +2387,22 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E30" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F30" t="s">
-        <v>218</v>
+        <v>261</v>
       </c>
       <c r="G30" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2152,22 +2410,22 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D31" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E31" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F31" t="s">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="G31" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2175,22 +2433,22 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F32" t="s">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="G32" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2198,22 +2456,22 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F33" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="G33" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2221,22 +2479,22 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D34" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>221</v>
+        <v>264</v>
       </c>
       <c r="G34" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2244,22 +2502,22 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D35" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E35" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F35" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="G35" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2267,22 +2525,22 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F36" t="s">
-        <v>223</v>
+        <v>266</v>
       </c>
       <c r="G36" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2290,22 +2548,22 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D37" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E37" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>224</v>
+        <v>267</v>
       </c>
       <c r="G37" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2313,22 +2571,22 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D38" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E38" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F38" t="s">
-        <v>225</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2336,22 +2594,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D39" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E39" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F39" t="s">
-        <v>226</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2359,22 +2617,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F40" t="s">
-        <v>227</v>
+        <v>270</v>
       </c>
       <c r="G40" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2382,22 +2640,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E41" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F41" t="s">
-        <v>228</v>
+        <v>271</v>
       </c>
       <c r="G41" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2405,22 +2663,22 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D42" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F42" t="s">
-        <v>229</v>
+        <v>272</v>
       </c>
       <c r="G42" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2428,22 +2686,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F43" t="s">
-        <v>222</v>
+        <v>265</v>
       </c>
       <c r="G43" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2451,22 +2709,22 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F44" t="s">
-        <v>230</v>
+        <v>273</v>
       </c>
       <c r="G44" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2474,22 +2732,22 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D45" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F45" t="s">
-        <v>231</v>
+        <v>274</v>
       </c>
       <c r="G45" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2497,22 +2755,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E46" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>232</v>
+        <v>275</v>
       </c>
       <c r="G46" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2520,22 +2778,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D47" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E47" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>233</v>
+        <v>276</v>
       </c>
       <c r="G47" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2543,22 +2801,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D48" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E48" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F48" t="s">
-        <v>234</v>
+        <v>277</v>
       </c>
       <c r="G48" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2566,22 +2824,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D49" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E49" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F49" t="s">
-        <v>235</v>
+        <v>278</v>
       </c>
       <c r="G49" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2589,22 +2847,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D50" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E50" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F50" t="s">
-        <v>236</v>
+        <v>279</v>
       </c>
       <c r="G50" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2612,22 +2870,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D51" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F51" t="s">
-        <v>237</v>
+        <v>280</v>
       </c>
       <c r="G51" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2635,22 +2893,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E52" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F52" t="s">
-        <v>238</v>
+        <v>281</v>
       </c>
       <c r="G52" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2658,22 +2916,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D53" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
-        <v>239</v>
+        <v>282</v>
       </c>
       <c r="G53" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2681,22 +2939,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F54" t="s">
-        <v>240</v>
+        <v>283</v>
       </c>
       <c r="G54" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2704,22 +2962,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D55" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E55" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F55" t="s">
-        <v>241</v>
+        <v>284</v>
       </c>
       <c r="G55" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2727,22 +2985,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E56" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F56" t="s">
-        <v>242</v>
+        <v>285</v>
       </c>
       <c r="G56" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2750,22 +3008,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D57" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E57" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F57" t="s">
-        <v>243</v>
+        <v>286</v>
       </c>
       <c r="G57" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2773,22 +3031,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D58" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="E58" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F58" t="s">
-        <v>244</v>
+        <v>287</v>
       </c>
       <c r="G58" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2796,22 +3054,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D59" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F59" t="s">
-        <v>245</v>
+        <v>288</v>
       </c>
       <c r="G59" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2819,22 +3077,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D60" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E60" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F60" t="s">
-        <v>246</v>
+        <v>289</v>
       </c>
       <c r="G60" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2842,22 +3100,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D61" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E61" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="G61" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2865,22 +3123,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D62" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E62" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F62" t="s">
-        <v>248</v>
+        <v>291</v>
       </c>
       <c r="G62" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2888,22 +3146,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D63" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E63" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F63" t="s">
-        <v>249</v>
+        <v>292</v>
       </c>
       <c r="G63" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2911,22 +3169,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D64" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="E64" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>250</v>
+        <v>293</v>
       </c>
       <c r="G64" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2934,22 +3192,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E65" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F65" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="G65" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2957,22 +3215,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D66" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E66" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F66" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="G66" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2980,22 +3238,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D67" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E67" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>253</v>
+        <v>296</v>
       </c>
       <c r="G67" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3003,22 +3261,22 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="E68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F68" t="s">
-        <v>254</v>
+        <v>297</v>
       </c>
       <c r="G68" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3026,22 +3284,22 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D69" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F69" t="s">
-        <v>255</v>
+        <v>298</v>
       </c>
       <c r="G69" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3049,22 +3307,22 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D70" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="E70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F70" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3072,22 +3330,22 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D71" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F71" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="G71" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3095,22 +3353,22 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>258</v>
+        <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3118,22 +3376,22 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D73" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F73" t="s">
-        <v>259</v>
+        <v>302</v>
       </c>
       <c r="G73" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3141,22 +3399,22 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D74" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F74" t="s">
-        <v>260</v>
+        <v>303</v>
       </c>
       <c r="G74" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3164,22 +3422,22 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D75" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>261</v>
+        <v>304</v>
       </c>
       <c r="G75" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3187,22 +3445,22 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D76" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="E76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>262</v>
+        <v>305</v>
       </c>
       <c r="G76" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3210,22 +3468,22 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F77" t="s">
-        <v>263</v>
+        <v>306</v>
       </c>
       <c r="G77" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3233,22 +3491,22 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>264</v>
+        <v>307</v>
       </c>
       <c r="G78" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3256,22 +3514,22 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F79" t="s">
-        <v>265</v>
+        <v>308</v>
       </c>
       <c r="G79" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3279,22 +3537,22 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D80" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F80" t="s">
-        <v>266</v>
+        <v>309</v>
       </c>
       <c r="G80" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3302,22 +3560,22 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D81" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F81" t="s">
-        <v>267</v>
+        <v>310</v>
       </c>
       <c r="G81" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3325,22 +3583,22 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D82" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F82" t="s">
-        <v>268</v>
+        <v>311</v>
       </c>
       <c r="G82" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3348,22 +3606,22 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D83" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>269</v>
+        <v>312</v>
       </c>
       <c r="G83" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3371,22 +3629,22 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D84" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>270</v>
+        <v>313</v>
       </c>
       <c r="G84" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3394,22 +3652,22 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F85" t="s">
-        <v>271</v>
+        <v>314</v>
       </c>
       <c r="G85" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3417,22 +3675,22 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F86" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="G86" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3440,22 +3698,22 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>273</v>
+        <v>316</v>
       </c>
       <c r="G87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3463,22 +3721,22 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D88" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F88" t="s">
-        <v>274</v>
+        <v>317</v>
       </c>
       <c r="G88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3486,22 +3744,22 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F89" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="G89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3509,22 +3767,22 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F90" t="s">
-        <v>276</v>
+        <v>319</v>
       </c>
       <c r="G90" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3532,22 +3790,22 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D91" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E91" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F91" t="s">
-        <v>277</v>
+        <v>320</v>
       </c>
       <c r="G91" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3555,22 +3813,22 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F92" t="s">
-        <v>278</v>
+        <v>321</v>
       </c>
       <c r="G92" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3578,22 +3836,22 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E93" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F93" t="s">
-        <v>279</v>
+        <v>322</v>
       </c>
       <c r="G93" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3601,22 +3859,22 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E94" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F94" t="s">
-        <v>280</v>
+        <v>323</v>
       </c>
       <c r="G94" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3624,22 +3882,22 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D95" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E95" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F95" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="G95" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3647,22 +3905,22 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E96" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F96" t="s">
-        <v>282</v>
+        <v>325</v>
       </c>
       <c r="G96" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3670,22 +3928,22 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E97" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F97" t="s">
-        <v>283</v>
+        <v>326</v>
       </c>
       <c r="G97" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3693,22 +3951,22 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C98" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="E98" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
       <c r="G98" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3716,22 +3974,22 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E99" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>200</v>
+        <v>328</v>
       </c>
       <c r="G99" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3739,22 +3997,22 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D100" t="s">
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="E100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F100" t="s">
-        <v>284</v>
+        <v>329</v>
       </c>
       <c r="G100" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3762,22 +4020,22 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E101" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F101" t="s">
-        <v>285</v>
+        <v>330</v>
       </c>
       <c r="G101" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3785,22 +4043,22 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D102" t="s">
-        <v>46</v>
+        <v>130</v>
       </c>
       <c r="E102" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F102" t="s">
-        <v>286</v>
+        <v>331</v>
       </c>
       <c r="G102" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3808,22 +4066,22 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D103" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E103" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>287</v>
+        <v>332</v>
       </c>
       <c r="G103" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3831,22 +4089,22 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D104" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E104" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F104" t="s">
-        <v>288</v>
+        <v>333</v>
       </c>
       <c r="G104" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3854,22 +4112,22 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D105" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="E105" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F105" t="s">
-        <v>289</v>
+        <v>334</v>
       </c>
       <c r="G105" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3877,22 +4135,22 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D106" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E106" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F106" t="s">
-        <v>290</v>
+        <v>335</v>
       </c>
       <c r="G106" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3900,22 +4158,22 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D107" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E107" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F107" t="s">
-        <v>291</v>
+        <v>336</v>
       </c>
       <c r="G107" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3923,22 +4181,22 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D108" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E108" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F108" t="s">
-        <v>292</v>
+        <v>337</v>
       </c>
       <c r="G108" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3946,22 +4204,22 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C109" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D109" t="s">
-        <v>46</v>
+        <v>137</v>
       </c>
       <c r="E109" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F109" t="s">
-        <v>293</v>
+        <v>338</v>
       </c>
       <c r="G109" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3969,22 +4227,22 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F110" t="s">
-        <v>294</v>
+        <v>339</v>
       </c>
       <c r="G110" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3992,22 +4250,22 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E111" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F111" t="s">
-        <v>295</v>
+        <v>340</v>
       </c>
       <c r="G111" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4015,22 +4273,22 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D112" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F112" t="s">
-        <v>296</v>
+        <v>341</v>
       </c>
       <c r="G112" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4038,22 +4296,22 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D113" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="E113" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F113" t="s">
-        <v>297</v>
+        <v>342</v>
       </c>
       <c r="G113" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4061,22 +4319,22 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D114" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E114" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F114" t="s">
-        <v>298</v>
+        <v>343</v>
       </c>
       <c r="G114" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4084,22 +4342,22 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D115" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="E115" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F115" t="s">
-        <v>299</v>
+        <v>344</v>
       </c>
       <c r="G115" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4107,22 +4365,22 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E116" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F116" t="s">
-        <v>300</v>
+        <v>345</v>
       </c>
       <c r="G116" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4130,22 +4388,22 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D117" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F117" t="s">
-        <v>301</v>
+        <v>346</v>
       </c>
       <c r="G117" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4153,22 +4411,22 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D118" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="E118" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F118" t="s">
-        <v>302</v>
+        <v>347</v>
       </c>
       <c r="G118" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4176,22 +4434,22 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>143</v>
+        <v>48</v>
       </c>
       <c r="E119" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>303</v>
+        <v>348</v>
       </c>
       <c r="G119" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4199,22 +4457,22 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C120" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D120" t="s">
-        <v>46</v>
+        <v>147</v>
       </c>
       <c r="E120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F120" t="s">
-        <v>304</v>
+        <v>349</v>
       </c>
       <c r="G120" t="s">
-        <v>357</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4222,22 +4480,22 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C121" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D121" t="s">
-        <v>46</v>
+        <v>148</v>
       </c>
       <c r="E121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F121" t="s">
-        <v>305</v>
+        <v>243</v>
       </c>
       <c r="G121" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4245,22 +4503,22 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D122" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E122" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F122" t="s">
-        <v>306</v>
+        <v>350</v>
       </c>
       <c r="G122" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4268,22 +4526,22 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D123" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E123" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F123" t="s">
-        <v>307</v>
+        <v>351</v>
       </c>
       <c r="G123" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4291,22 +4549,22 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C124" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D124" t="s">
-        <v>46</v>
+        <v>151</v>
       </c>
       <c r="E124" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F124" t="s">
-        <v>308</v>
+        <v>352</v>
       </c>
       <c r="G124" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4314,22 +4572,22 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D125" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="E125" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F125" t="s">
-        <v>309</v>
+        <v>353</v>
       </c>
       <c r="G125" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4337,22 +4595,22 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D126" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="E126" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F126" t="s">
-        <v>310</v>
+        <v>354</v>
       </c>
       <c r="G126" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4360,22 +4618,22 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D127" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="E127" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F127" t="s">
-        <v>311</v>
+        <v>355</v>
       </c>
       <c r="G127" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4383,22 +4641,22 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="E128" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F128" t="s">
-        <v>312</v>
+        <v>356</v>
       </c>
       <c r="G128" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4406,22 +4664,22 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D129" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="E129" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F129" t="s">
-        <v>313</v>
+        <v>357</v>
       </c>
       <c r="G129" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4429,22 +4687,22 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D130" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="E130" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F130" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="G130" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4452,22 +4710,22 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D131" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="E131" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F131" t="s">
-        <v>315</v>
+        <v>359</v>
       </c>
       <c r="G131" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4475,22 +4733,22 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D132" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="E132" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F132" t="s">
-        <v>316</v>
+        <v>360</v>
       </c>
       <c r="G132" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4498,22 +4756,22 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D133" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="E133" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F133" t="s">
-        <v>317</v>
+        <v>361</v>
       </c>
       <c r="G133" t="s">
-        <v>357</v>
+        <v>41</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4521,22 +4779,22 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="E134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F134" t="s">
-        <v>318</v>
+        <v>362</v>
       </c>
       <c r="G134" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4544,22 +4802,22 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D135" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="E135" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F135" t="s">
-        <v>319</v>
+        <v>363</v>
       </c>
       <c r="G135" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4567,22 +4825,22 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D136" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="E136" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F136" t="s">
-        <v>320</v>
+        <v>364</v>
       </c>
       <c r="G136" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4590,22 +4848,22 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C137" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D137" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="E137" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F137" t="s">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="G137" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4613,22 +4871,22 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D138" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="E138" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F138" t="s">
-        <v>322</v>
+        <v>366</v>
       </c>
       <c r="G138" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4636,22 +4894,22 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D139" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="E139" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F139" t="s">
-        <v>323</v>
+        <v>367</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4659,22 +4917,22 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D140" t="s">
-        <v>46</v>
+        <v>167</v>
       </c>
       <c r="E140" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F140" t="s">
-        <v>197</v>
+        <v>368</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4682,22 +4940,22 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D141" t="s">
-        <v>46</v>
+        <v>168</v>
       </c>
       <c r="E141" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F141" t="s">
-        <v>324</v>
+        <v>369</v>
       </c>
       <c r="G141" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4705,22 +4963,22 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C142" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D142" t="s">
-        <v>46</v>
+        <v>169</v>
       </c>
       <c r="E142" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F142" t="s">
-        <v>325</v>
+        <v>263</v>
       </c>
       <c r="G142" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4728,22 +4986,22 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C143" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D143" t="s">
-        <v>161</v>
+        <v>48</v>
       </c>
       <c r="E143" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F143" t="s">
-        <v>200</v>
+        <v>243</v>
       </c>
       <c r="G143" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4751,22 +5009,22 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="E144" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>326</v>
+        <v>370</v>
       </c>
       <c r="G144" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4774,22 +5032,22 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D145" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="E145" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F145" t="s">
-        <v>327</v>
+        <v>371</v>
       </c>
       <c r="G145" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4797,22 +5055,22 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C146" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D146" t="s">
-        <v>164</v>
+        <v>48</v>
       </c>
       <c r="E146" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F146" t="s">
-        <v>328</v>
+        <v>372</v>
       </c>
       <c r="G146" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4820,22 +5078,22 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C147" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D147" t="s">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="E147" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F147" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="G147" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4843,22 +5101,22 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D148" t="s">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="E148" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F148" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="G148" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4866,22 +5124,22 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D149" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="E149" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F149" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="G149" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4889,22 +5147,22 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D150" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="E150" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F150" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="G150" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4912,22 +5170,22 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D151" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E151" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F151" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="G151" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4935,22 +5193,22 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D152" t="s">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="E152" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F152" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="G152" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4958,22 +5216,22 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C153" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>171</v>
+        <v>48</v>
       </c>
       <c r="E153" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F153" t="s">
-        <v>335</v>
+        <v>379</v>
       </c>
       <c r="G153" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4981,22 +5239,22 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D154" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="E154" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F154" t="s">
-        <v>336</v>
+        <v>380</v>
       </c>
       <c r="G154" t="s">
-        <v>39</v>
+        <v>443</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5004,22 +5262,22 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D155" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="E155" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F155" t="s">
-        <v>337</v>
+        <v>381</v>
       </c>
       <c r="G155" t="s">
-        <v>40</v>
+        <v>443</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5027,22 +5285,22 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D156" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="E156" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F156" t="s">
-        <v>338</v>
+        <v>382</v>
       </c>
       <c r="G156" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5050,22 +5308,22 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C157" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D157" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="E157" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F157" t="s">
-        <v>339</v>
+        <v>383</v>
       </c>
       <c r="G157" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5073,22 +5331,22 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D158" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="E158" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F158" t="s">
-        <v>340</v>
+        <v>384</v>
       </c>
       <c r="G158" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5096,22 +5354,22 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D159" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="E159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F159" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="G159" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5119,22 +5377,22 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C160" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D160" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="E160" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F160" t="s">
-        <v>342</v>
+        <v>386</v>
       </c>
       <c r="G160" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5142,22 +5400,22 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C161" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D161" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="E161" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F161" t="s">
-        <v>343</v>
+        <v>387</v>
       </c>
       <c r="G161" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5165,22 +5423,22 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C162" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D162" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="E162" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F162" t="s">
-        <v>344</v>
+        <v>388</v>
       </c>
       <c r="G162" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5188,22 +5446,22 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C163" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D163" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E163" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F163" t="s">
-        <v>345</v>
+        <v>389</v>
       </c>
       <c r="G163" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5211,22 +5469,22 @@
         <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D164" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E164" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F164" t="s">
-        <v>220</v>
+        <v>390</v>
       </c>
       <c r="G164" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5234,22 +5492,22 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D165" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E165" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F165" t="s">
-        <v>200</v>
+        <v>391</v>
       </c>
       <c r="G165" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5257,22 +5515,22 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D166" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="E166" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F166" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="G166" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5280,22 +5538,22 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D167" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="E167" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F167" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
       <c r="G167" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5303,22 +5561,22 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C168" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D168" t="s">
-        <v>183</v>
+        <v>48</v>
       </c>
       <c r="E168" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F168" t="s">
-        <v>348</v>
+        <v>394</v>
       </c>
       <c r="G168" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5326,22 +5584,22 @@
         <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D169" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="E169" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F169" t="s">
-        <v>349</v>
+        <v>395</v>
       </c>
       <c r="G169" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5349,22 +5607,22 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C170" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D170" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="E170" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F170" t="s">
-        <v>350</v>
+        <v>396</v>
       </c>
       <c r="G170" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5372,22 +5630,22 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D171" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="E171" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F171" t="s">
-        <v>351</v>
+        <v>397</v>
       </c>
       <c r="G171" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5395,22 +5653,22 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D172" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="E172" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F172" t="s">
-        <v>352</v>
+        <v>398</v>
       </c>
       <c r="G172" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5418,22 +5676,22 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C173" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D173" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="E173" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F173" t="s">
-        <v>353</v>
+        <v>399</v>
       </c>
       <c r="G173" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5441,22 +5699,22 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D174" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="E174" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F174" t="s">
-        <v>354</v>
+        <v>400</v>
       </c>
       <c r="G174" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5464,22 +5722,22 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D175" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="E175" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F175" t="s">
-        <v>347</v>
+        <v>401</v>
       </c>
       <c r="G175" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5487,22 +5745,22 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C176" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D176" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="E176" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F176" t="s">
-        <v>355</v>
+        <v>402</v>
       </c>
       <c r="G176" t="s">
-        <v>357</v>
+        <v>443</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5510,22 +5768,1034 @@
         <v>16</v>
       </c>
       <c r="B177" t="s">
+        <v>40</v>
+      </c>
+      <c r="C177" t="s">
+        <v>41</v>
+      </c>
+      <c r="D177" t="s">
+        <v>197</v>
+      </c>
+      <c r="E177" t="s">
+        <v>41</v>
+      </c>
+      <c r="F177" t="s">
+        <v>403</v>
+      </c>
+      <c r="G177" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" t="s">
+        <v>17</v>
+      </c>
+      <c r="B178" t="s">
+        <v>19</v>
+      </c>
+      <c r="C178" t="s">
+        <v>41</v>
+      </c>
+      <c r="D178" t="s">
+        <v>198</v>
+      </c>
+      <c r="E178" t="s">
+        <v>41</v>
+      </c>
+      <c r="F178" t="s">
+        <v>404</v>
+      </c>
+      <c r="G178" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" t="s">
+        <v>17</v>
+      </c>
+      <c r="B179" t="s">
+        <v>20</v>
+      </c>
+      <c r="C179" t="s">
+        <v>41</v>
+      </c>
+      <c r="D179" t="s">
+        <v>199</v>
+      </c>
+      <c r="E179" t="s">
+        <v>41</v>
+      </c>
+      <c r="F179" t="s">
+        <v>405</v>
+      </c>
+      <c r="G179" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" t="s">
+        <v>17</v>
+      </c>
+      <c r="B180" t="s">
+        <v>21</v>
+      </c>
+      <c r="C180" t="s">
+        <v>41</v>
+      </c>
+      <c r="D180" t="s">
+        <v>200</v>
+      </c>
+      <c r="E180" t="s">
+        <v>41</v>
+      </c>
+      <c r="F180" t="s">
+        <v>406</v>
+      </c>
+      <c r="G180" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" t="s">
+        <v>17</v>
+      </c>
+      <c r="B181" t="s">
+        <v>22</v>
+      </c>
+      <c r="C181" t="s">
+        <v>41</v>
+      </c>
+      <c r="D181" t="s">
+        <v>201</v>
+      </c>
+      <c r="E181" t="s">
+        <v>42</v>
+      </c>
+      <c r="F181" t="s">
+        <v>407</v>
+      </c>
+      <c r="G181" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" t="s">
+        <v>17</v>
+      </c>
+      <c r="B182" t="s">
+        <v>23</v>
+      </c>
+      <c r="C182" t="s">
+        <v>41</v>
+      </c>
+      <c r="D182" t="s">
+        <v>202</v>
+      </c>
+      <c r="E182" t="s">
+        <v>41</v>
+      </c>
+      <c r="F182" t="s">
+        <v>408</v>
+      </c>
+      <c r="G182" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" t="s">
+        <v>17</v>
+      </c>
+      <c r="B183" t="s">
+        <v>24</v>
+      </c>
+      <c r="C183" t="s">
+        <v>41</v>
+      </c>
+      <c r="D183" t="s">
+        <v>203</v>
+      </c>
+      <c r="E183" t="s">
+        <v>41</v>
+      </c>
+      <c r="F183" t="s">
+        <v>409</v>
+      </c>
+      <c r="G183" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" t="s">
+        <v>17</v>
+      </c>
+      <c r="B184" t="s">
+        <v>25</v>
+      </c>
+      <c r="C184" t="s">
+        <v>42</v>
+      </c>
+      <c r="D184" t="s">
+        <v>48</v>
+      </c>
+      <c r="E184" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" t="s">
+        <v>240</v>
+      </c>
+      <c r="G184" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" t="s">
+        <v>26</v>
+      </c>
+      <c r="C185" t="s">
+        <v>42</v>
+      </c>
+      <c r="D185" t="s">
+        <v>48</v>
+      </c>
+      <c r="E185" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" t="s">
+        <v>410</v>
+      </c>
+      <c r="G185" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" t="s">
+        <v>17</v>
+      </c>
+      <c r="B186" t="s">
+        <v>27</v>
+      </c>
+      <c r="C186" t="s">
+        <v>42</v>
+      </c>
+      <c r="D186" t="s">
+        <v>48</v>
+      </c>
+      <c r="E186" t="s">
+        <v>42</v>
+      </c>
+      <c r="F186" t="s">
+        <v>411</v>
+      </c>
+      <c r="G186" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" t="s">
+        <v>17</v>
+      </c>
+      <c r="B187" t="s">
+        <v>28</v>
+      </c>
+      <c r="C187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>204</v>
+      </c>
+      <c r="E187" t="s">
+        <v>42</v>
+      </c>
+      <c r="F187" t="s">
+        <v>243</v>
+      </c>
+      <c r="G187" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" t="s">
+        <v>17</v>
+      </c>
+      <c r="B188" t="s">
+        <v>29</v>
+      </c>
+      <c r="C188" t="s">
+        <v>41</v>
+      </c>
+      <c r="D188" t="s">
+        <v>205</v>
+      </c>
+      <c r="E188" t="s">
+        <v>41</v>
+      </c>
+      <c r="F188" t="s">
+        <v>412</v>
+      </c>
+      <c r="G188" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" t="s">
+        <v>17</v>
+      </c>
+      <c r="B189" t="s">
+        <v>30</v>
+      </c>
+      <c r="C189" t="s">
+        <v>41</v>
+      </c>
+      <c r="D189" t="s">
+        <v>206</v>
+      </c>
+      <c r="E189" t="s">
+        <v>41</v>
+      </c>
+      <c r="F189" t="s">
+        <v>413</v>
+      </c>
+      <c r="G189" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" t="s">
+        <v>17</v>
+      </c>
+      <c r="B190" t="s">
+        <v>31</v>
+      </c>
+      <c r="C190" t="s">
+        <v>41</v>
+      </c>
+      <c r="D190" t="s">
+        <v>207</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" t="s">
+        <v>414</v>
+      </c>
+      <c r="G190" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" t="s">
+        <v>17</v>
+      </c>
+      <c r="B191" t="s">
+        <v>32</v>
+      </c>
+      <c r="C191" t="s">
+        <v>41</v>
+      </c>
+      <c r="D191" t="s">
+        <v>208</v>
+      </c>
+      <c r="E191" t="s">
+        <v>41</v>
+      </c>
+      <c r="F191" t="s">
+        <v>415</v>
+      </c>
+      <c r="G191" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" t="s">
+        <v>17</v>
+      </c>
+      <c r="B192" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" t="s">
+        <v>41</v>
+      </c>
+      <c r="D192" t="s">
+        <v>209</v>
+      </c>
+      <c r="E192" t="s">
+        <v>41</v>
+      </c>
+      <c r="F192" t="s">
+        <v>416</v>
+      </c>
+      <c r="G192" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" t="s">
+        <v>17</v>
+      </c>
+      <c r="B193" t="s">
+        <v>34</v>
+      </c>
+      <c r="C193" t="s">
+        <v>41</v>
+      </c>
+      <c r="D193" t="s">
+        <v>210</v>
+      </c>
+      <c r="E193" t="s">
+        <v>41</v>
+      </c>
+      <c r="F193" t="s">
+        <v>417</v>
+      </c>
+      <c r="G193" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" t="s">
+        <v>17</v>
+      </c>
+      <c r="B194" t="s">
+        <v>35</v>
+      </c>
+      <c r="C194" t="s">
+        <v>41</v>
+      </c>
+      <c r="D194" t="s">
+        <v>211</v>
+      </c>
+      <c r="E194" t="s">
+        <v>41</v>
+      </c>
+      <c r="F194" t="s">
+        <v>418</v>
+      </c>
+      <c r="G194" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" t="s">
+        <v>17</v>
+      </c>
+      <c r="B195" t="s">
+        <v>36</v>
+      </c>
+      <c r="C195" t="s">
+        <v>41</v>
+      </c>
+      <c r="D195" t="s">
+        <v>212</v>
+      </c>
+      <c r="E195" t="s">
+        <v>41</v>
+      </c>
+      <c r="F195" t="s">
+        <v>419</v>
+      </c>
+      <c r="G195" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" t="s">
+        <v>17</v>
+      </c>
+      <c r="B196" t="s">
+        <v>37</v>
+      </c>
+      <c r="C196" t="s">
+        <v>41</v>
+      </c>
+      <c r="D196" t="s">
+        <v>213</v>
+      </c>
+      <c r="E196" t="s">
+        <v>41</v>
+      </c>
+      <c r="F196" t="s">
+        <v>420</v>
+      </c>
+      <c r="G196" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7">
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" t="s">
         <v>38</v>
       </c>
-      <c r="C177" t="s">
+      <c r="C197" t="s">
+        <v>41</v>
+      </c>
+      <c r="D197" t="s">
+        <v>214</v>
+      </c>
+      <c r="E197" t="s">
+        <v>41</v>
+      </c>
+      <c r="F197" t="s">
+        <v>421</v>
+      </c>
+      <c r="G197" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" t="s">
+        <v>17</v>
+      </c>
+      <c r="B198" t="s">
         <v>39</v>
       </c>
-      <c r="D177" t="s">
-        <v>192</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="C198" t="s">
+        <v>41</v>
+      </c>
+      <c r="D198" t="s">
+        <v>215</v>
+      </c>
+      <c r="E198" t="s">
+        <v>41</v>
+      </c>
+      <c r="F198" t="s">
+        <v>422</v>
+      </c>
+      <c r="G198" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199" t="s">
+        <v>40</v>
+      </c>
+      <c r="C199" t="s">
+        <v>41</v>
+      </c>
+      <c r="D199" t="s">
+        <v>216</v>
+      </c>
+      <c r="E199" t="s">
+        <v>41</v>
+      </c>
+      <c r="F199" t="s">
+        <v>423</v>
+      </c>
+      <c r="G199" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" t="s">
+        <v>18</v>
+      </c>
+      <c r="B200" t="s">
+        <v>19</v>
+      </c>
+      <c r="C200" t="s">
+        <v>41</v>
+      </c>
+      <c r="D200" t="s">
+        <v>217</v>
+      </c>
+      <c r="E200" t="s">
+        <v>41</v>
+      </c>
+      <c r="F200" t="s">
+        <v>424</v>
+      </c>
+      <c r="G200" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" t="s">
+        <v>18</v>
+      </c>
+      <c r="B201" t="s">
+        <v>20</v>
+      </c>
+      <c r="C201" t="s">
+        <v>41</v>
+      </c>
+      <c r="D201" t="s">
+        <v>218</v>
+      </c>
+      <c r="E201" t="s">
+        <v>41</v>
+      </c>
+      <c r="F201" t="s">
+        <v>425</v>
+      </c>
+      <c r="G201" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" t="s">
+        <v>18</v>
+      </c>
+      <c r="B202" t="s">
+        <v>21</v>
+      </c>
+      <c r="C202" t="s">
+        <v>41</v>
+      </c>
+      <c r="D202" t="s">
+        <v>219</v>
+      </c>
+      <c r="E202" t="s">
+        <v>41</v>
+      </c>
+      <c r="F202" t="s">
+        <v>426</v>
+      </c>
+      <c r="G202" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" t="s">
+        <v>18</v>
+      </c>
+      <c r="B203" t="s">
+        <v>22</v>
+      </c>
+      <c r="C203" t="s">
+        <v>41</v>
+      </c>
+      <c r="D203" t="s">
+        <v>220</v>
+      </c>
+      <c r="E203" t="s">
+        <v>41</v>
+      </c>
+      <c r="F203" t="s">
+        <v>427</v>
+      </c>
+      <c r="G203" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" t="s">
+        <v>18</v>
+      </c>
+      <c r="B204" t="s">
+        <v>23</v>
+      </c>
+      <c r="C204" t="s">
+        <v>41</v>
+      </c>
+      <c r="D204" t="s">
+        <v>221</v>
+      </c>
+      <c r="E204" t="s">
+        <v>41</v>
+      </c>
+      <c r="F204" t="s">
+        <v>428</v>
+      </c>
+      <c r="G204" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" t="s">
+        <v>18</v>
+      </c>
+      <c r="B205" t="s">
+        <v>24</v>
+      </c>
+      <c r="C205" t="s">
+        <v>41</v>
+      </c>
+      <c r="D205" t="s">
+        <v>222</v>
+      </c>
+      <c r="E205" t="s">
+        <v>41</v>
+      </c>
+      <c r="F205" t="s">
+        <v>429</v>
+      </c>
+      <c r="G205" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" t="s">
+        <v>18</v>
+      </c>
+      <c r="B206" t="s">
+        <v>25</v>
+      </c>
+      <c r="C206" t="s">
+        <v>41</v>
+      </c>
+      <c r="D206" t="s">
+        <v>223</v>
+      </c>
+      <c r="E206" t="s">
+        <v>41</v>
+      </c>
+      <c r="F206" t="s">
+        <v>430</v>
+      </c>
+      <c r="G206" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" t="s">
+        <v>18</v>
+      </c>
+      <c r="B207" t="s">
+        <v>26</v>
+      </c>
+      <c r="C207" t="s">
+        <v>41</v>
+      </c>
+      <c r="D207" t="s">
+        <v>223</v>
+      </c>
+      <c r="E207" t="s">
+        <v>41</v>
+      </c>
+      <c r="F207" t="s">
+        <v>431</v>
+      </c>
+      <c r="G207" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" t="s">
+        <v>18</v>
+      </c>
+      <c r="B208" t="s">
+        <v>27</v>
+      </c>
+      <c r="C208" t="s">
+        <v>42</v>
+      </c>
+      <c r="D208" t="s">
+        <v>48</v>
+      </c>
+      <c r="E208" t="s">
+        <v>42</v>
+      </c>
+      <c r="F208" t="s">
+        <v>263</v>
+      </c>
+      <c r="G208" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" t="s">
+        <v>18</v>
+      </c>
+      <c r="B209" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" t="s">
+        <v>42</v>
+      </c>
+      <c r="D209" t="s">
+        <v>48</v>
+      </c>
+      <c r="E209" t="s">
+        <v>42</v>
+      </c>
+      <c r="F209" t="s">
+        <v>243</v>
+      </c>
+      <c r="G209" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" t="s">
+        <v>18</v>
+      </c>
+      <c r="B210" t="s">
+        <v>29</v>
+      </c>
+      <c r="C210" t="s">
+        <v>41</v>
+      </c>
+      <c r="D210" t="s">
+        <v>224</v>
+      </c>
+      <c r="E210" t="s">
+        <v>41</v>
+      </c>
+      <c r="F210" t="s">
+        <v>432</v>
+      </c>
+      <c r="G210" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" t="s">
+        <v>18</v>
+      </c>
+      <c r="B211" t="s">
+        <v>30</v>
+      </c>
+      <c r="C211" t="s">
+        <v>41</v>
+      </c>
+      <c r="D211" t="s">
+        <v>225</v>
+      </c>
+      <c r="E211" t="s">
+        <v>41</v>
+      </c>
+      <c r="F211" t="s">
+        <v>433</v>
+      </c>
+      <c r="G211" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7">
+      <c r="A212" t="s">
+        <v>18</v>
+      </c>
+      <c r="B212" t="s">
+        <v>31</v>
+      </c>
+      <c r="C212" t="s">
+        <v>41</v>
+      </c>
+      <c r="D212" t="s">
+        <v>226</v>
+      </c>
+      <c r="E212" t="s">
+        <v>41</v>
+      </c>
+      <c r="F212" t="s">
+        <v>434</v>
+      </c>
+      <c r="G212" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7">
+      <c r="A213" t="s">
+        <v>18</v>
+      </c>
+      <c r="B213" t="s">
+        <v>32</v>
+      </c>
+      <c r="C213" t="s">
+        <v>41</v>
+      </c>
+      <c r="D213" t="s">
+        <v>227</v>
+      </c>
+      <c r="E213" t="s">
+        <v>41</v>
+      </c>
+      <c r="F213" t="s">
+        <v>435</v>
+      </c>
+      <c r="G213" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7">
+      <c r="A214" t="s">
+        <v>18</v>
+      </c>
+      <c r="B214" t="s">
+        <v>33</v>
+      </c>
+      <c r="C214" t="s">
+        <v>41</v>
+      </c>
+      <c r="D214" t="s">
+        <v>228</v>
+      </c>
+      <c r="E214" t="s">
+        <v>41</v>
+      </c>
+      <c r="F214" t="s">
+        <v>436</v>
+      </c>
+      <c r="G214" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7">
+      <c r="A215" t="s">
+        <v>18</v>
+      </c>
+      <c r="B215" t="s">
+        <v>34</v>
+      </c>
+      <c r="C215" t="s">
+        <v>41</v>
+      </c>
+      <c r="D215" t="s">
+        <v>229</v>
+      </c>
+      <c r="E215" t="s">
+        <v>41</v>
+      </c>
+      <c r="F215" t="s">
+        <v>437</v>
+      </c>
+      <c r="G215" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7">
+      <c r="A216" t="s">
+        <v>18</v>
+      </c>
+      <c r="B216" t="s">
+        <v>35</v>
+      </c>
+      <c r="C216" t="s">
+        <v>41</v>
+      </c>
+      <c r="D216" t="s">
+        <v>230</v>
+      </c>
+      <c r="E216" t="s">
+        <v>41</v>
+      </c>
+      <c r="F216" t="s">
+        <v>438</v>
+      </c>
+      <c r="G216" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7">
+      <c r="A217" t="s">
+        <v>18</v>
+      </c>
+      <c r="B217" t="s">
+        <v>36</v>
+      </c>
+      <c r="C217" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" t="s">
+        <v>231</v>
+      </c>
+      <c r="E217" t="s">
+        <v>41</v>
+      </c>
+      <c r="F217" t="s">
+        <v>439</v>
+      </c>
+      <c r="G217" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7">
+      <c r="A218" t="s">
+        <v>18</v>
+      </c>
+      <c r="B218" t="s">
+        <v>37</v>
+      </c>
+      <c r="C218" t="s">
+        <v>41</v>
+      </c>
+      <c r="D218" t="s">
+        <v>232</v>
+      </c>
+      <c r="E218" t="s">
+        <v>41</v>
+      </c>
+      <c r="F218" t="s">
+        <v>440</v>
+      </c>
+      <c r="G218" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7">
+      <c r="A219" t="s">
+        <v>18</v>
+      </c>
+      <c r="B219" t="s">
+        <v>38</v>
+      </c>
+      <c r="C219" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" t="s">
+        <v>233</v>
+      </c>
+      <c r="E219" t="s">
+        <v>41</v>
+      </c>
+      <c r="F219" t="s">
+        <v>433</v>
+      </c>
+      <c r="G219" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7">
+      <c r="A220" t="s">
+        <v>18</v>
+      </c>
+      <c r="B220" t="s">
         <v>39</v>
       </c>
-      <c r="F177" t="s">
-        <v>356</v>
-      </c>
-      <c r="G177" t="s">
-        <v>357</v>
+      <c r="C220" t="s">
+        <v>41</v>
+      </c>
+      <c r="D220" t="s">
+        <v>234</v>
+      </c>
+      <c r="E220" t="s">
+        <v>41</v>
+      </c>
+      <c r="F220" t="s">
+        <v>441</v>
+      </c>
+      <c r="G220" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7">
+      <c r="A221" t="s">
+        <v>18</v>
+      </c>
+      <c r="B221" t="s">
+        <v>40</v>
+      </c>
+      <c r="C221" t="s">
+        <v>41</v>
+      </c>
+      <c r="D221" t="s">
+        <v>235</v>
+      </c>
+      <c r="E221" t="s">
+        <v>41</v>
+      </c>
+      <c r="F221" t="s">
+        <v>442</v>
+      </c>
+      <c r="G221" t="s">
+        <v>443</v>
       </c>
     </row>
   </sheetData>

--- a/data/6-performance/combined_data_new.xlsx
+++ b/data/6-performance/combined_data_new.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1549" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1703" uniqueCount="486">
   <si>
     <t>country</t>
   </si>
@@ -43,6 +43,9 @@
     <t>supporting_text_when_true_answer_is_yes_but_prediction_is_no</t>
   </si>
   <si>
+    <t>australia</t>
+  </si>
+  <si>
     <t>bangladesh</t>
   </si>
   <si>
@@ -145,6 +148,66 @@
     <t>no</t>
   </si>
   <si>
+    <t>['the 2020 Strategy and OHMAP emphasise the importance of tackling AMR through a One Health approach. This means working in a collaborative and coordinated manner across all levels of government and sectors.', 'The NAP addresses multiple priority sectors such as human health, animal health, environment, and agriculture/food security.', 'Create sustainable funding for combatting antimicrobial resistance based on evidence of economic and societal costs and benefits of different approaches in all sectors', 'Maintain and expand linkages and opportunities between stakeholders across all sectors to provide a nationally coordinated approach to combatting antimicrobial resistance', 'Maintain and expand linkages and opportunities between stakeholders across all sectors to provide a nationally coordinated approach to combatting antimicrobial resistance', 'PRIORITY AREAS 2.1 - 2.4 FOCUS AREAS 2.1.1 - 2.4.1', 'Adopt evidence-based and nationally consistent standards for infection prevention and control and biosecurity', 'Develop, implement and/or update national biosecurity and waste management standards and support resources and education for different animal and agricultural settings.', 'Work with key stakeholders in the major food- and fibre-producing animal industries to improve on-farm biosecurity measures so antimicrobial treatments are used appropriately.', 'Strengthen and assess the use of accreditation and/or quality assurance programs to better support the implementation of national biosecurity and/or IPC guidelines in the animal and human health sectors.', 'PRIORITY AREAS 3.1 - 3.4 FOCUS AREAS 3.1.1 - 3.4.5', 'Develop and implement a coordinated, One Health communication strategy, as well as monitoring and evaluation, to support whole-of-society awareness and behavioural change', 'Develop and implement a coordinated, One Health communication strategy, as well as monitoring and evaluation, to support whole-of-society awareness and behavioural change', 'Develop and implement a One Health communication strategy to raise awareness of the actions stakeholders can take to minimise the development and impacts of resistance.', 'Maintain and improve the One Health AMR website to ensure access to reliable and up-to-date information.', 'Drive education and training initiatives across all relevant sectors and increase accessibility to evidence-based best-practice information', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'PRIORITY AREAS 4.1 - 4.3 FOCUS AREAS 4.1.1 - 4.3.1', 'Develop and promote resources that support appropriate antimicrobial use for surgical prophylaxis and maintain consistency with national guidelines in human and animal health.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'PRIORITY AREAS 4.1 - 4.3 addresses multiple priority sectors including Agriculture, Animal Health, Environment, Food, and Human Health.', 'Build monitoring, auditing and feedback processes into existing frameworks across relevant sectors.', 'PRIORITY AREAS 5.1 - 5.4 FOCUS AREAS 5.1.1 - 5.4.2', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Develop a national surveillance plan, including the potential use of genomics, with sector-specific objectives to support the implementation of a national One Health surveillance system.', 'Develop and continue to improve mechanisms to provide and analyse data on antimicrobial resistance and usage across all sectors to the One Health surveillance system.', 'Improve understanding of antimicrobial use in all sectors to inform policy decision making.', 'Regularly review and promote the current list of priority organisms and associated antimicrobials for human and animal health surveillance and establish lists for other sectors as needed.', 'The NAP addresses multiple priority sectors including Agriculture, Animal Health, Environment, Food, and Human Health.', 'Set a flexible national antimicrobial resistance research and development agenda that strives for innovation', 'Improve the One Health AMR website as a national research and development hub that promotes stakeholder contribution, collaboration and coordination.', 'PRIORITY AREAS FOR ACTION 7.1 - 7.3 FOCUS AREAS 7.1.1 - 7.3.2', 'Develop curricula on antimicrobial resistance for use in low- and middle-income countries, with a One Health emphasis.', 'Develop curricula on antimicrobial resistance for use in low- and middle-income countries, with a One Health emphasis.', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Support food safety initiatives involving AMR in the South East Asia and Pacific regions, recognising the importance of cross border trade and zoonotic disease.', 'Support food safety initiatives involving AMR in the South East Asia and Pacific regions, recognising the importance of cross border trade and zoonotic disease.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.', 'One Health: The principle of applying a collaborative and coordinated effort across multiple sectors working locally, nationally and globally - to attain optimal health for people, animals and the environment.']</t>
+  </si>
+  <si>
+    <t>["The 2020 Strategy focuses on seven Objectives divided into Priority Areas for Action. This includes implementation partners developing 'short- to medium-term action plans' to show when and what they will do to tackle AMR.", 'Adopt evidence-based and nationally consistent standards for infection prevention and control and biosecurity', 'Strengthen national evidence-based and best practice infection prevention and control standards and supporting resources in clinical and community settings including general practice, dentistry, pharmacy, aged care, and rural and remote primary health care.', 'Strengthen national evidence-based and best practice infection prevention and control standards and supporting resources in clinical and community settings including general practice, dentistry, pharmacy, aged care, and rural and remote primary health care.', 'Update hospital and general practice accreditation standards to better support best practice IPC in human health and consider additional mechanisms to support and monitor compliance in this setting.', 'Strengthen and assess the use of accreditation and/or quality assurance programs to better support the implementation of national biosecurity and/or IPC guidelines in the animal and human health sectors.', 'Strengthen and assess the use of accreditation and/or quality assurance programs to better support the implementation of national biosecurity and/or IPC guidelines in the animal and human health sectors.', 'Promote disease prevention practices to reduce infections and subsequent use of antimicrobials', 'Improve awareness of the importance of IPC in reducing AMR.', 'Foster the development of vaccines and the uptake of vaccination as a preventative measure to assist reduction in antimicrobial use.', 'Improve health literacy in priority populations and relevant stakeholders for key infections.', 'Improve and promote the national hand hygiene approach to reduce healthcare-associated infections and AMR and expand principles to other settings.', 'Develop and implement a coordinated, One Health communication strategy, as well as monitoring and evaluation, to support whole-of-society awareness and behavioural change', 'Develop and implement a One Health communication strategy to raise awareness of the actions stakeholders can take to minimise the development and impacts of resistance.', "Increase health professionals' knowledge of antimicrobial stewardship in accordance with relevant national standards and policies.", "Increase health professionals' knowledge of antimicrobial stewardship in accordance with relevant national standards and policies.", 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'Ensure that coordinated, evidence-based antimicrobial prescribing guidelines and best-practice supports are developed and made easily available, and encourage their use by prescribers', 'Ensure that coordinated, evidence-based antimicrobial prescribing guidelines and best-practice supports are developed and made easily available, and encourage their use by prescribers', 'Develop and promote resources that support appropriate antimicrobial use for surgical prophylaxis and maintain consistency with national guidelines in human and animal health.', 'Develop and promote resources that support appropriate antimicrobial use for surgical prophylaxis and maintain consistency with national guidelines in human and animal health.', 'Ensure easy access to, and promotion of, current infection-specific guidelines that support informed antimicrobial prescribing across Australia.', 'Identify and address the enablers and barriers to the implementation of national standards in human health settings including aged care.', 'Identify and address the enablers and barriers to the implementation of national standards in human health settings including aged care.', 'Identify patterns of antimicrobial prescribing and provide feedback to prescribers to improve antimicrobial stewardship in all human and animal health settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Build monitoring, auditing and feedback processes into existing frameworks across relevant sectors.', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Develop a national surveillance plan, including the potential use of genomics, with sector-specific objectives to support the implementation of a national One Health surveillance system.', 'Regularly review and promote the current list of priority organisms and associated antimicrobials for human and animal health surveillance and establish lists for other sectors as needed.', 'Regularly review and promote the current list of priority organisms and associated antimicrobials for human and animal health surveillance', 'Set a flexible national antimicrobial resistance research and development agenda that strives for innovation', 'Develop curricula on antimicrobial resistance for use in low- and middle-income countries, with a One Health emphasis.']</t>
+  </si>
+  <si>
+    <t>['Develop, implement and/or update national biosecurity and waste management standards and support resources and education for different animal and agricultural settings.', 'Work with key stakeholders in the major food- and fibre-producing animal industries to improve on-farm biosecurity measures so antimicrobial treatments are used appropriately.', 'Work with key stakeholders in the major food- and fibre-producing animal industries to improve on-farm biosecurity measures so antimicrobial treatments are used appropriately.', 'Strengthen and assess the use of accreditation and/or quality assurance programs to better support the implementation of national biosecurity and/or IPC guidelines in the animal and human health sectors.', 'Strengthen and assess the use of accreditation and/or quality assurance programs to better support the implementation of national biosecurity and/or IPC guidelines in the animal and human health sectors.', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'Develop and promote resources that support appropriate antimicrobial use for surgical prophylaxis and maintain consistency with national guidelines in human and animal health.', 'Develop and promote resources that support appropriate antimicrobial use for surgical prophylaxis and maintain consistency with national guidelines in human and animal health.', 'Develop accreditation standards to better support adherence to antimicrobial stewardship across all animal settings, using existing practice and quality assurance frameworks where possible.', 'Develop accreditation standards to better support adherence to antimicrobial stewardship across all animal settings, using existing practice and quality assurance frameworks where possible.', 'Address barriers to improve selection and targeted use of antimicrobials in all animal settings.', 'Identify patterns of antimicrobial prescribing and provide feedback to prescribers to improve antimicrobial stewardship in all human and animal health settings.', 'Identify patterns of antimicrobial prescribing and provide feedback to prescribers to improve antimicrobial stewardship in all human and animal health settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Regularly review and promote the current list of priority organisms and associated antimicrobials for human and animal health surveillance and establish lists for other sectors as needed.', 'Regularly review and promote the current list of priority organisms and associated antimicrobials for human and animal health surveillance and establish lists for other sectors as needed.', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Contribute to the current knowledge and understanding of AMR in animal health in the South East Asia and Pacific regions.', 'Contribute to the current knowledge and understanding of AMR in animal health in the South East Asia and Pacific regions.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.']</t>
+  </si>
+  <si>
+    <t>['Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.']</t>
+  </si>
+  <si>
+    <t>['Develop, implement and/or update national biosecurity and waste management standards and support resources and education for different animal and agricultural settings.', 'Develop, implement and/or update national biosecurity and waste management standards and support resources and education for different animal and agricultural settings.', 'Work with key stakeholders in the major food- and fibre-producing animal industries to improve on-farm biosecurity measures so antimicrobial treatments are used appropriately.', 'Develop accreditation standards to better support adherence to antimicrobial stewardship across all animal settings, using existing practice and quality assurance frameworks where possible.', 'Develop accreditation standards to better support adherence to antimicrobial stewardship across all animal settings, using existing practice and quality assurance frameworks where possible.', 'Address barriers to improve selection and targeted use of antimicrobials in all animal settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Develop and implement jurisdictional-specific initiatives to support antimicrobial stewardship in human health, animal health, food and agriculture settings.', 'Improve understanding of the extent to which resistant bacteria are present in the food chain, the extent of transmission of resistant organisms, and the risk this may pose to human health.', 'Improve understanding of the extent to which resistant bacteria are present in the food chain, the extent of transmission of resistant organisms, and the risk this may pose to human health.', 'Contribute to the current knowledge and understanding of AMR in animal health in the South East Asia and Pacific regions.', 'Contribute to the current knowledge and understanding of AMR in animal health in the South East Asia and Pacific regions.', 'Support food safety initiatives involving AMR in the South East Asia and Pacific regions, recognising the importance of cross border trade and zoonotic disease.', 'Support food safety initiatives involving AMR in the South East Asia and Pacific regions, recognising the importance of cross border trade and zoonotic disease.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.']</t>
+  </si>
+  <si>
+    <t>['Publish national reports on AMR and antimicrobial usage to contribute to the evidence-base for measuring economic and societal costs and benefits.', 'Publish national reports on AMR and antimicrobial usage to contribute to the evidence-base for measuring economic and societal costs and benefits.', 'Develop accountable and transparent sector-specific action plans with stakeholders, including monitoring and evaluation frameworks.']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Create sustainable funding for combatting antimicrobial resistance based on evidence of economic and societal costs and benefits of different approaches in all sectors', 'Create sustainable funding for combatting antimicrobial resistance based on evidence of economic and societal costs and benefits of different approaches in all sectors', 'Seek and maintain dedicated funding for the national research and development agenda, including private and public investment partnerships', 'Seek and maintain dedicated funding for the national research and development agenda, including private and public investment partnerships']</t>
+  </si>
+  <si>
+    <t>['Create sustainable funding for combatting antimicrobial resistance based on evidence of economic and societal costs and benefits of different approaches in all sectors']</t>
+  </si>
+  <si>
+    <t>['Review, strengthen and consider broadening AMR governance structures across all sectors and settings and ensure all relevant stakeholders are engaged.', 'Monitor and review regulatory measures (legislated and other) relevant to antimicrobial usage and resistance', 'Seek opportunities to strengthen regulation to more effectively limit the emergence and spread of resistance.', 'Maximise compliance with best practice infection prevention and control and biosecurity measures through adherence to applicable legislation, targets and accreditation standards', 'Maximise compliance with best practice infection prevention and control and biosecurity measures through adherence to applicable legislation, targets and accreditation standards', 'Strengthen appropriate authority, restriction and access arrangements for antimicrobials.', 'Promote the importance of antimicrobial resistance in the South East Asia and Pacific regions, and engage in related initiatives to build regulatory and other capacity']</t>
+  </si>
+  <si>
+    <t>['Drive education and training initiatives across all relevant sectors and increase accessibility to evidence-based best-practice information', 'Drive education and training initiatives across all relevant sectors and increase accessibility to evidence-based best-practice information', 'Strengthen education and training initiatives to improve knowledge about AMR and develop resources that promote and support appropriate prescribing, use and disposal of antimicrobials across all sectors.', 'Strengthen education and training initiatives to improve knowledge about AMR and develop resources that promote and support appropriate prescribing, use and disposal of antimicrobials across all sectors.', 'Ensure curriculum outcomes and competencies for antimicrobial resistance antimicrobial stewardship and infection prevention and control/biosecurity are emphasised and current in undergraduate and post-graduate training for professionals across all sectors.', 'Develop curricula on antimicrobial resistance for use in low- and middle-income countries, with a One Health emphasis.', 'Develop curricula on antimicrobial resistance for use in low- and middle-income countries, with a One Health emphasis.']</t>
+  </si>
+  <si>
+    <t>['Improve awareness of the importance of IPC in reducing AMR.', 'Develop and implement a coordinated, One Health communication strategy, as well as monitoring and evaluation, to support whole-of-society awareness and behavioural change', 'Develop and implement a coordinated, One Health communication strategy, as well as monitoring and evaluation, to support whole-of-society awareness and behavioural change', 'Develop and implement a One Health communication strategy to raise awareness of the actions stakeholders can take to minimise the development and impacts of resistance.', 'Strengthen public and political awareness to champion and improve the understanding of combatting antimicrobial resistance', 'Improve audience reach and engagement through traditional, social and innovative media platforms.', 'Improve audience reach and engagement through traditional, social and innovative media platforms.', 'Create new and different key antimicrobial resistance messages that resonate with society', 'Create new and different key antimicrobial resistance messages that resonate with society']</t>
+  </si>
+  <si>
+    <t>['7 Strengthen global collaboration and partnerships', 'Influence the global antimicrobial resistance agenda by active engagement and collaboration with other countries, multilateral organisations and forums', 'Influence the global antimicrobial resistance agenda by active engagement and collaboration with other countries, multilateral organisations and forums', 'Participate in and contribute to the implementation of the World Health Organization (WHO) Global Action Plan on AMR.', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Leverage international relationships to collaborate and coordinate on research and development and improve national best practices.', 'Support food safety initiatives involving AMR in the South East Asia and Pacific regions, recognising the importance of cross border trade and zoonotic disease.', 'Assist in the development of AMR strategies, tools and resources in the South East Asia and Pacific regions.', 'Participate in international surveillance and monitoring initiatives', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.']</t>
+  </si>
+  <si>
+    <t>['5 Integrated surveillance and response to resistance and usage', 'Publish national reports on AMR and antimicrobial usage to contribute to the evidence-base for measuring economic and societal costs and benefits.', 'Publish national reports on AMR and antimicrobial usage to contribute to the evidence-base for measuring economic and societal costs and benefits.', 'Build monitoring, auditing and feedback processes into existing frameworks across relevant sectors.', 'Build a strong evidence base to improve and promote antimicrobial stewardship practices across relevant sectors.', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Develop a national surveillance plan, including the potential use of genomics, with sector-specific objectives to support the implementation of a national One Health surveillance system.', 'Develop and continue to improve mechanisms to provide and analyse data on antimicrobial resistance and usage across all sectors to the One Health surveillance system.', 'Regularly review and promote the current list of priority organisms and associated antimicrobials for human and animal health surveillance and establish lists for other sectors as needed.', 'National alignment of laboratory testing practices and reporting for antimicrobial resistance', 'Develop, promote, harmonise and monitor national consistency in antimicrobial susceptibility testing and reporting to improve data comparability within and between sectors.', 'Develop, promote, harmonise and monitor national consistency in antimicrobial susceptibility testing and reporting to improve data comparability within and between sectors.', 'Establish national coordination of surveillance and response to the emergence, and outbreaks, of multi-resistant organisms.', 'Explore capability for real-time collection, analysis and reporting of antimicrobial resistance and use across all sectors.', 'Support capacity building for diagnosis, reporting and response to AMR pathogens.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.']</t>
+  </si>
+  <si>
+    <t>['5 Integrated surveillance and response to resistance and usage', 'Develop and/or improve national resources and capabilities to respond to novel and emerging IPC and AMR needs across all sectors, including inter-jurisdictional opportunities for learning within sectors.', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Create a sustainably funded national One Health surveillance system that integrates human, animal, food and environmental usage and resistance data', 'Develop a national surveillance plan, including the potential use of genomics, with sector-specific objectives to support the implementation of a national One Health surveillance system.', 'Establish national coordination of surveillance and response to the emergence, and outbreaks, of multi-resistant organisms.', 'Establish national coordination of surveillance and response to the emergence, and outbreaks, of multi-resistant organisms.', 'Support capacity building for diagnosis, reporting and response to AMR pathogens.', 'Support capacity building for diagnosis, reporting and response to AMR pathogens.', 'Develop and enhance cross-border capacity to track emergence and spread of resistance internationally, with support for genomic-based diagnostic capacity in the South East Asian and Pacific regions.']</t>
+  </si>
+  <si>
+    <t>['The 2020 Strategy focuses on 7 OBJECTIVES. - 2 Prevention and control of infections and the spread of resistance', 'Adopt evidence-based and nationally consistent standards for infection prevention and control and biosecurity', 'Adopt evidence-based and nationally consistent standards for infection prevention and control and biosecurity', 'Strengthen national evidence-based and best practice infection prevention and control standards and supporting resources in clinical and community settings including general practice, dentistry, pharmacy, aged care, and rural and remote primary health care.', 'Strengthen national evidence-based and best practice infection prevention and control standards and supporting resources in clinical and community settings including general practice, dentistry, pharmacy, aged care, and rural and remote primary health care.', 'Maximise compliance with best practice infection prevention and control and biosecurity measures through adherence to applicable legislation, targets and accreditation standards', 'Maximise compliance with best practice infection prevention and control and biosecurity measures through adherence to applicable legislation, targets and accreditation standards', 'Strengthen and assess the use of accreditation and/or quality assurance programs to better support the implementation of national biosecurity and/or IPC guidelines in the animal and human health sectors.', 'Improve awareness of the importance of IPC in reducing AMR.', 'Improve awareness of the importance of IPC in reducing AMR.', 'Improve and promote the national hand hygiene approach to reduce healthcare-associated infections and AMR and expand principles to other settings.', 'Improve and promote the national hand hygiene approach to reduce healthcare-associated infections and AMR and expand principles to other settings.', 'Develop and/or improve national resources and capabilities to respond to novel and emerging IPC and AMR needs across all sectors, including inter-jurisdictional opportunities for learning within sectors.', 'Ensure curriculum outcomes and competencies for antimicrobial resistance antimicrobial stewardship and infection prevention and control/biosecurity are emphasised and current in undergraduate and post-graduate training for professionals across all sectors.', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.', 'Facilitate access to, and dissemination of, national infection prevention and control/biosecurity guidelines for human and animal health through various platforms including the One Health AMR website.']</t>
+  </si>
+  <si>
+    <t>['Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Participate in WHO, World Organisation for Animal Health, Food and Agriculture Organization of the United Nations, United Nations Environment Programme, Codex and other high-level and technical international forums to enhance global antimicrobial resistance policies and initiatives.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.', 'Contribute to global antimicrobial resistance surveillance and antimicrobial usage monitoring activities such as Global Antimicrobial Resistance Surveillance System; and initiatives of the Food and Agriculture Organization of the United Nations and World Organisation for Animal Health.']</t>
+  </si>
+  <si>
+    <t>['Monitor and review regulatory measures (legislated and other) relevant to antimicrobial usage and resistance', 'Ensure that coordinated, evidence-based antimicrobial prescribing guidelines and best-practice supports are developed and made easily available, and encourage their use by prescribers', 'Strengthen appropriate authority, restriction and access arrangements for antimicrobials.', 'Develop and regularly review lists of priority organisms and associated antimicrobials for human and animal health surveillance and establish lists for other sectors as needed.']</t>
+  </si>
+  <si>
+    <t>['4 Appropriate usage and stewardship practices', 'Monitor and review regulatory measures (legislated and other) relevant to antimicrobial usage and resistance', 'Seek opportunities to strengthen regulation to more effectively limit the emergence and spread of resistance.', 'Work with key stakeholders in the major food- and fibre-producing animal industries to improve on-farm biosecurity measures so antimicrobial treatments are used appropriately.', 'Work with key stakeholders in the major food- and fibre-producing animal industries to improve on-farm biosecurity measures so antimicrobial treatments are used appropriately.', 'Maximise compliance with best practice infection prevention and control and biosecurity measures through adherence to applicable legislation, targets and accreditation standards', 'Ensure that coordinated, evidence-based antimicrobial prescribing guidelines and best-practice supports are developed and made easily available, and encourage their use by prescribers', 'Develop and implement effective mechanisms to monitor, reward and enforce compliance with standards and best-practice approaches for appropriate and judicious antimicrobial use', 'Develop and implement effective mechanisms to monitor, reward and enforce compliance with standards and best-practice approaches for appropriate and judicious antimicrobial use', 'Develop accreditation standards to better support adherence to antimicrobial stewardship across all animal settings, using existing practice and quality assurance frameworks where possible.', 'Strengthen appropriate authority, restriction and access arrangements for antimicrobials.']</t>
+  </si>
+  <si>
+    <t>['6 A strong collaborative research agenda across all sectors', 'Coordinate and share research and development activities', 'Improve the One Health AMR website as a national research and development hub that promotes stakeholder contribution, collaboration and coordination.', 'Explore opportunities to increase cross-disciplinary initiatives on AMR research.', 'Influence the global antimicrobial resistance agenda by active engagement and collaboration with other countries, multilateral organisations and forums', 'Influence the global antimicrobial resistance agenda by active engagement and collaboration with other countries, multilateral organisations and forums', 'Leverage international relationships to collaborate and coordinate on research and development and improve national best practices.', 'Leverage international relationships to collaborate and coordinate on research and development and improve national best practices.']</t>
+  </si>
+  <si>
     <t>["to institute a coherent, comprehensive and integrated national approach to combat AMR and sixteen other activities by signing to a charter of activities named as the 'Jaipur Declaration'. The other important areas in the Jaipur Declaration includes development of national antibiotic policy and formulation of multisectoral national alliance against AMR for multisectoral approach for regulation of use of antimicrobial agents.", 'Since AMR is a multi-faceted problem, conduction of activities in well-coordinated manner through One Health approach is very important. Involvement of multi-sectoral stakeholders was ensured by formulating different national level committees with representation from multisectoral stake holders including interministrial National Steering Committee (NSC), headed by honourable Minister for MoHFW, National Technical Committee (NTC) headed by Director General of Health Services.', 'Promote and strengthen infection prevention and control (IPC) measures in both human and animal health sectors to minimize emergence and spread of AMT']</t>
   </si>
   <si>
@@ -160,9 +223,6 @@
     <t>['(v) to reduce the use of antimicrobials in food-animal production.', 'To promote and ensure rational use of antimicrobial agents in human health, livestock and fisheries sectors;']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['National Technical Committee: It is the highest multisectoral and multidisciplinary executive technical body at directorate level headed by Director General of Health Service and Director, Disease Control, DGHS as member secretary. Representatives from Drug Administration, Livestock and Fisheries directorate, high officials of DGHS, leaders of professional bodies of different disciplines and executives of UN organizations have been included in this committee.', 'the formulation of multisectoral national alliance against AMR for multisectoral approach for regulation of use of antimicrobial agents', 'Involvement of multi-sectoral stakeholders was ensured by formulating different national level committees with representation from multisectoral stake holders including interministrial National Steering Committee (NSC), headed by honourable Minister for MoHFW, National Technical Committee (NTC) headed by Director General of Health Services.']</t>
   </si>
   <si>
@@ -722,6 +782,72 @@
   </si>
   <si>
     <t>['Sweden to take part in international research cooperation in the field of antibiotic resistance and related areas', 'The importance of international cooperation and coordination in the area of research is highlighted under Objective 4 in the present strategy.', 'Sweden was also one of the initiators of the international research cooperation Joint Programming Initiative on Antimicrobial Resistance (JPIAMR) that was launched in 2010.']</t>
+  </si>
+  <si>
+    <t>The NAP emphasises the importance of tackling AMR through a One Health approach.</t>
+  </si>
+  <si>
+    <t>The NAP includes specific actions in the human health sector, including infection prevention and control standards.</t>
+  </si>
+  <si>
+    <t>The NAP includes specific actions targeting animal health, such as improving on-farm biosecurity measures.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions related to environmental standards and biosecurity.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions aimed at improving agricultural practices and biosecurity measures.</t>
+  </si>
+  <si>
+    <t>The NAP mentions the need for monitoring and evaluation frameworks to assess progress.</t>
+  </si>
+  <si>
+    <t>The document does not specify time-bound targets.</t>
+  </si>
+  <si>
+    <t>The NAP does not provide specific quantitative targets for AMR prevalence.</t>
+  </si>
+  <si>
+    <t>The NAP does not mention specific budget allocations.</t>
+  </si>
+  <si>
+    <t>The document does not assess future budget requirements.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes maintaining linkages and opportunities between stakeholders across all sectors.</t>
+  </si>
+  <si>
+    <t>The NAP includes monitoring and reviewing regulatory measures relevant to antimicrobial usage.</t>
+  </si>
+  <si>
+    <t>The NAP includes strategies to drive education and training initiatives across all relevant sectors.</t>
+  </si>
+  <si>
+    <t>The NAP includes a coordinated communication strategy to support awareness and behavioural change.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes participation in international forums and collaboration with global organizations.</t>
+  </si>
+  <si>
+    <t>The NAP includes creating a national One Health surveillance system that integrates data across sectors.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to improve understanding of antimicrobial resistance and its implications.</t>
+  </si>
+  <si>
+    <t>The NAP includes strategies for infection prevention and control across various health settings.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to align with international standards for AMR control.</t>
+  </si>
+  <si>
+    <t>The NAP includes actions to strengthen regulation of antimicrobial usage.</t>
+  </si>
+  <si>
+    <t>The NAP emphasizes the need for appropriate usage and stewardship practices.</t>
+  </si>
+  <si>
+    <t>The NAP includes a strong collaborative research agenda across all sectors.</t>
   </si>
   <si>
     <t>The NAP was developed based on the national strategy covering almost all the areas recommended by the WHO and other relevant global agencies, ensuring a multi-sectoral approach.</t>
@@ -1703,7 +1829,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I221"/>
+  <dimension ref="A1:I243"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1743,22 +1869,22 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F2" t="s">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="G2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1766,22 +1892,22 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>257</v>
       </c>
       <c r="G3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1789,22 +1915,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>258</v>
       </c>
       <c r="G4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1812,22 +1938,22 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F5" t="s">
-        <v>238</v>
+        <v>259</v>
       </c>
       <c r="G5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1835,22 +1961,22 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F6" t="s">
-        <v>237</v>
+        <v>260</v>
       </c>
       <c r="G6" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -1858,19 +1984,19 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E7" t="s">
         <v>42</v>
       </c>
       <c r="F7" t="s">
-        <v>239</v>
+        <v>261</v>
       </c>
       <c r="G7" t="s">
         <v>42</v>
@@ -1881,22 +2007,22 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="G8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1904,22 +2030,22 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>241</v>
+        <v>263</v>
       </c>
       <c r="G9" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -1927,19 +2053,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C10" t="s">
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>242</v>
+        <v>264</v>
       </c>
       <c r="G10" t="s">
         <v>42</v>
@@ -1950,19 +2076,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>243</v>
+        <v>265</v>
       </c>
       <c r="G11" t="s">
         <v>42</v>
@@ -1973,22 +2099,22 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F12" t="s">
-        <v>244</v>
+        <v>266</v>
       </c>
       <c r="G12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -1996,22 +2122,22 @@
         <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="E13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F13" t="s">
-        <v>245</v>
+        <v>267</v>
       </c>
       <c r="G13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -2019,22 +2145,22 @@
         <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
-        <v>246</v>
+        <v>268</v>
       </c>
       <c r="G14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2042,22 +2168,22 @@
         <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F15" t="s">
-        <v>247</v>
+        <v>269</v>
       </c>
       <c r="G15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2065,22 +2191,22 @@
         <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D16" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="E16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F16" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="G16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2088,22 +2214,22 @@
         <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F17" t="s">
-        <v>249</v>
+        <v>271</v>
       </c>
       <c r="G17" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2111,19 +2237,19 @@
         <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D18" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="E18" t="s">
         <v>42</v>
       </c>
       <c r="F18" t="s">
-        <v>250</v>
+        <v>272</v>
       </c>
       <c r="G18" t="s">
         <v>42</v>
@@ -2134,22 +2260,22 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
-        <v>251</v>
+        <v>273</v>
       </c>
       <c r="G19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2157,19 +2283,19 @@
         <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
         <v>42</v>
       </c>
       <c r="D20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
       <c r="F20" t="s">
-        <v>252</v>
+        <v>274</v>
       </c>
       <c r="G20" t="s">
         <v>42</v>
@@ -2180,22 +2306,22 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F21" t="s">
-        <v>253</v>
+        <v>275</v>
       </c>
       <c r="G21" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2203,22 +2329,22 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F22" t="s">
-        <v>237</v>
+        <v>276</v>
       </c>
       <c r="G22" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2226,19 +2352,19 @@
         <v>9</v>
       </c>
       <c r="B23" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C23" t="s">
         <v>42</v>
       </c>
       <c r="D23" t="s">
-        <v>48</v>
+        <v>63</v>
       </c>
       <c r="E23" t="s">
         <v>42</v>
       </c>
       <c r="F23" t="s">
-        <v>254</v>
+        <v>277</v>
       </c>
       <c r="G23" t="s">
         <v>42</v>
@@ -2249,22 +2375,22 @@
         <v>10</v>
       </c>
       <c r="B24" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D24" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F24" t="s">
-        <v>255</v>
+        <v>278</v>
       </c>
       <c r="G24" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2272,22 +2398,22 @@
         <v>10</v>
       </c>
       <c r="B25" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="E25" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F25" t="s">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="G25" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2295,22 +2421,22 @@
         <v>10</v>
       </c>
       <c r="B26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D26" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="E26" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
       <c r="G26" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2318,22 +2444,22 @@
         <v>10</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E27" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F27" t="s">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="G27" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2341,22 +2467,22 @@
         <v>10</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="G28" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2364,22 +2490,22 @@
         <v>10</v>
       </c>
       <c r="B29" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>64</v>
+        <v>50</v>
       </c>
       <c r="E29" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>260</v>
+        <v>281</v>
       </c>
       <c r="G29" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2387,22 +2513,22 @@
         <v>10</v>
       </c>
       <c r="B30" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="E30" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="G30" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2410,22 +2536,22 @@
         <v>10</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>66</v>
+        <v>50</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>262</v>
+        <v>283</v>
       </c>
       <c r="G31" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2433,22 +2559,22 @@
         <v>10</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D32" t="s">
-        <v>67</v>
+        <v>50</v>
       </c>
       <c r="E32" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="G32" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2456,22 +2582,22 @@
         <v>10</v>
       </c>
       <c r="B33" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D33" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="G33" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2479,22 +2605,22 @@
         <v>10</v>
       </c>
       <c r="B34" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E34" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F34" t="s">
-        <v>264</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2502,22 +2628,22 @@
         <v>10</v>
       </c>
       <c r="B35" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E35" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>265</v>
+        <v>287</v>
       </c>
       <c r="G35" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2525,22 +2651,22 @@
         <v>10</v>
       </c>
       <c r="B36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E36" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F36" t="s">
-        <v>266</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2548,22 +2674,22 @@
         <v>10</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E37" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F37" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="G37" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2571,22 +2697,22 @@
         <v>10</v>
       </c>
       <c r="B38" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F38" t="s">
-        <v>268</v>
+        <v>290</v>
       </c>
       <c r="G38" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2594,22 +2720,22 @@
         <v>10</v>
       </c>
       <c r="B39" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F39" t="s">
-        <v>269</v>
+        <v>291</v>
       </c>
       <c r="G39" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2617,22 +2743,22 @@
         <v>10</v>
       </c>
       <c r="B40" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C40" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E40" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>270</v>
+        <v>292</v>
       </c>
       <c r="G40" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2640,22 +2766,22 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D41" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E41" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F41" t="s">
-        <v>271</v>
+        <v>293</v>
       </c>
       <c r="G41" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2663,22 +2789,22 @@
         <v>10</v>
       </c>
       <c r="B42" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D42" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E42" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>272</v>
+        <v>294</v>
       </c>
       <c r="G42" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2686,22 +2812,22 @@
         <v>10</v>
       </c>
       <c r="B43" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D43" t="s">
         <v>77</v>
       </c>
       <c r="E43" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F43" t="s">
-        <v>265</v>
+        <v>295</v>
       </c>
       <c r="G43" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2709,22 +2835,22 @@
         <v>10</v>
       </c>
       <c r="B44" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D44" t="s">
         <v>78</v>
       </c>
       <c r="E44" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F44" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G44" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2732,22 +2858,22 @@
         <v>10</v>
       </c>
       <c r="B45" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D45" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E45" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>274</v>
+        <v>296</v>
       </c>
       <c r="G45" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2755,22 +2881,22 @@
         <v>11</v>
       </c>
       <c r="B46" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E46" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" t="s">
-        <v>275</v>
+        <v>297</v>
       </c>
       <c r="G46" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2778,22 +2904,22 @@
         <v>11</v>
       </c>
       <c r="B47" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E47" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F47" t="s">
-        <v>276</v>
+        <v>298</v>
       </c>
       <c r="G47" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2801,22 +2927,22 @@
         <v>11</v>
       </c>
       <c r="B48" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E48" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F48" t="s">
-        <v>277</v>
+        <v>299</v>
       </c>
       <c r="G48" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2824,22 +2950,22 @@
         <v>11</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D49" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E49" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F49" t="s">
-        <v>278</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2847,22 +2973,22 @@
         <v>11</v>
       </c>
       <c r="B50" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E50" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F50" t="s">
-        <v>279</v>
+        <v>301</v>
       </c>
       <c r="G50" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2870,22 +2996,22 @@
         <v>11</v>
       </c>
       <c r="B51" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D51" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E51" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F51" t="s">
-        <v>280</v>
+        <v>302</v>
       </c>
       <c r="G51" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2893,22 +3019,22 @@
         <v>11</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C52" t="s">
         <v>42</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>85</v>
       </c>
       <c r="E52" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F52" t="s">
-        <v>281</v>
+        <v>303</v>
       </c>
       <c r="G52" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2916,22 +3042,22 @@
         <v>11</v>
       </c>
       <c r="B53" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D53" t="s">
         <v>86</v>
       </c>
       <c r="E53" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F53" t="s">
-        <v>282</v>
+        <v>304</v>
       </c>
       <c r="G53" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2939,22 +3065,22 @@
         <v>11</v>
       </c>
       <c r="B54" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C54" t="s">
         <v>42</v>
       </c>
       <c r="D54" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="E54" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>283</v>
+        <v>305</v>
       </c>
       <c r="G54" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2962,22 +3088,22 @@
         <v>11</v>
       </c>
       <c r="B55" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D55" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E55" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G55" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2985,22 +3111,22 @@
         <v>11</v>
       </c>
       <c r="B56" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D56" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="E56" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F56" t="s">
-        <v>285</v>
+        <v>306</v>
       </c>
       <c r="G56" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -3008,22 +3134,22 @@
         <v>11</v>
       </c>
       <c r="B57" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D57" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="E57" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F57" t="s">
-        <v>286</v>
+        <v>307</v>
       </c>
       <c r="G57" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -3031,22 +3157,22 @@
         <v>11</v>
       </c>
       <c r="B58" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D58" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="E58" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F58" t="s">
-        <v>287</v>
+        <v>308</v>
       </c>
       <c r="G58" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -3054,22 +3180,22 @@
         <v>11</v>
       </c>
       <c r="B59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D59" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E59" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>288</v>
+        <v>309</v>
       </c>
       <c r="G59" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -3077,22 +3203,22 @@
         <v>11</v>
       </c>
       <c r="B60" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D60" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="E60" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F60" t="s">
-        <v>289</v>
+        <v>310</v>
       </c>
       <c r="G60" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -3100,22 +3226,22 @@
         <v>11</v>
       </c>
       <c r="B61" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D61" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E61" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F61" t="s">
-        <v>290</v>
+        <v>311</v>
       </c>
       <c r="G61" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -3123,22 +3249,22 @@
         <v>11</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D62" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E62" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F62" t="s">
-        <v>291</v>
+        <v>312</v>
       </c>
       <c r="G62" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -3146,22 +3272,22 @@
         <v>11</v>
       </c>
       <c r="B63" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D63" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E63" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F63" t="s">
-        <v>292</v>
+        <v>313</v>
       </c>
       <c r="G63" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -3169,22 +3295,22 @@
         <v>11</v>
       </c>
       <c r="B64" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D64" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="E64" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F64" t="s">
-        <v>293</v>
+        <v>314</v>
       </c>
       <c r="G64" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -3192,22 +3318,22 @@
         <v>11</v>
       </c>
       <c r="B65" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D65" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="E65" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F65" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="G65" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -3215,22 +3341,22 @@
         <v>11</v>
       </c>
       <c r="B66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="E66" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="G66" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -3238,22 +3364,22 @@
         <v>11</v>
       </c>
       <c r="B67" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D67" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E67" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F67" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="G67" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -3261,22 +3387,22 @@
         <v>12</v>
       </c>
       <c r="B68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D68" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E68" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F68" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="G68" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -3284,22 +3410,22 @@
         <v>12</v>
       </c>
       <c r="B69" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E69" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F69" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="G69" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -3307,22 +3433,22 @@
         <v>12</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E70" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="G70" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -3330,22 +3456,22 @@
         <v>12</v>
       </c>
       <c r="B71" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E71" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F71" t="s">
-        <v>300</v>
+        <v>320</v>
       </c>
       <c r="G71" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -3353,22 +3479,22 @@
         <v>12</v>
       </c>
       <c r="B72" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D72" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F72" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -3376,22 +3502,22 @@
         <v>12</v>
       </c>
       <c r="B73" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D73" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="G73" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -3399,22 +3525,22 @@
         <v>12</v>
       </c>
       <c r="B74" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C74" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D74" t="s">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="E74" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F74" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
       <c r="G74" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -3422,22 +3548,22 @@
         <v>12</v>
       </c>
       <c r="B75" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D75" t="s">
         <v>106</v>
       </c>
       <c r="E75" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F75" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="G75" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -3445,22 +3571,22 @@
         <v>12</v>
       </c>
       <c r="B76" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E76" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="G76" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -3468,22 +3594,22 @@
         <v>12</v>
       </c>
       <c r="B77" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D77" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="E77" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="G77" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -3491,22 +3617,22 @@
         <v>12</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D78" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E78" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="G78" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -3514,22 +3640,22 @@
         <v>12</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F79" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
       <c r="G79" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3537,22 +3663,22 @@
         <v>12</v>
       </c>
       <c r="B80" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E80" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F80" t="s">
-        <v>309</v>
+        <v>329</v>
       </c>
       <c r="G80" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3560,22 +3686,22 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E81" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F81" t="s">
-        <v>310</v>
+        <v>330</v>
       </c>
       <c r="G81" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3583,22 +3709,22 @@
         <v>12</v>
       </c>
       <c r="B82" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E82" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F82" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="G82" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3606,22 +3732,22 @@
         <v>12</v>
       </c>
       <c r="B83" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F83" t="s">
-        <v>312</v>
+        <v>332</v>
       </c>
       <c r="G83" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3629,22 +3755,22 @@
         <v>12</v>
       </c>
       <c r="B84" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E84" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>313</v>
+        <v>333</v>
       </c>
       <c r="G84" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3652,22 +3778,22 @@
         <v>12</v>
       </c>
       <c r="B85" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E85" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="G85" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3675,22 +3801,22 @@
         <v>12</v>
       </c>
       <c r="B86" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C86" t="s">
         <v>42</v>
       </c>
       <c r="D86" t="s">
-        <v>48</v>
+        <v>115</v>
       </c>
       <c r="E86" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F86" t="s">
-        <v>315</v>
+        <v>335</v>
       </c>
       <c r="G86" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3698,22 +3824,22 @@
         <v>12</v>
       </c>
       <c r="B87" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E87" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F87" t="s">
-        <v>316</v>
+        <v>336</v>
       </c>
       <c r="G87" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3721,22 +3847,22 @@
         <v>12</v>
       </c>
       <c r="B88" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D88" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E88" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>317</v>
+        <v>337</v>
       </c>
       <c r="G88" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3744,22 +3870,22 @@
         <v>12</v>
       </c>
       <c r="B89" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E89" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G89" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3767,22 +3893,22 @@
         <v>13</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F90" t="s">
-        <v>319</v>
+        <v>339</v>
       </c>
       <c r="G90" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3790,22 +3916,22 @@
         <v>13</v>
       </c>
       <c r="B91" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F91" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="G91" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3813,22 +3939,22 @@
         <v>13</v>
       </c>
       <c r="B92" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F92" t="s">
-        <v>321</v>
+        <v>341</v>
       </c>
       <c r="G92" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3836,22 +3962,22 @@
         <v>13</v>
       </c>
       <c r="B93" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D93" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F93" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="G93" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3859,22 +3985,22 @@
         <v>13</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D94" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>323</v>
+        <v>343</v>
       </c>
       <c r="G94" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3882,22 +4008,22 @@
         <v>13</v>
       </c>
       <c r="B95" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>324</v>
+        <v>344</v>
       </c>
       <c r="G95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3905,22 +4031,22 @@
         <v>13</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D96" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F96" t="s">
-        <v>325</v>
+        <v>345</v>
       </c>
       <c r="G96" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3928,19 +4054,19 @@
         <v>13</v>
       </c>
       <c r="B97" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D97" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E97" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F97" t="s">
-        <v>326</v>
+        <v>346</v>
       </c>
       <c r="G97" t="s">
         <v>42</v>
@@ -3951,19 +4077,19 @@
         <v>13</v>
       </c>
       <c r="B98" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C98" t="s">
         <v>42</v>
       </c>
       <c r="D98" t="s">
-        <v>48</v>
+        <v>127</v>
       </c>
       <c r="E98" t="s">
         <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>327</v>
+        <v>347</v>
       </c>
       <c r="G98" t="s">
         <v>42</v>
@@ -3974,22 +4100,22 @@
         <v>13</v>
       </c>
       <c r="B99" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C99" t="s">
         <v>42</v>
       </c>
       <c r="D99" t="s">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="E99" t="s">
         <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>328</v>
+        <v>348</v>
       </c>
       <c r="G99" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3997,22 +4123,22 @@
         <v>13</v>
       </c>
       <c r="B100" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D100" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
-        <v>329</v>
+        <v>349</v>
       </c>
       <c r="G100" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -4020,22 +4146,22 @@
         <v>13</v>
       </c>
       <c r="B101" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
-        <v>330</v>
+        <v>350</v>
       </c>
       <c r="G101" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -4043,22 +4169,22 @@
         <v>13</v>
       </c>
       <c r="B102" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F102" t="s">
-        <v>331</v>
+        <v>351</v>
       </c>
       <c r="G102" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -4066,22 +4192,22 @@
         <v>13</v>
       </c>
       <c r="B103" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D103" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F103" t="s">
-        <v>332</v>
+        <v>352</v>
       </c>
       <c r="G103" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -4089,22 +4215,22 @@
         <v>13</v>
       </c>
       <c r="B104" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D104" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F104" t="s">
-        <v>333</v>
+        <v>353</v>
       </c>
       <c r="G104" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -4112,22 +4238,22 @@
         <v>13</v>
       </c>
       <c r="B105" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D105" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F105" t="s">
-        <v>334</v>
+        <v>354</v>
       </c>
       <c r="G105" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -4135,22 +4261,22 @@
         <v>13</v>
       </c>
       <c r="B106" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F106" t="s">
-        <v>335</v>
+        <v>355</v>
       </c>
       <c r="G106" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -4158,22 +4284,22 @@
         <v>13</v>
       </c>
       <c r="B107" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D107" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F107" t="s">
-        <v>336</v>
+        <v>356</v>
       </c>
       <c r="G107" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -4181,22 +4307,22 @@
         <v>13</v>
       </c>
       <c r="B108" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D108" t="s">
-        <v>136</v>
+        <v>50</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F108" t="s">
-        <v>337</v>
+        <v>357</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -4204,22 +4330,22 @@
         <v>13</v>
       </c>
       <c r="B109" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D109" t="s">
         <v>137</v>
       </c>
       <c r="E109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F109" t="s">
-        <v>338</v>
+        <v>358</v>
       </c>
       <c r="G109" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -4227,22 +4353,22 @@
         <v>13</v>
       </c>
       <c r="B110" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D110" t="s">
         <v>138</v>
       </c>
       <c r="E110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F110" t="s">
-        <v>339</v>
+        <v>359</v>
       </c>
       <c r="G110" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -4250,22 +4376,22 @@
         <v>13</v>
       </c>
       <c r="B111" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D111" t="s">
         <v>139</v>
       </c>
       <c r="E111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="G111" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -4273,22 +4399,22 @@
         <v>14</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D112" t="s">
         <v>140</v>
       </c>
       <c r="E112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>341</v>
+        <v>361</v>
       </c>
       <c r="G112" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -4296,22 +4422,22 @@
         <v>14</v>
       </c>
       <c r="B113" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D113" t="s">
         <v>141</v>
       </c>
       <c r="E113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F113" t="s">
-        <v>342</v>
+        <v>362</v>
       </c>
       <c r="G113" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -4319,22 +4445,22 @@
         <v>14</v>
       </c>
       <c r="B114" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D114" t="s">
         <v>142</v>
       </c>
       <c r="E114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F114" t="s">
-        <v>343</v>
+        <v>363</v>
       </c>
       <c r="G114" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -4342,22 +4468,22 @@
         <v>14</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D115" t="s">
         <v>143</v>
       </c>
       <c r="E115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F115" t="s">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="G115" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -4365,22 +4491,22 @@
         <v>14</v>
       </c>
       <c r="B116" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D116" t="s">
         <v>144</v>
       </c>
       <c r="E116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F116" t="s">
-        <v>345</v>
+        <v>365</v>
       </c>
       <c r="G116" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -4388,22 +4514,22 @@
         <v>14</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D117" t="s">
         <v>145</v>
       </c>
       <c r="E117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F117" t="s">
-        <v>346</v>
+        <v>366</v>
       </c>
       <c r="G117" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -4411,22 +4537,22 @@
         <v>14</v>
       </c>
       <c r="B118" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D118" t="s">
         <v>146</v>
       </c>
       <c r="E118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F118" t="s">
-        <v>347</v>
+        <v>367</v>
       </c>
       <c r="G118" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -4434,22 +4560,22 @@
         <v>14</v>
       </c>
       <c r="B119" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C119" t="s">
         <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>48</v>
+        <v>147</v>
       </c>
       <c r="E119" t="s">
         <v>42</v>
       </c>
       <c r="F119" t="s">
-        <v>348</v>
+        <v>368</v>
       </c>
       <c r="G119" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -4457,22 +4583,22 @@
         <v>14</v>
       </c>
       <c r="B120" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C120" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D120" t="s">
-        <v>147</v>
+        <v>50</v>
       </c>
       <c r="E120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F120" t="s">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="G120" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -4480,22 +4606,22 @@
         <v>14</v>
       </c>
       <c r="B121" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C121" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D121" t="s">
-        <v>148</v>
+        <v>50</v>
       </c>
       <c r="E121" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F121" t="s">
-        <v>243</v>
+        <v>370</v>
       </c>
       <c r="G121" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -4503,22 +4629,22 @@
         <v>14</v>
       </c>
       <c r="B122" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D122" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F122" t="s">
-        <v>350</v>
+        <v>371</v>
       </c>
       <c r="G122" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4526,22 +4652,22 @@
         <v>14</v>
       </c>
       <c r="B123" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D123" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>351</v>
+        <v>372</v>
       </c>
       <c r="G123" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4549,22 +4675,22 @@
         <v>14</v>
       </c>
       <c r="B124" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D124" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F124" t="s">
-        <v>352</v>
+        <v>373</v>
       </c>
       <c r="G124" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4572,22 +4698,22 @@
         <v>14</v>
       </c>
       <c r="B125" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D125" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F125" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="G125" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4595,22 +4721,22 @@
         <v>14</v>
       </c>
       <c r="B126" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F126" t="s">
-        <v>354</v>
+        <v>375</v>
       </c>
       <c r="G126" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4618,22 +4744,22 @@
         <v>14</v>
       </c>
       <c r="B127" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D127" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>355</v>
+        <v>376</v>
       </c>
       <c r="G127" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4641,22 +4767,22 @@
         <v>14</v>
       </c>
       <c r="B128" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D128" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>356</v>
+        <v>377</v>
       </c>
       <c r="G128" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4664,22 +4790,22 @@
         <v>14</v>
       </c>
       <c r="B129" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D129" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F129" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="G129" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4687,22 +4813,22 @@
         <v>14</v>
       </c>
       <c r="B130" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F130" t="s">
-        <v>358</v>
+        <v>379</v>
       </c>
       <c r="G130" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4710,22 +4836,22 @@
         <v>14</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D131" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F131" t="s">
-        <v>359</v>
+        <v>380</v>
       </c>
       <c r="G131" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4733,22 +4859,22 @@
         <v>14</v>
       </c>
       <c r="B132" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D132" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F132" t="s">
-        <v>360</v>
+        <v>381</v>
       </c>
       <c r="G132" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4756,22 +4882,22 @@
         <v>14</v>
       </c>
       <c r="B133" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D133" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F133" t="s">
-        <v>361</v>
+        <v>382</v>
       </c>
       <c r="G133" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4779,22 +4905,22 @@
         <v>15</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D134" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E134" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F134" t="s">
-        <v>362</v>
+        <v>383</v>
       </c>
       <c r="G134" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4802,22 +4928,22 @@
         <v>15</v>
       </c>
       <c r="B135" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D135" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E135" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F135" t="s">
-        <v>363</v>
+        <v>384</v>
       </c>
       <c r="G135" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4825,22 +4951,22 @@
         <v>15</v>
       </c>
       <c r="B136" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D136" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E136" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F136" t="s">
-        <v>364</v>
+        <v>385</v>
       </c>
       <c r="G136" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4848,22 +4974,22 @@
         <v>15</v>
       </c>
       <c r="B137" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D137" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E137" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F137" t="s">
-        <v>365</v>
+        <v>386</v>
       </c>
       <c r="G137" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4871,22 +4997,22 @@
         <v>15</v>
       </c>
       <c r="B138" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D138" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E138" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F138" t="s">
-        <v>366</v>
+        <v>387</v>
       </c>
       <c r="G138" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4894,22 +5020,22 @@
         <v>15</v>
       </c>
       <c r="B139" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D139" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E139" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F139" t="s">
-        <v>367</v>
+        <v>388</v>
       </c>
       <c r="G139" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4917,22 +5043,22 @@
         <v>15</v>
       </c>
       <c r="B140" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D140" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E140" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F140" t="s">
-        <v>368</v>
+        <v>389</v>
       </c>
       <c r="G140" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4940,22 +5066,22 @@
         <v>15</v>
       </c>
       <c r="B141" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D141" t="s">
-        <v>168</v>
+        <v>50</v>
       </c>
       <c r="E141" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F141" t="s">
-        <v>369</v>
+        <v>390</v>
       </c>
       <c r="G141" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4963,22 +5089,22 @@
         <v>15</v>
       </c>
       <c r="B142" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C142" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D142" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E142" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F142" t="s">
-        <v>263</v>
+        <v>391</v>
       </c>
       <c r="G142" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4986,22 +5112,22 @@
         <v>15</v>
       </c>
       <c r="B143" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C143" t="s">
         <v>42</v>
       </c>
       <c r="D143" t="s">
-        <v>48</v>
+        <v>168</v>
       </c>
       <c r="E143" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F143" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="G143" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -5009,22 +5135,22 @@
         <v>15</v>
       </c>
       <c r="B144" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C144" t="s">
         <v>42</v>
       </c>
       <c r="D144" t="s">
-        <v>48</v>
+        <v>169</v>
       </c>
       <c r="E144" t="s">
         <v>42</v>
       </c>
       <c r="F144" t="s">
-        <v>370</v>
+        <v>392</v>
       </c>
       <c r="G144" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -5032,22 +5158,22 @@
         <v>15</v>
       </c>
       <c r="B145" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D145" t="s">
         <v>170</v>
       </c>
       <c r="E145" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F145" t="s">
-        <v>371</v>
+        <v>393</v>
       </c>
       <c r="G145" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -5055,22 +5181,22 @@
         <v>15</v>
       </c>
       <c r="B146" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C146" t="s">
         <v>42</v>
       </c>
       <c r="D146" t="s">
-        <v>48</v>
+        <v>171</v>
       </c>
       <c r="E146" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F146" t="s">
-        <v>372</v>
+        <v>394</v>
       </c>
       <c r="G146" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -5078,22 +5204,22 @@
         <v>15</v>
       </c>
       <c r="B147" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D147" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E147" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F147" t="s">
-        <v>373</v>
+        <v>395</v>
       </c>
       <c r="G147" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -5101,22 +5227,22 @@
         <v>15</v>
       </c>
       <c r="B148" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D148" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E148" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F148" t="s">
-        <v>374</v>
+        <v>396</v>
       </c>
       <c r="G148" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -5124,22 +5250,22 @@
         <v>15</v>
       </c>
       <c r="B149" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D149" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E149" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F149" t="s">
-        <v>375</v>
+        <v>397</v>
       </c>
       <c r="G149" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -5147,22 +5273,22 @@
         <v>15</v>
       </c>
       <c r="B150" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D150" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E150" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F150" t="s">
-        <v>376</v>
+        <v>398</v>
       </c>
       <c r="G150" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -5170,22 +5296,22 @@
         <v>15</v>
       </c>
       <c r="B151" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D151" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E151" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F151" t="s">
-        <v>377</v>
+        <v>399</v>
       </c>
       <c r="G151" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -5193,22 +5319,22 @@
         <v>15</v>
       </c>
       <c r="B152" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D152" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E152" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F152" t="s">
-        <v>378</v>
+        <v>400</v>
       </c>
       <c r="G152" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -5216,22 +5342,22 @@
         <v>15</v>
       </c>
       <c r="B153" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
         <v>42</v>
       </c>
       <c r="D153" t="s">
-        <v>48</v>
+        <v>178</v>
       </c>
       <c r="E153" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F153" t="s">
-        <v>379</v>
+        <v>401</v>
       </c>
       <c r="G153" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -5239,22 +5365,22 @@
         <v>15</v>
       </c>
       <c r="B154" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D154" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E154" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F154" t="s">
-        <v>380</v>
+        <v>402</v>
       </c>
       <c r="G154" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -5262,22 +5388,22 @@
         <v>15</v>
       </c>
       <c r="B155" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D155" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E155" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F155" t="s">
-        <v>381</v>
+        <v>403</v>
       </c>
       <c r="G155" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -5285,22 +5411,22 @@
         <v>16</v>
       </c>
       <c r="B156" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E156" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F156" t="s">
-        <v>382</v>
+        <v>404</v>
       </c>
       <c r="G156" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -5308,22 +5434,22 @@
         <v>16</v>
       </c>
       <c r="B157" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D157" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E157" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F157" t="s">
-        <v>383</v>
+        <v>405</v>
       </c>
       <c r="G157" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -5331,22 +5457,22 @@
         <v>16</v>
       </c>
       <c r="B158" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D158" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E158" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F158" t="s">
-        <v>384</v>
+        <v>406</v>
       </c>
       <c r="G158" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -5354,22 +5480,22 @@
         <v>16</v>
       </c>
       <c r="B159" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D159" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E159" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F159" t="s">
-        <v>385</v>
+        <v>407</v>
       </c>
       <c r="G159" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -5377,22 +5503,22 @@
         <v>16</v>
       </c>
       <c r="B160" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D160" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E160" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F160" t="s">
-        <v>386</v>
+        <v>408</v>
       </c>
       <c r="G160" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -5400,22 +5526,22 @@
         <v>16</v>
       </c>
       <c r="B161" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D161" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E161" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
-        <v>387</v>
+        <v>409</v>
       </c>
       <c r="G161" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -5423,22 +5549,22 @@
         <v>16</v>
       </c>
       <c r="B162" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D162" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E162" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F162" t="s">
-        <v>388</v>
+        <v>410</v>
       </c>
       <c r="G162" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -5446,22 +5572,22 @@
         <v>16</v>
       </c>
       <c r="B163" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D163" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E163" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F163" t="s">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="G163" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -5469,22 +5595,22 @@
         <v>16</v>
       </c>
       <c r="B164" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
         <v>42</v>
       </c>
       <c r="D164" t="s">
-        <v>48</v>
+        <v>189</v>
       </c>
       <c r="E164" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F164" t="s">
-        <v>390</v>
+        <v>305</v>
       </c>
       <c r="G164" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -5492,22 +5618,22 @@
         <v>16</v>
       </c>
       <c r="B165" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D165" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E165" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F165" t="s">
-        <v>391</v>
+        <v>285</v>
       </c>
       <c r="G165" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -5515,22 +5641,22 @@
         <v>16</v>
       </c>
       <c r="B166" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D166" t="s">
-        <v>187</v>
+        <v>50</v>
       </c>
       <c r="E166" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F166" t="s">
-        <v>392</v>
+        <v>412</v>
       </c>
       <c r="G166" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5538,22 +5664,22 @@
         <v>16</v>
       </c>
       <c r="B167" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D167" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E167" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F167" t="s">
-        <v>393</v>
+        <v>413</v>
       </c>
       <c r="G167" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5561,22 +5687,22 @@
         <v>16</v>
       </c>
       <c r="B168" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C168" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D168" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E168" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F168" t="s">
-        <v>394</v>
+        <v>414</v>
       </c>
       <c r="G168" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5584,22 +5710,22 @@
         <v>16</v>
       </c>
       <c r="B169" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D169" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E169" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F169" t="s">
-        <v>395</v>
+        <v>415</v>
       </c>
       <c r="G169" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5607,22 +5733,22 @@
         <v>16</v>
       </c>
       <c r="B170" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D170" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E170" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F170" t="s">
-        <v>396</v>
+        <v>416</v>
       </c>
       <c r="G170" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5630,22 +5756,22 @@
         <v>16</v>
       </c>
       <c r="B171" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D171" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E171" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F171" t="s">
-        <v>397</v>
+        <v>417</v>
       </c>
       <c r="G171" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5653,22 +5779,22 @@
         <v>16</v>
       </c>
       <c r="B172" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D172" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E172" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F172" t="s">
-        <v>398</v>
+        <v>418</v>
       </c>
       <c r="G172" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5676,22 +5802,22 @@
         <v>16</v>
       </c>
       <c r="B173" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D173" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E173" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F173" t="s">
-        <v>399</v>
+        <v>419</v>
       </c>
       <c r="G173" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5699,22 +5825,22 @@
         <v>16</v>
       </c>
       <c r="B174" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D174" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E174" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F174" t="s">
-        <v>400</v>
+        <v>420</v>
       </c>
       <c r="G174" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5722,22 +5848,22 @@
         <v>16</v>
       </c>
       <c r="B175" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C175" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D175" t="s">
-        <v>195</v>
+        <v>50</v>
       </c>
       <c r="E175" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F175" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
       <c r="G175" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5745,22 +5871,22 @@
         <v>16</v>
       </c>
       <c r="B176" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D176" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="E176" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F176" t="s">
-        <v>402</v>
+        <v>422</v>
       </c>
       <c r="G176" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5768,22 +5894,22 @@
         <v>16</v>
       </c>
       <c r="B177" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D177" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E177" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F177" t="s">
-        <v>403</v>
+        <v>423</v>
       </c>
       <c r="G177" t="s">
-        <v>443</v>
+        <v>485</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5791,22 +5917,22 @@
         <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D178" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E178" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F178" t="s">
-        <v>404</v>
+        <v>424</v>
       </c>
       <c r="G178" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5814,22 +5940,22 @@
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D179" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E179" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F179" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
       <c r="G179" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5837,22 +5963,22 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D180" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E180" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F180" t="s">
-        <v>406</v>
+        <v>426</v>
       </c>
       <c r="G180" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5860,22 +5986,22 @@
         <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C181" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D181" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="E181" t="s">
         <v>42</v>
       </c>
       <c r="F181" t="s">
-        <v>407</v>
+        <v>427</v>
       </c>
       <c r="G181" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5883,22 +6009,22 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D182" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E182" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F182" t="s">
-        <v>408</v>
+        <v>428</v>
       </c>
       <c r="G182" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5906,22 +6032,22 @@
         <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D183" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E183" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F183" t="s">
-        <v>409</v>
+        <v>429</v>
       </c>
       <c r="G183" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5929,22 +6055,22 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C184" t="s">
         <v>42</v>
       </c>
       <c r="D184" t="s">
-        <v>48</v>
+        <v>205</v>
       </c>
       <c r="E184" t="s">
         <v>42</v>
       </c>
       <c r="F184" t="s">
-        <v>240</v>
+        <v>430</v>
       </c>
       <c r="G184" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5952,22 +6078,22 @@
         <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C185" t="s">
         <v>42</v>
       </c>
       <c r="D185" t="s">
-        <v>48</v>
+        <v>206</v>
       </c>
       <c r="E185" t="s">
         <v>42</v>
       </c>
       <c r="F185" t="s">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="G185" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5975,22 +6101,22 @@
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D186" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E186" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F186" t="s">
-        <v>411</v>
+        <v>432</v>
       </c>
       <c r="G186" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5998,22 +6124,22 @@
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C187" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D187" t="s">
-        <v>204</v>
+        <v>50</v>
       </c>
       <c r="E187" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F187" t="s">
-        <v>243</v>
+        <v>433</v>
       </c>
       <c r="G187" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -6021,22 +6147,22 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D188" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E188" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F188" t="s">
-        <v>412</v>
+        <v>434</v>
       </c>
       <c r="G188" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -6044,22 +6170,22 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D189" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E189" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F189" t="s">
-        <v>413</v>
+        <v>435</v>
       </c>
       <c r="G189" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -6067,22 +6193,22 @@
         <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C190" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D190" t="s">
-        <v>207</v>
+        <v>50</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F190" t="s">
-        <v>414</v>
+        <v>436</v>
       </c>
       <c r="G190" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -6090,22 +6216,22 @@
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D191" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="E191" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F191" t="s">
-        <v>415</v>
+        <v>437</v>
       </c>
       <c r="G191" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -6113,22 +6239,22 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D192" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="E192" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F192" t="s">
-        <v>416</v>
+        <v>438</v>
       </c>
       <c r="G192" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -6136,22 +6262,22 @@
         <v>17</v>
       </c>
       <c r="B193" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D193" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E193" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F193" t="s">
-        <v>417</v>
+        <v>439</v>
       </c>
       <c r="G193" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -6159,22 +6285,22 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D194" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="E194" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F194" t="s">
-        <v>418</v>
+        <v>440</v>
       </c>
       <c r="G194" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -6182,22 +6308,22 @@
         <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D195" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="E195" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F195" t="s">
-        <v>419</v>
+        <v>441</v>
       </c>
       <c r="G195" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -6205,22 +6331,22 @@
         <v>17</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D196" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="E196" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F196" t="s">
-        <v>420</v>
+        <v>442</v>
       </c>
       <c r="G196" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -6228,22 +6354,22 @@
         <v>17</v>
       </c>
       <c r="B197" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D197" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E197" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F197" t="s">
-        <v>421</v>
+        <v>443</v>
       </c>
       <c r="G197" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -6251,22 +6377,22 @@
         <v>17</v>
       </c>
       <c r="B198" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D198" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E198" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F198" t="s">
-        <v>422</v>
+        <v>444</v>
       </c>
       <c r="G198" t="s">
-        <v>41</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -6274,22 +6400,22 @@
         <v>17</v>
       </c>
       <c r="B199" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D199" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="E199" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F199" t="s">
-        <v>423</v>
+        <v>445</v>
       </c>
       <c r="G199" t="s">
-        <v>42</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -6297,22 +6423,22 @@
         <v>18</v>
       </c>
       <c r="B200" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D200" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="E200" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F200" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="G200" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -6320,22 +6446,22 @@
         <v>18</v>
       </c>
       <c r="B201" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C201" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D201" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E201" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F201" t="s">
-        <v>425</v>
+        <v>447</v>
       </c>
       <c r="G201" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -6343,22 +6469,22 @@
         <v>18</v>
       </c>
       <c r="B202" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D202" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E202" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F202" t="s">
-        <v>426</v>
+        <v>448</v>
       </c>
       <c r="G202" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -6366,22 +6492,22 @@
         <v>18</v>
       </c>
       <c r="B203" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C203" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D203" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="E203" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F203" t="s">
-        <v>427</v>
+        <v>449</v>
       </c>
       <c r="G203" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -6389,22 +6515,22 @@
         <v>18</v>
       </c>
       <c r="B204" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D204" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="E204" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F204" t="s">
-        <v>428</v>
+        <v>450</v>
       </c>
       <c r="G204" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -6412,22 +6538,22 @@
         <v>18</v>
       </c>
       <c r="B205" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D205" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E205" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F205" t="s">
-        <v>429</v>
+        <v>451</v>
       </c>
       <c r="G205" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -6435,22 +6561,22 @@
         <v>18</v>
       </c>
       <c r="B206" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D206" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="E206" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F206" t="s">
-        <v>430</v>
+        <v>282</v>
       </c>
       <c r="G206" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -6458,22 +6584,22 @@
         <v>18</v>
       </c>
       <c r="B207" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C207" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D207" t="s">
-        <v>223</v>
+        <v>50</v>
       </c>
       <c r="E207" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F207" t="s">
-        <v>431</v>
+        <v>452</v>
       </c>
       <c r="G207" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -6481,22 +6607,22 @@
         <v>18</v>
       </c>
       <c r="B208" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D208" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E208" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F208" t="s">
-        <v>263</v>
+        <v>453</v>
       </c>
       <c r="G208" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -6504,22 +6630,22 @@
         <v>18</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C209" t="s">
         <v>42</v>
       </c>
       <c r="D209" t="s">
-        <v>48</v>
+        <v>224</v>
       </c>
       <c r="E209" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F209" t="s">
-        <v>243</v>
+        <v>285</v>
       </c>
       <c r="G209" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6527,22 +6653,22 @@
         <v>18</v>
       </c>
       <c r="B210" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D210" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="E210" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F210" t="s">
-        <v>432</v>
+        <v>454</v>
       </c>
       <c r="G210" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6550,22 +6676,22 @@
         <v>18</v>
       </c>
       <c r="B211" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D211" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="E211" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F211" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="G211" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6573,22 +6699,22 @@
         <v>18</v>
       </c>
       <c r="B212" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D212" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E212" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F212" t="s">
-        <v>434</v>
+        <v>456</v>
       </c>
       <c r="G212" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6596,22 +6722,22 @@
         <v>18</v>
       </c>
       <c r="B213" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D213" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="E213" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F213" t="s">
-        <v>435</v>
+        <v>457</v>
       </c>
       <c r="G213" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6619,22 +6745,22 @@
         <v>18</v>
       </c>
       <c r="B214" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D214" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E214" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F214" t="s">
-        <v>436</v>
+        <v>458</v>
       </c>
       <c r="G214" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6642,22 +6768,22 @@
         <v>18</v>
       </c>
       <c r="B215" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D215" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E215" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F215" t="s">
-        <v>437</v>
+        <v>459</v>
       </c>
       <c r="G215" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6665,22 +6791,22 @@
         <v>18</v>
       </c>
       <c r="B216" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D216" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E216" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F216" t="s">
-        <v>438</v>
+        <v>460</v>
       </c>
       <c r="G216" t="s">
-        <v>443</v>
+        <v>43</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6688,22 +6814,22 @@
         <v>18</v>
       </c>
       <c r="B217" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D217" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E217" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F217" t="s">
-        <v>439</v>
+        <v>461</v>
       </c>
       <c r="G217" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6711,22 +6837,22 @@
         <v>18</v>
       </c>
       <c r="B218" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D218" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E218" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F218" t="s">
-        <v>440</v>
+        <v>462</v>
       </c>
       <c r="G218" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6734,22 +6860,22 @@
         <v>18</v>
       </c>
       <c r="B219" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D219" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="E219" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F219" t="s">
-        <v>433</v>
+        <v>463</v>
       </c>
       <c r="G219" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6757,22 +6883,22 @@
         <v>18</v>
       </c>
       <c r="B220" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D220" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E220" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F220" t="s">
-        <v>441</v>
+        <v>464</v>
       </c>
       <c r="G220" t="s">
-        <v>443</v>
+        <v>42</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6780,22 +6906,528 @@
         <v>18</v>
       </c>
       <c r="B221" t="s">
+        <v>41</v>
+      </c>
+      <c r="C221" t="s">
+        <v>42</v>
+      </c>
+      <c r="D221" t="s">
+        <v>236</v>
+      </c>
+      <c r="E221" t="s">
+        <v>42</v>
+      </c>
+      <c r="F221" t="s">
+        <v>465</v>
+      </c>
+      <c r="G221" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7">
+      <c r="A222" t="s">
+        <v>19</v>
+      </c>
+      <c r="B222" t="s">
+        <v>20</v>
+      </c>
+      <c r="C222" t="s">
+        <v>42</v>
+      </c>
+      <c r="D222" t="s">
+        <v>237</v>
+      </c>
+      <c r="E222" t="s">
+        <v>42</v>
+      </c>
+      <c r="F222" t="s">
+        <v>466</v>
+      </c>
+      <c r="G222" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7">
+      <c r="A223" t="s">
+        <v>19</v>
+      </c>
+      <c r="B223" t="s">
+        <v>21</v>
+      </c>
+      <c r="C223" t="s">
+        <v>42</v>
+      </c>
+      <c r="D223" t="s">
+        <v>238</v>
+      </c>
+      <c r="E223" t="s">
+        <v>42</v>
+      </c>
+      <c r="F223" t="s">
+        <v>467</v>
+      </c>
+      <c r="G223" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7">
+      <c r="A224" t="s">
+        <v>19</v>
+      </c>
+      <c r="B224" t="s">
+        <v>22</v>
+      </c>
+      <c r="C224" t="s">
+        <v>42</v>
+      </c>
+      <c r="D224" t="s">
+        <v>239</v>
+      </c>
+      <c r="E224" t="s">
+        <v>42</v>
+      </c>
+      <c r="F224" t="s">
+        <v>468</v>
+      </c>
+      <c r="G224" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7">
+      <c r="A225" t="s">
+        <v>19</v>
+      </c>
+      <c r="B225" t="s">
+        <v>23</v>
+      </c>
+      <c r="C225" t="s">
+        <v>42</v>
+      </c>
+      <c r="D225" t="s">
+        <v>240</v>
+      </c>
+      <c r="E225" t="s">
+        <v>42</v>
+      </c>
+      <c r="F225" t="s">
+        <v>469</v>
+      </c>
+      <c r="G225" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7">
+      <c r="A226" t="s">
+        <v>19</v>
+      </c>
+      <c r="B226" t="s">
+        <v>24</v>
+      </c>
+      <c r="C226" t="s">
+        <v>42</v>
+      </c>
+      <c r="D226" t="s">
+        <v>241</v>
+      </c>
+      <c r="E226" t="s">
+        <v>42</v>
+      </c>
+      <c r="F226" t="s">
+        <v>470</v>
+      </c>
+      <c r="G226" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7">
+      <c r="A227" t="s">
+        <v>19</v>
+      </c>
+      <c r="B227" t="s">
+        <v>25</v>
+      </c>
+      <c r="C227" t="s">
+        <v>42</v>
+      </c>
+      <c r="D227" t="s">
+        <v>242</v>
+      </c>
+      <c r="E227" t="s">
+        <v>42</v>
+      </c>
+      <c r="F227" t="s">
+        <v>471</v>
+      </c>
+      <c r="G227" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7">
+      <c r="A228" t="s">
+        <v>19</v>
+      </c>
+      <c r="B228" t="s">
+        <v>26</v>
+      </c>
+      <c r="C228" t="s">
+        <v>42</v>
+      </c>
+      <c r="D228" t="s">
+        <v>243</v>
+      </c>
+      <c r="E228" t="s">
+        <v>42</v>
+      </c>
+      <c r="F228" t="s">
+        <v>472</v>
+      </c>
+      <c r="G228" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7">
+      <c r="A229" t="s">
+        <v>19</v>
+      </c>
+      <c r="B229" t="s">
+        <v>27</v>
+      </c>
+      <c r="C229" t="s">
+        <v>42</v>
+      </c>
+      <c r="D229" t="s">
+        <v>243</v>
+      </c>
+      <c r="E229" t="s">
+        <v>42</v>
+      </c>
+      <c r="F229" t="s">
+        <v>473</v>
+      </c>
+      <c r="G229" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7">
+      <c r="A230" t="s">
+        <v>19</v>
+      </c>
+      <c r="B230" t="s">
+        <v>28</v>
+      </c>
+      <c r="C230" t="s">
+        <v>43</v>
+      </c>
+      <c r="D230" t="s">
+        <v>50</v>
+      </c>
+      <c r="E230" t="s">
+        <v>43</v>
+      </c>
+      <c r="F230" t="s">
+        <v>305</v>
+      </c>
+      <c r="G230" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7">
+      <c r="A231" t="s">
+        <v>19</v>
+      </c>
+      <c r="B231" t="s">
+        <v>29</v>
+      </c>
+      <c r="C231" t="s">
+        <v>43</v>
+      </c>
+      <c r="D231" t="s">
+        <v>50</v>
+      </c>
+      <c r="E231" t="s">
+        <v>43</v>
+      </c>
+      <c r="F231" t="s">
+        <v>285</v>
+      </c>
+      <c r="G231" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7">
+      <c r="A232" t="s">
+        <v>19</v>
+      </c>
+      <c r="B232" t="s">
+        <v>30</v>
+      </c>
+      <c r="C232" t="s">
+        <v>42</v>
+      </c>
+      <c r="D232" t="s">
+        <v>244</v>
+      </c>
+      <c r="E232" t="s">
+        <v>42</v>
+      </c>
+      <c r="F232" t="s">
+        <v>474</v>
+      </c>
+      <c r="G232" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7">
+      <c r="A233" t="s">
+        <v>19</v>
+      </c>
+      <c r="B233" t="s">
+        <v>31</v>
+      </c>
+      <c r="C233" t="s">
+        <v>42</v>
+      </c>
+      <c r="D233" t="s">
+        <v>245</v>
+      </c>
+      <c r="E233" t="s">
+        <v>42</v>
+      </c>
+      <c r="F233" t="s">
+        <v>475</v>
+      </c>
+      <c r="G233" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7">
+      <c r="A234" t="s">
+        <v>19</v>
+      </c>
+      <c r="B234" t="s">
+        <v>32</v>
+      </c>
+      <c r="C234" t="s">
+        <v>42</v>
+      </c>
+      <c r="D234" t="s">
+        <v>246</v>
+      </c>
+      <c r="E234" t="s">
+        <v>42</v>
+      </c>
+      <c r="F234" t="s">
+        <v>476</v>
+      </c>
+      <c r="G234" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7">
+      <c r="A235" t="s">
+        <v>19</v>
+      </c>
+      <c r="B235" t="s">
+        <v>33</v>
+      </c>
+      <c r="C235" t="s">
+        <v>42</v>
+      </c>
+      <c r="D235" t="s">
+        <v>247</v>
+      </c>
+      <c r="E235" t="s">
+        <v>42</v>
+      </c>
+      <c r="F235" t="s">
+        <v>477</v>
+      </c>
+      <c r="G235" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7">
+      <c r="A236" t="s">
+        <v>19</v>
+      </c>
+      <c r="B236" t="s">
+        <v>34</v>
+      </c>
+      <c r="C236" t="s">
+        <v>42</v>
+      </c>
+      <c r="D236" t="s">
+        <v>248</v>
+      </c>
+      <c r="E236" t="s">
+        <v>42</v>
+      </c>
+      <c r="F236" t="s">
+        <v>478</v>
+      </c>
+      <c r="G236" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7">
+      <c r="A237" t="s">
+        <v>19</v>
+      </c>
+      <c r="B237" t="s">
+        <v>35</v>
+      </c>
+      <c r="C237" t="s">
+        <v>42</v>
+      </c>
+      <c r="D237" t="s">
+        <v>249</v>
+      </c>
+      <c r="E237" t="s">
+        <v>42</v>
+      </c>
+      <c r="F237" t="s">
+        <v>479</v>
+      </c>
+      <c r="G237" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7">
+      <c r="A238" t="s">
+        <v>19</v>
+      </c>
+      <c r="B238" t="s">
+        <v>36</v>
+      </c>
+      <c r="C238" t="s">
+        <v>42</v>
+      </c>
+      <c r="D238" t="s">
+        <v>250</v>
+      </c>
+      <c r="E238" t="s">
+        <v>42</v>
+      </c>
+      <c r="F238" t="s">
+        <v>480</v>
+      </c>
+      <c r="G238" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7">
+      <c r="A239" t="s">
+        <v>19</v>
+      </c>
+      <c r="B239" t="s">
+        <v>37</v>
+      </c>
+      <c r="C239" t="s">
+        <v>42</v>
+      </c>
+      <c r="D239" t="s">
+        <v>251</v>
+      </c>
+      <c r="E239" t="s">
+        <v>42</v>
+      </c>
+      <c r="F239" t="s">
+        <v>481</v>
+      </c>
+      <c r="G239" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7">
+      <c r="A240" t="s">
+        <v>19</v>
+      </c>
+      <c r="B240" t="s">
+        <v>38</v>
+      </c>
+      <c r="C240" t="s">
+        <v>42</v>
+      </c>
+      <c r="D240" t="s">
+        <v>252</v>
+      </c>
+      <c r="E240" t="s">
+        <v>42</v>
+      </c>
+      <c r="F240" t="s">
+        <v>482</v>
+      </c>
+      <c r="G240" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7">
+      <c r="A241" t="s">
+        <v>19</v>
+      </c>
+      <c r="B241" t="s">
+        <v>39</v>
+      </c>
+      <c r="C241" t="s">
+        <v>42</v>
+      </c>
+      <c r="D241" t="s">
+        <v>253</v>
+      </c>
+      <c r="E241" t="s">
+        <v>42</v>
+      </c>
+      <c r="F241" t="s">
+        <v>475</v>
+      </c>
+      <c r="G241" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7">
+      <c r="A242" t="s">
+        <v>19</v>
+      </c>
+      <c r="B242" t="s">
         <v>40</v>
       </c>
-      <c r="C221" t="s">
+      <c r="C242" t="s">
+        <v>42</v>
+      </c>
+      <c r="D242" t="s">
+        <v>254</v>
+      </c>
+      <c r="E242" t="s">
+        <v>42</v>
+      </c>
+      <c r="F242" t="s">
+        <v>483</v>
+      </c>
+      <c r="G242" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7">
+      <c r="A243" t="s">
+        <v>19</v>
+      </c>
+      <c r="B243" t="s">
         <v>41</v>
       </c>
-      <c r="D221" t="s">
-        <v>235</v>
-      </c>
-      <c r="E221" t="s">
-        <v>41</v>
-      </c>
-      <c r="F221" t="s">
-        <v>442</v>
-      </c>
-      <c r="G221" t="s">
-        <v>443</v>
+      <c r="C243" t="s">
+        <v>42</v>
+      </c>
+      <c r="D243" t="s">
+        <v>255</v>
+      </c>
+      <c r="E243" t="s">
+        <v>42</v>
+      </c>
+      <c r="F243" t="s">
+        <v>484</v>
+      </c>
+      <c r="G243" t="s">
+        <v>485</v>
       </c>
     </row>
   </sheetData>
